--- a/DaySale_2025-08-28_00-00.xlsx
+++ b/DaySale_2025-08-28_00-00.xlsx
@@ -44,15 +44,30 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>AVIVAVASC 10/160MG 28 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
   </si>
   <si>
     <t>3:1</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>85.00</t>
   </si>
   <si>
@@ -77,9 +92,6 @@
     <t>27.0000</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
   </si>
   <si>
@@ -122,7 +134,16 @@
     <t>2:0</t>
   </si>
   <si>
-    <t>Thursday, 28 August, 2025 10:00 AM</t>
+    <t>قياس سكر</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t>Thursday, 28 August, 2025 10:01 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -802,18 +823,18 @@
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c t="s" r="L8" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
+        <v>20</v>
+      </c>
+      <c t="s" r="Q8" s="12">
         <v>21</v>
-      </c>
-      <c t="s" r="Q8" s="12">
-        <v>22</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -822,20 +843,20 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
@@ -846,7 +867,7 @@
         <v>26</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -868,7 +889,7 @@
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
@@ -879,7 +900,7 @@
         <v>30</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -888,66 +909,132 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
+        <v>34</v>
+      </c>
+      <c t="s" r="Q11" s="12">
         <v>35</v>
       </c>
-      <c t="s" r="Q11" s="12">
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="A12" s="7">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c t="s" r="C12" s="8">
         <v>36</v>
       </c>
-    </row>
-    <row r="12" ht="25.5" customHeight="1">
-      <c r="P12" s="13">
-        <v>113</v>
-      </c>
-      <c r="Q12" s="13"/>
-    </row>
-    <row r="13" ht="16.5" customHeight="1">
-      <c t="s" r="A13" s="14">
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c t="s" r="H12" s="9">
         <v>37</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c t="s" r="G13" s="15">
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c t="s" r="L12" s="10">
+        <v>24</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c t="s" r="N12" s="8">
         <v>38</v>
       </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="16"/>
-      <c t="s" r="K13" s="17">
+      <c r="O12" s="8"/>
+      <c t="s" r="P12" s="11">
         <v>39</v>
       </c>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
+      <c t="s" r="Q12" s="12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c t="s" r="C13" s="8">
+        <v>41</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c t="s" r="H13" s="9">
+        <v>37</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c t="s" r="L13" s="10">
+        <v>24</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c t="s" r="N13" s="8">
+        <v>42</v>
+      </c>
+      <c r="O13" s="8"/>
+      <c t="s" r="P13" s="11">
+        <v>43</v>
+      </c>
+      <c t="s" r="Q13" s="12">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="P14" s="13">
+        <v>158</v>
+      </c>
+      <c r="Q14" s="13"/>
+    </row>
+    <row r="15" ht="16.5" customHeight="1">
+      <c t="s" r="A15" s="14">
+        <v>44</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c t="s" r="G15" s="15">
+        <v>45</v>
+      </c>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="16"/>
+      <c t="s" r="K15" s="17">
+        <v>46</v>
+      </c>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="47">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -981,10 +1068,20 @@
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="K13:Q13"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="K15:Q15"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-28_00-00.xlsx
+++ b/DaySale_2025-08-28_00-00.xlsx
@@ -143,7 +143,7 @@
     <t>10.0000</t>
   </si>
   <si>
-    <t>Thursday, 28 August, 2025 10:01 AM</t>
+    <t>Thursday, 28 August, 2025 10:10 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-28_00-00.xlsx
+++ b/DaySale_2025-08-28_00-00.xlsx
@@ -62,6 +62,21 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>12:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
   </si>
   <si>
@@ -92,6 +107,15 @@
     <t>27.0000</t>
   </si>
   <si>
+    <t>SIMETHICONE-MUP 2% EMULSION ORAL DROPS 30 ML</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
     <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
   </si>
   <si>
@@ -116,15 +140,9 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>2.00</t>
   </si>
   <si>
@@ -143,7 +161,7 @@
     <t>10.0000</t>
   </si>
   <si>
-    <t>Thursday, 28 August, 2025 10:10 AM</t>
+    <t>Thursday, 28 August, 2025 10:57 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -856,18 +874,18 @@
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
+        <v>25</v>
+      </c>
+      <c t="s" r="Q9" s="12">
         <v>26</v>
-      </c>
-      <c t="s" r="Q9" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -889,15 +907,15 @@
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>16</v>
@@ -909,31 +927,31 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -942,31 +960,31 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -975,66 +993,132 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
+        <v>42</v>
+      </c>
+      <c t="s" r="Q13" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c t="s" r="C14" s="8">
         <v>43</v>
       </c>
-      <c t="s" r="Q13" s="12">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" ht="25.5" customHeight="1">
-      <c r="P14" s="13">
-        <v>158</v>
-      </c>
-      <c r="Q14" s="13"/>
-    </row>
-    <row r="15" ht="16.5" customHeight="1">
-      <c t="s" r="A15" s="14">
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c t="s" r="H14" s="9">
+        <v>33</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c t="s" r="L14" s="10">
+        <v>29</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c t="s" r="N14" s="8">
         <v>44</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c t="s" r="G15" s="15">
+      <c r="O14" s="8"/>
+      <c t="s" r="P14" s="11">
         <v>45</v>
       </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="16"/>
-      <c t="s" r="K15" s="17">
+      <c t="s" r="Q14" s="12">
         <v>46</v>
       </c>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c t="s" r="C15" s="8">
+        <v>47</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c t="s" r="H15" s="9">
+        <v>33</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c t="s" r="L15" s="10">
+        <v>29</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c t="s" r="N15" s="8">
+        <v>48</v>
+      </c>
+      <c r="O15" s="8"/>
+      <c t="s" r="P15" s="11">
+        <v>49</v>
+      </c>
+      <c t="s" r="Q15" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="P16" s="13">
+        <v>218</v>
+      </c>
+      <c r="Q16" s="13"/>
+    </row>
+    <row r="17" ht="16.5" customHeight="1">
+      <c t="s" r="A17" s="14">
+        <v>50</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c t="s" r="G17" s="15">
+        <v>51</v>
+      </c>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="16"/>
+      <c t="s" r="K17" s="17">
+        <v>52</v>
+      </c>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="47">
+  <mergeCells count="57">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1078,10 +1162,20 @@
     <mergeCell ref="H13:K13"/>
     <mergeCell ref="L13:M13"/>
     <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="K15:Q15"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="K17:Q17"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-28_00-00.xlsx
+++ b/DaySale_2025-08-28_00-00.xlsx
@@ -44,15 +44,48 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ACRETIN 0.05% CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
+    <t>ADAPALENE 0.1% GEL 30 GM</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
+    <t>ANALLERGE 2MG/5ML SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>7.00</t>
+  </si>
+  <si>
+    <t>7.0000</t>
+  </si>
+  <si>
     <t>AVIVAVASC 10/160MG 28 F.C. TAB.</t>
   </si>
   <si>
     <t>0:3</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>140.00</t>
   </si>
   <si>
@@ -74,9 +107,6 @@
     <t>33.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
   </si>
   <si>
@@ -86,21 +116,48 @@
     <t>85.00</t>
   </si>
   <si>
-    <t>34.0000</t>
-  </si>
-  <si>
     <t>0:2</t>
   </si>
   <si>
+    <t>EFEMYO OPHTH. SUSP. 10 ML</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OLOHISTINE FORTE  DROPS</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>29.00</t>
+  </si>
+  <si>
+    <t>29.0000</t>
+  </si>
+  <si>
+    <t>ORLY 120MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>79.2000</t>
+  </si>
+  <si>
     <t>PANADOL EXTRA 48 TAB</t>
   </si>
   <si>
     <t>4:1</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>108.00</t>
   </si>
   <si>
@@ -110,9 +167,6 @@
     <t>SIMETHICONE-MUP 2% EMULSION ORAL DROPS 30 ML</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>27.00</t>
   </si>
   <si>
@@ -161,7 +215,7 @@
     <t>10.0000</t>
   </si>
   <si>
-    <t>Thursday, 28 August, 2025 10:57 AM</t>
+    <t>Thursday, 28 August, 2025 11:03 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -819,7 +873,7 @@
         <v>15</v>
       </c>
       <c t="s" r="Q7" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
@@ -828,14 +882,14 @@
       </c>
       <c r="B8" s="7"/>
       <c t="s" r="C8" s="8">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -845,14 +899,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -861,14 +915,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -878,14 +932,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -894,31 +948,31 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -927,14 +981,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -944,14 +998,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
         <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -960,14 +1014,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -977,14 +1031,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -993,31 +1047,31 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1026,31 +1080,31 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>46</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1059,66 +1113,264 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
+        <v>46</v>
+      </c>
+      <c t="s" r="Q15" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c t="s" r="C16" s="8">
+        <v>47</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c t="s" r="H16" s="9">
+        <v>48</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c t="s" r="L16" s="10">
+        <v>40</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c t="s" r="N16" s="8">
         <v>49</v>
       </c>
-      <c t="s" r="Q15" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" ht="25.5" customHeight="1">
-      <c r="P16" s="13">
-        <v>218</v>
-      </c>
-      <c r="Q16" s="13"/>
-    </row>
-    <row r="17" ht="16.5" customHeight="1">
-      <c t="s" r="A17" s="14">
+      <c r="O16" s="8"/>
+      <c t="s" r="P16" s="11">
         <v>50</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c t="s" r="G17" s="15">
+      <c t="s" r="Q16" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c t="s" r="C17" s="8">
         <v>51</v>
       </c>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="16"/>
-      <c t="s" r="K17" s="17">
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c t="s" r="H17" s="9">
+        <v>17</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c t="s" r="L17" s="10">
+        <v>13</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c t="s" r="N17" s="8">
         <v>52</v>
       </c>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
+      <c r="O17" s="8"/>
+      <c t="s" r="P17" s="11">
+        <v>50</v>
+      </c>
+      <c t="s" r="Q17" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c t="s" r="C18" s="8">
+        <v>53</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c t="s" r="H18" s="9">
+        <v>54</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c t="s" r="L18" s="10">
+        <v>13</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c t="s" r="N18" s="8">
+        <v>55</v>
+      </c>
+      <c r="O18" s="8"/>
+      <c t="s" r="P18" s="11">
+        <v>56</v>
+      </c>
+      <c t="s" r="Q18" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c t="s" r="C19" s="8">
+        <v>57</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c t="s" r="H19" s="9">
+        <v>58</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c t="s" r="L19" s="10">
+        <v>40</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c t="s" r="N19" s="8">
+        <v>59</v>
+      </c>
+      <c r="O19" s="8"/>
+      <c t="s" r="P19" s="11">
+        <v>60</v>
+      </c>
+      <c t="s" r="Q19" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c t="s" r="C20" s="8">
+        <v>61</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c t="s" r="H20" s="9">
+        <v>17</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c t="s" r="L20" s="10">
+        <v>40</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c t="s" r="N20" s="8">
+        <v>62</v>
+      </c>
+      <c r="O20" s="8"/>
+      <c t="s" r="P20" s="11">
+        <v>63</v>
+      </c>
+      <c t="s" r="Q20" s="12">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c t="s" r="C21" s="8">
+        <v>65</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c t="s" r="H21" s="9">
+        <v>17</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c t="s" r="L21" s="10">
+        <v>40</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c t="s" r="N21" s="8">
+        <v>66</v>
+      </c>
+      <c r="O21" s="8"/>
+      <c t="s" r="P21" s="11">
+        <v>67</v>
+      </c>
+      <c t="s" r="Q21" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="P22" s="13">
+        <v>454.19999999999999</v>
+      </c>
+      <c r="Q22" s="13"/>
+    </row>
+    <row r="23" ht="16.5" customHeight="1">
+      <c t="s" r="A23" s="14">
+        <v>68</v>
+      </c>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c t="s" r="G23" s="15">
+        <v>69</v>
+      </c>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="16"/>
+      <c t="s" r="K23" s="17">
+        <v>70</v>
+      </c>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="57">
+  <mergeCells count="87">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1172,10 +1424,40 @@
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="N15:O15"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="K17:Q17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="K23:Q23"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-28_00-00.xlsx
+++ b/DaySale_2025-08-28_00-00.xlsx
@@ -164,6 +164,18 @@
     <t>27.0000</t>
   </si>
   <si>
+    <t>SACROFER 100MG/5ML 5 AMP FOR I.V. INJ.</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>275.00</t>
+  </si>
+  <si>
+    <t>110.0000</t>
+  </si>
+  <si>
     <t>SIMETHICONE-MUP 2% EMULSION ORAL DROPS 30 ML</t>
   </si>
   <si>
@@ -194,6 +206,18 @@
     <t>30.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>78:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -206,6 +230,15 @@
     <t>2:0</t>
   </si>
   <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
     <t>قياس سكر</t>
   </si>
   <si>
@@ -215,7 +248,28 @@
     <t>10.0000</t>
   </si>
   <si>
-    <t>Thursday, 28 August, 2025 11:03 AM</t>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>محلول ملح</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>Thursday, 28 August, 2025 11:05 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1186,7 +1240,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1196,14 +1250,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1212,14 +1266,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1229,14 +1283,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1258,7 +1312,7 @@
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
@@ -1269,7 +1323,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1285,7 +1339,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1295,14 +1349,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>64</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1318,7 +1372,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1328,49 +1382,214 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
-      <c r="P22" s="13">
-        <v>454.19999999999999</v>
-      </c>
-      <c r="Q22" s="13"/>
-    </row>
-    <row r="23" ht="16.5" customHeight="1">
-      <c t="s" r="A23" s="14">
-        <v>68</v>
-      </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c t="s" r="G23" s="15">
+      <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c t="s" r="C22" s="8">
         <v>69</v>
       </c>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="16"/>
-      <c t="s" r="K23" s="17">
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c t="s" r="H22" s="9">
+        <v>17</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c t="s" r="L22" s="10">
+        <v>40</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c t="s" r="N22" s="8">
         <v>70</v>
       </c>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
+      <c r="O22" s="8"/>
+      <c t="s" r="P22" s="11">
+        <v>71</v>
+      </c>
+      <c t="s" r="Q22" s="12">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c t="s" r="C23" s="8">
+        <v>73</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c t="s" r="H23" s="9">
+        <v>17</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c t="s" r="L23" s="10">
+        <v>40</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c t="s" r="N23" s="8">
+        <v>74</v>
+      </c>
+      <c r="O23" s="8"/>
+      <c t="s" r="P23" s="11">
+        <v>75</v>
+      </c>
+      <c t="s" r="Q23" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="A24" s="7">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c t="s" r="C24" s="8">
+        <v>76</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c t="s" r="H24" s="9">
+        <v>17</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c t="s" r="L24" s="10">
+        <v>40</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c t="s" r="N24" s="8">
+        <v>77</v>
+      </c>
+      <c r="O24" s="8"/>
+      <c t="s" r="P24" s="11">
+        <v>78</v>
+      </c>
+      <c t="s" r="Q24" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="A25" s="7">
+        <v>19</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c t="s" r="C25" s="8">
+        <v>79</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c t="s" r="H25" s="9">
+        <v>17</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c t="s" r="L25" s="10">
+        <v>40</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c t="s" r="N25" s="8">
+        <v>80</v>
+      </c>
+      <c r="O25" s="8"/>
+      <c t="s" r="P25" s="11">
+        <v>81</v>
+      </c>
+      <c t="s" r="Q25" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="A26" s="7">
+        <v>20</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c t="s" r="C26" s="8">
+        <v>82</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c t="s" r="H26" s="9">
+        <v>83</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c t="s" r="L26" s="10">
+        <v>40</v>
+      </c>
+      <c r="M26" s="10"/>
+      <c t="s" r="N26" s="8">
+        <v>84</v>
+      </c>
+      <c r="O26" s="8"/>
+      <c t="s" r="P26" s="11">
+        <v>85</v>
+      </c>
+      <c t="s" r="Q26" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="P27" s="13">
+        <v>626.20000000000005</v>
+      </c>
+      <c r="Q27" s="13"/>
+    </row>
+    <row r="28" ht="16.5" customHeight="1">
+      <c t="s" r="A28" s="14">
+        <v>86</v>
+      </c>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c t="s" r="G28" s="15">
+        <v>87</v>
+      </c>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="16"/>
+      <c t="s" r="K28" s="17">
+        <v>88</v>
+      </c>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="87">
+  <mergeCells count="112">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1454,10 +1673,35 @@
     <mergeCell ref="H21:K21"/>
     <mergeCell ref="L21:M21"/>
     <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="K23:Q23"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="K28:Q28"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-28_00-00.xlsx
+++ b/DaySale_2025-08-28_00-00.xlsx
@@ -95,6 +95,18 @@
     <t>0:1</t>
   </si>
   <si>
+    <t xml:space="preserve">CALDIN CK  TAB</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>158.00</t>
+  </si>
+  <si>
+    <t>79.0000</t>
+  </si>
+  <si>
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
@@ -128,12 +140,57 @@
     <t>44.0000</t>
   </si>
   <si>
+    <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>-23.7600</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>5:2</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>3.8400</t>
+  </si>
+  <si>
+    <t>KENACOMB TOPICAL CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>MILGA 40 TABLETS</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">OLOHISTINE FORTE  DROPS</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>29.00</t>
   </si>
   <si>
@@ -158,12 +215,6 @@
     <t>4:1</t>
   </si>
   <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>27.0000</t>
-  </si>
-  <si>
     <t>SACROFER 100MG/5ML 5 AMP FOR I.V. INJ.</t>
   </si>
   <si>
@@ -182,15 +233,21 @@
     <t>27.00</t>
   </si>
   <si>
+    <t>TELFAST 30MG/5ML SUSP. 100 ML</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
     <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
     <t>18.0000</t>
   </si>
   <si>
@@ -239,6 +296,18 @@
     <t>3.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">شاش 7 سم </t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>6.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
     <t>قياس سكر</t>
   </si>
   <si>
@@ -263,13 +332,10 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>24.00</t>
-  </si>
-  <si>
     <t>24.0000</t>
   </si>
   <si>
-    <t>Thursday, 28 August, 2025 11:05 AM</t>
+    <t>Thursday, 28 August, 2025 12:41 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1042,13 +1108,13 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
@@ -1059,7 +1125,7 @@
         <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1089,10 +1155,10 @@
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1108,7 +1174,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1118,14 +1184,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1134,7 +1200,7 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -1147,7 +1213,7 @@
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
@@ -1180,7 +1246,7 @@
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
@@ -1191,7 +1257,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>27</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1200,28 +1266,28 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>27</v>
@@ -1233,14 +1299,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1250,14 +1316,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1266,14 +1332,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1283,14 +1349,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1299,31 +1365,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1332,31 +1398,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1365,31 +1431,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1398,20 +1464,20 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -1422,7 +1488,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>72</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1431,7 +1497,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1444,15 +1510,15 @@
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>12</v>
@@ -1464,28 +1530,28 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>12</v>
@@ -1497,31 +1563,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1530,66 +1596,297 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
-      <c r="P27" s="13">
-        <v>626.20000000000005</v>
-      </c>
-      <c r="Q27" s="13"/>
-    </row>
-    <row r="28" ht="16.5" customHeight="1">
-      <c t="s" r="A28" s="14">
+      <c r="A27" s="7">
+        <v>21</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c t="s" r="C27" s="8">
+        <v>84</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c t="s" r="H27" s="9">
+        <v>85</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c t="s" r="L27" s="10">
+        <v>29</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c t="s" r="N27" s="8">
         <v>86</v>
       </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c t="s" r="G28" s="15">
+      <c r="O27" s="8"/>
+      <c t="s" r="P27" s="11">
         <v>87</v>
       </c>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="16"/>
-      <c t="s" r="K28" s="17">
+      <c t="s" r="Q27" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="A28" s="7">
+        <v>22</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c t="s" r="C28" s="8">
         <v>88</v>
       </c>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c t="s" r="H28" s="9">
+        <v>17</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c t="s" r="L28" s="10">
+        <v>29</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c t="s" r="N28" s="8">
+        <v>89</v>
+      </c>
+      <c r="O28" s="8"/>
+      <c t="s" r="P28" s="11">
+        <v>90</v>
+      </c>
+      <c t="s" r="Q28" s="12">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="A29" s="7">
+        <v>23</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c t="s" r="C29" s="8">
+        <v>92</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c t="s" r="H29" s="9">
+        <v>17</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c t="s" r="L29" s="10">
+        <v>29</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c t="s" r="N29" s="8">
+        <v>93</v>
+      </c>
+      <c r="O29" s="8"/>
+      <c t="s" r="P29" s="11">
+        <v>94</v>
+      </c>
+      <c t="s" r="Q29" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="A30" s="7">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c t="s" r="C30" s="8">
+        <v>95</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c t="s" r="H30" s="9">
+        <v>96</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c t="s" r="L30" s="10">
+        <v>29</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c t="s" r="N30" s="8">
+        <v>97</v>
+      </c>
+      <c r="O30" s="8"/>
+      <c t="s" r="P30" s="11">
+        <v>98</v>
+      </c>
+      <c t="s" r="Q30" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="A31" s="7">
+        <v>25</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c t="s" r="C31" s="8">
+        <v>99</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c t="s" r="H31" s="9">
+        <v>17</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c t="s" r="L31" s="10">
+        <v>29</v>
+      </c>
+      <c r="M31" s="10"/>
+      <c t="s" r="N31" s="8">
+        <v>100</v>
+      </c>
+      <c r="O31" s="8"/>
+      <c t="s" r="P31" s="11">
+        <v>101</v>
+      </c>
+      <c t="s" r="Q31" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="A32" s="7">
+        <v>26</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c t="s" r="C32" s="8">
+        <v>102</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c t="s" r="H32" s="9">
+        <v>17</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c t="s" r="L32" s="10">
+        <v>29</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c t="s" r="N32" s="8">
+        <v>103</v>
+      </c>
+      <c r="O32" s="8"/>
+      <c t="s" r="P32" s="11">
+        <v>104</v>
+      </c>
+      <c t="s" r="Q32" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="A33" s="7">
+        <v>27</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c t="s" r="C33" s="8">
+        <v>105</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c t="s" r="H33" s="9">
+        <v>106</v>
+      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c t="s" r="L33" s="10">
+        <v>29</v>
+      </c>
+      <c r="M33" s="10"/>
+      <c t="s" r="N33" s="8">
+        <v>50</v>
+      </c>
+      <c r="O33" s="8"/>
+      <c t="s" r="P33" s="11">
+        <v>107</v>
+      </c>
+      <c t="s" r="Q33" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="P34" s="13">
+        <v>804.27999999999997</v>
+      </c>
+      <c r="Q34" s="13"/>
+    </row>
+    <row r="35" ht="16.5" customHeight="1">
+      <c t="s" r="A35" s="14">
+        <v>108</v>
+      </c>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c t="s" r="G35" s="15">
+        <v>109</v>
+      </c>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="16"/>
+      <c t="s" r="K35" s="17">
+        <v>110</v>
+      </c>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="112">
+  <mergeCells count="147">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1698,10 +1995,45 @@
     <mergeCell ref="H26:K26"/>
     <mergeCell ref="L26:M26"/>
     <mergeCell ref="N26:O26"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="K28:Q28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="K35:Q35"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-28_00-00.xlsx
+++ b/DaySale_2025-08-28_00-00.xlsx
@@ -131,6 +131,15 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>DOGMATIL FORT 200MG 10 TAB</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
     <t>EFEMYO OPHTH. SUSP. 10 ML</t>
   </si>
   <si>
@@ -167,6 +176,15 @@
     <t>3.8400</t>
   </si>
   <si>
+    <t>GLIPTUS PLUS 50/1000MG 30 TABLETS</t>
+  </si>
+  <si>
+    <t>192.00</t>
+  </si>
+  <si>
+    <t>63.3600</t>
+  </si>
+  <si>
     <t>KENACOMB TOPICAL CREAM 15 GM</t>
   </si>
   <si>
@@ -335,7 +353,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Thursday, 28 August, 2025 12:41 PM</t>
+    <t>Thursday, 28 August, 2025 12:45 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1207,7 +1225,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1240,24 +1258,24 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>47</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1266,31 +1284,31 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>27</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1299,14 +1317,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1316,14 +1334,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1332,14 +1350,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1349,11 +1367,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>27</v>
@@ -1365,20 +1383,20 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
@@ -1405,7 +1423,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1415,11 +1433,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>27</v>
@@ -1431,14 +1449,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1448,14 +1466,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1488,7 +1506,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1504,24 +1522,24 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1554,7 +1572,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1570,7 +1588,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1580,14 +1598,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1609,7 +1627,7 @@
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -1636,24 +1654,24 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1662,14 +1680,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1679,14 +1697,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>91</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1695,14 +1713,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1712,11 +1730,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -1728,14 +1746,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1745,14 +1763,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1761,7 +1779,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -1778,11 +1796,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -1794,14 +1812,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>17</v>
+        <v>102</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1834,7 +1852,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>106</v>
+        <v>17</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1844,7 +1862,7 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>50</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
@@ -1855,38 +1873,104 @@
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
-      <c r="P34" s="13">
-        <v>804.27999999999997</v>
-      </c>
-      <c r="Q34" s="13"/>
-    </row>
-    <row r="35" ht="16.5" customHeight="1">
-      <c t="s" r="A35" s="14">
+      <c r="A34" s="7">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c t="s" r="C34" s="8">
         <v>108</v>
       </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c t="s" r="G35" s="15">
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c t="s" r="H34" s="9">
+        <v>17</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c t="s" r="L34" s="10">
+        <v>29</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c t="s" r="N34" s="8">
         <v>109</v>
       </c>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="16"/>
-      <c t="s" r="K35" s="17">
+      <c r="O34" s="8"/>
+      <c t="s" r="P34" s="11">
         <v>110</v>
       </c>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="17"/>
-      <c r="P35" s="17"/>
-      <c r="Q35" s="17"/>
+      <c t="s" r="Q34" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="A35" s="7">
+        <v>29</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c t="s" r="C35" s="8">
+        <v>111</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c t="s" r="H35" s="9">
+        <v>112</v>
+      </c>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c t="s" r="L35" s="10">
+        <v>29</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c t="s" r="N35" s="8">
+        <v>53</v>
+      </c>
+      <c r="O35" s="8"/>
+      <c t="s" r="P35" s="11">
+        <v>113</v>
+      </c>
+      <c t="s" r="Q35" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="P36" s="13">
+        <v>907.63999999999999</v>
+      </c>
+      <c r="Q36" s="13"/>
+    </row>
+    <row r="37" ht="16.5" customHeight="1">
+      <c t="s" r="A37" s="14">
+        <v>114</v>
+      </c>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c t="s" r="G37" s="15">
+        <v>115</v>
+      </c>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="16"/>
+      <c t="s" r="K37" s="17">
+        <v>116</v>
+      </c>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="147">
+  <mergeCells count="157">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2030,10 +2114,20 @@
     <mergeCell ref="H33:K33"/>
     <mergeCell ref="L33:M33"/>
     <mergeCell ref="N33:O33"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="K35:Q35"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="K37:Q37"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-28_00-00.xlsx
+++ b/DaySale_2025-08-28_00-00.xlsx
@@ -353,7 +353,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Thursday, 28 August, 2025 12:45 PM</t>
+    <t>Thursday, 28 August, 2025 12:49 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-28_00-00.xlsx
+++ b/DaySale_2025-08-28_00-00.xlsx
@@ -185,6 +185,15 @@
     <t>63.3600</t>
   </si>
   <si>
+    <t>HERO VITAMIN DROPS</t>
+  </si>
+  <si>
+    <t>32.00</t>
+  </si>
+  <si>
+    <t>32.0000</t>
+  </si>
+  <si>
     <t>KENACOMB TOPICAL CREAM 15 GM</t>
   </si>
   <si>
@@ -251,12 +260,21 @@
     <t>27.00</t>
   </si>
   <si>
+    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
     <t>TELFAST 30MG/5ML SUSP. 100 ML</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>50.00</t>
   </si>
   <si>
@@ -344,6 +362,15 @@
     <t>15.0000</t>
   </si>
   <si>
+    <t>مجموعه برد</t>
+  </si>
+  <si>
+    <t>8.00</t>
+  </si>
+  <si>
+    <t>8.0000</t>
+  </si>
+  <si>
     <t>محلول ملح</t>
   </si>
   <si>
@@ -353,7 +380,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Thursday, 28 August, 2025 12:49 PM</t>
+    <t>Thursday, 28 August, 2025 12:51 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1390,21 +1417,21 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>12</v>
@@ -1416,14 +1443,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1440,7 +1467,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1456,13 +1483,13 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -1473,7 +1500,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1489,24 +1516,24 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1515,28 +1542,28 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>27</v>
@@ -1548,31 +1575,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1581,14 +1608,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1602,10 +1629,10 @@
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1614,14 +1641,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1635,7 +1662,7 @@
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -1647,14 +1674,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1664,14 +1691,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1680,20 +1707,20 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -1720,24 +1747,24 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1746,14 +1773,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>17</v>
+        <v>93</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1763,14 +1790,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>97</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1779,14 +1806,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1796,11 +1823,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -1812,14 +1839,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>102</v>
+        <v>17</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1829,14 +1856,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1845,7 +1872,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -1862,11 +1889,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -1878,14 +1905,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1918,7 +1945,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>112</v>
+        <v>17</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1928,7 +1955,7 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
@@ -1939,38 +1966,137 @@
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
-      <c r="P36" s="13">
-        <v>907.63999999999999</v>
-      </c>
-      <c r="Q36" s="13"/>
-    </row>
-    <row r="37" ht="16.5" customHeight="1">
-      <c t="s" r="A37" s="14">
+      <c r="A36" s="7">
+        <v>30</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c t="s" r="C36" s="8">
         <v>114</v>
       </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c t="s" r="G37" s="15">
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c t="s" r="H36" s="9">
+        <v>17</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c t="s" r="L36" s="10">
+        <v>29</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c t="s" r="N36" s="8">
         <v>115</v>
       </c>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="16"/>
-      <c t="s" r="K37" s="17">
+      <c r="O36" s="8"/>
+      <c t="s" r="P36" s="11">
         <v>116</v>
       </c>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="17"/>
-      <c r="O37" s="17"/>
-      <c r="P37" s="17"/>
-      <c r="Q37" s="17"/>
+      <c t="s" r="Q36" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="A37" s="7">
+        <v>31</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c t="s" r="C37" s="8">
+        <v>117</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c t="s" r="H37" s="9">
+        <v>17</v>
+      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c t="s" r="L37" s="10">
+        <v>29</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c t="s" r="N37" s="8">
+        <v>118</v>
+      </c>
+      <c r="O37" s="8"/>
+      <c t="s" r="P37" s="11">
+        <v>119</v>
+      </c>
+      <c t="s" r="Q37" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="A38" s="7">
+        <v>32</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c t="s" r="C38" s="8">
+        <v>120</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c t="s" r="H38" s="9">
+        <v>121</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c t="s" r="L38" s="10">
+        <v>29</v>
+      </c>
+      <c r="M38" s="10"/>
+      <c t="s" r="N38" s="8">
+        <v>53</v>
+      </c>
+      <c r="O38" s="8"/>
+      <c t="s" r="P38" s="11">
+        <v>122</v>
+      </c>
+      <c t="s" r="Q38" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="P39" s="13">
+        <v>968.63999999999999</v>
+      </c>
+      <c r="Q39" s="13"/>
+    </row>
+    <row r="40" ht="16.5" customHeight="1">
+      <c t="s" r="A40" s="14">
+        <v>123</v>
+      </c>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c t="s" r="G40" s="15">
+        <v>124</v>
+      </c>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="16"/>
+      <c t="s" r="K40" s="17">
+        <v>125</v>
+      </c>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="157">
+  <mergeCells count="172">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2124,10 +2250,25 @@
     <mergeCell ref="H35:K35"/>
     <mergeCell ref="L35:M35"/>
     <mergeCell ref="N35:O35"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="K37:Q37"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="K40:Q40"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-28_00-00.xlsx
+++ b/DaySale_2025-08-28_00-00.xlsx
@@ -80,6 +80,24 @@
     <t>7.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">ANTODINE20    6 AMP</t>
+  </si>
+  <si>
+    <t>3:6</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>-12.4800</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
     <t>AVIVAVASC 10/160MG 28 F.C. TAB.</t>
   </si>
   <si>
@@ -95,18 +113,33 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>BECOZYME I.M./I.V. 12 AMP</t>
+  </si>
+  <si>
+    <t>1:6</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>-9.6000</t>
+  </si>
+  <si>
     <t xml:space="preserve">CALDIN CK  TAB</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>158.00</t>
   </si>
   <si>
     <t>79.0000</t>
   </si>
   <si>
+    <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
@@ -161,9 +194,6 @@
     <t>-23.7600</t>
   </si>
   <si>
-    <t>0:-1</t>
-  </si>
-  <si>
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
@@ -185,6 +215,18 @@
     <t>63.3600</t>
   </si>
   <si>
+    <t>GLOMETHASONE 8MG/2ML IM/IV 3 AMP</t>
+  </si>
+  <si>
+    <t>5:1</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>-21.7800</t>
+  </si>
+  <si>
     <t>HERO VITAMIN DROPS</t>
   </si>
   <si>
@@ -287,6 +329,18 @@
     <t>18.0000</t>
   </si>
   <si>
+    <t>VOTRIAXONE 1 GM I.M VIAL</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>56.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">برفان القصاص </t>
   </si>
   <si>
@@ -359,9 +413,6 @@
     <t>15.00</t>
   </si>
   <si>
-    <t>15.0000</t>
-  </si>
-  <si>
     <t>مجموعه برد</t>
   </si>
   <si>
@@ -374,13 +425,10 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>Thursday, 28 August, 2025 12:51 PM</t>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>Thursday, 28 August, 2025 1:25 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1126,18 +1174,18 @@
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1146,31 +1194,31 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1179,14 +1227,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1196,14 +1244,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1212,31 +1260,31 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1245,14 +1293,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1262,11 +1310,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>12</v>
@@ -1285,7 +1333,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1295,11 +1343,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>12</v>
@@ -1311,28 +1359,28 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>50</v>
@@ -1351,7 +1399,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1361,14 +1409,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1377,14 +1425,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1394,14 +1442,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1410,20 +1458,20 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
@@ -1434,7 +1482,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1467,7 +1515,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1483,7 +1531,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1500,7 +1548,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1516,24 +1564,24 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1542,20 +1590,20 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -1566,7 +1614,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1588,18 +1636,18 @@
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1608,14 +1656,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1625,14 +1673,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1641,7 +1689,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1654,15 +1702,15 @@
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -1674,14 +1722,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1691,14 +1739,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1707,31 +1755,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1740,14 +1788,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1757,14 +1805,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>27</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1773,28 +1821,28 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -1806,28 +1854,28 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -1839,31 +1887,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>103</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1879,24 +1927,24 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1905,28 +1953,28 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -1938,20 +1986,20 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>17</v>
+        <v>111</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -1978,21 +2026,21 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>17</v>
+        <v>115</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2004,7 +2052,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2017,18 +2065,18 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>121</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2037,66 +2085,231 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>121</v>
+        <v>17</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>53</v>
+        <v>123</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
-      <c r="P39" s="13">
-        <v>968.63999999999999</v>
-      </c>
-      <c r="Q39" s="13"/>
-    </row>
-    <row r="40" ht="16.5" customHeight="1">
-      <c t="s" r="A40" s="14">
-        <v>123</v>
-      </c>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c t="s" r="G40" s="15">
-        <v>124</v>
-      </c>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="16"/>
-      <c t="s" r="K40" s="17">
+      <c r="A39" s="7">
+        <v>33</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c t="s" r="C39" s="8">
         <v>125</v>
       </c>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="17"/>
-      <c r="P40" s="17"/>
-      <c r="Q40" s="17"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c t="s" r="H39" s="9">
+        <v>126</v>
+      </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c t="s" r="L39" s="10">
+        <v>25</v>
+      </c>
+      <c r="M39" s="10"/>
+      <c t="s" r="N39" s="8">
+        <v>127</v>
+      </c>
+      <c r="O39" s="8"/>
+      <c t="s" r="P39" s="11">
+        <v>128</v>
+      </c>
+      <c t="s" r="Q39" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="A40" s="7">
+        <v>34</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c t="s" r="C40" s="8">
+        <v>129</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c t="s" r="H40" s="9">
+        <v>17</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c t="s" r="L40" s="10">
+        <v>25</v>
+      </c>
+      <c r="M40" s="10"/>
+      <c t="s" r="N40" s="8">
+        <v>130</v>
+      </c>
+      <c r="O40" s="8"/>
+      <c t="s" r="P40" s="11">
+        <v>131</v>
+      </c>
+      <c t="s" r="Q40" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="A41" s="7">
+        <v>35</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c t="s" r="C41" s="8">
+        <v>132</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c t="s" r="H41" s="9">
+        <v>17</v>
+      </c>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c t="s" r="L41" s="10">
+        <v>25</v>
+      </c>
+      <c r="M41" s="10"/>
+      <c t="s" r="N41" s="8">
+        <v>133</v>
+      </c>
+      <c r="O41" s="8"/>
+      <c t="s" r="P41" s="11">
+        <v>113</v>
+      </c>
+      <c t="s" r="Q41" s="12">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="A42" s="7">
+        <v>36</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c t="s" r="C42" s="8">
+        <v>134</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c t="s" r="H42" s="9">
+        <v>17</v>
+      </c>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c t="s" r="L42" s="10">
+        <v>25</v>
+      </c>
+      <c r="M42" s="10"/>
+      <c t="s" r="N42" s="8">
+        <v>135</v>
+      </c>
+      <c r="O42" s="8"/>
+      <c t="s" r="P42" s="11">
+        <v>136</v>
+      </c>
+      <c t="s" r="Q42" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="A43" s="7">
+        <v>37</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c t="s" r="C43" s="8">
+        <v>137</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c t="s" r="H43" s="9">
+        <v>111</v>
+      </c>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c t="s" r="L43" s="10">
+        <v>25</v>
+      </c>
+      <c r="M43" s="10"/>
+      <c t="s" r="N43" s="8">
+        <v>63</v>
+      </c>
+      <c r="O43" s="8"/>
+      <c t="s" r="P43" s="11">
+        <v>138</v>
+      </c>
+      <c t="s" r="Q43" s="12">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="P44" s="13">
+        <v>1062.78</v>
+      </c>
+      <c r="Q44" s="13"/>
+    </row>
+    <row r="45" ht="16.5" customHeight="1">
+      <c t="s" r="A45" s="14">
+        <v>139</v>
+      </c>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c t="s" r="G45" s="15">
+        <v>140</v>
+      </c>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="16"/>
+      <c t="s" r="K45" s="17">
+        <v>141</v>
+      </c>
+      <c r="L45" s="17"/>
+      <c r="M45" s="17"/>
+      <c r="N45" s="17"/>
+      <c r="O45" s="17"/>
+      <c r="P45" s="17"/>
+      <c r="Q45" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="172">
+  <mergeCells count="197">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2265,10 +2478,35 @@
     <mergeCell ref="H38:K38"/>
     <mergeCell ref="L38:M38"/>
     <mergeCell ref="N38:O38"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="K40:Q40"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="K45:Q45"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-28_00-00.xlsx
+++ b/DaySale_2025-08-28_00-00.xlsx
@@ -83,7 +83,7 @@
     <t xml:space="preserve">ANTODINE20    6 AMP</t>
   </si>
   <si>
-    <t>3:6</t>
+    <t>3:5</t>
   </si>
   <si>
     <t>0</t>
@@ -92,39 +92,39 @@
     <t>78.00</t>
   </si>
   <si>
-    <t>-12.4800</t>
+    <t>0.0000</t>
+  </si>
+  <si>
+    <t>AVIVAVASC 10/160MG 28 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>BECOZYME I.M./I.V. 12 AMP</t>
+  </si>
+  <si>
+    <t>1:6</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>-9.6000</t>
   </si>
   <si>
     <t>0:-1</t>
   </si>
   <si>
-    <t>AVIVAVASC 10/160MG 28 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>140.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>0:1</t>
-  </si>
-  <si>
-    <t>BECOZYME I.M./I.V. 12 AMP</t>
-  </si>
-  <si>
-    <t>1:6</t>
-  </si>
-  <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>-9.6000</t>
-  </si>
-  <si>
     <t xml:space="preserve">CALDIN CK  TAB</t>
   </si>
   <si>
@@ -206,6 +206,18 @@
     <t>3.8400</t>
   </si>
   <si>
+    <t>GLAPTIVIA 100MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>303.00</t>
+  </si>
+  <si>
+    <t>99.9900</t>
+  </si>
+  <si>
     <t>GLIPTUS PLUS 50/1000MG 30 TABLETS</t>
   </si>
   <si>
@@ -257,6 +269,15 @@
     <t>27.0000</t>
   </si>
   <si>
+    <t>NAUSILEX 50MG/2ML I.V/I.M 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
     <t xml:space="preserve">OLOHISTINE FORTE  DROPS</t>
   </si>
   <si>
@@ -269,9 +290,6 @@
     <t>ORLY 120MG 30 CAPS.</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>240.00</t>
   </si>
   <si>
@@ -383,7 +401,7 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>3.0000</t>
+    <t>6.0000</t>
   </si>
   <si>
     <t xml:space="preserve">شاش 7 سم </t>
@@ -395,9 +413,6 @@
     <t>6.00</t>
   </si>
   <si>
-    <t>6.0000</t>
-  </si>
-  <si>
     <t>قياس سكر</t>
   </si>
   <si>
@@ -428,7 +443,7 @@
     <t>48.0000</t>
   </si>
   <si>
-    <t>Thursday, 28 August, 2025 1:25 PM</t>
+    <t>Thursday, 28 August, 2025 1:32 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1185,7 +1200,7 @@
         <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1194,14 +1209,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1211,14 +1226,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
+        <v>31</v>
+      </c>
+      <c t="s" r="Q11" s="12">
         <v>32</v>
-      </c>
-      <c t="s" r="Q11" s="12">
-        <v>33</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1227,14 +1242,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1244,14 +1259,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
+        <v>36</v>
+      </c>
+      <c t="s" r="Q12" s="12">
         <v>37</v>
-      </c>
-      <c t="s" r="Q12" s="12">
-        <v>28</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1284,7 +1299,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1482,7 +1497,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1515,7 +1530,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1531,7 +1546,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1541,14 +1556,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1557,14 +1572,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1581,7 +1596,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1597,24 +1612,24 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1623,20 +1638,20 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1663,7 +1678,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1673,14 +1688,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1689,31 +1704,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1722,14 +1737,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1739,14 +1754,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
         <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1762,7 +1777,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1772,14 +1787,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1788,14 +1803,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1812,7 +1827,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>50</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1828,24 +1843,24 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1878,7 +1893,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1894,7 +1909,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1908,7 +1923,7 @@
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -1920,14 +1935,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1937,14 +1952,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1953,14 +1968,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1993,24 +2008,24 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2019,28 +2034,28 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2052,14 +2067,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>17</v>
+        <v>117</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2069,14 +2084,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>121</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2085,14 +2100,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>17</v>
+        <v>121</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2102,11 +2117,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2118,14 +2133,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>126</v>
+        <v>17</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2135,14 +2150,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>127</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2151,7 +2166,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2168,14 +2183,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>127</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2184,14 +2199,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>17</v>
+        <v>132</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2205,10 +2220,10 @@
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>121</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2257,7 +2272,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>111</v>
+        <v>17</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2267,49 +2282,115 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>63</v>
+        <v>138</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
-      <c r="P44" s="13">
-        <v>1062.78</v>
-      </c>
-      <c r="Q44" s="13"/>
-    </row>
-    <row r="45" ht="16.5" customHeight="1">
-      <c t="s" r="A45" s="14">
+      <c r="A44" s="7">
+        <v>38</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c t="s" r="C44" s="8">
         <v>139</v>
       </c>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c t="s" r="G45" s="15">
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c t="s" r="H44" s="9">
+        <v>17</v>
+      </c>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c t="s" r="L44" s="10">
+        <v>25</v>
+      </c>
+      <c r="M44" s="10"/>
+      <c t="s" r="N44" s="8">
         <v>140</v>
       </c>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="16"/>
-      <c t="s" r="K45" s="17">
+      <c r="O44" s="8"/>
+      <c t="s" r="P44" s="11">
         <v>141</v>
       </c>
-      <c r="L45" s="17"/>
-      <c r="M45" s="17"/>
-      <c r="N45" s="17"/>
-      <c r="O45" s="17"/>
-      <c r="P45" s="17"/>
-      <c r="Q45" s="17"/>
+      <c t="s" r="Q44" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="A45" s="7">
+        <v>39</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c t="s" r="C45" s="8">
+        <v>142</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c t="s" r="H45" s="9">
+        <v>117</v>
+      </c>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c t="s" r="L45" s="10">
+        <v>25</v>
+      </c>
+      <c r="M45" s="10"/>
+      <c t="s" r="N45" s="8">
+        <v>63</v>
+      </c>
+      <c r="O45" s="8"/>
+      <c t="s" r="P45" s="11">
+        <v>143</v>
+      </c>
+      <c t="s" r="Q45" s="12">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="P46" s="13">
+        <v>1202.01</v>
+      </c>
+      <c r="Q46" s="13"/>
+    </row>
+    <row r="47" ht="16.5" customHeight="1">
+      <c t="s" r="A47" s="14">
+        <v>144</v>
+      </c>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c t="s" r="G47" s="15">
+        <v>145</v>
+      </c>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="16"/>
+      <c t="s" r="K47" s="17">
+        <v>146</v>
+      </c>
+      <c r="L47" s="17"/>
+      <c r="M47" s="17"/>
+      <c r="N47" s="17"/>
+      <c r="O47" s="17"/>
+      <c r="P47" s="17"/>
+      <c r="Q47" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="197">
+  <mergeCells count="207">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2503,10 +2584,20 @@
     <mergeCell ref="H43:K43"/>
     <mergeCell ref="L43:M43"/>
     <mergeCell ref="N43:O43"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="K45:Q45"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="K47:Q47"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-28_00-00.xlsx
+++ b/DaySale_2025-08-28_00-00.xlsx
@@ -443,7 +443,7 @@
     <t>48.0000</t>
   </si>
   <si>
-    <t>Thursday, 28 August, 2025 1:32 PM</t>
+    <t>Thursday, 28 August, 2025 1:47 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-28_00-00.xlsx
+++ b/DaySale_2025-08-28_00-00.xlsx
@@ -164,6 +164,18 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
     <t>DOGMATIL FORT 200MG 10 TAB</t>
   </si>
   <si>
@@ -254,9 +266,6 @@
     <t>4:0</t>
   </si>
   <si>
-    <t>36.00</t>
-  </si>
-  <si>
     <t>36.0000</t>
   </si>
   <si>
@@ -272,9 +281,6 @@
     <t>NAUSILEX 50MG/2ML I.V/I.M 3 AMPOULES</t>
   </si>
   <si>
-    <t>2:1</t>
-  </si>
-  <si>
     <t>23.7600</t>
   </si>
   <si>
@@ -347,6 +353,18 @@
     <t>18.0000</t>
   </si>
   <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
     <t>VOTRIAXONE 1 GM I.M VIAL</t>
   </si>
   <si>
@@ -401,18 +419,21 @@
     <t>3.00</t>
   </si>
   <si>
+    <t>9.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شاش 7 سم </t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>6.00</t>
+  </si>
+  <si>
     <t>6.0000</t>
   </si>
   <si>
-    <t xml:space="preserve">شاش 7 سم </t>
-  </si>
-  <si>
-    <t>11:0</t>
-  </si>
-  <si>
-    <t>6.00</t>
-  </si>
-  <si>
     <t>قياس سكر</t>
   </si>
   <si>
@@ -443,7 +464,7 @@
     <t>48.0000</t>
   </si>
   <si>
-    <t>Thursday, 28 August, 2025 1:47 PM</t>
+    <t>Thursday, 28 August, 2025 1:49 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1414,7 +1435,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1424,14 +1445,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1440,14 +1461,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1457,11 +1478,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>12</v>
@@ -1473,20 +1494,20 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
@@ -1497,7 +1518,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1519,7 +1540,7 @@
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
@@ -1530,7 +1551,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1579,7 +1600,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1589,11 +1610,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>32</v>
@@ -1605,14 +1626,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1629,7 +1650,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1645,24 +1666,24 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1671,20 +1692,20 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -1711,7 +1732,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1721,14 +1742,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
         <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1744,7 +1765,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>87</v>
+        <v>29</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1754,7 +1775,7 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
@@ -1777,24 +1798,24 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1803,31 +1824,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1836,28 +1857,28 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>32</v>
@@ -1882,18 +1903,18 @@
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>50</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1902,14 +1923,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1919,14 +1940,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1942,7 +1963,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>104</v>
+        <v>17</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1952,11 +1973,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -1968,14 +1989,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1985,11 +2006,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -2001,14 +2022,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2018,14 +2039,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2041,7 +2062,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2051,14 +2072,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>53</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2067,31 +2088,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2100,28 +2121,28 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2133,14 +2154,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>17</v>
+        <v>123</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2150,14 +2171,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>127</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2166,14 +2187,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>17</v>
+        <v>127</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2183,14 +2204,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>127</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2199,14 +2220,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>132</v>
+        <v>17</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2216,14 +2237,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>133</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2256,7 +2277,7 @@
         <v>136</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>106</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2272,7 +2293,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>17</v>
+        <v>138</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2282,14 +2303,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>127</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2298,7 +2319,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2315,11 +2336,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2331,14 +2352,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>117</v>
+        <v>17</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2348,49 +2369,115 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>63</v>
+        <v>145</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
-      <c r="P46" s="13">
-        <v>1202.01</v>
-      </c>
-      <c r="Q46" s="13"/>
-    </row>
-    <row r="47" ht="16.5" customHeight="1">
-      <c t="s" r="A47" s="14">
-        <v>144</v>
-      </c>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c t="s" r="G47" s="15">
-        <v>145</v>
-      </c>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="16"/>
-      <c t="s" r="K47" s="17">
+      <c r="A46" s="7">
+        <v>40</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c t="s" r="C46" s="8">
         <v>146</v>
       </c>
-      <c r="L47" s="17"/>
-      <c r="M47" s="17"/>
-      <c r="N47" s="17"/>
-      <c r="O47" s="17"/>
-      <c r="P47" s="17"/>
-      <c r="Q47" s="17"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c t="s" r="H46" s="9">
+        <v>17</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c t="s" r="L46" s="10">
+        <v>25</v>
+      </c>
+      <c r="M46" s="10"/>
+      <c t="s" r="N46" s="8">
+        <v>147</v>
+      </c>
+      <c r="O46" s="8"/>
+      <c t="s" r="P46" s="11">
+        <v>148</v>
+      </c>
+      <c t="s" r="Q46" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="A47" s="7">
+        <v>41</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c t="s" r="C47" s="8">
+        <v>149</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c t="s" r="H47" s="9">
+        <v>123</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c t="s" r="L47" s="10">
+        <v>25</v>
+      </c>
+      <c r="M47" s="10"/>
+      <c t="s" r="N47" s="8">
+        <v>67</v>
+      </c>
+      <c r="O47" s="8"/>
+      <c t="s" r="P47" s="11">
+        <v>150</v>
+      </c>
+      <c t="s" r="Q47" s="12">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="P48" s="13">
+        <v>1233.72</v>
+      </c>
+      <c r="Q48" s="13"/>
+    </row>
+    <row r="49" ht="16.5" customHeight="1">
+      <c t="s" r="A49" s="14">
+        <v>151</v>
+      </c>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c t="s" r="G49" s="15">
+        <v>152</v>
+      </c>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="16"/>
+      <c t="s" r="K49" s="17">
+        <v>153</v>
+      </c>
+      <c r="L49" s="17"/>
+      <c r="M49" s="17"/>
+      <c r="N49" s="17"/>
+      <c r="O49" s="17"/>
+      <c r="P49" s="17"/>
+      <c r="Q49" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="207">
+  <mergeCells count="217">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2594,10 +2681,20 @@
     <mergeCell ref="H45:K45"/>
     <mergeCell ref="L45:M45"/>
     <mergeCell ref="N45:O45"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="K47:Q47"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="K49:Q49"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-28_00-00.xlsx
+++ b/DaySale_2025-08-28_00-00.xlsx
@@ -401,6 +401,9 @@
     <t>20.0000</t>
   </si>
   <si>
+    <t>حلاوة حرير</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -464,7 +467,7 @@
     <t>48.0000</t>
   </si>
   <si>
-    <t>Thursday, 28 August, 2025 1:49 PM</t>
+    <t>Thursday, 28 August, 2025 2:49 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2227,7 +2230,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2237,14 +2240,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>133</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2253,7 +2256,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2270,14 +2273,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>106</v>
+        <v>134</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2286,14 +2289,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>138</v>
+        <v>17</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2303,14 +2306,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>106</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2319,14 +2322,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>17</v>
+        <v>139</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2336,11 +2339,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2352,7 +2355,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2369,14 +2372,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>133</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2385,7 +2388,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2402,14 +2405,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>134</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2418,14 +2421,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2435,49 +2438,82 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>67</v>
+        <v>148</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
+        <v>149</v>
+      </c>
+      <c t="s" r="Q47" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="A48" s="7">
+        <v>42</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c t="s" r="C48" s="8">
         <v>150</v>
       </c>
-      <c t="s" r="Q47" s="12">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="48" ht="24.75" customHeight="1">
-      <c r="P48" s="13">
-        <v>1233.72</v>
-      </c>
-      <c r="Q48" s="13"/>
-    </row>
-    <row r="49" ht="16.5" customHeight="1">
-      <c t="s" r="A49" s="14">
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c t="s" r="H48" s="9">
+        <v>123</v>
+      </c>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c t="s" r="L48" s="10">
+        <v>25</v>
+      </c>
+      <c r="M48" s="10"/>
+      <c t="s" r="N48" s="8">
+        <v>67</v>
+      </c>
+      <c r="O48" s="8"/>
+      <c t="s" r="P48" s="11">
         <v>151</v>
       </c>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c t="s" r="G49" s="15">
+      <c t="s" r="Q48" s="12">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="P49" s="13">
+        <v>1253.72</v>
+      </c>
+      <c r="Q49" s="13"/>
+    </row>
+    <row r="50" ht="16.5" customHeight="1">
+      <c t="s" r="A50" s="14">
         <v>152</v>
       </c>
-      <c r="H49" s="15"/>
-      <c r="I49" s="15"/>
-      <c r="J49" s="16"/>
-      <c t="s" r="K49" s="17">
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c t="s" r="G50" s="15">
         <v>153</v>
       </c>
-      <c r="L49" s="17"/>
-      <c r="M49" s="17"/>
-      <c r="N49" s="17"/>
-      <c r="O49" s="17"/>
-      <c r="P49" s="17"/>
-      <c r="Q49" s="17"/>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="16"/>
+      <c t="s" r="K50" s="17">
+        <v>154</v>
+      </c>
+      <c r="L50" s="17"/>
+      <c r="M50" s="17"/>
+      <c r="N50" s="17"/>
+      <c r="O50" s="17"/>
+      <c r="P50" s="17"/>
+      <c r="Q50" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="217">
+  <mergeCells count="222">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2691,10 +2727,15 @@
     <mergeCell ref="H47:K47"/>
     <mergeCell ref="L47:M47"/>
     <mergeCell ref="N47:O47"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="K49:Q49"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="K50:Q50"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-28_00-00.xlsx
+++ b/DaySale_2025-08-28_00-00.xlsx
@@ -134,6 +134,15 @@
     <t>79.0000</t>
   </si>
   <si>
+    <t>CATAFLAM 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
     <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
   </si>
   <si>
@@ -167,120 +176,117 @@
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>47.8800</t>
+  </si>
+  <si>
+    <t>DOGMATIL FORT 200MG 10 TAB</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>EFEMYO OPHTH. SUSP. 10 ML</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
+    <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>-23.7600</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>5:2</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>3.8400</t>
+  </si>
+  <si>
+    <t>GLAPTIVIA 100MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>303.00</t>
+  </si>
+  <si>
+    <t>99.9900</t>
+  </si>
+  <si>
+    <t>GLIPTUS PLUS 50/1000MG 30 TABLETS</t>
+  </si>
+  <si>
+    <t>192.00</t>
+  </si>
+  <si>
+    <t>63.3600</t>
+  </si>
+  <si>
+    <t>GLOMETHASONE 8MG/2ML IM/IV 3 AMP</t>
+  </si>
+  <si>
+    <t>5:1</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>-21.7800</t>
+  </si>
+  <si>
+    <t>HERO VITAMIN DROPS</t>
+  </si>
+  <si>
+    <t>32.00</t>
+  </si>
+  <si>
+    <t>32.0000</t>
+  </si>
+  <si>
+    <t>KENACOMB TOPICAL CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>MILGA 40 TABLETS</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>NAUSILEX 50MG/2ML I.V/I.M 3 AMPOULES</t>
+  </si>
+  <si>
     <t>2:1</t>
   </si>
   <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>11.8800</t>
-  </si>
-  <si>
-    <t>DOGMATIL FORT 200MG 10 TAB</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>EFEMYO OPHTH. SUSP. 10 ML</t>
-  </si>
-  <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>44.0000</t>
-  </si>
-  <si>
-    <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>72.00</t>
-  </si>
-  <si>
-    <t>-23.7600</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>5:2</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>3.8400</t>
-  </si>
-  <si>
-    <t>GLAPTIVIA 100MG 30 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>303.00</t>
-  </si>
-  <si>
-    <t>99.9900</t>
-  </si>
-  <si>
-    <t>GLIPTUS PLUS 50/1000MG 30 TABLETS</t>
-  </si>
-  <si>
-    <t>192.00</t>
-  </si>
-  <si>
-    <t>63.3600</t>
-  </si>
-  <si>
-    <t>GLOMETHASONE 8MG/2ML IM/IV 3 AMP</t>
-  </si>
-  <si>
-    <t>5:1</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>-21.7800</t>
-  </si>
-  <si>
-    <t>HERO VITAMIN DROPS</t>
-  </si>
-  <si>
-    <t>32.00</t>
-  </si>
-  <si>
-    <t>32.0000</t>
-  </si>
-  <si>
-    <t>KENACOMB TOPICAL CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>MILGA 40 TABLETS</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>27.0000</t>
-  </si>
-  <si>
-    <t>NAUSILEX 50MG/2ML I.V/I.M 3 AMPOULES</t>
-  </si>
-  <si>
     <t>23.7600</t>
   </si>
   <si>
@@ -422,7 +428,7 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>9.0000</t>
+    <t>6:0</t>
   </si>
   <si>
     <t xml:space="preserve">شاش 7 سم </t>
@@ -467,7 +473,7 @@
     <t>48.0000</t>
   </si>
   <si>
-    <t>Thursday, 28 August, 2025 2:49 PM</t>
+    <t>Thursday, 28 August, 2025 2:50 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1349,14 +1355,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1365,14 +1371,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1382,11 +1388,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>12</v>
@@ -1398,14 +1404,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1415,14 +1421,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>50</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1431,14 +1437,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1448,14 +1454,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>32</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1464,14 +1470,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1481,14 +1487,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1497,14 +1503,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1514,11 +1520,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>12</v>
@@ -1530,31 +1536,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1563,31 +1569,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1596,14 +1602,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1613,11 +1619,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>32</v>
@@ -1629,14 +1635,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1646,11 +1652,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>32</v>
@@ -1662,14 +1668,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1679,14 +1685,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1695,31 +1701,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1728,28 +1734,28 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -1761,14 +1767,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1778,14 +1784,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1794,14 +1800,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1811,11 +1817,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>32</v>
@@ -1827,31 +1833,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1860,31 +1866,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1893,28 +1899,28 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>98</v>
+        <v>42</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>32</v>
@@ -1939,18 +1945,18 @@
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>50</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1959,14 +1965,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>17</v>
+        <v>102</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1976,14 +1982,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1999,7 +2005,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>106</v>
+        <v>17</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2009,11 +2015,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -2025,14 +2031,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2042,11 +2048,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -2058,14 +2064,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2075,14 +2081,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2098,7 +2104,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2108,11 +2114,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>55</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>32</v>
@@ -2124,14 +2130,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2141,14 +2147,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2157,28 +2163,28 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
@@ -2190,14 +2196,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2207,11 +2213,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2223,14 +2229,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>42</v>
+        <v>129</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2240,11 +2246,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2256,14 +2262,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2273,14 +2279,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>134</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2289,7 +2295,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2306,14 +2312,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>106</v>
+        <v>136</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2322,14 +2328,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>139</v>
+        <v>17</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2339,14 +2345,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>139</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2355,14 +2361,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>17</v>
+        <v>141</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2372,11 +2378,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2388,7 +2394,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2405,14 +2411,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>134</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2442,10 +2448,10 @@
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>136</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2454,14 +2460,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2471,49 +2477,82 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>67</v>
+        <v>150</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>134</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
-      <c r="P49" s="13">
-        <v>1253.72</v>
-      </c>
-      <c r="Q49" s="13"/>
-    </row>
-    <row r="50" ht="16.5" customHeight="1">
-      <c t="s" r="A50" s="14">
+      <c r="A49" s="7">
+        <v>43</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c t="s" r="C49" s="8">
         <v>152</v>
       </c>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c t="s" r="G50" s="15">
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c t="s" r="H49" s="9">
+        <v>125</v>
+      </c>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c t="s" r="L49" s="10">
+        <v>25</v>
+      </c>
+      <c r="M49" s="10"/>
+      <c t="s" r="N49" s="8">
+        <v>69</v>
+      </c>
+      <c r="O49" s="8"/>
+      <c t="s" r="P49" s="11">
         <v>153</v>
       </c>
-      <c r="H50" s="15"/>
-      <c r="I50" s="15"/>
-      <c r="J50" s="16"/>
-      <c t="s" r="K50" s="17">
+      <c t="s" r="Q49" s="12">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="P50" s="13">
+        <v>1358.72</v>
+      </c>
+      <c r="Q50" s="13"/>
+    </row>
+    <row r="51" ht="16.5" customHeight="1">
+      <c t="s" r="A51" s="14">
         <v>154</v>
       </c>
-      <c r="L50" s="17"/>
-      <c r="M50" s="17"/>
-      <c r="N50" s="17"/>
-      <c r="O50" s="17"/>
-      <c r="P50" s="17"/>
-      <c r="Q50" s="17"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c t="s" r="G51" s="15">
+        <v>155</v>
+      </c>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="16"/>
+      <c t="s" r="K51" s="17">
+        <v>156</v>
+      </c>
+      <c r="L51" s="17"/>
+      <c r="M51" s="17"/>
+      <c r="N51" s="17"/>
+      <c r="O51" s="17"/>
+      <c r="P51" s="17"/>
+      <c r="Q51" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="222">
+  <mergeCells count="227">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2732,10 +2771,15 @@
     <mergeCell ref="H48:K48"/>
     <mergeCell ref="L48:M48"/>
     <mergeCell ref="N48:O48"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="A50:F50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="K50:Q50"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="K51:Q51"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-28_00-00.xlsx
+++ b/DaySale_2025-08-28_00-00.xlsx
@@ -473,7 +473,7 @@
     <t>48.0000</t>
   </si>
   <si>
-    <t>Thursday, 28 August, 2025 2:50 PM</t>
+    <t>Thursday, 28 August, 2025 3:11 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-28_00-00.xlsx
+++ b/DaySale_2025-08-28_00-00.xlsx
@@ -410,6 +410,12 @@
     <t>حلاوة حرير</t>
   </si>
   <si>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -473,7 +479,7 @@
     <t>48.0000</t>
   </si>
   <si>
-    <t>Thursday, 28 August, 2025 3:11 PM</t>
+    <t>Thursday, 28 August, 2025 3:39 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2316,10 +2322,10 @@
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>136</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2328,7 +2334,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2345,14 +2351,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2361,14 +2367,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>141</v>
+        <v>17</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2378,14 +2384,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>143</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>141</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2394,14 +2400,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>17</v>
+        <v>143</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2411,11 +2417,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2427,7 +2433,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2444,14 +2450,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>136</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2481,10 +2487,10 @@
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>138</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2493,14 +2499,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>125</v>
+        <v>17</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2510,49 +2516,82 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>69</v>
+        <v>152</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
         <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>136</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
-      <c r="P50" s="13">
-        <v>1358.72</v>
-      </c>
-      <c r="Q50" s="13"/>
-    </row>
-    <row r="51" ht="16.5" customHeight="1">
-      <c t="s" r="A51" s="14">
+      <c r="A50" s="7">
+        <v>44</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c t="s" r="C50" s="8">
         <v>154</v>
       </c>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c t="s" r="G51" s="15">
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c t="s" r="H50" s="9">
+        <v>125</v>
+      </c>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c t="s" r="L50" s="10">
+        <v>25</v>
+      </c>
+      <c r="M50" s="10"/>
+      <c t="s" r="N50" s="8">
+        <v>69</v>
+      </c>
+      <c r="O50" s="8"/>
+      <c t="s" r="P50" s="11">
         <v>155</v>
       </c>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
-      <c r="J51" s="16"/>
-      <c t="s" r="K51" s="17">
+      <c t="s" r="Q50" s="12">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="P51" s="13">
+        <v>1398.72</v>
+      </c>
+      <c r="Q51" s="13"/>
+    </row>
+    <row r="52" ht="16.5" customHeight="1">
+      <c t="s" r="A52" s="14">
         <v>156</v>
       </c>
-      <c r="L51" s="17"/>
-      <c r="M51" s="17"/>
-      <c r="N51" s="17"/>
-      <c r="O51" s="17"/>
-      <c r="P51" s="17"/>
-      <c r="Q51" s="17"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c t="s" r="G52" s="15">
+        <v>157</v>
+      </c>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="16"/>
+      <c t="s" r="K52" s="17">
+        <v>158</v>
+      </c>
+      <c r="L52" s="17"/>
+      <c r="M52" s="17"/>
+      <c r="N52" s="17"/>
+      <c r="O52" s="17"/>
+      <c r="P52" s="17"/>
+      <c r="Q52" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="227">
+  <mergeCells count="232">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2776,10 +2815,15 @@
     <mergeCell ref="H49:K49"/>
     <mergeCell ref="L49:M49"/>
     <mergeCell ref="N49:O49"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="K51:Q51"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="K52:Q52"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-28_00-00.xlsx
+++ b/DaySale_2025-08-28_00-00.xlsx
@@ -98,51 +98,54 @@
     <t>AVIVAVASC 10/160MG 28 F.C. TAB.</t>
   </si>
   <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>BECOZYME I.M./I.V. 12 AMP</t>
+  </si>
+  <si>
+    <t>1:6</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>-9.6000</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CALDIN CK  TAB</t>
+  </si>
+  <si>
+    <t>158.00</t>
+  </si>
+  <si>
+    <t>79.0000</t>
+  </si>
+  <si>
+    <t>CATAFLAM 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
     <t>0:3</t>
   </si>
   <si>
-    <t>140.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>0:1</t>
-  </si>
-  <si>
-    <t>BECOZYME I.M./I.V. 12 AMP</t>
-  </si>
-  <si>
-    <t>1:6</t>
-  </si>
-  <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>-9.6000</t>
-  </si>
-  <si>
-    <t>0:-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CALDIN CK  TAB</t>
-  </si>
-  <si>
-    <t>158.00</t>
-  </si>
-  <si>
-    <t>79.0000</t>
-  </si>
-  <si>
-    <t>CATAFLAM 75MG/3ML 6 AMP.</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
     <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
   </si>
   <si>
@@ -479,7 +482,7 @@
     <t>48.0000</t>
   </si>
   <si>
-    <t>Thursday, 28 August, 2025 3:39 PM</t>
+    <t>Thursday, 28 August, 2025 3:48 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1368,7 +1371,7 @@
         <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>29</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1377,14 +1380,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1410,14 +1413,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1427,11 +1430,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>12</v>
@@ -1443,14 +1446,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1460,14 +1463,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
         <v>19</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1476,7 +1479,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1493,11 +1496,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>42</v>
@@ -1509,7 +1512,7 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1526,11 +1529,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>12</v>
@@ -1542,7 +1545,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1559,11 +1562,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>12</v>
@@ -1575,14 +1578,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1592,11 +1595,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>37</v>
@@ -1608,14 +1611,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1625,11 +1628,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>32</v>
@@ -1641,7 +1644,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1658,11 +1661,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>32</v>
@@ -1674,14 +1677,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1691,11 +1694,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>32</v>
@@ -1707,14 +1710,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1724,11 +1727,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>37</v>
@@ -1740,7 +1743,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1757,11 +1760,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -1773,14 +1776,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1790,11 +1793,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>12</v>
@@ -1806,14 +1809,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1823,11 +1826,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>32</v>
@@ -1839,14 +1842,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1856,11 +1859,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>32</v>
@@ -1872,7 +1875,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1889,11 +1892,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -1905,7 +1908,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -1922,11 +1925,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>32</v>
@@ -1938,14 +1941,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1955,11 +1958,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>32</v>
@@ -1971,14 +1974,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1988,14 +1991,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2004,7 +2007,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2021,11 +2024,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -2037,14 +2040,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2054,11 +2057,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -2070,14 +2073,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2087,11 +2090,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2103,14 +2106,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2120,11 +2123,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>32</v>
@@ -2136,14 +2139,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2153,11 +2156,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>32</v>
@@ -2169,14 +2172,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2186,11 +2189,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
@@ -2202,14 +2205,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2219,11 +2222,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2235,14 +2238,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2252,11 +2255,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2268,14 +2271,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2285,11 +2288,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2301,7 +2304,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2318,14 +2321,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2334,7 +2337,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2351,14 +2354,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2367,7 +2370,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2384,14 +2387,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2400,14 +2403,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2417,11 +2420,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2433,7 +2436,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2450,11 +2453,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2466,7 +2469,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2483,14 +2486,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2499,7 +2502,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2516,11 +2519,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2532,14 +2535,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2549,14 +2552,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2567,7 +2570,7 @@
     </row>
     <row r="52" ht="16.5" customHeight="1">
       <c t="s" r="A52" s="14">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B52" s="14"/>
       <c r="C52" s="14"/>
@@ -2575,13 +2578,13 @@
       <c r="E52" s="14"/>
       <c r="F52" s="14"/>
       <c t="s" r="G52" s="15">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H52" s="15"/>
       <c r="I52" s="15"/>
       <c r="J52" s="16"/>
       <c t="s" r="K52" s="17">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L52" s="17"/>
       <c r="M52" s="17"/>

--- a/DaySale_2025-08-28_00-00.xlsx
+++ b/DaySale_2025-08-28_00-00.xlsx
@@ -164,6 +164,15 @@
     <t>33.0000</t>
   </si>
   <si>
+    <t>COVERAM 5/5MG 15 TABS.</t>
+  </si>
+  <si>
+    <t>125.00</t>
+  </si>
+  <si>
+    <t>125.0000</t>
+  </si>
+  <si>
     <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
   </si>
   <si>
@@ -227,6 +236,15 @@
     <t>3.8400</t>
   </si>
   <si>
+    <t>FLUMOX 500MG 16 CAPS</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>35.5000</t>
+  </si>
+  <si>
     <t>GLAPTIVIA 100MG 30 F.C. TAB.</t>
   </si>
   <si>
@@ -482,7 +500,7 @@
     <t>48.0000</t>
   </si>
   <si>
-    <t>Thursday, 28 August, 2025 3:48 PM</t>
+    <t>Thursday, 28 August, 2025 4:16 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1453,7 +1471,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1463,14 +1481,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>54</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1479,14 +1497,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1500,10 +1518,10 @@
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
+        <v>19</v>
+      </c>
+      <c t="s" r="Q18" s="12">
         <v>57</v>
-      </c>
-      <c t="s" r="Q18" s="12">
-        <v>42</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1519,7 +1537,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1536,7 +1554,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1552,7 +1570,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1585,24 +1603,24 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1611,31 +1629,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1644,14 +1662,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1684,7 +1702,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1717,7 +1735,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1727,14 +1745,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1743,31 +1761,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1776,14 +1794,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1793,14 +1811,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
         <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1816,13 +1834,13 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -1833,7 +1851,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1859,14 +1877,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
         <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1882,13 +1900,13 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -1899,7 +1917,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1915,7 +1933,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1925,7 +1943,7 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
@@ -1948,7 +1966,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>101</v>
+        <v>17</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1958,14 +1976,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1974,14 +1992,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>103</v>
+        <v>42</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1998,7 +2016,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>54</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2014,24 +2032,24 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>17</v>
+        <v>107</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2064,7 +2082,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2080,7 +2098,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>109</v>
+        <v>17</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2094,7 +2112,7 @@
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2106,14 +2124,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2123,14 +2141,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>56</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2139,14 +2157,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2163,7 +2181,7 @@
         <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2179,7 +2197,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2189,14 +2207,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>59</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2205,31 +2223,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2238,28 +2256,28 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2271,14 +2289,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>46</v>
+        <v>132</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2288,11 +2306,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2304,14 +2322,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>17</v>
+        <v>136</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2321,14 +2339,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>60</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>46</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2337,14 +2355,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2361,7 +2379,7 @@
         <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>139</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2391,10 +2409,10 @@
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>116</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>142</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2403,14 +2421,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>144</v>
+        <v>17</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2420,14 +2438,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>145</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2436,7 +2454,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2453,14 +2471,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>149</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>148</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2469,14 +2487,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>17</v>
+        <v>150</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2490,10 +2508,10 @@
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>128</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>139</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2502,7 +2520,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2519,11 +2537,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2535,14 +2553,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>126</v>
+        <v>17</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2552,49 +2570,115 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>70</v>
+        <v>157</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
-      <c r="P51" s="13">
-        <v>1398.72</v>
-      </c>
-      <c r="Q51" s="13"/>
-    </row>
-    <row r="52" ht="16.5" customHeight="1">
-      <c t="s" r="A52" s="14">
-        <v>157</v>
-      </c>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c t="s" r="G52" s="15">
+      <c r="A51" s="7">
+        <v>45</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c t="s" r="C51" s="8">
         <v>158</v>
       </c>
-      <c r="H52" s="15"/>
-      <c r="I52" s="15"/>
-      <c r="J52" s="16"/>
-      <c t="s" r="K52" s="17">
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c t="s" r="H51" s="9">
+        <v>17</v>
+      </c>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c t="s" r="L51" s="10">
+        <v>25</v>
+      </c>
+      <c r="M51" s="10"/>
+      <c t="s" r="N51" s="8">
         <v>159</v>
       </c>
-      <c r="L52" s="17"/>
-      <c r="M52" s="17"/>
-      <c r="N52" s="17"/>
-      <c r="O52" s="17"/>
-      <c r="P52" s="17"/>
-      <c r="Q52" s="17"/>
+      <c r="O51" s="8"/>
+      <c t="s" r="P51" s="11">
+        <v>160</v>
+      </c>
+      <c t="s" r="Q51" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="A52" s="7">
+        <v>46</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c t="s" r="C52" s="8">
+        <v>161</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c t="s" r="H52" s="9">
+        <v>132</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c t="s" r="L52" s="10">
+        <v>25</v>
+      </c>
+      <c r="M52" s="10"/>
+      <c t="s" r="N52" s="8">
+        <v>73</v>
+      </c>
+      <c r="O52" s="8"/>
+      <c t="s" r="P52" s="11">
+        <v>162</v>
+      </c>
+      <c t="s" r="Q52" s="12">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="P53" s="13">
+        <v>1559.22</v>
+      </c>
+      <c r="Q53" s="13"/>
+    </row>
+    <row r="54" ht="16.5" customHeight="1">
+      <c t="s" r="A54" s="14">
+        <v>163</v>
+      </c>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c t="s" r="G54" s="15">
+        <v>164</v>
+      </c>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="16"/>
+      <c t="s" r="K54" s="17">
+        <v>165</v>
+      </c>
+      <c r="L54" s="17"/>
+      <c r="M54" s="17"/>
+      <c r="N54" s="17"/>
+      <c r="O54" s="17"/>
+      <c r="P54" s="17"/>
+      <c r="Q54" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="232">
+  <mergeCells count="242">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2823,10 +2907,20 @@
     <mergeCell ref="H50:K50"/>
     <mergeCell ref="L50:M50"/>
     <mergeCell ref="N50:O50"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="A52:F52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="K52:Q52"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="K54:Q54"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-28_00-00.xlsx
+++ b/DaySale_2025-08-28_00-00.xlsx
@@ -236,15 +236,6 @@
     <t>3.8400</t>
   </si>
   <si>
-    <t>FLUMOX 500MG 16 CAPS</t>
-  </si>
-  <si>
-    <t>71.00</t>
-  </si>
-  <si>
-    <t>35.5000</t>
-  </si>
-  <si>
     <t>GLAPTIVIA 100MG 30 F.C. TAB.</t>
   </si>
   <si>
@@ -500,7 +491,7 @@
     <t>48.0000</t>
   </si>
   <si>
-    <t>Thursday, 28 August, 2025 4:16 PM</t>
+    <t>Thursday, 28 August, 2025 4:17 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1702,7 +1693,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1735,7 +1726,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1768,7 +1759,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1778,14 +1769,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1794,20 +1785,20 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -1818,7 +1809,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1834,17 +1825,17 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
@@ -1867,7 +1858,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>92</v>
+        <v>44</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1877,14 +1868,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
         <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1900,7 +1891,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1910,7 +1901,7 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
@@ -1933,24 +1924,24 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1966,13 +1957,13 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -1983,7 +1974,7 @@
         <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1999,21 +1990,21 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>32</v>
@@ -2025,31 +2016,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>32</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2058,14 +2049,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>109</v>
+        <v>17</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2079,10 +2070,10 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>57</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2091,14 +2082,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>17</v>
+        <v>112</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2112,7 +2103,7 @@
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2124,14 +2115,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2164,7 +2155,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2174,14 +2165,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>59</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2190,14 +2181,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2207,11 +2198,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>59</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>32</v>
@@ -2223,14 +2214,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2240,14 +2231,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2256,28 +2247,28 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2289,14 +2280,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2306,11 +2297,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2322,14 +2313,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>136</v>
+        <v>46</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2339,11 +2330,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2355,14 +2346,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2372,14 +2363,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2388,7 +2379,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2405,14 +2396,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>63</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>46</v>
+        <v>142</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2421,7 +2412,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2438,11 +2429,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>145</v>
@@ -2461,7 +2452,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>17</v>
+        <v>147</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2471,14 +2462,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>148</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2487,14 +2478,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>150</v>
+        <v>17</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2541,10 +2532,10 @@
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>142</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2553,7 +2544,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2570,14 +2561,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>134</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>145</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2593,7 +2584,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>17</v>
+        <v>129</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2603,82 +2594,49 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>159</v>
+        <v>73</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
+        <v>159</v>
+      </c>
+      <c t="s" r="Q51" s="12">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="P52" s="13">
+        <v>1523.72</v>
+      </c>
+      <c r="Q52" s="13"/>
+    </row>
+    <row r="53" ht="16.5" customHeight="1">
+      <c t="s" r="A53" s="14">
         <v>160</v>
       </c>
-      <c t="s" r="Q51" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="52" ht="25.5" customHeight="1">
-      <c r="A52" s="7">
-        <v>46</v>
-      </c>
-      <c r="B52" s="7"/>
-      <c t="s" r="C52" s="8">
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c t="s" r="G53" s="15">
         <v>161</v>
       </c>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-      <c t="s" r="H52" s="9">
-        <v>132</v>
-      </c>
-      <c r="I52" s="9"/>
-      <c r="J52" s="9"/>
-      <c r="K52" s="9"/>
-      <c t="s" r="L52" s="10">
-        <v>25</v>
-      </c>
-      <c r="M52" s="10"/>
-      <c t="s" r="N52" s="8">
-        <v>73</v>
-      </c>
-      <c r="O52" s="8"/>
-      <c t="s" r="P52" s="11">
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="16"/>
+      <c t="s" r="K53" s="17">
         <v>162</v>
       </c>
-      <c t="s" r="Q52" s="12">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="53" ht="24.75" customHeight="1">
-      <c r="P53" s="13">
-        <v>1559.22</v>
-      </c>
-      <c r="Q53" s="13"/>
-    </row>
-    <row r="54" ht="16.5" customHeight="1">
-      <c t="s" r="A54" s="14">
-        <v>163</v>
-      </c>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c t="s" r="G54" s="15">
-        <v>164</v>
-      </c>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="16"/>
-      <c t="s" r="K54" s="17">
-        <v>165</v>
-      </c>
-      <c r="L54" s="17"/>
-      <c r="M54" s="17"/>
-      <c r="N54" s="17"/>
-      <c r="O54" s="17"/>
-      <c r="P54" s="17"/>
-      <c r="Q54" s="17"/>
+      <c r="L53" s="17"/>
+      <c r="M53" s="17"/>
+      <c r="N53" s="17"/>
+      <c r="O53" s="17"/>
+      <c r="P53" s="17"/>
+      <c r="Q53" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="242">
+  <mergeCells count="237">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2912,15 +2870,10 @@
     <mergeCell ref="H51:K51"/>
     <mergeCell ref="L51:M51"/>
     <mergeCell ref="N51:O51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:G52"/>
-    <mergeCell ref="H52:K52"/>
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="N52:O52"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="K54:Q54"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="K53:Q53"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-28_00-00.xlsx
+++ b/DaySale_2025-08-28_00-00.xlsx
@@ -236,6 +236,15 @@
     <t>3.8400</t>
   </si>
   <si>
+    <t>FLUMOX 500MG 16 CAPS</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>35.5000</t>
+  </si>
+  <si>
     <t>GLAPTIVIA 100MG 30 F.C. TAB.</t>
   </si>
   <si>
@@ -491,7 +500,16 @@
     <t>48.0000</t>
   </si>
   <si>
-    <t>Thursday, 28 August, 2025 4:17 PM</t>
+    <t>مزيل عرق فوج FOGG MASTER</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
+    <t>Thursday, 28 August, 2025 4:18 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1693,7 +1711,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1726,7 +1744,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1759,7 +1777,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1769,14 +1787,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1785,20 +1803,20 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -1809,7 +1827,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1825,17 +1843,17 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
@@ -1858,7 +1876,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1868,14 +1886,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
         <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1891,7 +1909,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1901,7 +1919,7 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
@@ -1924,24 +1942,24 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1957,13 +1975,13 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -1974,7 +1992,7 @@
         <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1990,21 +2008,21 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>104</v>
+        <v>42</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>32</v>
@@ -2016,31 +2034,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>57</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2049,14 +2067,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2070,10 +2088,10 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2082,14 +2100,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>112</v>
+        <v>17</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2103,7 +2121,7 @@
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2115,14 +2133,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2155,7 +2173,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2165,14 +2183,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2181,14 +2199,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2198,11 +2216,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>59</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>32</v>
@@ -2214,14 +2232,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2231,14 +2249,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2247,28 +2265,28 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2280,14 +2298,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2297,11 +2315,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2313,14 +2331,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>46</v>
+        <v>136</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2330,11 +2348,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2346,14 +2364,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2363,14 +2381,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>63</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>46</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2379,7 +2397,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2396,14 +2414,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>142</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2412,7 +2430,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2429,11 +2447,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>119</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>145</v>
@@ -2452,7 +2470,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>147</v>
+        <v>17</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2462,14 +2480,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>149</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>148</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2478,14 +2496,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>17</v>
+        <v>150</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2532,10 +2550,10 @@
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>131</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>142</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2544,7 +2562,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2561,14 +2579,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>145</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2584,7 +2602,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>129</v>
+        <v>17</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2594,49 +2612,115 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>73</v>
+        <v>159</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>142</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
-      <c r="P52" s="13">
-        <v>1523.72</v>
-      </c>
-      <c r="Q52" s="13"/>
-    </row>
-    <row r="53" ht="16.5" customHeight="1">
-      <c t="s" r="A53" s="14">
-        <v>160</v>
-      </c>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c t="s" r="G53" s="15">
+      <c r="A52" s="7">
+        <v>46</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c t="s" r="C52" s="8">
         <v>161</v>
       </c>
-      <c r="H53" s="15"/>
-      <c r="I53" s="15"/>
-      <c r="J53" s="16"/>
-      <c t="s" r="K53" s="17">
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c t="s" r="H52" s="9">
+        <v>132</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c t="s" r="L52" s="10">
+        <v>25</v>
+      </c>
+      <c r="M52" s="10"/>
+      <c t="s" r="N52" s="8">
+        <v>73</v>
+      </c>
+      <c r="O52" s="8"/>
+      <c t="s" r="P52" s="11">
         <v>162</v>
       </c>
-      <c r="L53" s="17"/>
-      <c r="M53" s="17"/>
-      <c r="N53" s="17"/>
-      <c r="O53" s="17"/>
-      <c r="P53" s="17"/>
-      <c r="Q53" s="17"/>
+      <c t="s" r="Q52" s="12">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="A53" s="7">
+        <v>47</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c t="s" r="C53" s="8">
+        <v>163</v>
+      </c>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c t="s" r="H53" s="9">
+        <v>164</v>
+      </c>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c t="s" r="L53" s="10">
+        <v>25</v>
+      </c>
+      <c r="M53" s="10"/>
+      <c t="s" r="N53" s="8">
+        <v>35</v>
+      </c>
+      <c r="O53" s="8"/>
+      <c t="s" r="P53" s="11">
+        <v>165</v>
+      </c>
+      <c t="s" r="Q53" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="P54" s="13">
+        <v>1679.22</v>
+      </c>
+      <c r="Q54" s="13"/>
+    </row>
+    <row r="55" ht="16.5" customHeight="1">
+      <c t="s" r="A55" s="14">
+        <v>166</v>
+      </c>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c t="s" r="G55" s="15">
+        <v>167</v>
+      </c>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="16"/>
+      <c t="s" r="K55" s="17">
+        <v>168</v>
+      </c>
+      <c r="L55" s="17"/>
+      <c r="M55" s="17"/>
+      <c r="N55" s="17"/>
+      <c r="O55" s="17"/>
+      <c r="P55" s="17"/>
+      <c r="Q55" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="237">
+  <mergeCells count="247">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2870,10 +2954,20 @@
     <mergeCell ref="H51:K51"/>
     <mergeCell ref="L51:M51"/>
     <mergeCell ref="N51:O51"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="K53:Q53"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="A55:F55"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="K55:Q55"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-28_00-00.xlsx
+++ b/DaySale_2025-08-28_00-00.xlsx
@@ -509,7 +509,7 @@
     <t>120.0000</t>
   </si>
   <si>
-    <t>Thursday, 28 August, 2025 4:18 PM</t>
+    <t>Thursday, 28 August, 2025 5:41 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-28_00-00.xlsx
+++ b/DaySale_2025-08-28_00-00.xlsx
@@ -282,6 +282,12 @@
   </si>
   <si>
     <t>32.0000</t>
+  </si>
+  <si>
+    <t>IS IS بقدونس كرفس</t>
+  </si>
+  <si>
+    <t>35.00</t>
   </si>
   <si>
     <t>KENACOMB TOPICAL CREAM 15 GM</t>
@@ -1876,21 +1882,21 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -1902,14 +1908,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1919,14 +1925,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1935,14 +1941,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1952,11 +1958,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>32</v>
@@ -1968,31 +1974,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2001,31 +2007,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2034,28 +2040,28 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>107</v>
+        <v>42</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>32</v>
@@ -2080,18 +2086,18 @@
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>57</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2100,14 +2106,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>17</v>
+        <v>111</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2117,14 +2123,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2140,7 +2146,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>115</v>
+        <v>17</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2150,11 +2156,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2166,14 +2172,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2183,11 +2189,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2199,14 +2205,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2216,14 +2222,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>59</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2239,7 +2245,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2249,11 +2255,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>59</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>32</v>
@@ -2265,14 +2271,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2282,14 +2288,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2298,28 +2304,28 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2331,14 +2337,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2348,11 +2354,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2364,14 +2370,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>46</v>
+        <v>138</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2381,11 +2387,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2397,14 +2403,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2414,14 +2420,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>63</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>46</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2451,10 +2457,10 @@
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>145</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2463,7 +2469,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2480,14 +2486,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2496,14 +2502,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>150</v>
+        <v>17</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2513,14 +2519,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>152</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>150</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2529,14 +2535,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>17</v>
+        <v>152</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2546,11 +2552,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2562,7 +2568,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2579,14 +2585,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>134</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>145</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2616,10 +2622,10 @@
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>147</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2628,14 +2634,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>132</v>
+        <v>17</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2645,14 +2651,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>73</v>
+        <v>161</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>145</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2668,7 +2674,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2678,49 +2684,82 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
+        <v>164</v>
+      </c>
+      <c t="s" r="Q53" s="12">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="A54" s="7">
+        <v>48</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c t="s" r="C54" s="8">
         <v>165</v>
       </c>
-      <c t="s" r="Q53" s="12">
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c t="s" r="H54" s="9">
+        <v>166</v>
+      </c>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c t="s" r="L54" s="10">
+        <v>25</v>
+      </c>
+      <c r="M54" s="10"/>
+      <c t="s" r="N54" s="8">
+        <v>35</v>
+      </c>
+      <c r="O54" s="8"/>
+      <c t="s" r="P54" s="11">
+        <v>167</v>
+      </c>
+      <c t="s" r="Q54" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="54" ht="25.5" customHeight="1">
-      <c r="P54" s="13">
-        <v>1679.22</v>
-      </c>
-      <c r="Q54" s="13"/>
-    </row>
-    <row r="55" ht="16.5" customHeight="1">
-      <c t="s" r="A55" s="14">
-        <v>166</v>
-      </c>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c t="s" r="G55" s="15">
-        <v>167</v>
-      </c>
-      <c r="H55" s="15"/>
-      <c r="I55" s="15"/>
-      <c r="J55" s="16"/>
-      <c t="s" r="K55" s="17">
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="P55" s="13">
+        <v>1714.22</v>
+      </c>
+      <c r="Q55" s="13"/>
+    </row>
+    <row r="56" ht="16.5" customHeight="1">
+      <c t="s" r="A56" s="14">
         <v>168</v>
       </c>
-      <c r="L55" s="17"/>
-      <c r="M55" s="17"/>
-      <c r="N55" s="17"/>
-      <c r="O55" s="17"/>
-      <c r="P55" s="17"/>
-      <c r="Q55" s="17"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c t="s" r="G56" s="15">
+        <v>169</v>
+      </c>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="16"/>
+      <c t="s" r="K56" s="17">
+        <v>170</v>
+      </c>
+      <c r="L56" s="17"/>
+      <c r="M56" s="17"/>
+      <c r="N56" s="17"/>
+      <c r="O56" s="17"/>
+      <c r="P56" s="17"/>
+      <c r="Q56" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="247">
+  <mergeCells count="252">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2964,10 +3003,15 @@
     <mergeCell ref="H53:K53"/>
     <mergeCell ref="L53:M53"/>
     <mergeCell ref="N53:O53"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="A55:F55"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="K55:Q55"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="A56:F56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="K56:Q56"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-28_00-00.xlsx
+++ b/DaySale_2025-08-28_00-00.xlsx
@@ -515,7 +515,7 @@
     <t>120.0000</t>
   </si>
   <si>
-    <t>Thursday, 28 August, 2025 5:41 PM</t>
+    <t>Thursday, 28 August, 2025 5:42 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-28_00-00.xlsx
+++ b/DaySale_2025-08-28_00-00.xlsx
@@ -212,6 +212,15 @@
     <t>44.0000</t>
   </si>
   <si>
+    <t>ERASTAPEX TRIO 5/20/12.5MG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>114.0000</t>
+  </si>
+  <si>
     <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
   </si>
   <si>
@@ -227,13 +236,16 @@
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
-    <t>5:2</t>
+    <t>4:3</t>
   </si>
   <si>
     <t>24.00</t>
   </si>
   <si>
-    <t>3.8400</t>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>0:6</t>
   </si>
   <si>
     <t>FLUMOX 500MG 16 CAPS</t>
@@ -275,6 +287,15 @@
     <t>-21.7800</t>
   </si>
   <si>
+    <t>GYNERA 21 C.TABS</t>
+  </si>
+  <si>
+    <t>124.00</t>
+  </si>
+  <si>
+    <t>124.0000</t>
+  </si>
+  <si>
     <t>HERO VITAMIN DROPS</t>
   </si>
   <si>
@@ -314,9 +335,6 @@
     <t>2:1</t>
   </si>
   <si>
-    <t>23.7600</t>
-  </si>
-  <si>
     <t xml:space="preserve">OLOHISTINE FORTE  DROPS</t>
   </si>
   <si>
@@ -341,6 +359,15 @@
     <t>4:1</t>
   </si>
   <si>
+    <t>POLYDERM TOP. CREAM 20 GM</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
     <t>SACROFER 100MG/5ML 5 AMP FOR I.V. INJ.</t>
   </si>
   <si>
@@ -365,12 +392,6 @@
     <t>3:0</t>
   </si>
   <si>
-    <t>21.00</t>
-  </si>
-  <si>
-    <t>21.0000</t>
-  </si>
-  <si>
     <t>TELFAST 30MG/5ML SUSP. 100 ML</t>
   </si>
   <si>
@@ -515,7 +536,7 @@
     <t>120.0000</t>
   </si>
   <si>
-    <t>Thursday, 28 August, 2025 5:42 PM</t>
+    <t>Thursday, 28 August, 2025 6:10 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1651,24 +1672,24 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1677,31 +1698,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1710,14 +1731,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1734,7 +1755,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>32</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1743,14 +1764,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1760,11 +1781,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>32</v>
@@ -1776,14 +1797,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1793,11 +1814,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>32</v>
@@ -1809,14 +1830,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1833,7 +1854,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1849,24 +1870,24 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1875,7 +1896,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1888,15 +1909,15 @@
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -1908,28 +1929,28 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -1941,31 +1962,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1974,14 +1995,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1991,14 +2012,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2007,31 +2028,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2040,14 +2061,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>42</v>
+        <v>107</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2057,11 +2078,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>32</v>
@@ -2080,7 +2101,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>109</v>
+        <v>17</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2090,14 +2111,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2106,14 +2127,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>111</v>
+        <v>42</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2130,7 +2151,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>57</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2146,24 +2167,24 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>17</v>
+        <v>115</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2179,7 +2200,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>117</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2189,11 +2210,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2205,14 +2226,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2229,7 +2250,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2245,7 +2266,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>117</v>
+        <v>17</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2255,14 +2276,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>59</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2288,14 +2309,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2304,14 +2325,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2321,11 +2342,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2337,31 +2358,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>59</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2370,31 +2391,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2403,28 +2424,28 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>46</v>
+        <v>137</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2436,14 +2457,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>17</v>
+        <v>141</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2453,14 +2474,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>63</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>46</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2476,7 +2497,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>17</v>
+        <v>145</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2486,14 +2507,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>147</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2509,7 +2530,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2519,14 +2540,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>150</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2535,14 +2556,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>152</v>
+        <v>17</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2552,14 +2573,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>154</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2568,7 +2589,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2585,14 +2606,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>154</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2601,7 +2622,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2618,14 +2639,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>147</v>
+        <v>157</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2634,14 +2655,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>17</v>
+        <v>159</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2651,11 +2672,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -2667,14 +2688,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>134</v>
+        <v>17</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2684,14 +2705,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>73</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
         <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>147</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2707,7 +2728,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>166</v>
+        <v>17</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2717,49 +2738,148 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>35</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
+        <v>143</v>
+      </c>
+      <c t="s" r="Q54" s="12">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="A55" s="7">
+        <v>49</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c t="s" r="C55" s="8">
         <v>167</v>
       </c>
-      <c t="s" r="Q54" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="55" ht="24.75" customHeight="1">
-      <c r="P55" s="13">
-        <v>1714.22</v>
-      </c>
-      <c r="Q55" s="13"/>
-    </row>
-    <row r="56" ht="16.5" customHeight="1">
-      <c t="s" r="A56" s="14">
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c t="s" r="H55" s="9">
+        <v>17</v>
+      </c>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c t="s" r="L55" s="10">
+        <v>25</v>
+      </c>
+      <c r="M55" s="10"/>
+      <c t="s" r="N55" s="8">
         <v>168</v>
       </c>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c t="s" r="G56" s="15">
+      <c r="O55" s="8"/>
+      <c t="s" r="P55" s="11">
         <v>169</v>
       </c>
-      <c r="H56" s="15"/>
-      <c r="I56" s="15"/>
-      <c r="J56" s="16"/>
-      <c t="s" r="K56" s="17">
+      <c t="s" r="Q55" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="A56" s="7">
+        <v>50</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c t="s" r="C56" s="8">
         <v>170</v>
       </c>
-      <c r="L56" s="17"/>
-      <c r="M56" s="17"/>
-      <c r="N56" s="17"/>
-      <c r="O56" s="17"/>
-      <c r="P56" s="17"/>
-      <c r="Q56" s="17"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c t="s" r="H56" s="9">
+        <v>141</v>
+      </c>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c t="s" r="L56" s="10">
+        <v>25</v>
+      </c>
+      <c r="M56" s="10"/>
+      <c t="s" r="N56" s="8">
+        <v>76</v>
+      </c>
+      <c r="O56" s="8"/>
+      <c t="s" r="P56" s="11">
+        <v>171</v>
+      </c>
+      <c t="s" r="Q56" s="12">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="A57" s="7">
+        <v>51</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c t="s" r="C57" s="8">
+        <v>172</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c t="s" r="H57" s="9">
+        <v>173</v>
+      </c>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c t="s" r="L57" s="10">
+        <v>25</v>
+      </c>
+      <c r="M57" s="10"/>
+      <c t="s" r="N57" s="8">
+        <v>35</v>
+      </c>
+      <c r="O57" s="8"/>
+      <c t="s" r="P57" s="11">
+        <v>174</v>
+      </c>
+      <c t="s" r="Q57" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="P58" s="13">
+        <v>1993.1400000000001</v>
+      </c>
+      <c r="Q58" s="13"/>
+    </row>
+    <row r="59" ht="16.5" customHeight="1">
+      <c t="s" r="A59" s="14">
+        <v>175</v>
+      </c>
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+      <c t="s" r="G59" s="15">
+        <v>176</v>
+      </c>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="16"/>
+      <c t="s" r="K59" s="17">
+        <v>177</v>
+      </c>
+      <c r="L59" s="17"/>
+      <c r="M59" s="17"/>
+      <c r="N59" s="17"/>
+      <c r="O59" s="17"/>
+      <c r="P59" s="17"/>
+      <c r="Q59" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="252">
+  <mergeCells count="267">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3008,10 +3128,25 @@
     <mergeCell ref="H54:K54"/>
     <mergeCell ref="L54:M54"/>
     <mergeCell ref="N54:O54"/>
-    <mergeCell ref="P55:Q55"/>
-    <mergeCell ref="A56:F56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="K56:Q56"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="A59:F59"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="K59:Q59"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-28_00-00.xlsx
+++ b/DaySale_2025-08-28_00-00.xlsx
@@ -173,6 +173,18 @@
     <t>125.0000</t>
   </si>
   <si>
+    <t>CYANOHEPTAN 6 I.M. AMP. 2 ML</t>
+  </si>
+  <si>
+    <t>0:5</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>18.2400</t>
+  </si>
+  <si>
     <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
   </si>
   <si>
@@ -215,9 +227,6 @@
     <t>ERASTAPEX TRIO 5/20/12.5MG 30 F.C. TAB</t>
   </si>
   <si>
-    <t>114.00</t>
-  </si>
-  <si>
     <t>114.0000</t>
   </si>
   <si>
@@ -470,48 +479,45 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>4.0000</t>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شاش 7 سم </t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>6.00</t>
+  </si>
+  <si>
+    <t>قياس سكر</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>15.00</t>
   </si>
   <si>
     <t>2:0</t>
   </si>
   <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شاش 7 سم </t>
-  </si>
-  <si>
-    <t>11:0</t>
-  </si>
-  <si>
-    <t>6.00</t>
-  </si>
-  <si>
-    <t>6.0000</t>
-  </si>
-  <si>
-    <t>قياس سكر</t>
-  </si>
-  <si>
-    <t>10.00</t>
-  </si>
-  <si>
-    <t>10.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">كالونا </t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
     <t>مجموعه برد</t>
   </si>
   <si>
@@ -536,7 +542,7 @@
     <t>120.0000</t>
   </si>
   <si>
-    <t>Thursday, 28 August, 2025 6:10 PM</t>
+    <t>Thursday, 28 August, 2025 6:23 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1554,10 +1560,10 @@
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>57</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1573,7 +1579,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1583,14 +1589,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>42</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1599,14 +1605,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1616,14 +1622,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1632,14 +1638,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1649,11 +1655,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>12</v>
@@ -1665,14 +1671,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1682,11 +1688,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>12</v>
@@ -1698,31 +1704,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1731,31 +1737,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>78</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1764,14 +1770,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1781,14 +1787,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
+        <v>80</v>
+      </c>
+      <c t="s" r="Q25" s="12">
         <v>81</v>
-      </c>
-      <c t="s" r="Q25" s="12">
-        <v>32</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1804,7 +1810,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1837,7 +1843,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1870,7 +1876,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1880,14 +1886,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1896,14 +1902,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1920,7 +1926,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1942,7 +1948,7 @@
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -1983,7 +1989,7 @@
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -1995,28 +2001,28 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -2035,7 +2041,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>44</v>
+        <v>104</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2045,14 +2051,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2068,7 +2074,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>107</v>
+        <v>44</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2078,11 +2084,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>32</v>
@@ -2094,31 +2100,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>17</v>
+        <v>110</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2134,13 +2140,13 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2151,7 +2157,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2167,21 +2173,21 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>115</v>
+        <v>42</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>32</v>
@@ -2193,31 +2199,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>118</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2233,7 +2239,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2243,14 +2249,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>57</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2259,14 +2265,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>17</v>
+        <v>123</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2280,10 +2286,10 @@
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2292,14 +2298,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>126</v>
+        <v>17</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2309,11 +2315,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2325,14 +2331,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2342,11 +2348,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2365,7 +2371,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2375,14 +2381,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>59</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2391,14 +2397,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2408,11 +2414,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>63</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>32</v>
@@ -2424,14 +2430,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2441,14 +2447,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2457,28 +2463,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2490,14 +2496,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2507,11 +2513,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2523,14 +2529,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>46</v>
+        <v>148</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2540,11 +2546,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2556,14 +2562,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2573,14 +2579,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>63</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>46</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2589,7 +2595,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2606,14 +2612,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>154</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2622,7 +2628,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2639,14 +2645,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>157</v>
+        <v>129</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2655,14 +2661,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>159</v>
+        <v>17</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2672,14 +2678,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>159</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2688,14 +2694,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>17</v>
+        <v>161</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2705,11 +2711,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -2721,7 +2727,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2738,14 +2744,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>154</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2754,7 +2760,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2771,14 +2777,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>168</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2787,14 +2793,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>141</v>
+        <v>17</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2804,14 +2810,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>76</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
         <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>154</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2827,7 +2833,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>173</v>
+        <v>144</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2837,49 +2843,82 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
+        <v>173</v>
+      </c>
+      <c t="s" r="Q57" s="12">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="A58" s="7">
+        <v>52</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c t="s" r="C58" s="8">
         <v>174</v>
       </c>
-      <c t="s" r="Q57" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="58" ht="24.75" customHeight="1">
-      <c r="P58" s="13">
-        <v>1993.1400000000001</v>
-      </c>
-      <c r="Q58" s="13"/>
-    </row>
-    <row r="59" ht="16.5" customHeight="1">
-      <c t="s" r="A59" s="14">
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c t="s" r="H58" s="9">
         <v>175</v>
       </c>
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-      <c t="s" r="G59" s="15">
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c t="s" r="L58" s="10">
+        <v>25</v>
+      </c>
+      <c r="M58" s="10"/>
+      <c t="s" r="N58" s="8">
+        <v>35</v>
+      </c>
+      <c r="O58" s="8"/>
+      <c t="s" r="P58" s="11">
         <v>176</v>
       </c>
-      <c r="H59" s="15"/>
-      <c r="I59" s="15"/>
-      <c r="J59" s="16"/>
-      <c t="s" r="K59" s="17">
+      <c t="s" r="Q58" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="P59" s="13">
+        <v>2013.3800000000001</v>
+      </c>
+      <c r="Q59" s="13"/>
+    </row>
+    <row r="60" ht="16.5" customHeight="1">
+      <c t="s" r="A60" s="14">
         <v>177</v>
       </c>
-      <c r="L59" s="17"/>
-      <c r="M59" s="17"/>
-      <c r="N59" s="17"/>
-      <c r="O59" s="17"/>
-      <c r="P59" s="17"/>
-      <c r="Q59" s="17"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+      <c t="s" r="G60" s="15">
+        <v>178</v>
+      </c>
+      <c r="H60" s="15"/>
+      <c r="I60" s="15"/>
+      <c r="J60" s="16"/>
+      <c t="s" r="K60" s="17">
+        <v>179</v>
+      </c>
+      <c r="L60" s="17"/>
+      <c r="M60" s="17"/>
+      <c r="N60" s="17"/>
+      <c r="O60" s="17"/>
+      <c r="P60" s="17"/>
+      <c r="Q60" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="267">
+  <mergeCells count="272">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3143,10 +3182,15 @@
     <mergeCell ref="H57:K57"/>
     <mergeCell ref="L57:M57"/>
     <mergeCell ref="N57:O57"/>
-    <mergeCell ref="P58:Q58"/>
-    <mergeCell ref="A59:F59"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="K59:Q59"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="P59:Q59"/>
+    <mergeCell ref="A60:F60"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="K60:Q60"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-28_00-00.xlsx
+++ b/DaySale_2025-08-28_00-00.xlsx
@@ -542,7 +542,7 @@
     <t>120.0000</t>
   </si>
   <si>
-    <t>Thursday, 28 August, 2025 6:23 PM</t>
+    <t>Thursday, 28 August, 2025 6:46 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-28_00-00.xlsx
+++ b/DaySale_2025-08-28_00-00.xlsx
@@ -542,7 +542,7 @@
     <t>120.0000</t>
   </si>
   <si>
-    <t>Thursday, 28 August, 2025 6:46 PM</t>
+    <t>Thursday, 28 August, 2025 6:59 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-28_00-00.xlsx
+++ b/DaySale_2025-08-28_00-00.xlsx
@@ -71,6 +71,33 @@
     <t>34.0000</t>
   </si>
   <si>
+    <t>ADOLOR 30 MG 3 AMPS.</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>ALPHINTERN 30 F.C.TABS</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>28.7100</t>
+  </si>
+  <si>
     <t>ANALLERGE 2MG/5ML SYRUP 100 ML</t>
   </si>
   <si>
@@ -107,9 +134,6 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>BECOZYME I.M./I.V. 12 AMP</t>
   </si>
   <si>
@@ -200,9 +224,6 @@
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
-    <t>36.00</t>
-  </si>
-  <si>
     <t>47.8800</t>
   </si>
   <si>
@@ -341,9 +362,6 @@
     <t>NAUSILEX 50MG/2ML I.V/I.M 3 AMPOULES</t>
   </si>
   <si>
-    <t>2:1</t>
-  </si>
-  <si>
     <t xml:space="preserve">OLOHISTINE FORTE  DROPS</t>
   </si>
   <si>
@@ -365,7 +383,13 @@
     <t>PANADOL EXTRA 48 TAB</t>
   </si>
   <si>
-    <t>4:1</t>
+    <t>PAROFEN 30 OBLONG TAB.</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>69.0000</t>
   </si>
   <si>
     <t>POLYDERM TOP. CREAM 20 GM</t>
@@ -395,6 +419,12 @@
     <t>27.00</t>
   </si>
   <si>
+    <t>SPASCOLON 100MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
     <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
   </si>
   <si>
@@ -416,6 +446,18 @@
     <t>18.0000</t>
   </si>
   <si>
+    <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
+  </si>
+  <si>
+    <t>1:4</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>14.4000</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -440,6 +482,12 @@
     <t>56.0000</t>
   </si>
   <si>
+    <t>XORAXON 1GM I.M. VIAL</t>
+  </si>
+  <si>
+    <t>168.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">برفان القصاص </t>
   </si>
   <si>
@@ -452,6 +500,18 @@
     <t>30.0000</t>
   </si>
   <si>
+    <t>بلاستر مترسيلك 2 سم</t>
+  </si>
+  <si>
+    <t>38:0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
@@ -473,33 +533,42 @@
     <t>4.00</t>
   </si>
   <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>13:0</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
+    <t>8.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شاش 7 سم </t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>6.00</t>
+  </si>
+  <si>
     <t>6.0000</t>
   </si>
   <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شاش 7 سم </t>
-  </si>
-  <si>
-    <t>11:0</t>
-  </si>
-  <si>
-    <t>6.00</t>
-  </si>
-  <si>
     <t>قياس سكر</t>
   </si>
   <si>
@@ -512,9 +581,6 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>15.00</t>
-  </si>
-  <si>
     <t>2:0</t>
   </si>
   <si>
@@ -524,13 +590,10 @@
     <t>8.00</t>
   </si>
   <si>
-    <t>8.0000</t>
-  </si>
-  <si>
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>48.0000</t>
+    <t>72.0000</t>
   </si>
   <si>
     <t>مزيل عرق فوج FOGG MASTER</t>
@@ -542,7 +605,7 @@
     <t>120.0000</t>
   </si>
   <si>
-    <t>Thursday, 28 August, 2025 6:59 PM</t>
+    <t>Thursday, 28 August, 2025 7:01 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1249,7 +1312,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1259,14 +1322,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1275,31 +1338,31 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1308,14 +1371,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1332,7 +1395,7 @@
         <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1341,20 +1404,20 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
@@ -1365,7 +1428,7 @@
         <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>37</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1374,20 +1437,20 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
@@ -1398,7 +1461,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1424,14 +1487,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1440,31 +1503,31 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1473,14 +1536,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1490,14 +1553,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1506,14 +1569,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1523,11 +1586,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>12</v>
@@ -1539,14 +1602,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1556,14 +1619,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1572,14 +1635,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1593,10 +1656,10 @@
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>61</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1612,7 +1675,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1622,14 +1685,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>42</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1638,14 +1701,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1655,14 +1718,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1671,14 +1734,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1688,14 +1751,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1704,14 +1767,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1721,11 +1784,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>12</v>
@@ -1737,31 +1800,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1770,14 +1833,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1787,14 +1850,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>81</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1803,31 +1866,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>32</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1836,14 +1899,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1860,7 +1923,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>32</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1869,14 +1932,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1886,14 +1949,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1902,14 +1965,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1926,7 +1989,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>37</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1942,7 +2005,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1959,7 +2022,7 @@
         <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1975,24 +2038,24 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2001,7 +2064,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2014,15 +2077,15 @@
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>31</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -2034,28 +2097,28 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -2067,31 +2130,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2100,14 +2163,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2117,14 +2180,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2133,31 +2196,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2166,14 +2229,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2183,14 +2246,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2206,24 +2269,24 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>118</v>
+        <v>17</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2232,14 +2295,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2249,14 +2312,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2265,31 +2328,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>123</v>
+        <v>21</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>61</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2298,14 +2361,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2315,11 +2378,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2331,14 +2394,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2348,11 +2411,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2371,7 +2434,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2381,14 +2444,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>69</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2397,14 +2460,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>129</v>
+        <v>17</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2414,14 +2477,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>63</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2430,14 +2493,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2447,14 +2510,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2463,14 +2526,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2480,11 +2543,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2496,28 +2559,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2529,31 +2592,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>149</v>
+        <v>22</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2562,31 +2625,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>46</v>
+        <v>146</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2595,31 +2658,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>17</v>
+        <v>150</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>67</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>46</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2628,20 +2691,20 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>17</v>
+        <v>154</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -2652,7 +2715,7 @@
         <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>129</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2668,24 +2731,24 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>17</v>
+        <v>139</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>134</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>159</v>
+        <v>139</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2694,28 +2757,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -2734,21 +2797,21 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>17</v>
+        <v>164</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -2760,31 +2823,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>17</v>
+        <v>168</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>146</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>168</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2793,28 +2856,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -2833,24 +2896,24 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>144</v>
+        <v>17</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>79</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>168</v>
+        <v>175</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2859,66 +2922,297 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>175</v>
+        <v>17</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>35</v>
+        <v>177</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="A59" s="7">
+        <v>53</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c t="s" r="C59" s="8">
+        <v>179</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c t="s" r="H59" s="9">
+        <v>17</v>
+      </c>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c t="s" r="L59" s="10">
+        <v>34</v>
+      </c>
+      <c r="M59" s="10"/>
+      <c t="s" r="N59" s="8">
+        <v>180</v>
+      </c>
+      <c r="O59" s="8"/>
+      <c t="s" r="P59" s="11">
+        <v>181</v>
+      </c>
+      <c t="s" r="Q59" s="12">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="A60" s="7">
+        <v>54</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c t="s" r="C60" s="8">
+        <v>182</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c t="s" r="H60" s="9">
+        <v>183</v>
+      </c>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c t="s" r="L60" s="10">
+        <v>34</v>
+      </c>
+      <c r="M60" s="10"/>
+      <c t="s" r="N60" s="8">
+        <v>184</v>
+      </c>
+      <c r="O60" s="8"/>
+      <c t="s" r="P60" s="11">
+        <v>185</v>
+      </c>
+      <c t="s" r="Q60" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="59" ht="25.5" customHeight="1">
-      <c r="P59" s="13">
-        <v>2013.3800000000001</v>
-      </c>
-      <c r="Q59" s="13"/>
-    </row>
-    <row r="60" ht="16.5" customHeight="1">
-      <c t="s" r="A60" s="14">
-        <v>177</v>
-      </c>
-      <c r="B60" s="14"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
-      <c t="s" r="G60" s="15">
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="A61" s="7">
+        <v>55</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c t="s" r="C61" s="8">
+        <v>186</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c t="s" r="H61" s="9">
+        <v>17</v>
+      </c>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c t="s" r="L61" s="10">
+        <v>34</v>
+      </c>
+      <c r="M61" s="10"/>
+      <c t="s" r="N61" s="8">
+        <v>187</v>
+      </c>
+      <c r="O61" s="8"/>
+      <c t="s" r="P61" s="11">
+        <v>188</v>
+      </c>
+      <c t="s" r="Q61" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="A62" s="7">
+        <v>56</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c t="s" r="C62" s="8">
+        <v>189</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c t="s" r="H62" s="9">
+        <v>17</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c t="s" r="L62" s="10">
+        <v>34</v>
+      </c>
+      <c r="M62" s="10"/>
+      <c t="s" r="N62" s="8">
+        <v>165</v>
+      </c>
+      <c r="O62" s="8"/>
+      <c t="s" r="P62" s="11">
+        <v>162</v>
+      </c>
+      <c t="s" r="Q62" s="12">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="A63" s="7">
+        <v>57</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c t="s" r="C63" s="8">
+        <v>191</v>
+      </c>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c t="s" r="H63" s="9">
+        <v>17</v>
+      </c>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c t="s" r="L63" s="10">
+        <v>34</v>
+      </c>
+      <c r="M63" s="10"/>
+      <c t="s" r="N63" s="8">
+        <v>192</v>
+      </c>
+      <c r="O63" s="8"/>
+      <c t="s" r="P63" s="11">
         <v>178</v>
       </c>
-      <c r="H60" s="15"/>
-      <c r="I60" s="15"/>
-      <c r="J60" s="16"/>
-      <c t="s" r="K60" s="17">
-        <v>179</v>
-      </c>
-      <c r="L60" s="17"/>
-      <c r="M60" s="17"/>
-      <c r="N60" s="17"/>
-      <c r="O60" s="17"/>
-      <c r="P60" s="17"/>
-      <c r="Q60" s="17"/>
+      <c t="s" r="Q63" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="A64" s="7">
+        <v>58</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c t="s" r="C64" s="8">
+        <v>193</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c t="s" r="H64" s="9">
+        <v>154</v>
+      </c>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c t="s" r="L64" s="10">
+        <v>34</v>
+      </c>
+      <c r="M64" s="10"/>
+      <c t="s" r="N64" s="8">
+        <v>86</v>
+      </c>
+      <c r="O64" s="8"/>
+      <c t="s" r="P64" s="11">
+        <v>194</v>
+      </c>
+      <c t="s" r="Q64" s="12">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="A65" s="7">
+        <v>59</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c t="s" r="C65" s="8">
+        <v>195</v>
+      </c>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c t="s" r="H65" s="9">
+        <v>196</v>
+      </c>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c t="s" r="L65" s="10">
+        <v>34</v>
+      </c>
+      <c r="M65" s="10"/>
+      <c t="s" r="N65" s="8">
+        <v>43</v>
+      </c>
+      <c r="O65" s="8"/>
+      <c t="s" r="P65" s="11">
+        <v>197</v>
+      </c>
+      <c t="s" r="Q65" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="P66" s="13">
+        <v>2400.0100000000002</v>
+      </c>
+      <c r="Q66" s="13"/>
+    </row>
+    <row r="67" ht="16.5" customHeight="1">
+      <c t="s" r="A67" s="14">
+        <v>198</v>
+      </c>
+      <c r="B67" s="14"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+      <c t="s" r="G67" s="15">
+        <v>199</v>
+      </c>
+      <c r="H67" s="15"/>
+      <c r="I67" s="15"/>
+      <c r="J67" s="16"/>
+      <c t="s" r="K67" s="17">
+        <v>200</v>
+      </c>
+      <c r="L67" s="17"/>
+      <c r="M67" s="17"/>
+      <c r="N67" s="17"/>
+      <c r="O67" s="17"/>
+      <c r="P67" s="17"/>
+      <c r="Q67" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="272">
+  <mergeCells count="307">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3187,10 +3481,45 @@
     <mergeCell ref="H58:K58"/>
     <mergeCell ref="L58:M58"/>
     <mergeCell ref="N58:O58"/>
-    <mergeCell ref="P59:Q59"/>
-    <mergeCell ref="A60:F60"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="K60:Q60"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="A67:F67"/>
+    <mergeCell ref="G67:I67"/>
+    <mergeCell ref="K67:Q67"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-28_00-00.xlsx
+++ b/DaySale_2025-08-28_00-00.xlsx
@@ -605,7 +605,7 @@
     <t>120.0000</t>
   </si>
   <si>
-    <t>Thursday, 28 August, 2025 7:01 PM</t>
+    <t>Thursday, 28 August, 2025 7:16 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-28_00-00.xlsx
+++ b/DaySale_2025-08-28_00-00.xlsx
@@ -440,6 +440,18 @@
     <t>50.0000</t>
   </si>
   <si>
+    <t>URIVIN-N 10 EFF. SACHETS</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
   </si>
   <si>
@@ -599,13 +611,10 @@
     <t>مزيل عرق فوج FOGG MASTER</t>
   </si>
   <si>
-    <t>5:0</t>
-  </si>
-  <si>
     <t>120.0000</t>
   </si>
   <si>
-    <t>Thursday, 28 August, 2025 7:16 PM</t>
+    <t>Thursday, 28 August, 2025 7:19 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2599,7 +2608,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2609,14 +2618,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>22</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2625,14 +2634,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2642,7 +2651,7 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>22</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
@@ -2715,7 +2724,7 @@
         <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2731,7 +2740,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2741,14 +2750,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>139</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2757,31 +2766,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
         <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>139</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2863,7 +2872,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>54</v>
+        <v>172</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2873,11 +2882,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -2889,14 +2898,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2913,7 +2922,7 @@
         <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>175</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2946,7 +2955,7 @@
         <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>111</v>
+        <v>179</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2955,7 +2964,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -2972,14 +2981,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>160</v>
+        <v>111</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2988,14 +2997,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>183</v>
+        <v>17</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3012,7 +3021,7 @@
         <v>185</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>164</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3028,7 +3037,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>17</v>
+        <v>187</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3038,11 +3047,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3054,7 +3063,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3071,14 +3080,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>165</v>
+        <v>191</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>162</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>190</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3087,7 +3096,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3104,14 +3113,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>194</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3120,14 +3129,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>154</v>
+        <v>17</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3137,14 +3146,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>86</v>
+        <v>196</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>139</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3153,14 +3162,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>196</v>
+        <v>158</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3170,49 +3179,82 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>139</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
-      <c r="P66" s="13">
-        <v>2400.0100000000002</v>
-      </c>
-      <c r="Q66" s="13"/>
-    </row>
-    <row r="67" ht="16.5" customHeight="1">
-      <c t="s" r="A67" s="14">
-        <v>198</v>
-      </c>
-      <c r="B67" s="14"/>
-      <c r="C67" s="14"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
-      <c t="s" r="G67" s="15">
+      <c r="A66" s="7">
+        <v>60</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c t="s" r="C66" s="8">
         <v>199</v>
       </c>
-      <c r="H67" s="15"/>
-      <c r="I67" s="15"/>
-      <c r="J67" s="16"/>
-      <c t="s" r="K67" s="17">
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c t="s" r="H66" s="9">
+        <v>144</v>
+      </c>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c t="s" r="L66" s="10">
+        <v>34</v>
+      </c>
+      <c r="M66" s="10"/>
+      <c t="s" r="N66" s="8">
+        <v>43</v>
+      </c>
+      <c r="O66" s="8"/>
+      <c t="s" r="P66" s="11">
         <v>200</v>
       </c>
-      <c r="L67" s="17"/>
-      <c r="M67" s="17"/>
-      <c r="N67" s="17"/>
-      <c r="O67" s="17"/>
-      <c r="P67" s="17"/>
-      <c r="Q67" s="17"/>
+      <c t="s" r="Q66" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="P67" s="13">
+        <v>2431.0100000000002</v>
+      </c>
+      <c r="Q67" s="13"/>
+    </row>
+    <row r="68" ht="16.5" customHeight="1">
+      <c t="s" r="A68" s="14">
+        <v>201</v>
+      </c>
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c t="s" r="G68" s="15">
+        <v>202</v>
+      </c>
+      <c r="H68" s="15"/>
+      <c r="I68" s="15"/>
+      <c r="J68" s="16"/>
+      <c t="s" r="K68" s="17">
+        <v>203</v>
+      </c>
+      <c r="L68" s="17"/>
+      <c r="M68" s="17"/>
+      <c r="N68" s="17"/>
+      <c r="O68" s="17"/>
+      <c r="P68" s="17"/>
+      <c r="Q68" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="307">
+  <mergeCells count="312">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3516,10 +3558,15 @@
     <mergeCell ref="H65:K65"/>
     <mergeCell ref="L65:M65"/>
     <mergeCell ref="N65:O65"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="A67:F67"/>
-    <mergeCell ref="G67:I67"/>
-    <mergeCell ref="K67:Q67"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="A68:F68"/>
+    <mergeCell ref="G68:I68"/>
+    <mergeCell ref="K68:Q68"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-28_00-00.xlsx
+++ b/DaySale_2025-08-28_00-00.xlsx
@@ -236,6 +236,15 @@
     <t>40.0000</t>
   </si>
   <si>
+    <t>DURY 10 SACHET</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
     <t>EFEMYO OPHTH. SUSP. 10 ML</t>
   </si>
   <si>
@@ -266,102 +275,111 @@
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
-    <t>4:3</t>
+    <t>4:2</t>
   </si>
   <si>
     <t>24.00</t>
   </si>
   <si>
+    <t>27.6000</t>
+  </si>
+  <si>
+    <t>FLOPADEX 8 MG 30 CAPSULES</t>
+  </si>
+  <si>
+    <t>177.00</t>
+  </si>
+  <si>
+    <t>58.4100</t>
+  </si>
+  <si>
+    <t>FLUMOX 500MG 16 CAPS</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>35.5000</t>
+  </si>
+  <si>
+    <t>GLAPTIVIA 100MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>303.00</t>
+  </si>
+  <si>
+    <t>99.9900</t>
+  </si>
+  <si>
+    <t>GLIPTUS PLUS 50/1000MG 30 TABLETS</t>
+  </si>
+  <si>
+    <t>192.00</t>
+  </si>
+  <si>
+    <t>63.3600</t>
+  </si>
+  <si>
+    <t>GLOMETHASONE 8MG/2ML IM/IV 3 AMP</t>
+  </si>
+  <si>
+    <t>5:1</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>-21.7800</t>
+  </si>
+  <si>
+    <t>GYNERA 21 C.TABS</t>
+  </si>
+  <si>
+    <t>124.00</t>
+  </si>
+  <si>
+    <t>124.0000</t>
+  </si>
+  <si>
+    <t>HERO VITAMIN DROPS</t>
+  </si>
+  <si>
+    <t>32.00</t>
+  </si>
+  <si>
+    <t>32.0000</t>
+  </si>
+  <si>
+    <t>IS IS بقدونس كرفس</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>KENACOMB TOPICAL CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>MILGA 40 TABLETS</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>NAUSILEX 50MG/2ML I.V/I.M 3 AMPOULES</t>
+  </si>
+  <si>
     <t>23.7600</t>
   </si>
   <si>
-    <t>0:6</t>
-  </si>
-  <si>
-    <t>FLUMOX 500MG 16 CAPS</t>
-  </si>
-  <si>
-    <t>71.00</t>
-  </si>
-  <si>
-    <t>35.5000</t>
-  </si>
-  <si>
-    <t>GLAPTIVIA 100MG 30 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>303.00</t>
-  </si>
-  <si>
-    <t>99.9900</t>
-  </si>
-  <si>
-    <t>GLIPTUS PLUS 50/1000MG 30 TABLETS</t>
-  </si>
-  <si>
-    <t>192.00</t>
-  </si>
-  <si>
-    <t>63.3600</t>
-  </si>
-  <si>
-    <t>GLOMETHASONE 8MG/2ML IM/IV 3 AMP</t>
-  </si>
-  <si>
-    <t>5:1</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>-21.7800</t>
-  </si>
-  <si>
-    <t>GYNERA 21 C.TABS</t>
-  </si>
-  <si>
-    <t>124.00</t>
-  </si>
-  <si>
-    <t>124.0000</t>
-  </si>
-  <si>
-    <t>HERO VITAMIN DROPS</t>
-  </si>
-  <si>
-    <t>32.00</t>
-  </si>
-  <si>
-    <t>32.0000</t>
-  </si>
-  <si>
-    <t>IS IS بقدونس كرفس</t>
-  </si>
-  <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>KENACOMB TOPICAL CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>MILGA 40 TABLETS</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>27.0000</t>
-  </si>
-  <si>
-    <t>NAUSILEX 50MG/2ML I.V/I.M 3 AMPOULES</t>
-  </si>
-  <si>
     <t xml:space="preserve">OLOHISTINE FORTE  DROPS</t>
   </si>
   <si>
@@ -401,6 +419,15 @@
     <t>21.0000</t>
   </si>
   <si>
+    <t>RECOXIBRIGHT 120 MG 7 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>88.00</t>
+  </si>
+  <si>
+    <t>88.0000</t>
+  </si>
+  <si>
     <t>SACROFER 100MG/5ML 5 AMP FOR I.V. INJ.</t>
   </si>
   <si>
@@ -464,9 +491,6 @@
     <t>1:4</t>
   </si>
   <si>
-    <t>90.00</t>
-  </si>
-  <si>
     <t>14.4000</t>
   </si>
   <si>
@@ -596,6 +620,9 @@
     <t>2:0</t>
   </si>
   <si>
+    <t>كريم بانسيه</t>
+  </si>
+  <si>
     <t>مجموعه برد</t>
   </si>
   <si>
@@ -614,7 +641,7 @@
     <t>120.0000</t>
   </si>
   <si>
-    <t>Thursday, 28 August, 2025 7:19 PM</t>
+    <t>Thursday, 28 August, 2025 7:21 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1849,7 +1876,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1859,11 +1886,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>12</v>
@@ -1875,31 +1902,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>45</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1908,31 +1935,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>88</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1941,14 +1968,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1958,14 +1985,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>24</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1974,14 +2001,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1991,11 +2018,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>24</v>
@@ -2007,14 +2034,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2024,11 +2051,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>24</v>
@@ -2040,14 +2067,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2057,14 +2084,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>45</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2073,14 +2100,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2090,14 +2117,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2106,31 +2133,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2139,7 +2166,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2152,15 +2179,15 @@
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>40</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -2179,17 +2206,17 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>111</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>22</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
@@ -2212,13 +2239,13 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2226,10 +2253,10 @@
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2238,14 +2265,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>26</v>
+        <v>116</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2255,14 +2282,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2271,31 +2298,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2304,14 +2331,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2321,7 +2348,7 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
@@ -2344,7 +2371,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2354,14 +2381,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2370,14 +2397,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2387,14 +2414,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2403,31 +2430,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2443,7 +2470,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>131</v>
+        <v>24</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2453,14 +2480,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>69</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2469,14 +2496,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2486,11 +2513,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2509,7 +2536,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2519,14 +2546,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2535,14 +2562,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2552,14 +2579,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2568,14 +2595,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>139</v>
+        <v>17</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2585,11 +2612,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2601,14 +2628,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>144</v>
+        <v>84</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2618,14 +2645,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>119</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2641,7 +2668,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2651,14 +2678,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>22</v>
+        <v>134</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2674,7 +2701,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2684,14 +2711,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2700,14 +2727,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2717,14 +2744,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2733,14 +2760,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2750,14 +2777,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>22</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2766,14 +2793,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2783,14 +2810,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>76</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>139</v>
+        <v>24</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2799,31 +2826,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2832,28 +2859,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -2865,31 +2892,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>148</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2898,14 +2925,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>54</v>
+        <v>172</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2931,14 +2958,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2955,7 +2982,7 @@
         <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>179</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2964,14 +2991,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>17</v>
+        <v>180</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2988,7 +3015,7 @@
         <v>182</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>111</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3004,7 +3031,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3014,14 +3041,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>164</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3030,14 +3057,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>187</v>
+        <v>17</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3047,14 +3074,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>187</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3063,7 +3090,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3080,14 +3107,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>116</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3096,7 +3123,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3113,14 +3140,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>169</v>
+        <v>192</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>194</v>
+        <v>172</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3129,14 +3156,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>17</v>
+        <v>195</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3150,7 +3177,7 @@
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3162,14 +3189,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>158</v>
+        <v>17</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3179,14 +3206,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>86</v>
+        <v>199</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>139</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3195,14 +3222,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>144</v>
+        <v>17</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3212,49 +3239,181 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>43</v>
+        <v>177</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>200</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>202</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
-      <c r="P67" s="13">
-        <v>2431.0100000000002</v>
-      </c>
-      <c r="Q67" s="13"/>
-    </row>
-    <row r="68" ht="16.5" customHeight="1">
-      <c t="s" r="A68" s="14">
-        <v>201</v>
-      </c>
-      <c r="B68" s="14"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
-      <c t="s" r="G68" s="15">
-        <v>202</v>
-      </c>
-      <c r="H68" s="15"/>
-      <c r="I68" s="15"/>
-      <c r="J68" s="16"/>
-      <c t="s" r="K68" s="17">
+      <c r="A67" s="7">
+        <v>61</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c t="s" r="C67" s="8">
         <v>203</v>
       </c>
-      <c r="L68" s="17"/>
-      <c r="M68" s="17"/>
-      <c r="N68" s="17"/>
-      <c r="O68" s="17"/>
-      <c r="P68" s="17"/>
-      <c r="Q68" s="17"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c t="s" r="H67" s="9">
+        <v>148</v>
+      </c>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c t="s" r="L67" s="10">
+        <v>34</v>
+      </c>
+      <c r="M67" s="10"/>
+      <c t="s" r="N67" s="8">
+        <v>173</v>
+      </c>
+      <c r="O67" s="8"/>
+      <c t="s" r="P67" s="11">
+        <v>174</v>
+      </c>
+      <c t="s" r="Q67" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="A68" s="7">
+        <v>62</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c t="s" r="C68" s="8">
+        <v>204</v>
+      </c>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c t="s" r="H68" s="9">
+        <v>17</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c t="s" r="L68" s="10">
+        <v>34</v>
+      </c>
+      <c r="M68" s="10"/>
+      <c t="s" r="N68" s="8">
+        <v>205</v>
+      </c>
+      <c r="O68" s="8"/>
+      <c t="s" r="P68" s="11">
+        <v>190</v>
+      </c>
+      <c t="s" r="Q68" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="A69" s="7">
+        <v>63</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c t="s" r="C69" s="8">
+        <v>206</v>
+      </c>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c t="s" r="H69" s="9">
+        <v>166</v>
+      </c>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c t="s" r="L69" s="10">
+        <v>34</v>
+      </c>
+      <c r="M69" s="10"/>
+      <c t="s" r="N69" s="8">
+        <v>89</v>
+      </c>
+      <c r="O69" s="8"/>
+      <c t="s" r="P69" s="11">
+        <v>207</v>
+      </c>
+      <c t="s" r="Q69" s="12">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="A70" s="7">
+        <v>64</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c t="s" r="C70" s="8">
+        <v>208</v>
+      </c>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c t="s" r="H70" s="9">
+        <v>153</v>
+      </c>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c t="s" r="L70" s="10">
+        <v>34</v>
+      </c>
+      <c r="M70" s="10"/>
+      <c t="s" r="N70" s="8">
+        <v>43</v>
+      </c>
+      <c r="O70" s="8"/>
+      <c t="s" r="P70" s="11">
+        <v>209</v>
+      </c>
+      <c t="s" r="Q70" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="P71" s="13">
+        <v>2701.2600000000002</v>
+      </c>
+      <c r="Q71" s="13"/>
+    </row>
+    <row r="72" ht="16.5" customHeight="1">
+      <c t="s" r="A72" s="14">
+        <v>210</v>
+      </c>
+      <c r="B72" s="14"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
+      <c t="s" r="G72" s="15">
+        <v>211</v>
+      </c>
+      <c r="H72" s="15"/>
+      <c r="I72" s="15"/>
+      <c r="J72" s="16"/>
+      <c t="s" r="K72" s="17">
+        <v>212</v>
+      </c>
+      <c r="L72" s="17"/>
+      <c r="M72" s="17"/>
+      <c r="N72" s="17"/>
+      <c r="O72" s="17"/>
+      <c r="P72" s="17"/>
+      <c r="Q72" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="312">
+  <mergeCells count="332">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3563,10 +3722,30 @@
     <mergeCell ref="H66:K66"/>
     <mergeCell ref="L66:M66"/>
     <mergeCell ref="N66:O66"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="A68:F68"/>
-    <mergeCell ref="G68:I68"/>
-    <mergeCell ref="K68:Q68"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="A72:F72"/>
+    <mergeCell ref="G72:I72"/>
+    <mergeCell ref="K72:Q72"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-28_00-00.xlsx
+++ b/DaySale_2025-08-28_00-00.xlsx
@@ -302,6 +302,18 @@
     <t>35.5000</t>
   </si>
   <si>
+    <t>FUTAPAN 40 MG VIAL I.V.</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>59.50</t>
+  </si>
+  <si>
+    <t>59.5000</t>
+  </si>
+  <si>
     <t>GLAPTIVIA 100MG 30 F.C. TAB.</t>
   </si>
   <si>
@@ -398,6 +410,15 @@
     <t>79.2000</t>
   </si>
   <si>
+    <t>OSTEOCARE 30 TABS</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
     <t>PANADOL EXTRA 48 TAB</t>
   </si>
   <si>
@@ -470,9 +491,6 @@
     <t>URIVIN-N 10 EFF. SACHETS</t>
   </si>
   <si>
-    <t>5:0</t>
-  </si>
-  <si>
     <t>31.00</t>
   </si>
   <si>
@@ -488,10 +506,7 @@
     <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
   </si>
   <si>
-    <t>1:4</t>
-  </si>
-  <si>
-    <t>14.4000</t>
+    <t>28.8000</t>
   </si>
   <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
@@ -590,7 +605,7 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>24.0000</t>
+    <t>9:0</t>
   </si>
   <si>
     <t xml:space="preserve">شاش 7 سم </t>
@@ -632,7 +647,10 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>72.0000</t>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>96.0000</t>
   </si>
   <si>
     <t>مزيل عرق فوج FOGG MASTER</t>
@@ -641,7 +659,7 @@
     <t>120.0000</t>
   </si>
   <si>
-    <t>Thursday, 28 August, 2025 7:21 PM</t>
+    <t>Thursday, 28 August, 2025 7:29 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2074,7 +2092,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2084,14 +2102,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2100,14 +2118,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2117,11 +2135,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>24</v>
@@ -2133,14 +2151,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2157,7 +2175,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>45</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2173,7 +2191,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2183,14 +2201,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2199,7 +2217,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2212,15 +2230,15 @@
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -2232,7 +2250,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2249,11 +2267,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>40</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2265,28 +2283,28 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>116</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>22</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2298,14 +2316,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>52</v>
+        <v>120</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2315,14 +2333,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>22</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2331,14 +2349,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2348,11 +2366,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>85</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>24</v>
@@ -2364,31 +2382,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>85</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2397,31 +2415,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2430,28 +2448,28 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>24</v>
@@ -2463,14 +2481,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2480,14 +2498,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2496,31 +2514,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2529,14 +2547,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2546,11 +2564,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2562,14 +2580,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>140</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2586,7 +2604,7 @@
         <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>69</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2616,7 +2634,7 @@
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2628,14 +2646,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>84</v>
+        <v>147</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2645,14 +2663,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>24</v>
+        <v>69</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2661,14 +2679,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>148</v>
+        <v>17</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2678,11 +2696,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2694,14 +2712,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>148</v>
+        <v>84</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2711,14 +2729,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2727,14 +2745,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2744,11 +2762,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -2767,7 +2785,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2777,14 +2795,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>22</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2793,14 +2811,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>159</v>
+        <v>98</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2810,14 +2828,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>76</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2826,14 +2844,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2843,11 +2861,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>22</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>24</v>
@@ -2859,14 +2877,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>166</v>
+        <v>38</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2876,14 +2894,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>76</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2892,14 +2910,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2909,14 +2927,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>148</v>
+        <v>24</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2925,28 +2943,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -2958,31 +2976,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>155</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2991,14 +3009,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3008,11 +3026,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -3024,14 +3042,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>54</v>
+        <v>181</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3041,11 +3059,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3064,7 +3082,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>17</v>
+        <v>185</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3074,14 +3092,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>187</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3097,7 +3115,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3107,14 +3125,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>116</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3123,7 +3141,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3140,14 +3158,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>172</v>
+        <v>192</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3156,14 +3174,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>195</v>
+        <v>17</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3173,14 +3191,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>120</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3189,7 +3207,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3206,14 +3224,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>200</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>198</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3222,14 +3240,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>17</v>
+        <v>200</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3239,14 +3257,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>174</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>202</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3262,7 +3280,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>148</v>
+        <v>17</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3272,11 +3290,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>173</v>
+        <v>204</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>174</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3288,7 +3306,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3305,14 +3323,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>205</v>
+        <v>182</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>207</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3321,14 +3339,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3338,14 +3356,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>89</v>
+        <v>178</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>207</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>148</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3354,14 +3372,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>153</v>
+        <v>17</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3371,49 +3389,115 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>43</v>
+        <v>210</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
-      <c r="P71" s="13">
-        <v>2701.2600000000002</v>
-      </c>
-      <c r="Q71" s="13"/>
-    </row>
-    <row r="72" ht="16.5" customHeight="1">
-      <c t="s" r="A72" s="14">
-        <v>210</v>
-      </c>
-      <c r="B72" s="14"/>
-      <c r="C72" s="14"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
-      <c t="s" r="G72" s="15">
+      <c r="A71" s="7">
+        <v>65</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c t="s" r="C71" s="8">
         <v>211</v>
       </c>
-      <c r="H72" s="15"/>
-      <c r="I72" s="15"/>
-      <c r="J72" s="16"/>
-      <c t="s" r="K72" s="17">
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c t="s" r="H71" s="9">
         <v>212</v>
       </c>
-      <c r="L72" s="17"/>
-      <c r="M72" s="17"/>
-      <c r="N72" s="17"/>
-      <c r="O72" s="17"/>
-      <c r="P72" s="17"/>
-      <c r="Q72" s="17"/>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c t="s" r="L71" s="10">
+        <v>34</v>
+      </c>
+      <c r="M71" s="10"/>
+      <c t="s" r="N71" s="8">
+        <v>89</v>
+      </c>
+      <c r="O71" s="8"/>
+      <c t="s" r="P71" s="11">
+        <v>213</v>
+      </c>
+      <c t="s" r="Q71" s="12">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="A72" s="7">
+        <v>66</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c t="s" r="C72" s="8">
+        <v>214</v>
+      </c>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c t="s" r="H72" s="9">
+        <v>98</v>
+      </c>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c t="s" r="L72" s="10">
+        <v>34</v>
+      </c>
+      <c r="M72" s="10"/>
+      <c t="s" r="N72" s="8">
+        <v>43</v>
+      </c>
+      <c r="O72" s="8"/>
+      <c t="s" r="P72" s="11">
+        <v>215</v>
+      </c>
+      <c t="s" r="Q72" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="P73" s="13">
+        <v>2877.1599999999999</v>
+      </c>
+      <c r="Q73" s="13"/>
+    </row>
+    <row r="74" ht="16.5" customHeight="1">
+      <c t="s" r="A74" s="14">
+        <v>216</v>
+      </c>
+      <c r="B74" s="14"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="14"/>
+      <c r="F74" s="14"/>
+      <c t="s" r="G74" s="15">
+        <v>217</v>
+      </c>
+      <c r="H74" s="15"/>
+      <c r="I74" s="15"/>
+      <c r="J74" s="16"/>
+      <c t="s" r="K74" s="17">
+        <v>218</v>
+      </c>
+      <c r="L74" s="17"/>
+      <c r="M74" s="17"/>
+      <c r="N74" s="17"/>
+      <c r="O74" s="17"/>
+      <c r="P74" s="17"/>
+      <c r="Q74" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="332">
+  <mergeCells count="342">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3742,10 +3826,20 @@
     <mergeCell ref="H70:K70"/>
     <mergeCell ref="L70:M70"/>
     <mergeCell ref="N70:O70"/>
-    <mergeCell ref="P71:Q71"/>
-    <mergeCell ref="A72:F72"/>
-    <mergeCell ref="G72:I72"/>
-    <mergeCell ref="K72:Q72"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="P73:Q73"/>
+    <mergeCell ref="A74:F74"/>
+    <mergeCell ref="G74:I74"/>
+    <mergeCell ref="K74:Q74"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-28_00-00.xlsx
+++ b/DaySale_2025-08-28_00-00.xlsx
@@ -659,7 +659,7 @@
     <t>120.0000</t>
   </si>
   <si>
-    <t>Thursday, 28 August, 2025 7:29 PM</t>
+    <t>Thursday, 28 August, 2025 7:30 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-28_00-00.xlsx
+++ b/DaySale_2025-08-28_00-00.xlsx
@@ -509,6 +509,15 @@
     <t>28.8000</t>
   </si>
   <si>
+    <t>VOLTAREN 1% EMULGEL 25 GM</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -659,7 +668,7 @@
     <t>120.0000</t>
   </si>
   <si>
-    <t>Thursday, 28 August, 2025 7:30 PM</t>
+    <t>Thursday, 28 August, 2025 7:39 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2917,7 +2926,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>167</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2927,14 +2936,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2943,14 +2952,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2960,14 +2969,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2976,14 +2985,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2993,14 +3002,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>155</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3009,31 +3018,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>155</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3042,14 +3051,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3059,11 +3068,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3075,14 +3084,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3092,11 +3101,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3108,14 +3117,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>54</v>
+        <v>188</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3125,11 +3134,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3141,14 +3150,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3158,14 +3167,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>192</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3174,7 +3183,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3191,14 +3200,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
+        <v>194</v>
+      </c>
+      <c t="s" r="Q64" s="12">
         <v>195</v>
-      </c>
-      <c t="s" r="Q64" s="12">
-        <v>120</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3228,10 +3237,10 @@
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>124</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>198</v>
+        <v>120</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3247,7 +3256,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>200</v>
+        <v>17</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3257,14 +3266,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>202</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>201</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3273,14 +3282,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>17</v>
+        <v>203</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3323,14 +3332,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>182</v>
+        <v>207</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>179</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>207</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3339,14 +3348,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>155</v>
+        <v>17</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3356,14 +3365,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>210</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3372,14 +3381,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>17</v>
+        <v>155</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3389,11 +3398,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>210</v>
+        <v>181</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3405,14 +3414,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>212</v>
+        <v>17</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3422,14 +3431,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>89</v>
+        <v>213</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>120</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3445,7 +3454,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>98</v>
+        <v>215</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3455,49 +3464,82 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>120</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
-      <c r="P73" s="13">
-        <v>2877.1599999999999</v>
-      </c>
-      <c r="Q73" s="13"/>
-    </row>
-    <row r="74" ht="16.5" customHeight="1">
-      <c t="s" r="A74" s="14">
-        <v>216</v>
-      </c>
-      <c r="B74" s="14"/>
-      <c r="C74" s="14"/>
-      <c r="D74" s="14"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="14"/>
-      <c t="s" r="G74" s="15">
+      <c r="A73" s="7">
+        <v>67</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c t="s" r="C73" s="8">
         <v>217</v>
       </c>
-      <c r="H74" s="15"/>
-      <c r="I74" s="15"/>
-      <c r="J74" s="16"/>
-      <c t="s" r="K74" s="17">
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c t="s" r="H73" s="9">
+        <v>98</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c t="s" r="L73" s="10">
+        <v>34</v>
+      </c>
+      <c r="M73" s="10"/>
+      <c t="s" r="N73" s="8">
+        <v>43</v>
+      </c>
+      <c r="O73" s="8"/>
+      <c t="s" r="P73" s="11">
         <v>218</v>
       </c>
-      <c r="L74" s="17"/>
-      <c r="M74" s="17"/>
-      <c r="N74" s="17"/>
-      <c r="O74" s="17"/>
-      <c r="P74" s="17"/>
-      <c r="Q74" s="17"/>
+      <c t="s" r="Q73" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="P74" s="13">
+        <v>2916.1599999999999</v>
+      </c>
+      <c r="Q74" s="13"/>
+    </row>
+    <row r="75" ht="16.5" customHeight="1">
+      <c t="s" r="A75" s="14">
+        <v>219</v>
+      </c>
+      <c r="B75" s="14"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="14"/>
+      <c r="F75" s="14"/>
+      <c t="s" r="G75" s="15">
+        <v>220</v>
+      </c>
+      <c r="H75" s="15"/>
+      <c r="I75" s="15"/>
+      <c r="J75" s="16"/>
+      <c t="s" r="K75" s="17">
+        <v>221</v>
+      </c>
+      <c r="L75" s="17"/>
+      <c r="M75" s="17"/>
+      <c r="N75" s="17"/>
+      <c r="O75" s="17"/>
+      <c r="P75" s="17"/>
+      <c r="Q75" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="342">
+  <mergeCells count="347">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3836,10 +3878,15 @@
     <mergeCell ref="H72:K72"/>
     <mergeCell ref="L72:M72"/>
     <mergeCell ref="N72:O72"/>
-    <mergeCell ref="P73:Q73"/>
-    <mergeCell ref="A74:F74"/>
-    <mergeCell ref="G74:I74"/>
-    <mergeCell ref="K74:Q74"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="P74:Q74"/>
+    <mergeCell ref="A75:F75"/>
+    <mergeCell ref="G75:I75"/>
+    <mergeCell ref="K75:Q75"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-28_00-00.xlsx
+++ b/DaySale_2025-08-28_00-00.xlsx
@@ -107,6 +107,18 @@
     <t>7.0000</t>
   </si>
   <si>
+    <t>ANTODINE 20MG 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>19.8000</t>
+  </si>
+  <si>
     <t xml:space="preserve">ANTODINE20    6 AMP</t>
   </si>
   <si>
@@ -218,9 +230,6 @@
     <t>85.00</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
@@ -329,7 +338,7 @@
     <t>192.00</t>
   </si>
   <si>
-    <t>63.3600</t>
+    <t>126.7200</t>
   </si>
   <si>
     <t>GLOMETHASONE 8MG/2ML IM/IV 3 AMP</t>
@@ -668,7 +677,7 @@
     <t>120.0000</t>
   </si>
   <si>
-    <t>Thursday, 28 August, 2025 7:39 PM</t>
+    <t>Thursday, 28 August, 2025 7:42 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1480,18 +1489,18 @@
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1500,20 +1509,20 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
@@ -1524,7 +1533,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1557,7 +1566,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>45</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1566,20 +1575,20 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
@@ -1590,7 +1599,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>24</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1599,31 +1608,31 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>52</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1649,14 +1658,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1665,14 +1674,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1682,11 +1691,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>12</v>
@@ -1705,7 +1714,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1715,11 +1724,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>12</v>
@@ -1731,14 +1740,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1755,7 +1764,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1785,10 +1794,10 @@
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>69</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1804,7 +1813,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1814,14 +1823,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>50</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1830,14 +1839,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1847,14 +1856,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
         <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1870,7 +1879,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1936,7 +1945,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1946,11 +1955,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -1962,31 +1971,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>45</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1995,31 +2004,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2028,14 +2037,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2052,7 +2061,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>24</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2068,7 +2077,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2101,7 +2110,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2111,14 +2120,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2127,14 +2136,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2151,7 +2160,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2167,7 +2176,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2200,7 +2209,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>108</v>
+        <v>24</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2210,14 +2219,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2226,14 +2235,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2250,7 +2259,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2272,7 +2281,7 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2305,7 +2314,7 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2313,7 +2322,7 @@
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>40</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2325,28 +2334,28 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>22</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2365,7 +2374,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>52</v>
+        <v>123</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2375,14 +2384,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>22</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2398,7 +2407,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2408,11 +2417,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>24</v>
@@ -2424,31 +2433,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>88</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
         <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2464,13 +2473,13 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
@@ -2481,7 +2490,7 @@
         <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2497,7 +2506,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2530,21 +2539,21 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>24</v>
@@ -2556,31 +2565,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2596,7 +2605,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2629,7 +2638,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2662,7 +2671,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>147</v>
+        <v>17</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2672,14 +2681,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>69</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2688,14 +2697,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>17</v>
+        <v>150</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2709,10 +2718,10 @@
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>124</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2721,14 +2730,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2738,14 +2747,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>123</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2754,14 +2763,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>155</v>
+        <v>87</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2771,14 +2780,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2787,14 +2796,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2804,11 +2813,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -2827,7 +2836,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>98</v>
+        <v>158</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2860,7 +2869,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>155</v>
+        <v>101</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2870,14 +2879,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>22</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2886,14 +2895,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>38</v>
+        <v>158</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2903,14 +2912,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>69</v>
+        <v>24</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2919,14 +2928,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2936,14 +2945,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
         <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2959,7 +2968,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>170</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2969,14 +2978,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2985,14 +2994,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3002,14 +3011,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3018,14 +3027,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3035,14 +3044,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>155</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3051,31 +3060,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>158</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3084,28 +3093,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3117,28 +3126,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3150,28 +3159,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>54</v>
+        <v>191</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3183,31 +3192,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>195</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3216,7 +3225,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3229,18 +3238,18 @@
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
+        <v>197</v>
+      </c>
+      <c t="s" r="Q65" s="12">
         <v>198</v>
-      </c>
-      <c t="s" r="Q65" s="12">
-        <v>120</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3262,7 +3271,7 @@
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
@@ -3270,10 +3279,10 @@
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>124</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>201</v>
+        <v>123</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3289,24 +3298,24 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>203</v>
+        <v>17</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>205</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>204</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3315,20 +3324,20 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>17</v>
+        <v>206</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
@@ -3361,18 +3370,18 @@
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>182</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>210</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3381,31 +3390,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>155</v>
+        <v>17</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>213</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3414,28 +3423,28 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>17</v>
+        <v>158</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>213</v>
+        <v>184</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3447,31 +3456,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>215</v>
+        <v>17</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>89</v>
+        <v>216</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>120</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3487,59 +3496,92 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>98</v>
+        <v>218</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>123</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
-      <c r="P74" s="13">
-        <v>2916.1599999999999</v>
-      </c>
-      <c r="Q74" s="13"/>
-    </row>
-    <row r="75" ht="16.5" customHeight="1">
-      <c t="s" r="A75" s="14">
-        <v>219</v>
-      </c>
-      <c r="B75" s="14"/>
-      <c r="C75" s="14"/>
-      <c r="D75" s="14"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="14"/>
-      <c t="s" r="G75" s="15">
+      <c r="A74" s="7">
+        <v>68</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c t="s" r="C74" s="8">
         <v>220</v>
       </c>
-      <c r="H75" s="15"/>
-      <c r="I75" s="15"/>
-      <c r="J75" s="16"/>
-      <c t="s" r="K75" s="17">
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c t="s" r="H74" s="9">
+        <v>101</v>
+      </c>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c t="s" r="L74" s="10">
+        <v>38</v>
+      </c>
+      <c r="M74" s="10"/>
+      <c t="s" r="N74" s="8">
+        <v>47</v>
+      </c>
+      <c r="O74" s="8"/>
+      <c t="s" r="P74" s="11">
         <v>221</v>
       </c>
-      <c r="L75" s="17"/>
-      <c r="M75" s="17"/>
-      <c r="N75" s="17"/>
-      <c r="O75" s="17"/>
-      <c r="P75" s="17"/>
-      <c r="Q75" s="17"/>
+      <c t="s" r="Q74" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="P75" s="13">
+        <v>2999.3200000000002</v>
+      </c>
+      <c r="Q75" s="13"/>
+    </row>
+    <row r="76" ht="16.5" customHeight="1">
+      <c t="s" r="A76" s="14">
+        <v>222</v>
+      </c>
+      <c r="B76" s="14"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="14"/>
+      <c t="s" r="G76" s="15">
+        <v>223</v>
+      </c>
+      <c r="H76" s="15"/>
+      <c r="I76" s="15"/>
+      <c r="J76" s="16"/>
+      <c t="s" r="K76" s="17">
+        <v>224</v>
+      </c>
+      <c r="L76" s="17"/>
+      <c r="M76" s="17"/>
+      <c r="N76" s="17"/>
+      <c r="O76" s="17"/>
+      <c r="P76" s="17"/>
+      <c r="Q76" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="347">
+  <mergeCells count="352">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3883,10 +3925,15 @@
     <mergeCell ref="H73:K73"/>
     <mergeCell ref="L73:M73"/>
     <mergeCell ref="N73:O73"/>
-    <mergeCell ref="P74:Q74"/>
-    <mergeCell ref="A75:F75"/>
-    <mergeCell ref="G75:I75"/>
-    <mergeCell ref="K75:Q75"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="P75:Q75"/>
+    <mergeCell ref="A76:F76"/>
+    <mergeCell ref="G76:I76"/>
+    <mergeCell ref="K76:Q76"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-28_00-00.xlsx
+++ b/DaySale_2025-08-28_00-00.xlsx
@@ -338,7 +338,7 @@
     <t>192.00</t>
   </si>
   <si>
-    <t>126.7200</t>
+    <t>190.0800</t>
   </si>
   <si>
     <t>GLOMETHASONE 8MG/2ML IM/IV 3 AMP</t>
@@ -677,7 +677,7 @@
     <t>120.0000</t>
   </si>
   <si>
-    <t>Thursday, 28 August, 2025 7:42 PM</t>
+    <t>Thursday, 28 August, 2025 7:45 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2209,7 +2209,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2226,7 +2226,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>33</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -3551,7 +3551,7 @@
     </row>
     <row r="75" ht="24.75" customHeight="1">
       <c r="P75" s="13">
-        <v>2999.3200000000002</v>
+        <v>3062.6799999999998</v>
       </c>
       <c r="Q75" s="13"/>
     </row>

--- a/DaySale_2025-08-28_00-00.xlsx
+++ b/DaySale_2025-08-28_00-00.xlsx
@@ -170,6 +170,18 @@
     <t>79.0000</t>
   </si>
   <si>
+    <t>CARBAMIDE 10% CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
     <t>CATAFLAM 75MG/3ML 6 AMP.</t>
   </si>
   <si>
@@ -239,12 +251,6 @@
     <t>DOGMATIL FORT 200MG 10 TAB</t>
   </si>
   <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
     <t>DURY 10 SACHET</t>
   </si>
   <si>
@@ -596,6 +602,18 @@
     <t>حلاوة حرير</t>
   </si>
   <si>
+    <t>زيت فاتيكا كبير 180 مل</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
     <t>سرنجات 10 سم</t>
   </si>
   <si>
@@ -629,9 +647,6 @@
     <t xml:space="preserve">شاش 7 سم </t>
   </si>
   <si>
-    <t>11:0</t>
-  </si>
-  <si>
     <t>6.00</t>
   </si>
   <si>
@@ -650,9 +665,6 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>كريم بانسيه</t>
   </si>
   <si>
@@ -677,7 +689,7 @@
     <t>120.0000</t>
   </si>
   <si>
-    <t>Thursday, 28 August, 2025 7:45 PM</t>
+    <t>Thursday, 28 August, 2025 7:56 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1658,14 +1670,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>56</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1691,14 +1703,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1707,14 +1719,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1724,11 +1736,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>12</v>
@@ -1747,7 +1759,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1757,11 +1769,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>12</v>
@@ -1773,14 +1785,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1797,7 +1809,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1827,10 +1839,10 @@
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1839,14 +1851,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1856,14 +1868,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>54</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1872,14 +1884,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1889,14 +1901,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1905,14 +1917,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1922,11 +1934,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>12</v>
@@ -1938,7 +1950,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1955,11 +1967,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -1971,14 +1983,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1988,7 +2000,7 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
@@ -2011,24 +2023,24 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>49</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2037,31 +2049,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2070,14 +2082,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2087,14 +2099,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>24</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2103,14 +2115,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2120,11 +2132,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>24</v>
@@ -2136,14 +2148,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2153,14 +2165,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2169,14 +2181,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>54</v>
+        <v>103</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2186,14 +2198,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2202,14 +2214,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2219,14 +2231,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>56</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2235,14 +2247,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>111</v>
+        <v>17</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2252,14 +2264,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2268,14 +2280,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2285,14 +2297,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2301,7 +2313,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2314,15 +2326,15 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2334,7 +2346,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2351,11 +2363,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>44</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2374,21 +2386,21 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>123</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>22</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
@@ -2400,14 +2412,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>56</v>
+        <v>125</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2417,14 +2429,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>22</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2433,14 +2445,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2450,7 +2462,7 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
@@ -2473,24 +2485,24 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>90</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2499,31 +2511,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2532,14 +2544,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2549,11 +2561,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>24</v>
@@ -2565,28 +2577,28 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>24</v>
@@ -2598,31 +2610,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2631,14 +2643,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2648,11 +2660,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2664,14 +2676,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2681,11 +2693,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2697,14 +2709,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>150</v>
+        <v>17</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2714,14 +2726,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2730,14 +2742,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>17</v>
+        <v>152</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2747,14 +2759,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2770,7 +2782,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>87</v>
+        <v>17</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2780,14 +2792,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2803,7 +2815,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>158</v>
+        <v>89</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2813,14 +2825,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2836,7 +2848,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2846,11 +2858,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -2862,14 +2874,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>101</v>
+        <v>160</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2879,11 +2891,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -2895,14 +2907,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>158</v>
+        <v>103</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2912,14 +2924,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>22</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
         <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2935,7 +2947,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>42</v>
+        <v>160</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2945,14 +2957,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
         <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2968,7 +2980,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2978,14 +2990,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>81</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2994,14 +3006,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>173</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3011,14 +3023,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3027,14 +3039,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3044,14 +3056,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3060,14 +3072,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3077,14 +3089,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
         <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>158</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3100,24 +3112,24 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>160</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3126,14 +3138,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3143,11 +3155,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3159,14 +3171,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3176,11 +3188,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3192,14 +3204,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>58</v>
+        <v>193</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3209,11 +3221,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3225,14 +3237,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3242,14 +3254,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>198</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3258,14 +3270,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>17</v>
+        <v>198</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3275,14 +3287,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>123</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3291,7 +3303,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3308,11 +3320,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>127</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>204</v>
@@ -3331,7 +3343,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>206</v>
+        <v>17</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3341,14 +3353,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>125</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3357,7 +3369,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3374,14 +3386,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>211</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>210</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3390,14 +3402,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>17</v>
+        <v>198</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3407,14 +3419,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>185</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>213</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3430,7 +3442,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>158</v>
+        <v>17</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3440,11 +3452,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>185</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3456,7 +3468,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3473,14 +3485,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>54</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3489,14 +3501,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>218</v>
+        <v>160</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3506,14 +3518,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>92</v>
+        <v>186</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>219</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>123</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3522,14 +3534,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>101</v>
+        <v>17</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3539,49 +3551,115 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>47</v>
+        <v>220</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
+        <v>207</v>
+      </c>
+      <c t="s" r="Q74" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="A75" s="7">
+        <v>69</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c t="s" r="C75" s="8">
         <v>221</v>
       </c>
-      <c t="s" r="Q74" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="75" ht="24.75" customHeight="1">
-      <c r="P75" s="13">
-        <v>3062.6799999999998</v>
-      </c>
-      <c r="Q75" s="13"/>
-    </row>
-    <row r="76" ht="16.5" customHeight="1">
-      <c t="s" r="A76" s="14">
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c t="s" r="H75" s="9">
         <v>222</v>
       </c>
-      <c r="B76" s="14"/>
-      <c r="C76" s="14"/>
-      <c r="D76" s="14"/>
-      <c r="E76" s="14"/>
-      <c r="F76" s="14"/>
-      <c t="s" r="G76" s="15">
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c t="s" r="L75" s="10">
+        <v>38</v>
+      </c>
+      <c r="M75" s="10"/>
+      <c t="s" r="N75" s="8">
+        <v>94</v>
+      </c>
+      <c r="O75" s="8"/>
+      <c t="s" r="P75" s="11">
         <v>223</v>
       </c>
-      <c r="H76" s="15"/>
-      <c r="I76" s="15"/>
-      <c r="J76" s="16"/>
-      <c t="s" r="K76" s="17">
+      <c t="s" r="Q75" s="12">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="A76" s="7">
+        <v>70</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c t="s" r="C76" s="8">
         <v>224</v>
       </c>
-      <c r="L76" s="17"/>
-      <c r="M76" s="17"/>
-      <c r="N76" s="17"/>
-      <c r="O76" s="17"/>
-      <c r="P76" s="17"/>
-      <c r="Q76" s="17"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c t="s" r="H76" s="9">
+        <v>103</v>
+      </c>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c t="s" r="L76" s="10">
+        <v>38</v>
+      </c>
+      <c r="M76" s="10"/>
+      <c t="s" r="N76" s="8">
+        <v>47</v>
+      </c>
+      <c r="O76" s="8"/>
+      <c t="s" r="P76" s="11">
+        <v>225</v>
+      </c>
+      <c t="s" r="Q76" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="P77" s="13">
+        <v>3147.6799999999998</v>
+      </c>
+      <c r="Q77" s="13"/>
+    </row>
+    <row r="78" ht="16.5" customHeight="1">
+      <c t="s" r="A78" s="14">
+        <v>226</v>
+      </c>
+      <c r="B78" s="14"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="14"/>
+      <c r="F78" s="14"/>
+      <c t="s" r="G78" s="15">
+        <v>227</v>
+      </c>
+      <c r="H78" s="15"/>
+      <c r="I78" s="15"/>
+      <c r="J78" s="16"/>
+      <c t="s" r="K78" s="17">
+        <v>228</v>
+      </c>
+      <c r="L78" s="17"/>
+      <c r="M78" s="17"/>
+      <c r="N78" s="17"/>
+      <c r="O78" s="17"/>
+      <c r="P78" s="17"/>
+      <c r="Q78" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="352">
+  <mergeCells count="362">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3930,10 +4008,20 @@
     <mergeCell ref="H74:K74"/>
     <mergeCell ref="L74:M74"/>
     <mergeCell ref="N74:O74"/>
-    <mergeCell ref="P75:Q75"/>
-    <mergeCell ref="A76:F76"/>
-    <mergeCell ref="G76:I76"/>
-    <mergeCell ref="K76:Q76"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="P77:Q77"/>
+    <mergeCell ref="A78:F78"/>
+    <mergeCell ref="G78:I78"/>
+    <mergeCell ref="K78:Q78"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-28_00-00.xlsx
+++ b/DaySale_2025-08-28_00-00.xlsx
@@ -248,6 +248,15 @@
     <t>47.8800</t>
   </si>
   <si>
+    <t>DEXAZONE 0.5MG 60 TAB</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
     <t>DOGMATIL FORT 200MG 10 TAB</t>
   </si>
   <si>
@@ -368,6 +377,15 @@
     <t>124.0000</t>
   </si>
   <si>
+    <t>HAIRVOGINE 30TAB</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>59.4000</t>
+  </si>
+  <si>
     <t>HERO VITAMIN DROPS</t>
   </si>
   <si>
@@ -539,12 +557,6 @@
     <t>2:2</t>
   </si>
   <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>16.8300</t>
-  </si>
-  <si>
     <t>VOTRIAXONE 1 GM I.M VIAL</t>
   </si>
   <si>
@@ -563,6 +575,18 @@
     <t>168.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">اختبار حمل بيبي تشك </t>
+  </si>
+  <si>
+    <t>15:0</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">برفان القصاص </t>
   </si>
   <si>
@@ -602,6 +626,12 @@
     <t>حلاوة حرير</t>
   </si>
   <si>
+    <t>حنه فاتيكا اسود 1 كيس</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
     <t>زيت فاتيكا كبير 180 مل</t>
   </si>
   <si>
@@ -677,9 +707,6 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>6:0</t>
-  </si>
-  <si>
     <t>96.0000</t>
   </si>
   <si>
@@ -689,7 +716,7 @@
     <t>120.0000</t>
   </si>
   <si>
-    <t>Thursday, 28 August, 2025 7:56 PM</t>
+    <t>Thursday, 28 August, 2025 8:03 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1934,14 +1961,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1950,14 +1977,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1967,11 +1994,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -2023,7 +2050,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2033,11 +2060,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
@@ -2049,31 +2076,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>49</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2082,31 +2109,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2115,14 +2142,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2139,7 +2166,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>24</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2155,7 +2182,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2188,7 +2215,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2198,14 +2225,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2214,14 +2241,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2238,7 +2265,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2254,7 +2281,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2271,7 +2298,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>60</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2287,7 +2314,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2297,14 +2324,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2313,14 +2340,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>116</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2337,7 +2364,7 @@
         <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2359,7 +2386,7 @@
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2386,7 +2413,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2400,10 +2427,10 @@
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>44</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2412,28 +2439,28 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>125</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>22</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2445,31 +2472,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2485,7 +2512,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>26</v>
+        <v>131</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2495,14 +2522,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2511,31 +2538,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2544,14 +2571,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2561,7 +2588,7 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>93</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
@@ -2584,13 +2611,13 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
@@ -2601,7 +2628,7 @@
         <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2617,21 +2644,21 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>24</v>
@@ -2643,14 +2670,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2660,14 +2687,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2676,31 +2703,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2716,7 +2743,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2749,7 +2776,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>152</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2759,14 +2786,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2775,7 +2802,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2792,11 +2819,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>129</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -2815,7 +2842,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>89</v>
+        <v>158</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2825,14 +2852,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>128</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2841,14 +2868,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>160</v>
+        <v>17</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2858,11 +2885,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -2874,14 +2901,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>160</v>
+        <v>92</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2891,14 +2918,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>134</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2907,14 +2934,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>103</v>
+        <v>166</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2924,11 +2951,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -2947,7 +2974,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2957,14 +2984,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>22</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2973,14 +3000,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>42</v>
+        <v>106</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2990,14 +3017,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>81</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3006,14 +3033,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>166</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3023,14 +3050,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>172</v>
+        <v>22</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3039,14 +3066,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>175</v>
+        <v>42</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3056,14 +3083,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>84</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3072,14 +3099,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>179</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3089,11 +3116,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3105,14 +3132,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3122,14 +3149,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>160</v>
+        <v>24</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3138,28 +3165,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3171,31 +3198,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>166</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3204,14 +3231,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3221,11 +3248,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3237,14 +3264,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>62</v>
+        <v>193</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3270,14 +3297,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3287,11 +3314,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3303,14 +3330,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>17</v>
+        <v>201</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3327,7 +3354,7 @@
         <v>203</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>204</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3336,14 +3363,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3353,14 +3380,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>125</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3369,14 +3396,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>17</v>
+        <v>206</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3386,14 +3413,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>209</v>
+        <v>129</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>210</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3402,14 +3429,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3419,11 +3446,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3435,7 +3462,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3452,14 +3479,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>214</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3468,7 +3495,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3485,14 +3512,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>190</v>
+        <v>216</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>187</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>54</v>
+        <v>131</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3508,7 +3535,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>160</v>
+        <v>17</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3518,14 +3545,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>186</v>
+        <v>219</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>187</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>220</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3534,14 +3561,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>17</v>
+        <v>208</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3551,11 +3578,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3567,14 +3594,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>222</v>
+        <v>17</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3584,14 +3611,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>94</v>
+        <v>225</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>125</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3600,14 +3627,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>103</v>
+        <v>17</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3617,49 +3644,181 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>47</v>
+        <v>198</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>225</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>54</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
-      <c r="P77" s="13">
-        <v>3147.6799999999998</v>
-      </c>
-      <c r="Q77" s="13"/>
-    </row>
-    <row r="78" ht="16.5" customHeight="1">
-      <c t="s" r="A78" s="14">
-        <v>226</v>
-      </c>
-      <c r="B78" s="14"/>
-      <c r="C78" s="14"/>
-      <c r="D78" s="14"/>
-      <c r="E78" s="14"/>
-      <c r="F78" s="14"/>
-      <c t="s" r="G78" s="15">
-        <v>227</v>
-      </c>
-      <c r="H78" s="15"/>
-      <c r="I78" s="15"/>
-      <c r="J78" s="16"/>
-      <c t="s" r="K78" s="17">
+      <c r="A77" s="7">
+        <v>71</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c t="s" r="C77" s="8">
         <v>228</v>
       </c>
-      <c r="L78" s="17"/>
-      <c r="M78" s="17"/>
-      <c r="N78" s="17"/>
-      <c r="O78" s="17"/>
-      <c r="P78" s="17"/>
-      <c r="Q78" s="17"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c t="s" r="H77" s="9">
+        <v>166</v>
+      </c>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c t="s" r="L77" s="10">
+        <v>38</v>
+      </c>
+      <c r="M77" s="10"/>
+      <c t="s" r="N77" s="8">
+        <v>194</v>
+      </c>
+      <c r="O77" s="8"/>
+      <c t="s" r="P77" s="11">
+        <v>195</v>
+      </c>
+      <c t="s" r="Q77" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="A78" s="7">
+        <v>72</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c t="s" r="C78" s="8">
+        <v>229</v>
+      </c>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c t="s" r="H78" s="9">
+        <v>17</v>
+      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c t="s" r="L78" s="10">
+        <v>38</v>
+      </c>
+      <c r="M78" s="10"/>
+      <c t="s" r="N78" s="8">
+        <v>230</v>
+      </c>
+      <c r="O78" s="8"/>
+      <c t="s" r="P78" s="11">
+        <v>217</v>
+      </c>
+      <c t="s" r="Q78" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="A79" s="7">
+        <v>73</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c t="s" r="C79" s="8">
+        <v>231</v>
+      </c>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c t="s" r="H79" s="9">
+        <v>206</v>
+      </c>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c t="s" r="L79" s="10">
+        <v>38</v>
+      </c>
+      <c r="M79" s="10"/>
+      <c t="s" r="N79" s="8">
+        <v>97</v>
+      </c>
+      <c r="O79" s="8"/>
+      <c t="s" r="P79" s="11">
+        <v>232</v>
+      </c>
+      <c t="s" r="Q79" s="12">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="A80" s="7">
+        <v>74</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c t="s" r="C80" s="8">
+        <v>233</v>
+      </c>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c t="s" r="H80" s="9">
+        <v>106</v>
+      </c>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c t="s" r="L80" s="10">
+        <v>38</v>
+      </c>
+      <c r="M80" s="10"/>
+      <c t="s" r="N80" s="8">
+        <v>47</v>
+      </c>
+      <c r="O80" s="8"/>
+      <c t="s" r="P80" s="11">
+        <v>234</v>
+      </c>
+      <c t="s" r="Q80" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="P81" s="13">
+        <v>3283.9099999999999</v>
+      </c>
+      <c r="Q81" s="13"/>
+    </row>
+    <row r="82" ht="16.5" customHeight="1">
+      <c t="s" r="A82" s="14">
+        <v>235</v>
+      </c>
+      <c r="B82" s="14"/>
+      <c r="C82" s="14"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="14"/>
+      <c r="F82" s="14"/>
+      <c t="s" r="G82" s="15">
+        <v>236</v>
+      </c>
+      <c r="H82" s="15"/>
+      <c r="I82" s="15"/>
+      <c r="J82" s="16"/>
+      <c t="s" r="K82" s="17">
+        <v>237</v>
+      </c>
+      <c r="L82" s="17"/>
+      <c r="M82" s="17"/>
+      <c r="N82" s="17"/>
+      <c r="O82" s="17"/>
+      <c r="P82" s="17"/>
+      <c r="Q82" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="362">
+  <mergeCells count="382">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4018,10 +4177,30 @@
     <mergeCell ref="H76:K76"/>
     <mergeCell ref="L76:M76"/>
     <mergeCell ref="N76:O76"/>
-    <mergeCell ref="P77:Q77"/>
-    <mergeCell ref="A78:F78"/>
-    <mergeCell ref="G78:I78"/>
-    <mergeCell ref="K78:Q78"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="P81:Q81"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="G82:I82"/>
+    <mergeCell ref="K82:Q82"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-28_00-00.xlsx
+++ b/DaySale_2025-08-28_00-00.xlsx
@@ -296,6 +296,18 @@
     <t>-23.7600</t>
   </si>
   <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>4:3</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>17.2800</t>
+  </si>
+  <si>
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
@@ -401,6 +413,9 @@
     <t>35.00</t>
   </si>
   <si>
+    <t>JOMOGESTIVE TAB</t>
+  </si>
+  <si>
     <t>KENACOMB TOPICAL CREAM 15 GM</t>
   </si>
   <si>
@@ -413,9 +428,6 @@
     <t>MILGA 40 TABLETS</t>
   </si>
   <si>
-    <t>108.00</t>
-  </si>
-  <si>
     <t>27.0000</t>
   </si>
   <si>
@@ -716,7 +728,7 @@
     <t>120.0000</t>
   </si>
   <si>
-    <t>Thursday, 28 August, 2025 8:03 PM</t>
+    <t>Thursday, 28 August, 2025 8:14 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2166,7 +2178,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>58</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2182,7 +2194,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2192,14 +2204,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>24</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2208,14 +2220,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2225,11 +2237,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>24</v>
@@ -2241,14 +2253,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2265,7 +2277,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2281,7 +2293,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>58</v>
+        <v>110</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2291,14 +2303,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2307,14 +2319,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2324,14 +2336,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>60</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2340,14 +2352,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>116</v>
+        <v>17</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2364,7 +2376,7 @@
         <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2380,7 +2392,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2390,14 +2402,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2406,31 +2418,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2439,14 +2451,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2456,14 +2468,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2472,7 +2484,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2489,11 +2501,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>44</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2505,28 +2517,28 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>131</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>22</v>
+        <v>133</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2538,28 +2550,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>47</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>24</v>
@@ -2571,14 +2583,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>26</v>
+        <v>136</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2588,14 +2600,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2611,24 +2623,24 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>97</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2637,14 +2649,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2654,11 +2666,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>93</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>24</v>
@@ -2670,31 +2682,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2703,28 +2715,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>24</v>
@@ -2743,7 +2755,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2760,7 +2772,7 @@
         <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2776,24 +2788,24 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>97</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2802,14 +2814,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2819,11 +2831,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -2835,14 +2847,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>158</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2852,14 +2864,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2868,7 +2880,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2885,11 +2897,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -2901,14 +2913,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>92</v>
+        <v>162</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2918,14 +2930,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>134</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2941,7 +2953,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>166</v>
+        <v>17</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2951,11 +2963,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -2974,7 +2986,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>166</v>
+        <v>92</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2984,14 +2996,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>97</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3000,14 +3012,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>106</v>
+        <v>170</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3017,11 +3029,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -3033,14 +3045,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3050,14 +3062,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>22</v>
+        <v>172</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3066,14 +3078,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3083,14 +3095,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>84</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
         <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3106,7 +3118,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>170</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3116,14 +3128,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>178</v>
+        <v>22</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3132,14 +3144,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>181</v>
+        <v>42</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3149,14 +3161,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>81</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3165,14 +3177,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>183</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3182,11 +3194,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3198,14 +3210,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3215,14 +3227,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>184</v>
+        <v>80</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>166</v>
+        <v>24</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3231,28 +3243,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3264,31 +3276,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>170</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3297,14 +3309,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3314,11 +3326,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3330,14 +3342,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3347,11 +3359,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3363,14 +3375,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>62</v>
+        <v>201</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3396,14 +3408,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3413,11 +3425,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>129</v>
+        <v>206</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>44</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3429,14 +3441,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>208</v>
+        <v>62</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3446,11 +3458,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3462,14 +3474,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>17</v>
+        <v>210</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3479,14 +3491,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>212</v>
+        <v>133</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>213</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>214</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3495,14 +3507,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>17</v>
+        <v>212</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3512,14 +3524,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>131</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3528,7 +3540,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3545,14 +3557,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>135</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3561,14 +3573,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>208</v>
+        <v>17</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3578,14 +3590,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>136</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3594,7 +3606,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3611,14 +3623,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>226</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>224</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3627,14 +3639,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>17</v>
+        <v>212</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3644,14 +3656,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>198</v>
+        <v>226</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>195</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>54</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3667,7 +3679,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>166</v>
+        <v>17</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3677,11 +3689,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>195</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>12</v>
@@ -3693,7 +3705,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3710,14 +3722,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>230</v>
+        <v>202</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>54</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3726,14 +3738,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>206</v>
+        <v>170</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3743,14 +3755,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>97</v>
+        <v>198</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>232</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>131</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3766,7 +3778,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>106</v>
+        <v>17</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3776,49 +3788,115 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>47</v>
+        <v>234</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
-      <c r="P81" s="13">
-        <v>3283.9099999999999</v>
-      </c>
-      <c r="Q81" s="13"/>
-    </row>
-    <row r="82" ht="16.5" customHeight="1">
-      <c t="s" r="A82" s="14">
+      <c r="A81" s="7">
+        <v>75</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c t="s" r="C81" s="8">
         <v>235</v>
       </c>
-      <c r="B82" s="14"/>
-      <c r="C82" s="14"/>
-      <c r="D82" s="14"/>
-      <c r="E82" s="14"/>
-      <c r="F82" s="14"/>
-      <c t="s" r="G82" s="15">
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c t="s" r="H81" s="9">
+        <v>210</v>
+      </c>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c t="s" r="L81" s="10">
+        <v>38</v>
+      </c>
+      <c r="M81" s="10"/>
+      <c t="s" r="N81" s="8">
+        <v>101</v>
+      </c>
+      <c r="O81" s="8"/>
+      <c t="s" r="P81" s="11">
         <v>236</v>
       </c>
-      <c r="H82" s="15"/>
-      <c r="I82" s="15"/>
-      <c r="J82" s="16"/>
-      <c t="s" r="K82" s="17">
+      <c t="s" r="Q81" s="12">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="A82" s="7">
+        <v>76</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c t="s" r="C82" s="8">
         <v>237</v>
       </c>
-      <c r="L82" s="17"/>
-      <c r="M82" s="17"/>
-      <c r="N82" s="17"/>
-      <c r="O82" s="17"/>
-      <c r="P82" s="17"/>
-      <c r="Q82" s="17"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c t="s" r="H82" s="9">
+        <v>110</v>
+      </c>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c t="s" r="L82" s="10">
+        <v>38</v>
+      </c>
+      <c r="M82" s="10"/>
+      <c t="s" r="N82" s="8">
+        <v>47</v>
+      </c>
+      <c r="O82" s="8"/>
+      <c t="s" r="P82" s="11">
+        <v>238</v>
+      </c>
+      <c t="s" r="Q82" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="P83" s="13">
+        <v>3361.1900000000001</v>
+      </c>
+      <c r="Q83" s="13"/>
+    </row>
+    <row r="84" ht="16.5" customHeight="1">
+      <c t="s" r="A84" s="14">
+        <v>239</v>
+      </c>
+      <c r="B84" s="14"/>
+      <c r="C84" s="14"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="14"/>
+      <c r="F84" s="14"/>
+      <c t="s" r="G84" s="15">
+        <v>240</v>
+      </c>
+      <c r="H84" s="15"/>
+      <c r="I84" s="15"/>
+      <c r="J84" s="16"/>
+      <c t="s" r="K84" s="17">
+        <v>241</v>
+      </c>
+      <c r="L84" s="17"/>
+      <c r="M84" s="17"/>
+      <c r="N84" s="17"/>
+      <c r="O84" s="17"/>
+      <c r="P84" s="17"/>
+      <c r="Q84" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="382">
+  <mergeCells count="392">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4197,10 +4275,20 @@
     <mergeCell ref="H80:K80"/>
     <mergeCell ref="L80:M80"/>
     <mergeCell ref="N80:O80"/>
-    <mergeCell ref="P81:Q81"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="G82:I82"/>
-    <mergeCell ref="K82:Q82"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="P83:Q83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="G84:I84"/>
+    <mergeCell ref="K84:Q84"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-28_00-00.xlsx
+++ b/DaySale_2025-08-28_00-00.xlsx
@@ -728,7 +728,7 @@
     <t>120.0000</t>
   </si>
   <si>
-    <t>Thursday, 28 August, 2025 8:14 PM</t>
+    <t>Thursday, 28 August, 2025 8:16 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-28_00-00.xlsx
+++ b/DaySale_2025-08-28_00-00.xlsx
@@ -134,6 +134,21 @@
     <t>0.0000</t>
   </si>
   <si>
+    <t>ATROVENT 500MCG/2ML 20 UNIT DOSE VIALS</t>
+  </si>
+  <si>
+    <t>1:8</t>
+  </si>
+  <si>
+    <t>286.00</t>
+  </si>
+  <si>
+    <t>42.9000</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
     <t>AVIVAVASC 10/160MG 28 F.C. TAB.</t>
   </si>
   <si>
@@ -191,9 +206,6 @@
     <t>60.0000</t>
   </si>
   <si>
-    <t>0:3</t>
-  </si>
-  <si>
     <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
   </si>
   <si>
@@ -212,6 +224,18 @@
     <t>33.0000</t>
   </si>
   <si>
+    <t>COUGHSED PARACETAMOL INFANTS 12 SUPP.</t>
+  </si>
+  <si>
+    <t>9:1</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
     <t>COVERAM 5/5MG 15 TABS.</t>
   </si>
   <si>
@@ -464,6 +488,18 @@
     <t>75.0000</t>
   </si>
   <si>
+    <t>OXYMET 0.025% PAED.NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
     <t>PANADOL EXTRA 48 TAB</t>
   </si>
   <si>
@@ -482,7 +518,16 @@
     <t>21.00</t>
   </si>
   <si>
-    <t>21.0000</t>
+    <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
+  </si>
+  <si>
+    <t>0:18</t>
+  </si>
+  <si>
+    <t>752.00</t>
+  </si>
+  <si>
+    <t>112.8000</t>
   </si>
   <si>
     <t>RECOXIBRIGHT 120 MG 7 F.C. TABS.</t>
@@ -524,6 +569,12 @@
     <t>3:0</t>
   </si>
   <si>
+    <t>SULBIN 750MG VIAL</t>
+  </si>
+  <si>
+    <t>140.0000</t>
+  </si>
+  <si>
     <t>TELFAST 30MG/5ML SUSP. 100 ML</t>
   </si>
   <si>
@@ -617,12 +668,6 @@
     <t>38:0</t>
   </si>
   <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
@@ -641,9 +686,6 @@
     <t>حنه فاتيكا اسود 1 كيس</t>
   </si>
   <si>
-    <t>6:0</t>
-  </si>
-  <si>
     <t>زيت فاتيكا كبير 180 مل</t>
   </si>
   <si>
@@ -674,61 +716,58 @@
     <t>2.00</t>
   </si>
   <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شاش 7 سم </t>
+  </si>
+  <si>
+    <t>6.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>قياس سكر</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>كريم بانسيه</t>
+  </si>
+  <si>
+    <t>مجموعه برد</t>
+  </si>
+  <si>
+    <t>8.00</t>
+  </si>
+  <si>
     <t>8.0000</t>
   </si>
   <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>9:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شاش 7 سم </t>
-  </si>
-  <si>
-    <t>6.00</t>
-  </si>
-  <si>
-    <t>6.0000</t>
-  </si>
-  <si>
-    <t>قياس سكر</t>
-  </si>
-  <si>
-    <t>10.00</t>
-  </si>
-  <si>
-    <t>10.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">كالونا </t>
-  </si>
-  <si>
-    <t>كريم بانسيه</t>
-  </si>
-  <si>
-    <t>مجموعه برد</t>
-  </si>
-  <si>
-    <t>8.00</t>
-  </si>
-  <si>
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>96.0000</t>
+    <t>120.0000</t>
   </si>
   <si>
     <t>مزيل عرق فوج FOGG MASTER</t>
   </si>
   <si>
-    <t>120.0000</t>
-  </si>
-  <si>
-    <t>Thursday, 28 August, 2025 8:16 PM</t>
+    <t>Thursday, 28 August, 2025 8:20 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1617,7 +1656,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>24</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1626,14 +1665,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1643,14 +1682,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>49</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1666,24 +1705,24 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>24</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1692,31 +1731,31 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1725,14 +1764,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1742,14 +1781,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>60</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1758,14 +1797,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1775,14 +1814,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1791,14 +1830,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1808,11 +1847,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>12</v>
@@ -1831,7 +1870,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1841,11 +1880,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>12</v>
@@ -1857,14 +1896,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1874,11 +1913,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>24</v>
@@ -1890,14 +1929,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1911,10 +1950,10 @@
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1923,14 +1962,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1940,14 +1979,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>58</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1956,14 +1995,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1973,14 +2012,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1989,14 +2028,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2006,14 +2045,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2022,14 +2061,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2039,14 +2078,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2055,14 +2094,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2072,11 +2111,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
@@ -2088,14 +2127,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2105,11 +2144,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -2121,31 +2160,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>49</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2154,14 +2193,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2171,14 +2210,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2200,7 +2239,7 @@
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -2211,7 +2250,7 @@
         <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2227,7 +2266,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>33</v>
+        <v>104</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2237,14 +2276,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2253,14 +2292,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2270,14 +2309,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>24</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2286,14 +2325,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>110</v>
+        <v>33</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2303,14 +2342,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2319,14 +2358,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2336,11 +2375,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>24</v>
@@ -2352,14 +2391,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>17</v>
+        <v>118</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2369,14 +2408,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>60</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2385,14 +2424,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>120</v>
+        <v>63</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2402,14 +2441,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>49</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2418,14 +2457,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2435,14 +2474,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2451,31 +2490,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>33</v>
+        <v>128</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>24</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2484,7 +2523,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2497,15 +2536,15 @@
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2517,14 +2556,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2534,14 +2573,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>44</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2550,14 +2589,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2567,14 +2606,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>47</v>
+        <v>138</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>59</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2583,28 +2622,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>136</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>22</v>
+        <v>141</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2616,28 +2655,28 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>24</v>
@@ -2649,14 +2688,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>26</v>
+        <v>144</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2666,14 +2705,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2682,31 +2721,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>105</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2715,14 +2754,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2732,11 +2771,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>101</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>24</v>
@@ -2748,31 +2787,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2781,28 +2820,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>97</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>24</v>
@@ -2814,14 +2853,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2831,14 +2870,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2847,14 +2886,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>160</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2864,11 +2903,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -2880,31 +2919,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>105</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2913,14 +2952,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>162</v>
+        <v>24</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2930,14 +2969,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2946,14 +2985,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2963,11 +3002,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>139</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -2979,14 +3018,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>92</v>
+        <v>170</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2996,14 +3035,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>97</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>24</v>
+        <v>45</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3012,14 +3051,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>170</v>
+        <v>17</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3029,11 +3068,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -3045,14 +3084,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3062,14 +3101,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3078,14 +3117,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>110</v>
+        <v>17</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3095,11 +3134,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -3111,14 +3150,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>170</v>
+        <v>100</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3128,11 +3167,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>22</v>
+        <v>105</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>24</v>
@@ -3144,14 +3183,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>42</v>
+        <v>185</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3161,14 +3200,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>84</v>
+        <v>168</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>180</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3177,7 +3216,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3194,14 +3233,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>182</v>
+        <v>141</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>144</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3210,7 +3249,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3227,14 +3266,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>80</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>81</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3243,14 +3282,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>187</v>
+        <v>118</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3260,11 +3299,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3276,14 +3315,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3293,14 +3332,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>188</v>
+        <v>22</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>170</v>
+        <v>24</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3309,31 +3348,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>193</v>
+        <v>47</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>92</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3342,28 +3381,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>197</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3375,31 +3414,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>202</v>
+        <v>88</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>203</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3408,28 +3447,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3441,31 +3480,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>62</v>
+        <v>185</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>185</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3491,11 +3530,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>133</v>
+        <v>211</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>44</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3507,14 +3546,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3524,11 +3563,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3540,14 +3579,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>17</v>
+        <v>218</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3557,14 +3596,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>216</v>
+        <v>161</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>217</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>218</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3580,7 +3619,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>17</v>
+        <v>220</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3590,14 +3629,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>136</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3606,14 +3645,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3623,14 +3662,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>139</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>224</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3639,14 +3678,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>212</v>
+        <v>160</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3656,11 +3695,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>226</v>
+        <v>141</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>227</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
@@ -3672,14 +3711,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>17</v>
+        <v>226</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3689,11 +3728,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>12</v>
@@ -3705,7 +3744,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3722,14 +3761,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>199</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>54</v>
+        <v>232</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3738,14 +3777,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>170</v>
+        <v>17</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3755,14 +3794,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>198</v>
+        <v>234</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>235</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3771,7 +3810,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3788,14 +3827,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>221</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>226</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3804,14 +3843,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3821,14 +3860,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>101</v>
+        <v>239</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>136</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3837,14 +3876,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>110</v>
+        <v>17</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3854,49 +3893,214 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>47</v>
+        <v>242</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
-      <c r="P83" s="13">
-        <v>3361.1900000000001</v>
-      </c>
-      <c r="Q83" s="13"/>
-    </row>
-    <row r="84" ht="16.5" customHeight="1">
-      <c t="s" r="A84" s="14">
-        <v>239</v>
-      </c>
-      <c r="B84" s="14"/>
-      <c r="C84" s="14"/>
-      <c r="D84" s="14"/>
-      <c r="E84" s="14"/>
-      <c r="F84" s="14"/>
-      <c t="s" r="G84" s="15">
-        <v>240</v>
-      </c>
-      <c r="H84" s="15"/>
-      <c r="I84" s="15"/>
-      <c r="J84" s="16"/>
-      <c t="s" r="K84" s="17">
-        <v>241</v>
-      </c>
-      <c r="L84" s="17"/>
-      <c r="M84" s="17"/>
-      <c r="N84" s="17"/>
-      <c r="O84" s="17"/>
-      <c r="P84" s="17"/>
-      <c r="Q84" s="17"/>
+      <c r="A83" s="7">
+        <v>77</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c t="s" r="C83" s="8">
+        <v>244</v>
+      </c>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c t="s" r="H83" s="9">
+        <v>17</v>
+      </c>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c t="s" r="L83" s="10">
+        <v>38</v>
+      </c>
+      <c r="M83" s="10"/>
+      <c t="s" r="N83" s="8">
+        <v>161</v>
+      </c>
+      <c r="O83" s="8"/>
+      <c t="s" r="P83" s="11">
+        <v>216</v>
+      </c>
+      <c t="s" r="Q83" s="12">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="A84" s="7">
+        <v>78</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c t="s" r="C84" s="8">
+        <v>245</v>
+      </c>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c t="s" r="H84" s="9">
+        <v>185</v>
+      </c>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c t="s" r="L84" s="10">
+        <v>38</v>
+      </c>
+      <c r="M84" s="10"/>
+      <c t="s" r="N84" s="8">
+        <v>215</v>
+      </c>
+      <c r="O84" s="8"/>
+      <c t="s" r="P84" s="11">
+        <v>216</v>
+      </c>
+      <c t="s" r="Q84" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="A85" s="7">
+        <v>79</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c t="s" r="C85" s="8">
+        <v>246</v>
+      </c>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c t="s" r="H85" s="9">
+        <v>17</v>
+      </c>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c t="s" r="L85" s="10">
+        <v>38</v>
+      </c>
+      <c r="M85" s="10"/>
+      <c t="s" r="N85" s="8">
+        <v>247</v>
+      </c>
+      <c r="O85" s="8"/>
+      <c t="s" r="P85" s="11">
+        <v>248</v>
+      </c>
+      <c t="s" r="Q85" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="A86" s="7">
+        <v>80</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c t="s" r="C86" s="8">
+        <v>249</v>
+      </c>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c t="s" r="H86" s="9">
+        <v>118</v>
+      </c>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c t="s" r="L86" s="10">
+        <v>38</v>
+      </c>
+      <c r="M86" s="10"/>
+      <c t="s" r="N86" s="8">
+        <v>109</v>
+      </c>
+      <c r="O86" s="8"/>
+      <c t="s" r="P86" s="11">
+        <v>250</v>
+      </c>
+      <c t="s" r="Q86" s="12">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="A87" s="7">
+        <v>81</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c t="s" r="C87" s="8">
+        <v>251</v>
+      </c>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c t="s" r="H87" s="9">
+        <v>118</v>
+      </c>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c t="s" r="L87" s="10">
+        <v>38</v>
+      </c>
+      <c r="M87" s="10"/>
+      <c t="s" r="N87" s="8">
+        <v>52</v>
+      </c>
+      <c r="O87" s="8"/>
+      <c t="s" r="P87" s="11">
+        <v>250</v>
+      </c>
+      <c t="s" r="Q87" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="P88" s="13">
+        <v>3732.8899999999999</v>
+      </c>
+      <c r="Q88" s="13"/>
+    </row>
+    <row r="89" ht="16.5" customHeight="1">
+      <c t="s" r="A89" s="14">
+        <v>252</v>
+      </c>
+      <c r="B89" s="14"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="14"/>
+      <c r="F89" s="14"/>
+      <c t="s" r="G89" s="15">
+        <v>253</v>
+      </c>
+      <c r="H89" s="15"/>
+      <c r="I89" s="15"/>
+      <c r="J89" s="16"/>
+      <c t="s" r="K89" s="17">
+        <v>254</v>
+      </c>
+      <c r="L89" s="17"/>
+      <c r="M89" s="17"/>
+      <c r="N89" s="17"/>
+      <c r="O89" s="17"/>
+      <c r="P89" s="17"/>
+      <c r="Q89" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="392">
+  <mergeCells count="417">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4285,10 +4489,35 @@
     <mergeCell ref="H82:K82"/>
     <mergeCell ref="L82:M82"/>
     <mergeCell ref="N82:O82"/>
-    <mergeCell ref="P83:Q83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="G84:I84"/>
-    <mergeCell ref="K84:Q84"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="P88:Q88"/>
+    <mergeCell ref="A89:F89"/>
+    <mergeCell ref="G89:I89"/>
+    <mergeCell ref="K89:Q89"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-28_00-00.xlsx
+++ b/DaySale_2025-08-28_00-00.xlsx
@@ -767,7 +767,7 @@
     <t>مزيل عرق فوج FOGG MASTER</t>
   </si>
   <si>
-    <t>Thursday, 28 August, 2025 8:20 PM</t>
+    <t>Thursday, 28 August, 2025 8:22 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-28_00-00.xlsx
+++ b/DaySale_2025-08-28_00-00.xlsx
@@ -149,6 +149,18 @@
     <t>0:3</t>
   </si>
   <si>
+    <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>9.1200</t>
+  </si>
+  <si>
     <t>AVIVAVASC 10/160MG 28 F.C. TAB.</t>
   </si>
   <si>
@@ -200,9 +212,6 @@
     <t>CATAFLAM 75MG/3ML 6 AMP.</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>60.0000</t>
   </si>
   <si>
@@ -224,6 +233,15 @@
     <t>33.0000</t>
   </si>
   <si>
+    <t>COSMOFER 50MG/ML FOR INF. 5 AMPS.</t>
+  </si>
+  <si>
+    <t>470.00</t>
+  </si>
+  <si>
+    <t>188.0000</t>
+  </si>
+  <si>
     <t>COUGHSED PARACETAMOL INFANTS 12 SUPP.</t>
   </si>
   <si>
@@ -269,7 +287,10 @@
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
-    <t>47.8800</t>
+    <t>59.7600</t>
+  </si>
+  <si>
+    <t>1:2</t>
   </si>
   <si>
     <t>DEXAZONE 0.5MG 60 TAB</t>
@@ -311,9 +332,6 @@
     <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
   </si>
   <si>
-    <t>1:2</t>
-  </si>
-  <si>
     <t>72.00</t>
   </si>
   <si>
@@ -671,18 +689,18 @@
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
-    <t>78:0</t>
+    <t>77:0</t>
   </si>
   <si>
     <t>20.00</t>
   </si>
   <si>
+    <t>حلاوة حرير</t>
+  </si>
+  <si>
     <t>20.0000</t>
   </si>
   <si>
-    <t>حلاوة حرير</t>
-  </si>
-  <si>
     <t>حنه فاتيكا اسود 1 كيس</t>
   </si>
   <si>
@@ -761,13 +779,16 @@
     <t>محلول ملح</t>
   </si>
   <si>
+    <t>144.0000</t>
+  </si>
+  <si>
+    <t>مزيل عرق فوج FOGG MASTER</t>
+  </si>
+  <si>
     <t>120.0000</t>
   </si>
   <si>
-    <t>مزيل عرق فوج FOGG MASTER</t>
-  </si>
-  <si>
-    <t>Thursday, 28 August, 2025 8:22 PM</t>
+    <t>Thursday, 28 August, 2025 8:31 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1722,7 +1743,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>54</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1731,20 +1752,20 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1755,7 +1776,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>24</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1764,20 +1785,20 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -1788,7 +1809,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1814,14 +1835,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>45</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1830,14 +1851,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1847,14 +1868,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1863,14 +1884,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1880,11 +1901,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>12</v>
@@ -1896,14 +1917,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1913,14 +1934,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1929,14 +1950,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1946,14 +1967,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1962,14 +1983,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1979,11 +2000,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>24</v>
@@ -1995,14 +2016,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2012,14 +2033,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2028,14 +2049,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2045,14 +2066,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>63</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2061,14 +2082,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2078,14 +2099,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2094,14 +2115,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2111,14 +2132,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2127,14 +2148,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2144,14 +2165,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2160,14 +2181,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2177,11 +2198,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -2193,14 +2214,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2210,11 +2231,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -2226,31 +2247,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>54</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2259,14 +2280,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2276,14 +2297,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2292,31 +2313,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2325,14 +2346,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>33</v>
+        <v>110</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2342,14 +2363,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2358,14 +2379,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>114</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2382,7 +2403,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>24</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2398,7 +2419,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>118</v>
+        <v>33</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2408,14 +2429,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2424,14 +2445,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2441,11 +2462,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>24</v>
@@ -2457,14 +2478,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2481,7 +2502,7 @@
         <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>45</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2497,7 +2518,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>128</v>
+        <v>47</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2507,14 +2528,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>54</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2523,14 +2544,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2540,14 +2561,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2556,20 +2577,20 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>33</v>
+        <v>134</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
@@ -2580,7 +2601,7 @@
         <v>136</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>24</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2602,7 +2623,7 @@
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2629,7 +2650,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2643,10 +2664,10 @@
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>49</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2655,14 +2676,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2672,14 +2693,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>52</v>
+        <v>144</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>64</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2688,28 +2709,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>144</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>22</v>
+        <v>147</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2721,28 +2742,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>105</v>
+        <v>56</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>24</v>
@@ -2754,14 +2775,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>26</v>
+        <v>150</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2771,14 +2792,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>101</v>
+        <v>22</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2787,31 +2808,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2820,14 +2841,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2837,7 +2858,7 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>107</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
@@ -2860,13 +2881,13 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -2877,7 +2898,7 @@
         <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2893,7 +2914,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>160</v>
+        <v>47</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2903,14 +2924,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2919,28 +2940,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>105</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>24</v>
@@ -2952,14 +2973,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>24</v>
+        <v>166</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2969,11 +2990,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -2985,31 +3006,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>111</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3018,14 +3039,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>170</v>
+        <v>24</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3042,7 +3063,7 @@
         <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>45</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3058,7 +3079,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3072,7 +3093,7 @@
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -3084,14 +3105,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3101,14 +3122,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>33</v>
+        <v>45</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3117,7 +3138,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3134,11 +3155,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>147</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -3157,7 +3178,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>100</v>
+        <v>183</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3167,14 +3188,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>105</v>
+        <v>184</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3183,14 +3204,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>185</v>
+        <v>17</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3200,11 +3221,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3216,14 +3237,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3233,14 +3254,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>144</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3249,14 +3270,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3266,11 +3287,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3282,14 +3303,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>118</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3299,14 +3320,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>192</v>
+        <v>147</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
         <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>150</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3322,7 +3343,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3332,14 +3353,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>22</v>
+        <v>195</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3348,14 +3369,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>47</v>
+        <v>124</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3365,14 +3386,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>92</v>
+        <v>198</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3381,14 +3402,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>191</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3398,14 +3419,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>199</v>
+        <v>22</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3414,14 +3435,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>202</v>
+        <v>51</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3431,14 +3452,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>89</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3447,14 +3468,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>204</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3487,7 +3508,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3497,14 +3518,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>205</v>
+        <v>95</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>208</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>185</v>
+        <v>24</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3526,7 +3547,7 @@
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
@@ -3553,24 +3574,24 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>214</v>
+        <v>191</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>191</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3579,14 +3600,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3596,11 +3617,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>161</v>
+        <v>217</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>162</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3652,7 +3673,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>66</v>
+        <v>224</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3662,11 +3683,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>221</v>
+        <v>167</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>222</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -3678,14 +3699,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>160</v>
+        <v>226</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3695,14 +3716,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>141</v>
+        <v>227</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>63</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3711,14 +3732,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>226</v>
+        <v>69</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3732,7 +3753,7 @@
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>12</v>
@@ -3744,14 +3765,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>17</v>
+        <v>166</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3761,14 +3782,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>230</v>
+        <v>147</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>231</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>232</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3777,14 +3798,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>17</v>
+        <v>232</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3794,14 +3815,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>195</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>235</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3810,7 +3831,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3827,14 +3848,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>70</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>226</v>
+        <v>238</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3843,14 +3864,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>226</v>
+        <v>17</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3860,14 +3881,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>240</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>12</v>
+        <v>241</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3876,7 +3897,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -3893,14 +3914,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>243</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>71</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3916,7 +3937,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>17</v>
+        <v>232</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3926,14 +3947,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>161</v>
+        <v>245</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>216</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>59</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3942,14 +3963,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>185</v>
+        <v>17</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3959,11 +3980,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>215</v>
+        <v>248</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>216</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>12</v>
@@ -3975,7 +3996,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -3992,14 +4013,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>247</v>
+        <v>167</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>63</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4008,14 +4029,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>118</v>
+        <v>191</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4025,14 +4046,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>109</v>
+        <v>221</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>250</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>118</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4041,14 +4062,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>118</v>
+        <v>17</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4058,49 +4079,115 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>52</v>
+        <v>253</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
-      <c r="P88" s="13">
-        <v>3732.8899999999999</v>
-      </c>
-      <c r="Q88" s="13"/>
-    </row>
-    <row r="89" ht="16.5" customHeight="1">
-      <c t="s" r="A89" s="14">
-        <v>252</v>
-      </c>
-      <c r="B89" s="14"/>
-      <c r="C89" s="14"/>
-      <c r="D89" s="14"/>
-      <c r="E89" s="14"/>
-      <c r="F89" s="14"/>
-      <c t="s" r="G89" s="15">
-        <v>253</v>
-      </c>
-      <c r="H89" s="15"/>
-      <c r="I89" s="15"/>
-      <c r="J89" s="16"/>
-      <c t="s" r="K89" s="17">
-        <v>254</v>
-      </c>
-      <c r="L89" s="17"/>
-      <c r="M89" s="17"/>
-      <c r="N89" s="17"/>
-      <c r="O89" s="17"/>
-      <c r="P89" s="17"/>
-      <c r="Q89" s="17"/>
+      <c r="A88" s="7">
+        <v>82</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c t="s" r="C88" s="8">
+        <v>255</v>
+      </c>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c t="s" r="H88" s="9">
+        <v>150</v>
+      </c>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c t="s" r="L88" s="10">
+        <v>38</v>
+      </c>
+      <c r="M88" s="10"/>
+      <c t="s" r="N88" s="8">
+        <v>115</v>
+      </c>
+      <c r="O88" s="8"/>
+      <c t="s" r="P88" s="11">
+        <v>256</v>
+      </c>
+      <c t="s" r="Q88" s="12">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="A89" s="7">
+        <v>83</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c t="s" r="C89" s="8">
+        <v>257</v>
+      </c>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c t="s" r="H89" s="9">
+        <v>124</v>
+      </c>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c t="s" r="L89" s="10">
+        <v>38</v>
+      </c>
+      <c r="M89" s="10"/>
+      <c t="s" r="N89" s="8">
+        <v>56</v>
+      </c>
+      <c r="O89" s="8"/>
+      <c t="s" r="P89" s="11">
+        <v>258</v>
+      </c>
+      <c t="s" r="Q89" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="P90" s="13">
+        <v>3988.8899999999999</v>
+      </c>
+      <c r="Q90" s="13"/>
+    </row>
+    <row r="91" ht="16.5" customHeight="1">
+      <c t="s" r="A91" s="14">
+        <v>259</v>
+      </c>
+      <c r="B91" s="14"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="14"/>
+      <c r="F91" s="14"/>
+      <c t="s" r="G91" s="15">
+        <v>260</v>
+      </c>
+      <c r="H91" s="15"/>
+      <c r="I91" s="15"/>
+      <c r="J91" s="16"/>
+      <c t="s" r="K91" s="17">
+        <v>261</v>
+      </c>
+      <c r="L91" s="17"/>
+      <c r="M91" s="17"/>
+      <c r="N91" s="17"/>
+      <c r="O91" s="17"/>
+      <c r="P91" s="17"/>
+      <c r="Q91" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="417">
+  <mergeCells count="427">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4514,10 +4601,20 @@
     <mergeCell ref="H87:K87"/>
     <mergeCell ref="L87:M87"/>
     <mergeCell ref="N87:O87"/>
-    <mergeCell ref="P88:Q88"/>
-    <mergeCell ref="A89:F89"/>
-    <mergeCell ref="G89:I89"/>
-    <mergeCell ref="K89:Q89"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="P90:Q90"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="G91:I91"/>
+    <mergeCell ref="K91:Q91"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-28_00-00.xlsx
+++ b/DaySale_2025-08-28_00-00.xlsx
@@ -788,7 +788,7 @@
     <t>120.0000</t>
   </si>
   <si>
-    <t>Thursday, 28 August, 2025 8:31 PM</t>
+    <t>Thursday, 28 August, 2025 8:35 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-28_00-00.xlsx
+++ b/DaySale_2025-08-28_00-00.xlsx
@@ -107,6 +107,15 @@
     <t>7.0000</t>
   </si>
   <si>
+    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>12.4800</t>
+  </si>
+  <si>
     <t>ANTODINE 20MG 30 F.C.TAB</t>
   </si>
   <si>
@@ -128,9 +137,6 @@
     <t>0</t>
   </si>
   <si>
-    <t>78.00</t>
-  </si>
-  <si>
     <t>0.0000</t>
   </si>
   <si>
@@ -302,6 +308,15 @@
     <t>16.8300</t>
   </si>
   <si>
+    <t>DICLOSP S.R. 75MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
     <t>DOGMATIL FORT 200MG 10 TAB</t>
   </si>
   <si>
@@ -344,9 +359,6 @@
     <t>4:3</t>
   </si>
   <si>
-    <t>108.00</t>
-  </si>
-  <si>
     <t>17.2800</t>
   </si>
   <si>
@@ -578,9 +590,6 @@
     <t>SPASCOLON 100MG 30 F.C.TAB.</t>
   </si>
   <si>
-    <t>35.6400</t>
-  </si>
-  <si>
     <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
   </si>
   <si>
@@ -734,9 +743,6 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>9:0</t>
-  </si>
-  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -788,7 +794,7 @@
     <t>120.0000</t>
   </si>
   <si>
-    <t>Thursday, 28 August, 2025 8:35 PM</t>
+    <t>Thursday, 28 August, 2025 8:37 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1594,7 +1600,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1604,11 +1610,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>24</v>
@@ -1620,31 +1626,31 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1653,31 +1659,31 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>45</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1686,14 +1692,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1703,14 +1709,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>24</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1719,14 +1725,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1736,11 +1742,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>24</v>
@@ -1752,14 +1758,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1769,14 +1775,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>58</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1785,31 +1791,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>24</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1818,31 +1824,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1851,14 +1857,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1868,14 +1874,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
         <v>67</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>45</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1891,7 +1897,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1901,14 +1907,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1934,11 +1940,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>12</v>
@@ -1950,14 +1956,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1967,14 +1973,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1983,14 +1989,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2000,14 +2006,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2016,14 +2022,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2033,14 +2039,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2049,14 +2055,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>85</v>
+        <v>17</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2066,14 +2072,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2082,14 +2088,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2099,14 +2105,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2115,14 +2121,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2132,14 +2138,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>22</v>
+        <v>92</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>93</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2148,14 +2154,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2165,14 +2171,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>95</v>
+        <v>22</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>24</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2181,7 +2187,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2198,14 +2204,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2214,14 +2220,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2231,14 +2237,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2247,14 +2253,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2264,11 +2270,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -2280,14 +2286,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2297,7 +2303,7 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
@@ -2320,13 +2326,13 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -2337,7 +2343,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>58</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2353,7 +2359,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>110</v>
+        <v>49</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2363,14 +2369,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2379,31 +2385,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>47</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2412,14 +2418,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>33</v>
+        <v>115</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2429,14 +2435,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2445,14 +2451,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>118</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2462,14 +2468,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>24</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2478,14 +2484,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>124</v>
+        <v>36</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2495,14 +2501,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2511,14 +2517,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2528,11 +2534,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>24</v>
@@ -2544,14 +2550,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>17</v>
+        <v>128</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2561,14 +2567,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>45</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2577,14 +2583,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>134</v>
+        <v>49</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2594,14 +2600,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>58</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2610,14 +2616,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2627,14 +2633,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2643,31 +2649,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>33</v>
+        <v>138</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>24</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2676,7 +2682,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2689,15 +2695,15 @@
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2709,31 +2715,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>53</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2742,31 +2748,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>56</v>
+        <v>148</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>67</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2775,28 +2781,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>22</v>
+        <v>151</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>151</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2815,21 +2821,21 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>111</v>
+        <v>58</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>153</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>24</v>
@@ -2841,14 +2847,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>26</v>
+        <v>154</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2858,14 +2864,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>107</v>
+        <v>22</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
         <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2881,24 +2887,24 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>100</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2907,14 +2913,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2924,11 +2930,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>160</v>
+        <v>112</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>24</v>
@@ -2940,31 +2946,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2973,14 +2979,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>166</v>
+        <v>49</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2990,14 +2996,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3006,28 +3012,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>111</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>24</v>
@@ -3039,14 +3045,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>24</v>
+        <v>170</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3079,24 +3085,24 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>100</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>80</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3105,14 +3111,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>176</v>
+        <v>24</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3122,14 +3128,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>45</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3138,14 +3144,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3155,11 +3161,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>181</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -3171,14 +3177,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3188,14 +3194,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>33</v>
+        <v>47</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3204,7 +3210,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3221,11 +3227,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3237,14 +3243,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>93</v>
+        <v>187</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3254,14 +3260,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>111</v>
+        <v>188</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
         <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3277,7 +3283,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>191</v>
+        <v>17</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3287,11 +3293,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>80</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3310,7 +3316,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3320,14 +3326,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>147</v>
+        <v>100</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>193</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>150</v>
+        <v>24</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3336,14 +3342,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3353,11 +3359,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>196</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3369,14 +3375,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3386,14 +3392,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>198</v>
+        <v>151</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>154</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3402,14 +3408,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3419,14 +3425,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>22</v>
+        <v>198</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3435,14 +3441,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>51</v>
+        <v>128</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3452,14 +3458,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>99</v>
+        <v>201</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3468,14 +3474,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>194</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3485,14 +3491,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>205</v>
+        <v>22</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3501,14 +3507,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>208</v>
+        <v>53</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3518,14 +3524,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>96</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3534,14 +3540,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>210</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3551,11 +3557,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3567,14 +3573,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3584,14 +3590,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>211</v>
+        <v>97</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>214</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>191</v>
+        <v>24</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3600,28 +3606,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3633,31 +3639,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>220</v>
+        <v>194</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>194</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3666,28 +3672,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>167</v>
+        <v>220</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>168</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -3699,31 +3705,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>65</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>63</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3732,28 +3738,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>69</v>
+        <v>227</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>227</v>
+        <v>171</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>229</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>12</v>
@@ -3765,31 +3771,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>166</v>
+        <v>229</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>147</v>
+        <v>230</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>65</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3805,21 +3811,21 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>232</v>
+        <v>71</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
@@ -3831,31 +3837,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>17</v>
+        <v>170</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>236</v>
+        <v>151</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>237</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>238</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3864,31 +3870,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>17</v>
+        <v>235</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>201</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>241</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3897,7 +3903,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -3910,18 +3916,18 @@
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>151</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>71</v>
+        <v>241</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3930,31 +3936,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>232</v>
+        <v>17</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>71</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3963,7 +3969,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -3976,18 +3982,18 @@
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>249</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>12</v>
+        <v>73</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3996,31 +4002,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>17</v>
+        <v>235</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>167</v>
+        <v>247</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>222</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>63</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4029,28 +4035,28 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>191</v>
+        <v>17</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>221</v>
+        <v>250</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>12</v>
@@ -4075,18 +4081,18 @@
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>253</v>
+        <v>171</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>254</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>12</v>
+        <v>65</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4095,31 +4101,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>150</v>
+        <v>194</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>115</v>
+        <v>224</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>256</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>166</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4128,66 +4134,132 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>124</v>
+        <v>17</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>56</v>
+        <v>255</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
+        <v>256</v>
+      </c>
+      <c t="s" r="Q89" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="A90" s="7">
+        <v>84</v>
+      </c>
+      <c r="B90" s="7"/>
+      <c t="s" r="C90" s="8">
+        <v>257</v>
+      </c>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c t="s" r="H90" s="9">
+        <v>154</v>
+      </c>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c t="s" r="L90" s="10">
+        <v>41</v>
+      </c>
+      <c r="M90" s="10"/>
+      <c t="s" r="N90" s="8">
+        <v>119</v>
+      </c>
+      <c r="O90" s="8"/>
+      <c t="s" r="P90" s="11">
         <v>258</v>
       </c>
-      <c t="s" r="Q89" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="90" ht="24.75" customHeight="1">
-      <c r="P90" s="13">
-        <v>3988.8899999999999</v>
-      </c>
-      <c r="Q90" s="13"/>
-    </row>
-    <row r="91" ht="16.5" customHeight="1">
-      <c t="s" r="A91" s="14">
+      <c t="s" r="Q90" s="12">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="A91" s="7">
+        <v>85</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c t="s" r="C91" s="8">
         <v>259</v>
       </c>
-      <c r="B91" s="14"/>
-      <c r="C91" s="14"/>
-      <c r="D91" s="14"/>
-      <c r="E91" s="14"/>
-      <c r="F91" s="14"/>
-      <c t="s" r="G91" s="15">
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c t="s" r="H91" s="9">
+        <v>128</v>
+      </c>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c t="s" r="L91" s="10">
+        <v>41</v>
+      </c>
+      <c r="M91" s="10"/>
+      <c t="s" r="N91" s="8">
+        <v>58</v>
+      </c>
+      <c r="O91" s="8"/>
+      <c t="s" r="P91" s="11">
         <v>260</v>
       </c>
-      <c r="H91" s="15"/>
-      <c r="I91" s="15"/>
-      <c r="J91" s="16"/>
-      <c t="s" r="K91" s="17">
+      <c t="s" r="Q91" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="P92" s="13">
+        <v>4039.0100000000002</v>
+      </c>
+      <c r="Q92" s="13"/>
+    </row>
+    <row r="93" ht="16.5" customHeight="1">
+      <c t="s" r="A93" s="14">
         <v>261</v>
       </c>
-      <c r="L91" s="17"/>
-      <c r="M91" s="17"/>
-      <c r="N91" s="17"/>
-      <c r="O91" s="17"/>
-      <c r="P91" s="17"/>
-      <c r="Q91" s="17"/>
+      <c r="B93" s="14"/>
+      <c r="C93" s="14"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="14"/>
+      <c r="F93" s="14"/>
+      <c t="s" r="G93" s="15">
+        <v>262</v>
+      </c>
+      <c r="H93" s="15"/>
+      <c r="I93" s="15"/>
+      <c r="J93" s="16"/>
+      <c t="s" r="K93" s="17">
+        <v>263</v>
+      </c>
+      <c r="L93" s="17"/>
+      <c r="M93" s="17"/>
+      <c r="N93" s="17"/>
+      <c r="O93" s="17"/>
+      <c r="P93" s="17"/>
+      <c r="Q93" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="427">
+  <mergeCells count="437">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4611,10 +4683,20 @@
     <mergeCell ref="H89:K89"/>
     <mergeCell ref="L89:M89"/>
     <mergeCell ref="N89:O89"/>
-    <mergeCell ref="P90:Q90"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="G91:I91"/>
-    <mergeCell ref="K91:Q91"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="P92:Q92"/>
+    <mergeCell ref="A93:F93"/>
+    <mergeCell ref="G93:I93"/>
+    <mergeCell ref="K93:Q93"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-28_00-00.xlsx
+++ b/DaySale_2025-08-28_00-00.xlsx
@@ -473,282 +473,285 @@
     <t>KENACOMB TOPICAL CREAM 15 GM</t>
   </si>
   <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>MILGA 40 TABLETS</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>NAUSILEX 50MG/2ML I.V/I.M 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OLOHISTINE FORTE  DROPS</t>
+  </si>
+  <si>
+    <t>29.00</t>
+  </si>
+  <si>
+    <t>29.0000</t>
+  </si>
+  <si>
+    <t>ORLY 120MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>79.2000</t>
+  </si>
+  <si>
+    <t>OSTEOCARE 30 TABS</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
+    <t>OXYMET 0.025% PAED.NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>PANADOL EXTRA 48 TAB</t>
+  </si>
+  <si>
+    <t>PAROFEN 30 OBLONG TAB.</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
+    <t>POLYDERM TOP. CREAM 20 GM</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
+  </si>
+  <si>
+    <t>0:18</t>
+  </si>
+  <si>
+    <t>752.00</t>
+  </si>
+  <si>
+    <t>112.8000</t>
+  </si>
+  <si>
+    <t>RECOXIBRIGHT 120 MG 7 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>88.00</t>
+  </si>
+  <si>
+    <t>88.0000</t>
+  </si>
+  <si>
+    <t>SACROFER 100MG/5ML 5 AMP FOR I.V. INJ.</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>275.00</t>
+  </si>
+  <si>
+    <t>110.0000</t>
+  </si>
+  <si>
+    <t>SIMETHICONE-MUP 2% EMULSION ORAL DROPS 30 ML</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>SPASCOLON 100MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
+  </si>
+  <si>
+    <t>SULBIN 750MG VIAL</t>
+  </si>
+  <si>
+    <t>140.0000</t>
+  </si>
+  <si>
     <t>4:0</t>
   </si>
   <si>
+    <t>TELFAST 30MG/5ML SUSP. 100 ML</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>URIVIN-N 10 EFF. SACHETS</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
+  </si>
+  <si>
+    <t>28.8000</t>
+  </si>
+  <si>
+    <t>VOLTAREN 1% EMULGEL 25 GM</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>VOTRIAXONE 1 GM I.M VIAL</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>56.0000</t>
+  </si>
+  <si>
+    <t>XORAXON 1GM I.M. VIAL</t>
+  </si>
+  <si>
+    <t>168.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اختبار حمل بيبي تشك </t>
+  </si>
+  <si>
+    <t>15:0</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">برفان القصاص </t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>بلاستر مترسيلك 2 سم</t>
+  </si>
+  <si>
+    <t>38:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>77:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>حلاوة حرير</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>حنه فاتيكا اسود 1 كيس</t>
+  </si>
+  <si>
+    <t>زيت فاتيكا كبير 180 مل</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>13:0</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
     <t>36.0000</t>
   </si>
   <si>
-    <t>MILGA 40 TABLETS</t>
-  </si>
-  <si>
-    <t>27.0000</t>
-  </si>
-  <si>
-    <t>NAUSILEX 50MG/2ML I.V/I.M 3 AMPOULES</t>
-  </si>
-  <si>
-    <t>23.7600</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OLOHISTINE FORTE  DROPS</t>
-  </si>
-  <si>
-    <t>29.00</t>
-  </si>
-  <si>
-    <t>29.0000</t>
-  </si>
-  <si>
-    <t>ORLY 120MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>240.00</t>
-  </si>
-  <si>
-    <t>79.2000</t>
-  </si>
-  <si>
-    <t>OSTEOCARE 30 TABS</t>
-  </si>
-  <si>
-    <t>150.00</t>
-  </si>
-  <si>
-    <t>75.0000</t>
-  </si>
-  <si>
-    <t>OXYMET 0.025% PAED.NASAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t>PANADOL EXTRA 48 TAB</t>
-  </si>
-  <si>
-    <t>PAROFEN 30 OBLONG TAB.</t>
-  </si>
-  <si>
-    <t>69.00</t>
-  </si>
-  <si>
-    <t>69.0000</t>
-  </si>
-  <si>
-    <t>POLYDERM TOP. CREAM 20 GM</t>
-  </si>
-  <si>
-    <t>21.00</t>
-  </si>
-  <si>
-    <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
-  </si>
-  <si>
-    <t>0:18</t>
-  </si>
-  <si>
-    <t>752.00</t>
-  </si>
-  <si>
-    <t>112.8000</t>
-  </si>
-  <si>
-    <t>RECOXIBRIGHT 120 MG 7 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>88.00</t>
-  </si>
-  <si>
-    <t>88.0000</t>
-  </si>
-  <si>
-    <t>SACROFER 100MG/5ML 5 AMP FOR I.V. INJ.</t>
-  </si>
-  <si>
-    <t>0:4</t>
-  </si>
-  <si>
-    <t>275.00</t>
-  </si>
-  <si>
-    <t>110.0000</t>
-  </si>
-  <si>
-    <t>SIMETHICONE-MUP 2% EMULSION ORAL DROPS 30 ML</t>
-  </si>
-  <si>
-    <t>27.00</t>
-  </si>
-  <si>
-    <t>SPASCOLON 100MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>SULBIN 750MG VIAL</t>
-  </si>
-  <si>
-    <t>140.0000</t>
-  </si>
-  <si>
-    <t>TELFAST 30MG/5ML SUSP. 100 ML</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
-    <t>URIVIN-N 10 EFF. SACHETS</t>
-  </si>
-  <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
-  </si>
-  <si>
-    <t>28.8000</t>
-  </si>
-  <si>
-    <t>VOLTAREN 1% EMULGEL 25 GM</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>2:2</t>
-  </si>
-  <si>
-    <t>VOTRIAXONE 1 GM I.M VIAL</t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>56.00</t>
-  </si>
-  <si>
-    <t>56.0000</t>
-  </si>
-  <si>
-    <t>XORAXON 1GM I.M. VIAL</t>
-  </si>
-  <si>
-    <t>168.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">اختبار حمل بيبي تشك </t>
-  </si>
-  <si>
-    <t>15:0</t>
-  </si>
-  <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">برفان القصاص </t>
-  </si>
-  <si>
-    <t>8:0</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>بلاستر مترسيلك 2 سم</t>
-  </si>
-  <si>
-    <t>38:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">جهاز محلول </t>
-  </si>
-  <si>
-    <t>77:0</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>حلاوة حرير</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>حنه فاتيكا اسود 1 كيس</t>
-  </si>
-  <si>
-    <t>زيت فاتيكا كبير 180 مل</t>
-  </si>
-  <si>
-    <t>11:0</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>سرنجات 10 سم</t>
-  </si>
-  <si>
-    <t>4.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>13:0</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
     <t xml:space="preserve">شاش 7 سم </t>
   </si>
   <si>
@@ -794,7 +797,7 @@
     <t>120.0000</t>
   </si>
   <si>
-    <t>Thursday, 28 August, 2025 8:37 PM</t>
+    <t>Thursday, 28 August, 2025 8:38 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2871,7 +2874,7 @@
         <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3349,7 +3352,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>194</v>
+        <v>154</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3375,7 +3378,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3396,10 +3399,10 @@
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
+        <v>195</v>
+      </c>
+      <c t="s" r="Q66" s="12">
         <v>196</v>
-      </c>
-      <c t="s" r="Q66" s="12">
-        <v>154</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3415,7 +3418,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>194</v>
+        <v>154</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3481,7 +3484,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>194</v>
+        <v>154</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3646,7 +3649,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>194</v>
+        <v>154</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3663,7 +3666,7 @@
         <v>217</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>194</v>
+        <v>154</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3990,7 +3993,7 @@
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>155</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>73</v>
@@ -4002,7 +4005,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4019,11 +4022,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>12</v>
@@ -4035,7 +4038,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4052,11 +4055,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>12</v>
@@ -4068,7 +4071,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4101,14 +4104,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>194</v>
+        <v>154</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4134,7 +4137,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4151,11 +4154,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>12</v>
@@ -4167,14 +4170,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>154</v>
+        <v>196</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4188,7 +4191,7 @@
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>170</v>
@@ -4200,7 +4203,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4221,7 +4224,7 @@
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>12</v>
@@ -4229,13 +4232,13 @@
     </row>
     <row r="92" ht="25.5" customHeight="1">
       <c r="P92" s="13">
-        <v>4039.0100000000002</v>
+        <v>4075.0100000000002</v>
       </c>
       <c r="Q92" s="13"/>
     </row>
     <row r="93" ht="16.5" customHeight="1">
       <c t="s" r="A93" s="14">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B93" s="14"/>
       <c r="C93" s="14"/>
@@ -4243,13 +4246,13 @@
       <c r="E93" s="14"/>
       <c r="F93" s="14"/>
       <c t="s" r="G93" s="15">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H93" s="15"/>
       <c r="I93" s="15"/>
       <c r="J93" s="16"/>
       <c t="s" r="K93" s="17">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L93" s="17"/>
       <c r="M93" s="17"/>

--- a/DaySale_2025-08-28_00-00.xlsx
+++ b/DaySale_2025-08-28_00-00.xlsx
@@ -797,7 +797,7 @@
     <t>120.0000</t>
   </si>
   <si>
-    <t>Thursday, 28 August, 2025 8:38 PM</t>
+    <t>Thursday, 28 August, 2025 8:39 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-28_00-00.xlsx
+++ b/DaySale_2025-08-28_00-00.xlsx
@@ -797,7 +797,7 @@
     <t>120.0000</t>
   </si>
   <si>
-    <t>Thursday, 28 August, 2025 8:39 PM</t>
+    <t>Thursday, 28 August, 2025 8:40 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-28_00-00.xlsx
+++ b/DaySale_2025-08-28_00-00.xlsx
@@ -317,6 +317,15 @@
     <t>35.6400</t>
   </si>
   <si>
+    <t>DOGMATIL 50MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>20.7900</t>
+  </si>
+  <si>
     <t>DOGMATIL FORT 200MG 10 TAB</t>
   </si>
   <si>
@@ -542,6 +551,12 @@
     <t>69.0000</t>
   </si>
   <si>
+    <t>PLEX BEAUTY HAIR CREAM</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
     <t>POLYDERM TOP. CREAM 20 GM</t>
   </si>
   <si>
@@ -713,6 +728,9 @@
     <t>حنه فاتيكا اسود 1 كيس</t>
   </si>
   <si>
+    <t>70.0000</t>
+  </si>
+  <si>
     <t>زيت فاتيكا كبير 180 مل</t>
   </si>
   <si>
@@ -761,6 +779,9 @@
     <t>6.0000</t>
   </si>
   <si>
+    <t>صابون ديتول اوريجنيال 115 جم</t>
+  </si>
+  <si>
     <t>قياس سكر</t>
   </si>
   <si>
@@ -794,10 +815,7 @@
     <t>مزيل عرق فوج FOGG MASTER</t>
   </si>
   <si>
-    <t>120.0000</t>
-  </si>
-  <si>
-    <t>Thursday, 28 August, 2025 8:40 PM</t>
+    <t>Thursday, 28 August, 2025 8:49 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2263,7 +2281,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2273,14 +2291,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2289,14 +2307,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2306,11 +2324,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -2362,7 +2380,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2372,11 +2390,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -2388,31 +2406,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>60</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2428,24 +2446,24 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>36</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2471,14 +2489,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>49</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2487,14 +2505,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>36</v>
+        <v>121</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2511,7 +2529,7 @@
         <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>24</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2527,7 +2545,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2560,7 +2578,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2570,14 +2588,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2586,14 +2604,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>49</v>
+        <v>131</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2610,7 +2628,7 @@
         <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2626,7 +2644,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2643,7 +2661,7 @@
         <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>47</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2659,7 +2677,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>138</v>
+        <v>17</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2669,14 +2687,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>60</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2685,14 +2703,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>141</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2709,7 +2727,7 @@
         <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2725,13 +2743,13 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -2742,7 +2760,7 @@
         <v>146</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2758,7 +2776,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2775,7 +2793,7 @@
         <v>149</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2805,7 +2823,7 @@
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>55</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2817,14 +2835,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2834,14 +2852,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>58</v>
+        <v>154</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2850,31 +2868,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>154</v>
+        <v>24</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>65</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2890,7 +2908,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>47</v>
+        <v>157</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2900,14 +2918,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>24</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2916,14 +2934,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2933,11 +2951,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>24</v>
@@ -2949,31 +2967,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>115</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
         <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2989,13 +3007,13 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
@@ -3006,7 +3024,7 @@
         <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3022,7 +3040,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3055,7 +3073,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>170</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3065,14 +3083,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3081,31 +3099,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>21</v>
+        <v>173</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>100</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3114,31 +3132,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>100</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3154,7 +3172,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3168,7 +3186,7 @@
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>82</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -3180,31 +3198,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>180</v>
+        <v>17</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>58</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>47</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3213,14 +3231,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3230,11 +3248,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3246,14 +3264,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3263,14 +3281,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3279,7 +3297,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3296,11 +3314,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3312,14 +3330,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>95</v>
+        <v>192</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3329,14 +3347,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>100</v>
+        <v>193</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>101</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3345,14 +3363,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>154</v>
+        <v>17</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3362,11 +3380,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>82</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3378,14 +3396,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3395,14 +3413,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>151</v>
+        <v>100</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>196</v>
+        <v>24</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3411,14 +3429,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3428,11 +3446,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3444,14 +3462,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3461,14 +3479,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>201</v>
+        <v>154</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>201</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3477,14 +3495,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3494,14 +3512,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>22</v>
+        <v>203</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
         <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3517,7 +3535,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>53</v>
+        <v>131</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3527,14 +3545,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>104</v>
+        <v>206</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3543,14 +3561,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>157</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3560,14 +3578,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>208</v>
+        <v>22</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
         <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3583,7 +3601,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>211</v>
+        <v>53</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3593,14 +3611,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>98</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3616,7 +3634,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>213</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3626,11 +3644,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3642,14 +3660,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>154</v>
+        <v>216</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3659,14 +3677,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>214</v>
+        <v>97</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>217</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>154</v>
+        <v>24</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3675,28 +3693,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -3708,31 +3726,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>223</v>
+        <v>157</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>157</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3741,14 +3759,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3758,11 +3776,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>171</v>
+        <v>225</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>172</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>12</v>
@@ -3774,14 +3792,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3791,14 +3809,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>67</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>65</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3814,7 +3832,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>71</v>
+        <v>232</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3824,11 +3842,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>230</v>
+        <v>174</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>232</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
@@ -3847,7 +3865,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>170</v>
+        <v>234</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3857,14 +3875,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>151</v>
+        <v>235</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>65</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3873,14 +3891,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>235</v>
+        <v>71</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3890,7 +3908,7 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
@@ -3913,7 +3931,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>17</v>
+        <v>131</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3923,14 +3941,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>239</v>
+        <v>154</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>241</v>
+        <v>65</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3939,14 +3957,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>17</v>
+        <v>241</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3956,14 +3974,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>71</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3996,7 +4014,7 @@
         <v>246</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>73</v>
+        <v>247</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4005,14 +4023,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>235</v>
+        <v>17</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4022,14 +4040,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>71</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4062,7 +4080,7 @@
         <v>252</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>12</v>
+        <v>73</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4078,7 +4096,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>17</v>
+        <v>241</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4088,14 +4106,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>171</v>
+        <v>254</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>225</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>65</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4104,14 +4122,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>154</v>
+        <v>71</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4121,11 +4139,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>12</v>
@@ -4137,7 +4155,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4154,11 +4172,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>12</v>
@@ -4170,14 +4188,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>196</v>
+        <v>17</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4187,14 +4205,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>119</v>
+        <v>174</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>259</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>170</v>
+        <v>65</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4203,14 +4221,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>128</v>
+        <v>157</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4220,49 +4238,148 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>58</v>
+        <v>229</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>261</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
-      <c r="P92" s="13">
-        <v>4075.0100000000002</v>
-      </c>
-      <c r="Q92" s="13"/>
-    </row>
-    <row r="93" ht="16.5" customHeight="1">
-      <c t="s" r="A93" s="14">
+      <c r="A92" s="7">
+        <v>86</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c t="s" r="C92" s="8">
         <v>262</v>
       </c>
-      <c r="B93" s="14"/>
-      <c r="C93" s="14"/>
-      <c r="D93" s="14"/>
-      <c r="E93" s="14"/>
-      <c r="F93" s="14"/>
-      <c t="s" r="G93" s="15">
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c t="s" r="H92" s="9">
+        <v>17</v>
+      </c>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c t="s" r="L92" s="10">
+        <v>41</v>
+      </c>
+      <c r="M92" s="10"/>
+      <c t="s" r="N92" s="8">
         <v>263</v>
       </c>
-      <c r="H93" s="15"/>
-      <c r="I93" s="15"/>
-      <c r="J93" s="16"/>
-      <c t="s" r="K93" s="17">
+      <c r="O92" s="8"/>
+      <c t="s" r="P92" s="11">
         <v>264</v>
       </c>
-      <c r="L93" s="17"/>
-      <c r="M93" s="17"/>
-      <c r="N93" s="17"/>
-      <c r="O93" s="17"/>
-      <c r="P93" s="17"/>
-      <c r="Q93" s="17"/>
+      <c t="s" r="Q92" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="A93" s="7">
+        <v>87</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c t="s" r="C93" s="8">
+        <v>265</v>
+      </c>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c t="s" r="H93" s="9">
+        <v>201</v>
+      </c>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c t="s" r="L93" s="10">
+        <v>41</v>
+      </c>
+      <c r="M93" s="10"/>
+      <c t="s" r="N93" s="8">
+        <v>122</v>
+      </c>
+      <c r="O93" s="8"/>
+      <c t="s" r="P93" s="11">
+        <v>266</v>
+      </c>
+      <c t="s" r="Q93" s="12">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="A94" s="7">
+        <v>88</v>
+      </c>
+      <c r="B94" s="7"/>
+      <c t="s" r="C94" s="8">
+        <v>267</v>
+      </c>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c t="s" r="H94" s="9">
+        <v>131</v>
+      </c>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c t="s" r="L94" s="10">
+        <v>41</v>
+      </c>
+      <c r="M94" s="10"/>
+      <c t="s" r="N94" s="8">
+        <v>58</v>
+      </c>
+      <c r="O94" s="8"/>
+      <c t="s" r="P94" s="11">
+        <v>181</v>
+      </c>
+      <c t="s" r="Q94" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="P95" s="13">
+        <v>4280.8000000000002</v>
+      </c>
+      <c r="Q95" s="13"/>
+    </row>
+    <row r="96" ht="16.5" customHeight="1">
+      <c t="s" r="A96" s="14">
+        <v>268</v>
+      </c>
+      <c r="B96" s="14"/>
+      <c r="C96" s="14"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="14"/>
+      <c r="F96" s="14"/>
+      <c t="s" r="G96" s="15">
+        <v>269</v>
+      </c>
+      <c r="H96" s="15"/>
+      <c r="I96" s="15"/>
+      <c r="J96" s="16"/>
+      <c t="s" r="K96" s="17">
+        <v>270</v>
+      </c>
+      <c r="L96" s="17"/>
+      <c r="M96" s="17"/>
+      <c r="N96" s="17"/>
+      <c r="O96" s="17"/>
+      <c r="P96" s="17"/>
+      <c r="Q96" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="437">
+  <mergeCells count="452">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4696,10 +4813,25 @@
     <mergeCell ref="H91:K91"/>
     <mergeCell ref="L91:M91"/>
     <mergeCell ref="N91:O91"/>
-    <mergeCell ref="P92:Q92"/>
-    <mergeCell ref="A93:F93"/>
-    <mergeCell ref="G93:I93"/>
-    <mergeCell ref="K93:Q93"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="P95:Q95"/>
+    <mergeCell ref="A96:F96"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="K96:Q96"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-28_00-00.xlsx
+++ b/DaySale_2025-08-28_00-00.xlsx
@@ -815,7 +815,7 @@
     <t>مزيل عرق فوج FOGG MASTER</t>
   </si>
   <si>
-    <t>Thursday, 28 August, 2025 8:49 PM</t>
+    <t>Thursday, 28 August, 2025 8:54 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2281,7 +2281,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -3205,7 +3205,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3931,7 +3931,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4129,7 +4129,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>71</v>
+        <v>241</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>

--- a/DaySale_2025-08-28_00-00.xlsx
+++ b/DaySale_2025-08-28_00-00.xlsx
@@ -401,6 +401,15 @@
     <t>35.5000</t>
   </si>
   <si>
+    <t>FORADIL12 MG 60 CAPS</t>
+  </si>
+  <si>
+    <t>560.00</t>
+  </si>
+  <si>
+    <t>89.6000</t>
+  </si>
+  <si>
     <t>FUTAPAN 40 MG VIAL I.V.</t>
   </si>
   <si>
@@ -488,6 +497,15 @@
     <t>72.0000</t>
   </si>
   <si>
+    <t>LIMITLESS MAN MAX 30 TABS</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>240.0000</t>
+  </si>
+  <si>
     <t>MILGA 40 TABLETS</t>
   </si>
   <si>
@@ -512,9 +530,6 @@
     <t>ORLY 120MG 30 CAPS.</t>
   </si>
   <si>
-    <t>240.00</t>
-  </si>
-  <si>
     <t>79.2000</t>
   </si>
   <si>
@@ -815,7 +830,7 @@
     <t>مزيل عرق فوج FOGG MASTER</t>
   </si>
   <si>
-    <t>Thursday, 28 August, 2025 8:54 PM</t>
+    <t>Thursday, 28 August, 2025 8:56 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2611,24 +2626,24 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>131</v>
+        <v>53</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2637,14 +2652,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>49</v>
+        <v>134</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2661,7 +2676,7 @@
         <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2677,7 +2692,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2694,7 +2709,7 @@
         <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>47</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2710,7 +2725,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>141</v>
+        <v>17</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2720,14 +2735,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>60</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2736,14 +2751,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>144</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2760,7 +2775,7 @@
         <v>146</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2776,13 +2791,13 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -2793,7 +2808,7 @@
         <v>149</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2809,7 +2824,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2826,7 +2841,7 @@
         <v>152</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2856,7 +2871,7 @@
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>55</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2868,14 +2883,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2885,14 +2900,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>58</v>
+        <v>157</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2901,31 +2916,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>157</v>
+        <v>24</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>65</v>
+        <v>24</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2941,7 +2956,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>47</v>
+        <v>160</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2951,14 +2966,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>24</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2967,14 +2982,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2984,14 +2999,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>115</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3000,31 +3015,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>100</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3033,14 +3048,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3050,7 +3065,7 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>115</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
@@ -3073,13 +3088,13 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
@@ -3090,7 +3105,7 @@
         <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3106,7 +3121,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>173</v>
+        <v>49</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3116,14 +3131,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3132,28 +3147,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>100</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>24</v>
@@ -3172,7 +3187,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>24</v>
+        <v>178</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3182,11 +3197,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -3198,14 +3213,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3215,14 +3230,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3238,7 +3253,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3252,7 +3267,7 @@
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>82</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3264,31 +3279,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>185</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>58</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>47</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3297,14 +3312,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3314,11 +3329,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3330,14 +3345,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3347,14 +3362,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3363,7 +3378,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3380,11 +3395,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>160</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3396,14 +3411,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>95</v>
+        <v>197</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3413,14 +3428,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>100</v>
+        <v>198</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>101</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3429,14 +3444,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>157</v>
+        <v>17</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3446,11 +3461,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>82</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3462,14 +3477,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3479,14 +3494,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>154</v>
+        <v>100</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>201</v>
+        <v>24</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3495,14 +3510,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3512,11 +3527,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>204</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3528,14 +3543,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>131</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3545,14 +3560,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>206</v>
+        <v>157</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>206</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3561,14 +3576,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3578,14 +3593,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>22</v>
+        <v>208</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
         <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3601,7 +3616,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>53</v>
+        <v>134</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3611,14 +3626,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>107</v>
+        <v>211</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3627,14 +3642,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>160</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3644,14 +3659,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>213</v>
+        <v>22</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
         <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3667,7 +3682,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>216</v>
+        <v>53</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3677,14 +3692,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>98</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3700,7 +3715,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>218</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3710,11 +3725,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -3726,14 +3741,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>157</v>
+        <v>221</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3743,14 +3758,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>219</v>
+        <v>97</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>222</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>157</v>
+        <v>24</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3759,28 +3774,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>12</v>
@@ -3792,31 +3807,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>228</v>
+        <v>160</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>160</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3825,14 +3840,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3842,11 +3857,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>174</v>
+        <v>230</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>175</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
@@ -3858,14 +3873,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3875,14 +3890,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>67</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>65</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3898,7 +3913,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>71</v>
+        <v>237</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3908,11 +3923,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>235</v>
+        <v>179</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>237</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -3931,7 +3946,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>173</v>
+        <v>239</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3941,11 +3956,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>154</v>
+        <v>240</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>239</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>65</v>
@@ -3957,14 +3972,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>241</v>
+        <v>71</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3974,11 +3989,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>12</v>
@@ -3990,14 +4005,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>17</v>
+        <v>178</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4007,14 +4022,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>245</v>
+        <v>157</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>247</v>
+        <v>65</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4023,14 +4038,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>17</v>
+        <v>246</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4040,14 +4055,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>71</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4056,7 +4071,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4073,14 +4088,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
+        <v>251</v>
+      </c>
+      <c t="s" r="Q86" s="12">
         <v>252</v>
-      </c>
-      <c t="s" r="Q86" s="12">
-        <v>73</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4096,7 +4111,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>241</v>
+        <v>17</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4110,10 +4125,10 @@
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>12</v>
+        <v>71</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4122,14 +4137,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>241</v>
+        <v>17</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4139,14 +4154,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>229</v>
+        <v>256</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>230</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>12</v>
+        <v>73</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4155,14 +4170,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>17</v>
+        <v>246</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4172,11 +4187,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>12</v>
@@ -4188,14 +4203,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>17</v>
+        <v>246</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4205,14 +4220,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>174</v>
+        <v>234</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>65</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4221,14 +4236,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>157</v>
+        <v>17</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4238,11 +4253,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>229</v>
+        <v>263</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>230</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>12</v>
@@ -4254,7 +4269,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4271,14 +4286,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>263</v>
+        <v>179</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>264</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>12</v>
+        <v>65</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4287,14 +4302,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>201</v>
+        <v>160</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4304,14 +4319,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>122</v>
+        <v>234</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>266</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>173</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4327,7 +4342,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>131</v>
+        <v>17</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4337,49 +4352,115 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>58</v>
+        <v>268</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>181</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
-      <c r="P95" s="13">
-        <v>4280.8000000000002</v>
-      </c>
-      <c r="Q95" s="13"/>
-    </row>
-    <row r="96" ht="16.5" customHeight="1">
-      <c t="s" r="A96" s="14">
-        <v>268</v>
-      </c>
-      <c r="B96" s="14"/>
-      <c r="C96" s="14"/>
-      <c r="D96" s="14"/>
-      <c r="E96" s="14"/>
-      <c r="F96" s="14"/>
-      <c t="s" r="G96" s="15">
-        <v>269</v>
-      </c>
-      <c r="H96" s="15"/>
-      <c r="I96" s="15"/>
-      <c r="J96" s="16"/>
-      <c t="s" r="K96" s="17">
+      <c r="A95" s="7">
+        <v>89</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c t="s" r="C95" s="8">
         <v>270</v>
       </c>
-      <c r="L96" s="17"/>
-      <c r="M96" s="17"/>
-      <c r="N96" s="17"/>
-      <c r="O96" s="17"/>
-      <c r="P96" s="17"/>
-      <c r="Q96" s="17"/>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c t="s" r="H95" s="9">
+        <v>206</v>
+      </c>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c t="s" r="L95" s="10">
+        <v>41</v>
+      </c>
+      <c r="M95" s="10"/>
+      <c t="s" r="N95" s="8">
+        <v>122</v>
+      </c>
+      <c r="O95" s="8"/>
+      <c t="s" r="P95" s="11">
+        <v>271</v>
+      </c>
+      <c t="s" r="Q95" s="12">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="A96" s="7">
+        <v>90</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c t="s" r="C96" s="8">
+        <v>272</v>
+      </c>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c t="s" r="H96" s="9">
+        <v>134</v>
+      </c>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c t="s" r="L96" s="10">
+        <v>41</v>
+      </c>
+      <c r="M96" s="10"/>
+      <c t="s" r="N96" s="8">
+        <v>58</v>
+      </c>
+      <c r="O96" s="8"/>
+      <c t="s" r="P96" s="11">
+        <v>186</v>
+      </c>
+      <c t="s" r="Q96" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="P97" s="13">
+        <v>4610.3999999999996</v>
+      </c>
+      <c r="Q97" s="13"/>
+    </row>
+    <row r="98" ht="16.5" customHeight="1">
+      <c t="s" r="A98" s="14">
+        <v>273</v>
+      </c>
+      <c r="B98" s="14"/>
+      <c r="C98" s="14"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="14"/>
+      <c r="F98" s="14"/>
+      <c t="s" r="G98" s="15">
+        <v>274</v>
+      </c>
+      <c r="H98" s="15"/>
+      <c r="I98" s="15"/>
+      <c r="J98" s="16"/>
+      <c t="s" r="K98" s="17">
+        <v>275</v>
+      </c>
+      <c r="L98" s="17"/>
+      <c r="M98" s="17"/>
+      <c r="N98" s="17"/>
+      <c r="O98" s="17"/>
+      <c r="P98" s="17"/>
+      <c r="Q98" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="452">
+  <mergeCells count="462">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4828,10 +4909,20 @@
     <mergeCell ref="H94:K94"/>
     <mergeCell ref="L94:M94"/>
     <mergeCell ref="N94:O94"/>
-    <mergeCell ref="P95:Q95"/>
-    <mergeCell ref="A96:F96"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="K96:Q96"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="P97:Q97"/>
+    <mergeCell ref="A98:F98"/>
+    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="K98:Q98"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-28_00-00.xlsx
+++ b/DaySale_2025-08-28_00-00.xlsx
@@ -374,13 +374,13 @@
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
-    <t>4:2</t>
+    <t>3:3</t>
   </si>
   <si>
     <t>24.00</t>
   </si>
   <si>
-    <t>27.6000</t>
+    <t>47.5200</t>
   </si>
   <si>
     <t>FLOPADEX 8 MG 30 CAPSULES</t>
@@ -566,268 +566,265 @@
     <t>69.0000</t>
   </si>
   <si>
-    <t>PLEX BEAUTY HAIR CREAM</t>
+    <t>POLYDERM TOP. CREAM 20 GM</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
+  </si>
+  <si>
+    <t>0:18</t>
+  </si>
+  <si>
+    <t>752.00</t>
+  </si>
+  <si>
+    <t>112.8000</t>
+  </si>
+  <si>
+    <t>RECOXIBRIGHT 120 MG 7 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>88.00</t>
+  </si>
+  <si>
+    <t>88.0000</t>
+  </si>
+  <si>
+    <t>SACROFER 100MG/5ML 5 AMP FOR I.V. INJ.</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>275.00</t>
+  </si>
+  <si>
+    <t>110.0000</t>
+  </si>
+  <si>
+    <t>SIMETHICONE-MUP 2% EMULSION ORAL DROPS 30 ML</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>SPASCOLON 100MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
+  </si>
+  <si>
+    <t>SULBIN 750MG VIAL</t>
+  </si>
+  <si>
+    <t>140.0000</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>TELFAST 30MG/5ML SUSP. 100 ML</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>URIVIN-N 10 EFF. SACHETS</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
+  </si>
+  <si>
+    <t>28.8000</t>
+  </si>
+  <si>
+    <t>VOLTAREN 1% EMULGEL 25 GM</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>VOTRIAXONE 1 GM I.M VIAL</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>56.0000</t>
+  </si>
+  <si>
+    <t>XORAXON 1GM I.M. VIAL</t>
+  </si>
+  <si>
+    <t>168.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اختبار حمل بيبي تشك </t>
+  </si>
+  <si>
+    <t>15:0</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">برفان القصاص </t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>بلاستر مترسيلك 2 سم</t>
+  </si>
+  <si>
+    <t>38:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>77:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>حلاوة حرير</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>حنه فاتيكا اسود 1 كيس</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>زيت فاتيكا كبير 180 مل</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>13:0</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شاش 7 سم </t>
+  </si>
+  <si>
+    <t>6.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>صابون ديتول اوريجنيال 115 جم</t>
+  </si>
+  <si>
+    <t>قياس سكر</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>كريم بانسيه</t>
+  </si>
+  <si>
+    <t>مجموعه برد</t>
+  </si>
+  <si>
+    <t>8.00</t>
+  </si>
+  <si>
+    <t>8.0000</t>
+  </si>
+  <si>
+    <t>محلول ملح</t>
+  </si>
+  <si>
+    <t>144.0000</t>
+  </si>
+  <si>
+    <t>مزيل عرق فوج FOGG MASTER</t>
   </si>
   <si>
     <t>120.0000</t>
-  </si>
-  <si>
-    <t>POLYDERM TOP. CREAM 20 GM</t>
-  </si>
-  <si>
-    <t>21.00</t>
-  </si>
-  <si>
-    <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
-  </si>
-  <si>
-    <t>0:18</t>
-  </si>
-  <si>
-    <t>752.00</t>
-  </si>
-  <si>
-    <t>112.8000</t>
-  </si>
-  <si>
-    <t>RECOXIBRIGHT 120 MG 7 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>88.00</t>
-  </si>
-  <si>
-    <t>88.0000</t>
-  </si>
-  <si>
-    <t>SACROFER 100MG/5ML 5 AMP FOR I.V. INJ.</t>
-  </si>
-  <si>
-    <t>0:4</t>
-  </si>
-  <si>
-    <t>275.00</t>
-  </si>
-  <si>
-    <t>110.0000</t>
-  </si>
-  <si>
-    <t>SIMETHICONE-MUP 2% EMULSION ORAL DROPS 30 ML</t>
-  </si>
-  <si>
-    <t>27.00</t>
-  </si>
-  <si>
-    <t>SPASCOLON 100MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
-  </si>
-  <si>
-    <t>SULBIN 750MG VIAL</t>
-  </si>
-  <si>
-    <t>140.0000</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>TELFAST 30MG/5ML SUSP. 100 ML</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
-    <t>URIVIN-N 10 EFF. SACHETS</t>
-  </si>
-  <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
-  </si>
-  <si>
-    <t>28.8000</t>
-  </si>
-  <si>
-    <t>VOLTAREN 1% EMULGEL 25 GM</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>2:2</t>
-  </si>
-  <si>
-    <t>VOTRIAXONE 1 GM I.M VIAL</t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>56.00</t>
-  </si>
-  <si>
-    <t>56.0000</t>
-  </si>
-  <si>
-    <t>XORAXON 1GM I.M. VIAL</t>
-  </si>
-  <si>
-    <t>168.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">اختبار حمل بيبي تشك </t>
-  </si>
-  <si>
-    <t>15:0</t>
-  </si>
-  <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">برفان القصاص </t>
-  </si>
-  <si>
-    <t>8:0</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>بلاستر مترسيلك 2 سم</t>
-  </si>
-  <si>
-    <t>38:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">جهاز محلول </t>
-  </si>
-  <si>
-    <t>77:0</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>حلاوة حرير</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>حنه فاتيكا اسود 1 كيس</t>
-  </si>
-  <si>
-    <t>70.0000</t>
-  </si>
-  <si>
-    <t>زيت فاتيكا كبير 180 مل</t>
-  </si>
-  <si>
-    <t>11:0</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>سرنجات 10 سم</t>
-  </si>
-  <si>
-    <t>4.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>13:0</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شاش 7 سم </t>
-  </si>
-  <si>
-    <t>6.00</t>
-  </si>
-  <si>
-    <t>6.0000</t>
-  </si>
-  <si>
-    <t>صابون ديتول اوريجنيال 115 جم</t>
-  </si>
-  <si>
-    <t>قياس سكر</t>
-  </si>
-  <si>
-    <t>10.00</t>
-  </si>
-  <si>
-    <t>10.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">كالونا </t>
-  </si>
-  <si>
-    <t>كريم بانسيه</t>
-  </si>
-  <si>
-    <t>مجموعه برد</t>
-  </si>
-  <si>
-    <t>8.00</t>
-  </si>
-  <si>
-    <t>8.0000</t>
-  </si>
-  <si>
-    <t>محلول ملح</t>
-  </si>
-  <si>
-    <t>144.0000</t>
-  </si>
-  <si>
-    <t>مزيل عرق فوج FOGG MASTER</t>
   </si>
   <si>
     <t>Thursday, 28 August, 2025 8:56 PM</t>
@@ -2296,7 +2293,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2544,7 +2541,7 @@
         <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -3292,15 +3289,15 @@
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>58</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3319,7 +3316,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>188</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3329,14 +3326,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>82</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>47</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3345,14 +3342,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>190</v>
+        <v>17</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3362,14 +3359,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>47</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3378,14 +3375,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>17</v>
+        <v>195</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3395,14 +3392,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3411,14 +3408,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>197</v>
+        <v>17</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3428,14 +3425,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3451,7 +3448,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3461,14 +3458,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>201</v>
+        <v>100</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>166</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3477,14 +3474,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>95</v>
+        <v>160</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3494,14 +3491,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>100</v>
+        <v>186</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3510,14 +3507,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>160</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3527,14 +3524,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>188</v>
+        <v>157</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>82</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>204</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3543,14 +3540,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>160</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3560,14 +3557,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>157</v>
+        <v>206</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>206</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3576,14 +3573,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>160</v>
+        <v>134</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3593,11 +3590,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3609,14 +3606,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3626,14 +3623,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>211</v>
+        <v>22</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
         <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3649,7 +3646,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>160</v>
+        <v>53</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3659,14 +3656,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>22</v>
+        <v>107</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
         <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3682,7 +3679,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3692,14 +3689,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>107</v>
+        <v>216</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3708,14 +3705,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>219</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3725,14 +3722,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>218</v>
+        <v>97</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>219</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3758,14 +3755,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>97</v>
+        <v>222</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>98</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3774,14 +3771,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>223</v>
+        <v>160</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3791,14 +3788,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
         <v>225</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>160</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3814,24 +3811,24 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>160</v>
+        <v>227</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>160</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3840,14 +3837,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3857,11 +3854,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
@@ -3873,14 +3870,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3890,11 +3887,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>234</v>
+        <v>179</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>235</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>12</v>
@@ -3923,14 +3920,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>179</v>
+        <v>238</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>180</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>12</v>
+        <v>65</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3939,14 +3936,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>239</v>
+        <v>71</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3956,14 +3953,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>67</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>65</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3979,7 +3976,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>71</v>
+        <v>134</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3989,14 +3986,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>240</v>
+        <v>157</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
         <v>242</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>65</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4012,7 +4009,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>178</v>
+        <v>244</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4022,14 +4019,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>157</v>
+        <v>245</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>65</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4038,14 +4035,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>246</v>
+        <v>17</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4055,14 +4052,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>250</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4071,7 +4068,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4088,14 +4085,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>252</v>
+        <v>71</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4125,10 +4122,10 @@
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4137,14 +4134,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>17</v>
+        <v>244</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4154,14 +4151,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>73</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4170,14 +4167,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>246</v>
+        <v>71</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4187,11 +4184,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>259</v>
+        <v>232</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>260</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>12</v>
@@ -4203,14 +4200,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>246</v>
+        <v>17</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4220,11 +4217,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>234</v>
+        <v>261</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>235</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
@@ -4236,7 +4233,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4253,14 +4250,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>263</v>
+        <v>179</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>12</v>
+        <v>65</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4269,14 +4266,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>17</v>
+        <v>160</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4286,14 +4283,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>179</v>
+        <v>232</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>65</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4302,14 +4299,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>160</v>
+        <v>17</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4319,11 +4316,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>234</v>
+        <v>266</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>235</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>12</v>
@@ -4335,14 +4332,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>17</v>
+        <v>204</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4352,14 +4349,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>268</v>
+        <v>122</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
         <v>269</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>12</v>
+        <v>178</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4375,7 +4372,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>206</v>
+        <v>134</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4385,82 +4382,49 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>122</v>
+        <v>58</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
         <v>271</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>178</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
-      <c r="A96" s="7">
-        <v>90</v>
-      </c>
-      <c r="B96" s="7"/>
-      <c t="s" r="C96" s="8">
+      <c r="P96" s="13">
+        <v>4510.3199999999997</v>
+      </c>
+      <c r="Q96" s="13"/>
+    </row>
+    <row r="97" ht="16.5" customHeight="1">
+      <c t="s" r="A97" s="14">
         <v>272</v>
       </c>
-      <c r="D96" s="8"/>
-      <c r="E96" s="8"/>
-      <c r="F96" s="8"/>
-      <c r="G96" s="8"/>
-      <c t="s" r="H96" s="9">
-        <v>134</v>
-      </c>
-      <c r="I96" s="9"/>
-      <c r="J96" s="9"/>
-      <c r="K96" s="9"/>
-      <c t="s" r="L96" s="10">
-        <v>41</v>
-      </c>
-      <c r="M96" s="10"/>
-      <c t="s" r="N96" s="8">
-        <v>58</v>
-      </c>
-      <c r="O96" s="8"/>
-      <c t="s" r="P96" s="11">
-        <v>186</v>
-      </c>
-      <c t="s" r="Q96" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="97" ht="25.5" customHeight="1">
-      <c r="P97" s="13">
-        <v>4610.3999999999996</v>
-      </c>
-      <c r="Q97" s="13"/>
-    </row>
-    <row r="98" ht="16.5" customHeight="1">
-      <c t="s" r="A98" s="14">
+      <c r="B97" s="14"/>
+      <c r="C97" s="14"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="14"/>
+      <c r="F97" s="14"/>
+      <c t="s" r="G97" s="15">
         <v>273</v>
       </c>
-      <c r="B98" s="14"/>
-      <c r="C98" s="14"/>
-      <c r="D98" s="14"/>
-      <c r="E98" s="14"/>
-      <c r="F98" s="14"/>
-      <c t="s" r="G98" s="15">
+      <c r="H97" s="15"/>
+      <c r="I97" s="15"/>
+      <c r="J97" s="16"/>
+      <c t="s" r="K97" s="17">
         <v>274</v>
       </c>
-      <c r="H98" s="15"/>
-      <c r="I98" s="15"/>
-      <c r="J98" s="16"/>
-      <c t="s" r="K98" s="17">
-        <v>275</v>
-      </c>
-      <c r="L98" s="17"/>
-      <c r="M98" s="17"/>
-      <c r="N98" s="17"/>
-      <c r="O98" s="17"/>
-      <c r="P98" s="17"/>
-      <c r="Q98" s="17"/>
+      <c r="L97" s="17"/>
+      <c r="M97" s="17"/>
+      <c r="N97" s="17"/>
+      <c r="O97" s="17"/>
+      <c r="P97" s="17"/>
+      <c r="Q97" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="462">
+  <mergeCells count="457">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4914,15 +4878,10 @@
     <mergeCell ref="H95:K95"/>
     <mergeCell ref="L95:M95"/>
     <mergeCell ref="N95:O95"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="C96:G96"/>
-    <mergeCell ref="H96:K96"/>
-    <mergeCell ref="L96:M96"/>
-    <mergeCell ref="N96:O96"/>
-    <mergeCell ref="P97:Q97"/>
-    <mergeCell ref="A98:F98"/>
-    <mergeCell ref="G98:I98"/>
-    <mergeCell ref="K98:Q98"/>
+    <mergeCell ref="P96:Q96"/>
+    <mergeCell ref="A97:F97"/>
+    <mergeCell ref="G97:I97"/>
+    <mergeCell ref="K97:Q97"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-28_00-00.xlsx
+++ b/DaySale_2025-08-28_00-00.xlsx
@@ -227,6 +227,9 @@
     <t>10:0</t>
   </si>
   <si>
+    <t>CONCOR COR 2.5MG 30 TABLETS</t>
+  </si>
+  <si>
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
@@ -827,7 +830,7 @@
     <t>120.0000</t>
   </si>
   <si>
-    <t>Thursday, 28 August, 2025 8:56 PM</t>
+    <t>Thursday, 28 August, 2025 9:00 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1996,7 +1999,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2006,14 +2009,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2022,14 +2025,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2039,14 +2042,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2055,14 +2058,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2072,14 +2075,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2088,14 +2091,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2105,14 +2108,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2121,14 +2124,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>87</v>
+        <v>17</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2138,14 +2141,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2154,14 +2157,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2171,14 +2174,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>19</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2187,14 +2190,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2204,14 +2207,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>22</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>95</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2220,14 +2223,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2237,14 +2240,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>22</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>24</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2253,14 +2256,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2270,11 +2273,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>24</v>
@@ -2286,14 +2289,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2303,11 +2306,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>24</v>
@@ -2319,14 +2322,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2336,14 +2339,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2359,7 +2362,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2369,11 +2372,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -2385,7 +2388,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2402,11 +2405,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -2418,14 +2421,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2435,11 +2438,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2451,31 +2454,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>60</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2484,31 +2487,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>36</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2517,14 +2520,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2534,14 +2537,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>57</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2550,14 +2553,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>36</v>
+        <v>122</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2567,14 +2570,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>24</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2583,14 +2586,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2600,11 +2603,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>24</v>
@@ -2616,28 +2619,28 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>24</v>
@@ -2649,31 +2652,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>134</v>
+        <v>53</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2682,14 +2685,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>49</v>
+        <v>135</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2699,14 +2702,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2715,14 +2718,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2732,14 +2735,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>47</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2748,14 +2751,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>144</v>
+        <v>17</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2765,14 +2768,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>60</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2781,14 +2784,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>145</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2798,14 +2801,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2814,31 +2817,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2847,14 +2850,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2864,14 +2867,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2880,7 +2883,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2897,11 +2900,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>55</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -2913,14 +2916,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2930,14 +2933,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>58</v>
+        <v>158</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2953,24 +2956,24 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>160</v>
+        <v>24</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>161</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>65</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2979,14 +2982,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>161</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2996,14 +2999,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>163</v>
+        <v>22</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3012,14 +3015,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3029,14 +3032,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>100</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3045,14 +3048,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3062,11 +3065,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>24</v>
@@ -3078,31 +3081,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3111,31 +3114,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3144,14 +3147,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3161,11 +3164,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>24</v>
@@ -3177,14 +3180,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>178</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3194,14 +3197,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3210,31 +3213,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>21</v>
+        <v>179</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3250,24 +3253,24 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>101</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3276,14 +3279,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3293,11 +3296,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>82</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3309,14 +3312,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>188</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3326,14 +3329,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>47</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3342,14 +3345,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>17</v>
+        <v>189</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3359,14 +3362,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>47</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3375,14 +3378,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>195</v>
+        <v>17</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3392,14 +3395,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3408,14 +3411,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>17</v>
+        <v>196</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3425,14 +3428,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>166</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3441,14 +3444,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>95</v>
+        <v>17</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3458,14 +3461,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>101</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3481,7 +3484,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>160</v>
+        <v>96</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3491,14 +3494,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>186</v>
+        <v>101</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3514,7 +3517,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>161</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3524,14 +3527,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>157</v>
+        <v>187</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>203</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>204</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3540,14 +3543,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>160</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3557,14 +3560,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>206</v>
+        <v>158</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>205</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3573,14 +3576,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3590,11 +3593,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3606,14 +3609,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3623,14 +3626,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>22</v>
+        <v>210</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3639,14 +3642,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>53</v>
+        <v>161</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3656,14 +3659,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>107</v>
+        <v>22</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3672,14 +3675,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3689,14 +3692,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>216</v>
+        <v>108</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3705,14 +3708,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>219</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3722,14 +3725,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>97</v>
+        <v>217</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>98</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3738,14 +3741,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3755,14 +3758,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>222</v>
+        <v>98</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>223</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3771,14 +3774,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>160</v>
+        <v>222</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3788,14 +3791,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>160</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3804,31 +3807,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>227</v>
+        <v>161</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>161</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3837,14 +3840,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3854,11 +3857,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
@@ -3870,14 +3873,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3887,11 +3890,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>179</v>
+        <v>233</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>180</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>12</v>
@@ -3903,14 +3906,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3920,14 +3923,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>67</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>65</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3936,14 +3939,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>71</v>
+        <v>238</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3953,14 +3956,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>240</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>65</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3969,14 +3972,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>134</v>
+        <v>71</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3986,14 +3989,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>157</v>
+        <v>239</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>65</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4002,14 +4005,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>244</v>
+        <v>135</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4019,14 +4022,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>245</v>
+        <v>158</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>12</v>
+        <v>65</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4035,14 +4038,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>17</v>
+        <v>245</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4052,14 +4055,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>250</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4068,7 +4071,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4085,14 +4088,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>71</v>
+        <v>251</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4101,7 +4104,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4118,14 +4121,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4134,14 +4137,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>244</v>
+        <v>17</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4151,14 +4154,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>12</v>
+        <v>74</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4167,14 +4170,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>71</v>
+        <v>245</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4184,11 +4187,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>232</v>
+        <v>258</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>233</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>12</v>
@@ -4207,7 +4210,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4217,11 +4220,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>261</v>
+        <v>233</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>262</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
@@ -4233,7 +4236,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4250,14 +4253,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>179</v>
+        <v>262</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>233</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>65</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4273,7 +4276,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>160</v>
+        <v>17</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4283,14 +4286,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>232</v>
+        <v>180</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>12</v>
+        <v>65</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4306,7 +4309,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>17</v>
+        <v>161</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4316,11 +4319,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>266</v>
+        <v>233</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>267</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>12</v>
@@ -4332,14 +4335,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>204</v>
+        <v>17</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4349,14 +4352,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>122</v>
+        <v>267</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>178</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4365,14 +4368,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>134</v>
+        <v>205</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4382,49 +4385,82 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>58</v>
+        <v>123</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
+        <v>270</v>
+      </c>
+      <c t="s" r="Q95" s="12">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="A96" s="7">
+        <v>90</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c t="s" r="C96" s="8">
         <v>271</v>
       </c>
-      <c t="s" r="Q95" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="96" ht="25.5" customHeight="1">
-      <c r="P96" s="13">
-        <v>4510.3199999999997</v>
-      </c>
-      <c r="Q96" s="13"/>
-    </row>
-    <row r="97" ht="16.5" customHeight="1">
-      <c t="s" r="A97" s="14">
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c t="s" r="H96" s="9">
+        <v>135</v>
+      </c>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c t="s" r="L96" s="10">
+        <v>41</v>
+      </c>
+      <c r="M96" s="10"/>
+      <c t="s" r="N96" s="8">
+        <v>58</v>
+      </c>
+      <c r="O96" s="8"/>
+      <c t="s" r="P96" s="11">
         <v>272</v>
       </c>
-      <c r="B97" s="14"/>
-      <c r="C97" s="14"/>
-      <c r="D97" s="14"/>
-      <c r="E97" s="14"/>
-      <c r="F97" s="14"/>
-      <c t="s" r="G97" s="15">
+      <c t="s" r="Q96" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="P97" s="13">
+        <v>4530.1199999999999</v>
+      </c>
+      <c r="Q97" s="13"/>
+    </row>
+    <row r="98" ht="16.5" customHeight="1">
+      <c t="s" r="A98" s="14">
         <v>273</v>
       </c>
-      <c r="H97" s="15"/>
-      <c r="I97" s="15"/>
-      <c r="J97" s="16"/>
-      <c t="s" r="K97" s="17">
+      <c r="B98" s="14"/>
+      <c r="C98" s="14"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="14"/>
+      <c r="F98" s="14"/>
+      <c t="s" r="G98" s="15">
         <v>274</v>
       </c>
-      <c r="L97" s="17"/>
-      <c r="M97" s="17"/>
-      <c r="N97" s="17"/>
-      <c r="O97" s="17"/>
-      <c r="P97" s="17"/>
-      <c r="Q97" s="17"/>
+      <c r="H98" s="15"/>
+      <c r="I98" s="15"/>
+      <c r="J98" s="16"/>
+      <c t="s" r="K98" s="17">
+        <v>275</v>
+      </c>
+      <c r="L98" s="17"/>
+      <c r="M98" s="17"/>
+      <c r="N98" s="17"/>
+      <c r="O98" s="17"/>
+      <c r="P98" s="17"/>
+      <c r="Q98" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="457">
+  <mergeCells count="462">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4878,10 +4914,15 @@
     <mergeCell ref="H95:K95"/>
     <mergeCell ref="L95:M95"/>
     <mergeCell ref="N95:O95"/>
-    <mergeCell ref="P96:Q96"/>
-    <mergeCell ref="A97:F97"/>
-    <mergeCell ref="G97:I97"/>
-    <mergeCell ref="K97:Q97"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="P97:Q97"/>
+    <mergeCell ref="A98:F98"/>
+    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="K98:Q98"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-28_00-00.xlsx
+++ b/DaySale_2025-08-28_00-00.xlsx
@@ -830,7 +830,7 @@
     <t>120.0000</t>
   </si>
   <si>
-    <t>Thursday, 28 August, 2025 9:00 PM</t>
+    <t>Thursday, 28 August, 2025 9:01 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-28_00-00.xlsx
+++ b/DaySale_2025-08-28_00-00.xlsx
@@ -98,6 +98,15 @@
     <t>28.7100</t>
   </si>
   <si>
+    <t>ALVERINSPASM 24 S.G.CAPS.</t>
+  </si>
+  <si>
+    <t>74.00</t>
+  </si>
+  <si>
+    <t>37.0000</t>
+  </si>
+  <si>
     <t>ANALLERGE 2MG/5ML SYRUP 100 ML</t>
   </si>
   <si>
@@ -227,6 +236,15 @@
     <t>10:0</t>
   </si>
   <si>
+    <t>COLOVATIL 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>20.7900</t>
+  </si>
+  <si>
     <t>CONCOR COR 2.5MG 30 TABLETS</t>
   </si>
   <si>
@@ -323,12 +341,6 @@
     <t>DOGMATIL 50MG 30 CAPS.</t>
   </si>
   <si>
-    <t>63.00</t>
-  </si>
-  <si>
-    <t>20.7900</t>
-  </si>
-  <si>
     <t>DOGMATIL FORT 200MG 10 TAB</t>
   </si>
   <si>
@@ -830,7 +842,7 @@
     <t>120.0000</t>
   </si>
   <si>
-    <t>Thursday, 28 August, 2025 9:01 PM</t>
+    <t>Thursday, 28 August, 2025 9:05 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1603,7 +1615,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1620,7 +1632,7 @@
         <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1636,7 +1648,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1653,7 +1665,7 @@
         <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1669,7 +1681,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1679,11 +1691,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>24</v>
@@ -1695,31 +1707,31 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1728,31 +1740,31 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>47</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1761,14 +1773,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1778,14 +1790,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>24</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1794,14 +1806,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1811,11 +1823,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>24</v>
@@ -1827,14 +1839,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1844,14 +1856,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>60</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1860,31 +1872,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
+        <v>62</v>
+      </c>
+      <c t="s" r="Q19" s="12">
         <v>63</v>
-      </c>
-      <c t="s" r="Q19" s="12">
-        <v>24</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1900,24 +1912,24 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1926,14 +1938,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1943,14 +1955,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>47</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1959,14 +1971,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1976,14 +1988,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1992,14 +2004,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2009,14 +2021,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2025,14 +2037,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2042,14 +2054,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2058,14 +2070,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2075,14 +2087,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2091,14 +2103,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2108,14 +2120,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2124,14 +2136,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2141,14 +2153,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2157,14 +2169,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2174,11 +2186,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>24</v>
@@ -2190,14 +2202,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2207,14 +2219,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2223,14 +2235,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2240,14 +2252,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>96</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2263,7 +2275,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2273,14 +2285,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>24</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2296,7 +2308,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2306,14 +2318,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>22</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
+        <v>101</v>
+      </c>
+      <c t="s" r="Q32" s="12">
         <v>102</v>
-      </c>
-      <c t="s" r="Q32" s="12">
-        <v>24</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2329,7 +2341,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2362,7 +2374,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2372,14 +2384,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2388,7 +2400,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2405,14 +2417,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2428,7 +2440,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2438,11 +2450,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>69</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2454,14 +2466,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2471,11 +2483,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2487,31 +2499,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>60</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2520,14 +2532,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>119</v>
+        <v>52</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2537,14 +2549,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2553,31 +2565,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2586,14 +2598,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>36</v>
+        <v>123</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2603,14 +2615,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>24</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2619,14 +2631,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2636,14 +2648,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>24</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2652,28 +2664,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>24</v>
@@ -2685,14 +2697,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>135</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2702,14 +2714,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2718,28 +2730,28 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>24</v>
@@ -2751,14 +2763,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>17</v>
+        <v>139</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2768,14 +2780,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>47</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2784,14 +2796,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>145</v>
+        <v>52</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2801,14 +2813,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>60</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2817,14 +2829,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2834,14 +2846,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2850,31 +2862,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>36</v>
+        <v>149</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>24</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2883,7 +2895,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2896,15 +2908,15 @@
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -2916,31 +2928,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>55</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2949,31 +2961,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>58</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>69</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2982,31 +2994,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>161</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>22</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>65</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3022,24 +3034,24 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>61</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3048,14 +3060,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>47</v>
+        <v>165</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3065,14 +3077,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>101</v>
+        <v>22</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>24</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3081,14 +3093,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3098,14 +3110,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>116</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
         <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3121,24 +3133,24 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>107</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3147,14 +3159,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3164,11 +3176,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>164</v>
+        <v>120</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>24</v>
@@ -3180,31 +3192,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3213,14 +3225,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>179</v>
+        <v>52</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3230,14 +3242,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3246,28 +3258,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>101</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>24</v>
@@ -3279,14 +3291,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>24</v>
+        <v>183</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3319,24 +3331,24 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>187</v>
+        <v>107</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>83</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3345,14 +3357,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>189</v>
+        <v>24</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3362,14 +3374,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>47</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3378,14 +3390,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3395,11 +3407,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3411,14 +3423,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3428,14 +3440,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>36</v>
+        <v>50</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3444,7 +3456,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3461,11 +3473,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>167</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3477,14 +3489,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>96</v>
+        <v>200</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3494,14 +3506,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>102</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>24</v>
+        <v>39</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3510,14 +3522,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>161</v>
+        <v>17</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3527,11 +3539,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>83</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3543,14 +3555,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3560,14 +3572,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>158</v>
+        <v>107</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>204</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>205</v>
+        <v>24</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3583,7 +3595,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3593,11 +3605,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>208</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3609,14 +3621,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>135</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3626,14 +3638,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>210</v>
+        <v>162</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>209</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3642,14 +3654,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3659,14 +3671,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>22</v>
+        <v>211</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3675,14 +3687,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>53</v>
+        <v>139</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3692,14 +3704,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>108</v>
+        <v>214</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
         <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3715,7 +3727,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>165</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3725,14 +3737,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>217</v>
+        <v>22</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3741,14 +3753,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>220</v>
+        <v>56</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3758,14 +3770,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>99</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>24</v>
+        <v>39</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3774,14 +3786,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>222</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3791,11 +3803,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>12</v>
@@ -3807,14 +3819,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>161</v>
+        <v>224</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3824,14 +3836,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>223</v>
+        <v>104</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>226</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>161</v>
+        <v>24</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3840,28 +3852,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
@@ -3873,31 +3885,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>232</v>
+        <v>165</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>165</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3906,28 +3918,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>180</v>
+        <v>233</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>181</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -3939,31 +3951,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>67</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>65</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3972,28 +3984,28 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>71</v>
+        <v>240</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>239</v>
+        <v>184</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>241</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>12</v>
@@ -4005,31 +4017,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>135</v>
+        <v>242</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>158</v>
+        <v>243</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>243</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4045,21 +4057,21 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>245</v>
+        <v>74</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>12</v>
@@ -4071,31 +4083,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>17</v>
+        <v>139</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>249</v>
+        <v>162</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>251</v>
+        <v>68</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4104,31 +4116,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>17</v>
+        <v>249</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>71</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4137,7 +4149,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4150,18 +4162,18 @@
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>74</v>
+        <v>255</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4170,31 +4182,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>245</v>
+        <v>17</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>12</v>
+        <v>74</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4203,31 +4215,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>233</v>
+        <v>259</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>234</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>12</v>
+        <v>80</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4243,13 +4255,13 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>17</v>
+        <v>249</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
@@ -4276,24 +4288,24 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>180</v>
+        <v>237</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>65</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4309,21 +4321,21 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>161</v>
+        <v>17</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>233</v>
+        <v>266</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>234</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>12</v>
@@ -4335,7 +4347,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4348,18 +4360,18 @@
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>267</v>
+        <v>184</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>268</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>12</v>
+        <v>68</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4375,24 +4387,24 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>205</v>
+        <v>165</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>123</v>
+        <v>237</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>270</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>179</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4401,24 +4413,24 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>135</v>
+        <v>17</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>58</v>
+        <v>271</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
@@ -4429,38 +4441,104 @@
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
-      <c r="P97" s="13">
-        <v>4530.1199999999999</v>
-      </c>
-      <c r="Q97" s="13"/>
-    </row>
-    <row r="98" ht="16.5" customHeight="1">
-      <c t="s" r="A98" s="14">
+      <c r="A97" s="7">
+        <v>91</v>
+      </c>
+      <c r="B97" s="7"/>
+      <c t="s" r="C97" s="8">
         <v>273</v>
       </c>
-      <c r="B98" s="14"/>
-      <c r="C98" s="14"/>
-      <c r="D98" s="14"/>
-      <c r="E98" s="14"/>
-      <c r="F98" s="14"/>
-      <c t="s" r="G98" s="15">
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c t="s" r="H97" s="9">
+        <v>209</v>
+      </c>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c t="s" r="L97" s="10">
+        <v>44</v>
+      </c>
+      <c r="M97" s="10"/>
+      <c t="s" r="N97" s="8">
+        <v>127</v>
+      </c>
+      <c r="O97" s="8"/>
+      <c t="s" r="P97" s="11">
         <v>274</v>
       </c>
-      <c r="H98" s="15"/>
-      <c r="I98" s="15"/>
-      <c r="J98" s="16"/>
-      <c t="s" r="K98" s="17">
+      <c t="s" r="Q97" s="12">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="A98" s="7">
+        <v>92</v>
+      </c>
+      <c r="B98" s="7"/>
+      <c t="s" r="C98" s="8">
         <v>275</v>
       </c>
-      <c r="L98" s="17"/>
-      <c r="M98" s="17"/>
-      <c r="N98" s="17"/>
-      <c r="O98" s="17"/>
-      <c r="P98" s="17"/>
-      <c r="Q98" s="17"/>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c t="s" r="H98" s="9">
+        <v>139</v>
+      </c>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c t="s" r="L98" s="10">
+        <v>44</v>
+      </c>
+      <c r="M98" s="10"/>
+      <c t="s" r="N98" s="8">
+        <v>61</v>
+      </c>
+      <c r="O98" s="8"/>
+      <c t="s" r="P98" s="11">
+        <v>276</v>
+      </c>
+      <c t="s" r="Q98" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="P99" s="13">
+        <v>4587.9099999999999</v>
+      </c>
+      <c r="Q99" s="13"/>
+    </row>
+    <row r="100" ht="16.5" customHeight="1">
+      <c t="s" r="A100" s="14">
+        <v>277</v>
+      </c>
+      <c r="B100" s="14"/>
+      <c r="C100" s="14"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="14"/>
+      <c r="F100" s="14"/>
+      <c t="s" r="G100" s="15">
+        <v>278</v>
+      </c>
+      <c r="H100" s="15"/>
+      <c r="I100" s="15"/>
+      <c r="J100" s="16"/>
+      <c t="s" r="K100" s="17">
+        <v>279</v>
+      </c>
+      <c r="L100" s="17"/>
+      <c r="M100" s="17"/>
+      <c r="N100" s="17"/>
+      <c r="O100" s="17"/>
+      <c r="P100" s="17"/>
+      <c r="Q100" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="462">
+  <mergeCells count="472">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4919,10 +4997,20 @@
     <mergeCell ref="H96:K96"/>
     <mergeCell ref="L96:M96"/>
     <mergeCell ref="N96:O96"/>
-    <mergeCell ref="P97:Q97"/>
-    <mergeCell ref="A98:F98"/>
-    <mergeCell ref="G98:I98"/>
-    <mergeCell ref="K98:Q98"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="P99:Q99"/>
+    <mergeCell ref="A100:F100"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="K100:Q100"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-28_00-00.xlsx
+++ b/DaySale_2025-08-28_00-00.xlsx
@@ -527,6 +527,15 @@
     <t>27.0000</t>
   </si>
   <si>
+    <t>MOTILIUM 10MG 40 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
     <t>NAUSILEX 50MG/2ML I.V/I.M 3 AMPOULES</t>
   </si>
   <si>
@@ -542,6 +551,18 @@
     <t>29.0000</t>
   </si>
   <si>
+    <t>ONDALENZ 4 MG 5 ORODISPERSIBLE FILMS</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>160.00</t>
+  </si>
+  <si>
+    <t>64.0000</t>
+  </si>
+  <si>
     <t>ORLY 120MG 30 CAPS.</t>
   </si>
   <si>
@@ -611,9 +632,6 @@
     <t>SACROFER 100MG/5ML 5 AMP FOR I.V. INJ.</t>
   </si>
   <si>
-    <t>0:4</t>
-  </si>
-  <si>
     <t>275.00</t>
   </si>
   <si>
@@ -713,9 +731,6 @@
     <t>25.00</t>
   </si>
   <si>
-    <t>25.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">برفان القصاص </t>
   </si>
   <si>
@@ -842,7 +857,7 @@
     <t>120.0000</t>
   </si>
   <si>
-    <t>Thursday, 28 August, 2025 9:05 PM</t>
+    <t>Thursday, 28 August, 2025 9:35 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3166,7 +3181,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3176,11 +3191,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>120</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>24</v>
@@ -3192,31 +3207,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>175</v>
+        <v>120</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
         <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3232,24 +3247,24 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3258,14 +3273,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>181</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3275,14 +3290,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>24</v>
+        <v>39</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3291,14 +3306,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>183</v>
+        <v>52</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3308,14 +3323,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
         <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3331,21 +3346,21 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>107</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>24</v>
@@ -3357,14 +3372,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>24</v>
+        <v>190</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3374,11 +3389,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3390,31 +3405,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>191</v>
+        <v>107</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>89</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3423,14 +3438,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>193</v>
+        <v>24</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3440,14 +3455,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>50</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3456,14 +3471,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3473,11 +3488,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>198</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3513,7 +3528,7 @@
         <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>39</v>
+        <v>50</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3543,7 +3558,7 @@
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3555,14 +3570,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>102</v>
+        <v>181</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3572,14 +3587,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>107</v>
+        <v>207</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>108</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>24</v>
+        <v>39</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3588,14 +3603,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>165</v>
+        <v>17</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3605,11 +3620,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>89</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3621,14 +3636,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3638,14 +3653,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>162</v>
+        <v>107</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>208</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>209</v>
+        <v>24</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3654,7 +3669,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3671,11 +3686,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>212</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3694,7 +3709,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>139</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3704,14 +3719,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>214</v>
+        <v>162</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
+        <v>214</v>
+      </c>
+      <c t="s" r="Q74" s="12">
         <v>215</v>
-      </c>
-      <c t="s" r="Q74" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3737,14 +3752,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>22</v>
+        <v>217</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3753,14 +3768,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>56</v>
+        <v>139</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3770,14 +3785,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>112</v>
+        <v>220</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3786,14 +3801,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>165</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3803,14 +3818,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>221</v>
+        <v>22</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3819,14 +3834,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>224</v>
+        <v>56</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3836,14 +3851,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>105</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>24</v>
+        <v>39</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3852,14 +3867,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>226</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3892,7 +3907,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>165</v>
+        <v>230</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3902,14 +3917,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>227</v>
+        <v>104</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>230</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>165</v>
+        <v>24</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3931,7 +3946,7 @@
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
@@ -3958,24 +3973,24 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>236</v>
+        <v>165</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>165</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3984,14 +3999,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4001,11 +4016,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>184</v>
+        <v>239</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>12</v>
@@ -4017,14 +4032,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4034,14 +4049,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>70</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>68</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4057,7 +4072,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>74</v>
+        <v>245</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4067,11 +4082,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>243</v>
+        <v>191</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>245</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>12</v>
@@ -4090,7 +4105,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>139</v>
+        <v>247</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4100,11 +4115,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>162</v>
+        <v>248</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>247</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>68</v>
@@ -4116,14 +4131,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>249</v>
+        <v>74</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4133,11 +4148,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>12</v>
@@ -4149,14 +4164,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>17</v>
+        <v>139</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4166,14 +4181,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>253</v>
+        <v>162</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>255</v>
+        <v>68</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4182,14 +4197,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>17</v>
+        <v>254</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4199,14 +4214,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>74</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4215,7 +4230,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4232,14 +4247,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
+        <v>259</v>
+      </c>
+      <c t="s" r="Q90" s="12">
         <v>260</v>
-      </c>
-      <c t="s" r="Q90" s="12">
-        <v>80</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4255,7 +4270,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>249</v>
+        <v>17</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4269,10 +4284,10 @@
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>12</v>
+        <v>74</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4281,14 +4296,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4298,14 +4313,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>237</v>
+        <v>264</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>238</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>12</v>
+        <v>80</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4314,14 +4329,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>17</v>
+        <v>254</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4331,11 +4346,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>12</v>
@@ -4347,14 +4362,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4364,14 +4379,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>184</v>
+        <v>242</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>68</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4380,14 +4395,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>165</v>
+        <v>17</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4397,11 +4412,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>237</v>
+        <v>271</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>238</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>12</v>
@@ -4413,7 +4428,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4430,14 +4445,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>271</v>
+        <v>191</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>272</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>12</v>
+        <v>68</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4446,14 +4461,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>209</v>
+        <v>165</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4463,14 +4478,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>127</v>
+        <v>242</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>274</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>183</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4486,7 +4501,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>139</v>
+        <v>17</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4496,49 +4511,115 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>61</v>
+        <v>276</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
-      <c r="P99" s="13">
-        <v>4587.9099999999999</v>
-      </c>
-      <c r="Q99" s="13"/>
-    </row>
-    <row r="100" ht="16.5" customHeight="1">
-      <c t="s" r="A100" s="14">
-        <v>277</v>
-      </c>
-      <c r="B100" s="14"/>
-      <c r="C100" s="14"/>
-      <c r="D100" s="14"/>
-      <c r="E100" s="14"/>
-      <c r="F100" s="14"/>
-      <c t="s" r="G100" s="15">
+      <c r="A99" s="7">
+        <v>93</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c t="s" r="C99" s="8">
         <v>278</v>
       </c>
-      <c r="H100" s="15"/>
-      <c r="I100" s="15"/>
-      <c r="J100" s="16"/>
-      <c t="s" r="K100" s="17">
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c t="s" r="H99" s="9">
+        <v>215</v>
+      </c>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c t="s" r="L99" s="10">
+        <v>44</v>
+      </c>
+      <c r="M99" s="10"/>
+      <c t="s" r="N99" s="8">
+        <v>127</v>
+      </c>
+      <c r="O99" s="8"/>
+      <c t="s" r="P99" s="11">
         <v>279</v>
       </c>
-      <c r="L100" s="17"/>
-      <c r="M100" s="17"/>
-      <c r="N100" s="17"/>
-      <c r="O100" s="17"/>
-      <c r="P100" s="17"/>
-      <c r="Q100" s="17"/>
+      <c t="s" r="Q99" s="12">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="100" ht="24.75" customHeight="1">
+      <c r="A100" s="7">
+        <v>94</v>
+      </c>
+      <c r="B100" s="7"/>
+      <c t="s" r="C100" s="8">
+        <v>280</v>
+      </c>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c t="s" r="H100" s="9">
+        <v>139</v>
+      </c>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c t="s" r="L100" s="10">
+        <v>44</v>
+      </c>
+      <c r="M100" s="10"/>
+      <c t="s" r="N100" s="8">
+        <v>61</v>
+      </c>
+      <c r="O100" s="8"/>
+      <c t="s" r="P100" s="11">
+        <v>281</v>
+      </c>
+      <c t="s" r="Q100" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="P101" s="13">
+        <v>4676.9099999999999</v>
+      </c>
+      <c r="Q101" s="13"/>
+    </row>
+    <row r="102" ht="16.5" customHeight="1">
+      <c t="s" r="A102" s="14">
+        <v>282</v>
+      </c>
+      <c r="B102" s="14"/>
+      <c r="C102" s="14"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="14"/>
+      <c r="F102" s="14"/>
+      <c t="s" r="G102" s="15">
+        <v>283</v>
+      </c>
+      <c r="H102" s="15"/>
+      <c r="I102" s="15"/>
+      <c r="J102" s="16"/>
+      <c t="s" r="K102" s="17">
+        <v>284</v>
+      </c>
+      <c r="L102" s="17"/>
+      <c r="M102" s="17"/>
+      <c r="N102" s="17"/>
+      <c r="O102" s="17"/>
+      <c r="P102" s="17"/>
+      <c r="Q102" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="472">
+  <mergeCells count="482">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5007,10 +5088,20 @@
     <mergeCell ref="H98:K98"/>
     <mergeCell ref="L98:M98"/>
     <mergeCell ref="N98:O98"/>
-    <mergeCell ref="P99:Q99"/>
-    <mergeCell ref="A100:F100"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="K100:Q100"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="P101:Q101"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="G102:I102"/>
+    <mergeCell ref="K102:Q102"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-28_00-00.xlsx
+++ b/DaySale_2025-08-28_00-00.xlsx
@@ -236,6 +236,27 @@
     <t>10:0</t>
   </si>
   <si>
+    <t>CETAL 250MG/5ML 60ML SUSP</t>
+  </si>
+  <si>
+    <t>26:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>CIPRODIAZOLE 500/500MG 20 F.C. TABS</t>
+  </si>
+  <si>
+    <t>148.00</t>
+  </si>
+  <si>
+    <t>74.0000</t>
+  </si>
+  <si>
     <t>COLOVATIL 30 F.C. TABS</t>
   </si>
   <si>
@@ -425,6 +446,15 @@
     <t>89.6000</t>
   </si>
   <si>
+    <t>FUNGICAN 150MG 2 CAPS.</t>
+  </si>
+  <si>
+    <t>47.00</t>
+  </si>
+  <si>
+    <t>47.0000</t>
+  </si>
+  <si>
     <t>FUTAPAN 40 MG VIAL I.V.</t>
   </si>
   <si>
@@ -494,6 +524,15 @@
     <t>32.0000</t>
   </si>
   <si>
+    <t>INSULINAGYPT 70/30 100 I.U./ML (4ML) VIAL</t>
+  </si>
+  <si>
+    <t>122.00</t>
+  </si>
+  <si>
+    <t>122.0000</t>
+  </si>
+  <si>
     <t>IS IS بقدونس كرفس</t>
   </si>
   <si>
@@ -620,6 +659,15 @@
     <t>112.8000</t>
   </si>
   <si>
+    <t>QUADRIDERM CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
     <t>RECOXIBRIGHT 120 MG 7 F.C. TABS.</t>
   </si>
   <si>
@@ -650,6 +698,15 @@
     <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
   </si>
   <si>
+    <t xml:space="preserve">STERONATE  5MG 20 TAB</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>56.0000</t>
+  </si>
+  <si>
     <t>SULBIN 750MG VIAL</t>
   </si>
   <si>
@@ -668,15 +725,12 @@
     <t>50.0000</t>
   </si>
   <si>
+    <t>URINEX 24 CAPS</t>
+  </si>
+  <si>
     <t>URIVIN-N 10 EFF. SACHETS</t>
   </si>
   <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
     <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
   </si>
   <si>
@@ -710,12 +764,6 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>56.00</t>
-  </si>
-  <si>
-    <t>56.0000</t>
-  </si>
-  <si>
     <t>XORAXON 1GM I.M. VIAL</t>
   </si>
   <si>
@@ -857,7 +905,7 @@
     <t>120.0000</t>
   </si>
   <si>
-    <t>Thursday, 28 August, 2025 9:35 PM</t>
+    <t>Thursday, 28 August, 2025 9:36 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2059,7 +2107,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2069,14 +2117,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2085,14 +2133,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2102,11 +2150,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>24</v>
@@ -2118,14 +2166,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2135,14 +2183,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2151,14 +2199,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2168,14 +2216,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2208,7 +2256,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2224,7 +2272,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2241,7 +2289,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2290,7 +2338,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2300,14 +2348,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2323,7 +2371,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2333,14 +2381,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>102</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2349,14 +2397,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2366,14 +2414,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>24</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2382,14 +2430,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2399,14 +2447,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>22</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>24</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2415,14 +2463,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2432,11 +2480,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>77</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>24</v>
@@ -2448,14 +2496,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2465,14 +2513,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>69</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>70</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2481,7 +2529,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2498,14 +2546,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2514,14 +2562,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2531,11 +2579,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>69</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2547,14 +2595,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2564,11 +2612,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
@@ -2580,31 +2628,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>102</v>
+        <v>17</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>63</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2613,14 +2661,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>123</v>
+        <v>52</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2630,14 +2678,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2646,20 +2694,20 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
@@ -2670,7 +2718,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2686,7 +2734,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>39</v>
+        <v>130</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2696,14 +2744,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>24</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2719,7 +2767,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>133</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2729,14 +2777,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>24</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2745,28 +2793,28 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>24</v>
@@ -2778,14 +2826,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>139</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2802,7 +2850,7 @@
         <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2818,13 +2866,13 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -2851,7 +2899,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2868,7 +2916,7 @@
         <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>50</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2901,7 +2949,7 @@
         <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>63</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2917,7 +2965,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2934,7 +2982,7 @@
         <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2950,13 +2998,13 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -2967,7 +3015,7 @@
         <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>24</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2983,24 +3031,24 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>159</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>63</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3009,7 +3057,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3022,15 +3070,15 @@
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>58</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -3042,14 +3090,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3059,11 +3107,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>61</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>72</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>24</v>
@@ -3075,31 +3123,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>165</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>22</v>
+        <v>169</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>68</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3108,14 +3156,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3125,11 +3173,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -3141,31 +3189,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>107</v>
+        <v>175</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3174,28 +3222,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>61</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>24</v>
@@ -3207,14 +3255,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>26</v>
+        <v>178</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3224,14 +3272,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>120</v>
+        <v>22</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>24</v>
+        <v>68</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3240,28 +3288,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3273,14 +3321,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>181</v>
+        <v>50</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3290,14 +3338,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>114</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3306,14 +3354,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3323,11 +3371,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>24</v>
@@ -3339,14 +3387,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3356,11 +3404,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>187</v>
+        <v>127</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>24</v>
@@ -3372,20 +3420,20 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>190</v>
+        <v>17</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
@@ -3412,24 +3460,24 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>21</v>
+        <v>194</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>107</v>
+        <v>195</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>24</v>
+        <v>39</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3438,14 +3486,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3455,14 +3503,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3471,7 +3519,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3488,14 +3536,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>89</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3504,14 +3552,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3521,14 +3569,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>50</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3537,31 +3585,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>204</v>
+        <v>114</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3570,14 +3618,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>181</v>
+        <v>24</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3587,14 +3635,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3603,14 +3651,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3620,11 +3668,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>171</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3636,14 +3684,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>102</v>
+        <v>213</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3653,14 +3701,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>107</v>
+        <v>214</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>108</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>24</v>
+        <v>50</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3669,14 +3717,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>165</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3686,11 +3734,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>89</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3702,14 +3750,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3719,14 +3767,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>162</v>
+        <v>220</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>215</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3735,14 +3783,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>165</v>
+        <v>194</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3752,14 +3800,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3768,14 +3816,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>139</v>
+        <v>17</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3785,11 +3833,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>221</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
@@ -3801,14 +3849,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>165</v>
+        <v>109</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3818,11 +3866,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>22</v>
+        <v>114</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>223</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>24</v>
@@ -3834,14 +3882,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>56</v>
+        <v>178</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3851,14 +3899,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>112</v>
+        <v>211</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>225</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3867,7 +3915,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3884,11 +3932,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
@@ -3900,14 +3948,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>230</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3917,14 +3965,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>104</v>
+        <v>175</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>105</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>24</v>
+        <v>234</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3933,14 +3981,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>232</v>
+        <v>178</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3950,11 +3998,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -3966,14 +4014,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>165</v>
+        <v>24</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3983,14 +4031,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>233</v>
+        <v>95</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>236</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>165</v>
+        <v>24</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3999,28 +4047,28 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>238</v>
+        <v>149</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>239</v>
+        <v>77</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>174</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>12</v>
@@ -4039,24 +4087,24 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>241</v>
+        <v>178</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>242</v>
+        <v>22</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4065,31 +4113,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>245</v>
+        <v>56</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>191</v>
+        <v>119</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>192</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4098,31 +4146,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>247</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>70</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>68</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4131,31 +4179,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>74</v>
+        <v>248</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>248</v>
+        <v>111</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>250</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4164,31 +4212,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>139</v>
+        <v>250</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>162</v>
+        <v>230</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>252</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>68</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4197,31 +4245,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>254</v>
+        <v>178</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>255</v>
+        <v>230</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>12</v>
+        <v>178</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4230,14 +4278,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>17</v>
+        <v>254</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4247,14 +4295,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>259</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>260</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4263,14 +4311,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>17</v>
+        <v>257</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4280,14 +4328,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>74</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4296,14 +4344,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>17</v>
+        <v>261</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4313,14 +4361,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>264</v>
+        <v>204</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>265</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>80</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4329,14 +4377,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4346,14 +4394,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>268</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>12</v>
+        <v>68</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4362,7 +4410,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4379,11 +4427,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>242</v>
+        <v>264</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>243</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>12</v>
@@ -4395,14 +4443,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>17</v>
+        <v>149</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4412,14 +4460,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>271</v>
+        <v>175</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>12</v>
+        <v>68</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4428,14 +4476,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>17</v>
+        <v>270</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4445,14 +4493,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>191</v>
+        <v>271</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>243</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>68</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4461,14 +4509,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>165</v>
+        <v>17</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4478,14 +4526,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>242</v>
+        <v>274</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>243</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>12</v>
+        <v>276</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4494,7 +4542,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4511,14 +4559,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>12</v>
+        <v>74</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4527,14 +4575,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>215</v>
+        <v>17</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4544,14 +4592,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>127</v>
+        <v>280</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>190</v>
+        <v>87</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4560,14 +4608,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>139</v>
+        <v>270</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4577,49 +4625,280 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>61</v>
+        <v>283</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
-      <c r="P101" s="13">
-        <v>4676.9099999999999</v>
-      </c>
-      <c r="Q101" s="13"/>
-    </row>
-    <row r="102" ht="16.5" customHeight="1">
-      <c t="s" r="A102" s="14">
-        <v>282</v>
-      </c>
-      <c r="B102" s="14"/>
-      <c r="C102" s="14"/>
-      <c r="D102" s="14"/>
-      <c r="E102" s="14"/>
-      <c r="F102" s="14"/>
-      <c t="s" r="G102" s="15">
-        <v>283</v>
-      </c>
-      <c r="H102" s="15"/>
-      <c r="I102" s="15"/>
-      <c r="J102" s="16"/>
-      <c t="s" r="K102" s="17">
-        <v>284</v>
-      </c>
-      <c r="L102" s="17"/>
-      <c r="M102" s="17"/>
-      <c r="N102" s="17"/>
-      <c r="O102" s="17"/>
-      <c r="P102" s="17"/>
-      <c r="Q102" s="17"/>
+      <c r="A101" s="7">
+        <v>95</v>
+      </c>
+      <c r="B101" s="7"/>
+      <c t="s" r="C101" s="8">
+        <v>285</v>
+      </c>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c t="s" r="H101" s="9">
+        <v>74</v>
+      </c>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c t="s" r="L101" s="10">
+        <v>44</v>
+      </c>
+      <c r="M101" s="10"/>
+      <c t="s" r="N101" s="8">
+        <v>258</v>
+      </c>
+      <c r="O101" s="8"/>
+      <c t="s" r="P101" s="11">
+        <v>259</v>
+      </c>
+      <c t="s" r="Q101" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="A102" s="7">
+        <v>96</v>
+      </c>
+      <c r="B102" s="7"/>
+      <c t="s" r="C102" s="8">
+        <v>286</v>
+      </c>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c t="s" r="H102" s="9">
+        <v>17</v>
+      </c>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c t="s" r="L102" s="10">
+        <v>44</v>
+      </c>
+      <c r="M102" s="10"/>
+      <c t="s" r="N102" s="8">
+        <v>287</v>
+      </c>
+      <c r="O102" s="8"/>
+      <c t="s" r="P102" s="11">
+        <v>288</v>
+      </c>
+      <c t="s" r="Q102" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="103" ht="24.75" customHeight="1">
+      <c r="A103" s="7">
+        <v>97</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c t="s" r="C103" s="8">
+        <v>289</v>
+      </c>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c t="s" r="H103" s="9">
+        <v>17</v>
+      </c>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c t="s" r="L103" s="10">
+        <v>44</v>
+      </c>
+      <c r="M103" s="10"/>
+      <c t="s" r="N103" s="8">
+        <v>204</v>
+      </c>
+      <c r="O103" s="8"/>
+      <c t="s" r="P103" s="11">
+        <v>259</v>
+      </c>
+      <c t="s" r="Q103" s="12">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="A104" s="7">
+        <v>98</v>
+      </c>
+      <c r="B104" s="7"/>
+      <c t="s" r="C104" s="8">
+        <v>290</v>
+      </c>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c t="s" r="H104" s="9">
+        <v>178</v>
+      </c>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c t="s" r="L104" s="10">
+        <v>44</v>
+      </c>
+      <c r="M104" s="10"/>
+      <c t="s" r="N104" s="8">
+        <v>258</v>
+      </c>
+      <c r="O104" s="8"/>
+      <c t="s" r="P104" s="11">
+        <v>259</v>
+      </c>
+      <c t="s" r="Q104" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="105" ht="24.75" customHeight="1">
+      <c r="A105" s="7">
+        <v>99</v>
+      </c>
+      <c r="B105" s="7"/>
+      <c t="s" r="C105" s="8">
+        <v>291</v>
+      </c>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c t="s" r="H105" s="9">
+        <v>17</v>
+      </c>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c t="s" r="L105" s="10">
+        <v>44</v>
+      </c>
+      <c r="M105" s="10"/>
+      <c t="s" r="N105" s="8">
+        <v>292</v>
+      </c>
+      <c r="O105" s="8"/>
+      <c t="s" r="P105" s="11">
+        <v>293</v>
+      </c>
+      <c t="s" r="Q105" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="A106" s="7">
+        <v>100</v>
+      </c>
+      <c r="B106" s="7"/>
+      <c t="s" r="C106" s="8">
+        <v>294</v>
+      </c>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c t="s" r="H106" s="9">
+        <v>234</v>
+      </c>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c t="s" r="L106" s="10">
+        <v>44</v>
+      </c>
+      <c r="M106" s="10"/>
+      <c t="s" r="N106" s="8">
+        <v>134</v>
+      </c>
+      <c r="O106" s="8"/>
+      <c t="s" r="P106" s="11">
+        <v>295</v>
+      </c>
+      <c t="s" r="Q106" s="12">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="A107" s="7">
+        <v>101</v>
+      </c>
+      <c r="B107" s="7"/>
+      <c t="s" r="C107" s="8">
+        <v>296</v>
+      </c>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c t="s" r="H107" s="9">
+        <v>149</v>
+      </c>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c t="s" r="L107" s="10">
+        <v>44</v>
+      </c>
+      <c r="M107" s="10"/>
+      <c t="s" r="N107" s="8">
+        <v>61</v>
+      </c>
+      <c r="O107" s="8"/>
+      <c t="s" r="P107" s="11">
+        <v>297</v>
+      </c>
+      <c t="s" r="Q107" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="108" ht="24.75" customHeight="1">
+      <c r="P108" s="13">
+        <v>5055.9099999999999</v>
+      </c>
+      <c r="Q108" s="13"/>
+    </row>
+    <row r="109" ht="16.5" customHeight="1">
+      <c t="s" r="A109" s="14">
+        <v>298</v>
+      </c>
+      <c r="B109" s="14"/>
+      <c r="C109" s="14"/>
+      <c r="D109" s="14"/>
+      <c r="E109" s="14"/>
+      <c r="F109" s="14"/>
+      <c t="s" r="G109" s="15">
+        <v>299</v>
+      </c>
+      <c r="H109" s="15"/>
+      <c r="I109" s="15"/>
+      <c r="J109" s="16"/>
+      <c t="s" r="K109" s="17">
+        <v>300</v>
+      </c>
+      <c r="L109" s="17"/>
+      <c r="M109" s="17"/>
+      <c r="N109" s="17"/>
+      <c r="O109" s="17"/>
+      <c r="P109" s="17"/>
+      <c r="Q109" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="482">
+  <mergeCells count="517">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5098,10 +5377,45 @@
     <mergeCell ref="H100:K100"/>
     <mergeCell ref="L100:M100"/>
     <mergeCell ref="N100:O100"/>
-    <mergeCell ref="P101:Q101"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="G102:I102"/>
-    <mergeCell ref="K102:Q102"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="H104:K104"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="N104:O104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:G105"/>
+    <mergeCell ref="H105:K105"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="H106:K106"/>
+    <mergeCell ref="L106:M106"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="L107:M107"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="P108:Q108"/>
+    <mergeCell ref="A109:F109"/>
+    <mergeCell ref="G109:I109"/>
+    <mergeCell ref="K109:Q109"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-28_00-00.xlsx
+++ b/DaySale_2025-08-28_00-00.xlsx
@@ -551,60 +551,54 @@
     <t>72.0000</t>
   </si>
   <si>
-    <t>LIMITLESS MAN MAX 30 TABS</t>
+    <t>MILGA 40 TABLETS</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>MOTILIUM 10MG 40 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>NAUSILEX 50MG/2ML I.V/I.M 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OLOHISTINE FORTE  DROPS</t>
+  </si>
+  <si>
+    <t>29.00</t>
+  </si>
+  <si>
+    <t>29.0000</t>
+  </si>
+  <si>
+    <t>ONDALENZ 4 MG 5 ORODISPERSIBLE FILMS</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>160.00</t>
+  </si>
+  <si>
+    <t>64.0000</t>
+  </si>
+  <si>
+    <t>ORLY 120MG 30 CAPS.</t>
   </si>
   <si>
     <t>240.00</t>
   </si>
   <si>
-    <t>240.0000</t>
-  </si>
-  <si>
-    <t>MILGA 40 TABLETS</t>
-  </si>
-  <si>
-    <t>27.0000</t>
-  </si>
-  <si>
-    <t>MOTILIUM 10MG 40 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>100.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>NAUSILEX 50MG/2ML I.V/I.M 3 AMPOULES</t>
-  </si>
-  <si>
-    <t>23.7600</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OLOHISTINE FORTE  DROPS</t>
-  </si>
-  <si>
-    <t>29.00</t>
-  </si>
-  <si>
-    <t>29.0000</t>
-  </si>
-  <si>
-    <t>ONDALENZ 4 MG 5 ORODISPERSIBLE FILMS</t>
-  </si>
-  <si>
-    <t>0:4</t>
-  </si>
-  <si>
-    <t>160.00</t>
-  </si>
-  <si>
-    <t>64.0000</t>
-  </si>
-  <si>
-    <t>ORLY 120MG 30 CAPS.</t>
-  </si>
-  <si>
     <t>79.2000</t>
   </si>
   <si>
@@ -905,7 +899,7 @@
     <t>120.0000</t>
   </si>
   <si>
-    <t>Thursday, 28 August, 2025 9:36 PM</t>
+    <t>Thursday, 28 August, 2025 9:37 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3295,7 +3289,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3305,14 +3299,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>114</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3321,7 +3315,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3338,7 +3332,7 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>114</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
@@ -3361,7 +3355,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3371,11 +3365,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>127</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>24</v>
@@ -3387,31 +3381,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>127</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
         <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3427,24 +3421,24 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>17</v>
+        <v>191</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3453,14 +3447,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3477,7 +3471,7 @@
         <v>196</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3493,7 +3487,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3503,11 +3497,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>24</v>
@@ -3519,14 +3513,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>201</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3536,14 +3530,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3552,31 +3546,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>203</v>
+        <v>21</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>204</v>
+        <v>114</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3585,31 +3579,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>114</v>
+        <v>206</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3618,14 +3612,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3635,11 +3629,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>209</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3658,7 +3652,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>211</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3668,14 +3662,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>96</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>50</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3684,14 +3678,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>213</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3701,14 +3695,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>50</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3717,14 +3711,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3734,11 +3728,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3750,14 +3744,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>17</v>
+        <v>191</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3767,14 +3761,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3783,14 +3777,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>194</v>
+        <v>17</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3800,14 +3794,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>224</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3823,7 +3817,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3833,14 +3827,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>226</v>
+        <v>114</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>184</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3849,14 +3843,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>109</v>
+        <v>178</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3866,14 +3860,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>114</v>
+        <v>209</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3882,14 +3876,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>178</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3899,11 +3893,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>96</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -3915,7 +3909,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3932,14 +3926,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>230</v>
+        <v>175</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
         <v>231</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>232</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3948,14 +3942,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>178</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3965,14 +3959,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>175</v>
+        <v>234</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>234</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3981,14 +3975,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>178</v>
+        <v>24</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3998,14 +3992,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>236</v>
+        <v>95</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>237</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4014,14 +4008,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>24</v>
+        <v>149</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4031,14 +4025,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4047,14 +4041,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>149</v>
+        <v>178</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4064,14 +4058,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>78</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4087,7 +4081,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>178</v>
+        <v>56</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4097,14 +4091,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>22</v>
+        <v>119</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
         <v>241</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>24</v>
+        <v>39</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4120,7 +4114,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4130,14 +4124,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>119</v>
+        <v>243</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4146,14 +4140,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>246</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4163,14 +4157,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>245</v>
+        <v>111</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>246</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4196,14 +4190,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>111</v>
+        <v>228</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>112</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4219,7 +4213,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>250</v>
+        <v>178</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4229,14 +4223,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>12</v>
+        <v>178</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4252,24 +4246,24 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>178</v>
+        <v>252</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>252</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>178</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4278,14 +4272,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4295,11 +4289,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>187</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
@@ -4311,14 +4305,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4328,11 +4322,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>258</v>
+        <v>202</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>259</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>12</v>
@@ -4361,14 +4355,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>204</v>
+        <v>262</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>205</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>12</v>
+        <v>68</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4377,14 +4371,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>263</v>
+        <v>74</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4394,14 +4388,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>70</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>68</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4417,7 +4411,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>74</v>
+        <v>149</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4427,14 +4421,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>264</v>
+        <v>175</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
         <v>266</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>12</v>
+        <v>68</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4450,7 +4444,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>149</v>
+        <v>268</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4460,14 +4454,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>175</v>
+        <v>269</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>68</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4476,14 +4470,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>270</v>
+        <v>17</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4493,14 +4487,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>12</v>
+        <v>274</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4509,7 +4503,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4526,14 +4520,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>276</v>
+        <v>74</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4563,10 +4557,10 @@
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>74</v>
+        <v>87</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4575,14 +4569,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>17</v>
+        <v>268</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4592,14 +4586,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>87</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4608,14 +4602,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>270</v>
+        <v>74</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4625,11 +4619,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>283</v>
+        <v>256</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>284</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>12</v>
@@ -4641,14 +4635,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4658,11 +4652,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>258</v>
+        <v>285</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>259</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>12</v>
@@ -4674,7 +4668,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4691,14 +4685,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>288</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>12</v>
+        <v>68</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4707,14 +4701,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>17</v>
+        <v>178</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4724,14 +4718,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>204</v>
+        <v>256</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>68</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4740,14 +4734,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>178</v>
+        <v>17</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4757,11 +4751,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>258</v>
+        <v>290</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>259</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>12</v>
@@ -4773,14 +4767,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>17</v>
+        <v>232</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4790,14 +4784,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>292</v>
+        <v>134</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
         <v>293</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>12</v>
+        <v>201</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4813,7 +4807,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>234</v>
+        <v>149</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4823,82 +4817,49 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>134</v>
+        <v>61</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
         <v>295</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>203</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
-      <c r="A107" s="7">
-        <v>101</v>
-      </c>
-      <c r="B107" s="7"/>
-      <c t="s" r="C107" s="8">
+      <c r="P107" s="13">
+        <v>4815.9099999999999</v>
+      </c>
+      <c r="Q107" s="13"/>
+    </row>
+    <row r="108" ht="16.5" customHeight="1">
+      <c t="s" r="A108" s="14">
         <v>296</v>
       </c>
-      <c r="D107" s="8"/>
-      <c r="E107" s="8"/>
-      <c r="F107" s="8"/>
-      <c r="G107" s="8"/>
-      <c t="s" r="H107" s="9">
-        <v>149</v>
-      </c>
-      <c r="I107" s="9"/>
-      <c r="J107" s="9"/>
-      <c r="K107" s="9"/>
-      <c t="s" r="L107" s="10">
-        <v>44</v>
-      </c>
-      <c r="M107" s="10"/>
-      <c t="s" r="N107" s="8">
-        <v>61</v>
-      </c>
-      <c r="O107" s="8"/>
-      <c t="s" r="P107" s="11">
+      <c r="B108" s="14"/>
+      <c r="C108" s="14"/>
+      <c r="D108" s="14"/>
+      <c r="E108" s="14"/>
+      <c r="F108" s="14"/>
+      <c t="s" r="G108" s="15">
         <v>297</v>
       </c>
-      <c t="s" r="Q107" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="108" ht="24.75" customHeight="1">
-      <c r="P108" s="13">
-        <v>5055.9099999999999</v>
-      </c>
-      <c r="Q108" s="13"/>
-    </row>
-    <row r="109" ht="16.5" customHeight="1">
-      <c t="s" r="A109" s="14">
+      <c r="H108" s="15"/>
+      <c r="I108" s="15"/>
+      <c r="J108" s="16"/>
+      <c t="s" r="K108" s="17">
         <v>298</v>
       </c>
-      <c r="B109" s="14"/>
-      <c r="C109" s="14"/>
-      <c r="D109" s="14"/>
-      <c r="E109" s="14"/>
-      <c r="F109" s="14"/>
-      <c t="s" r="G109" s="15">
-        <v>299</v>
-      </c>
-      <c r="H109" s="15"/>
-      <c r="I109" s="15"/>
-      <c r="J109" s="16"/>
-      <c t="s" r="K109" s="17">
-        <v>300</v>
-      </c>
-      <c r="L109" s="17"/>
-      <c r="M109" s="17"/>
-      <c r="N109" s="17"/>
-      <c r="O109" s="17"/>
-      <c r="P109" s="17"/>
-      <c r="Q109" s="17"/>
+      <c r="L108" s="17"/>
+      <c r="M108" s="17"/>
+      <c r="N108" s="17"/>
+      <c r="O108" s="17"/>
+      <c r="P108" s="17"/>
+      <c r="Q108" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="517">
+  <mergeCells count="512">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5407,15 +5368,10 @@
     <mergeCell ref="H106:K106"/>
     <mergeCell ref="L106:M106"/>
     <mergeCell ref="N106:O106"/>
-    <mergeCell ref="A107:B107"/>
-    <mergeCell ref="C107:G107"/>
-    <mergeCell ref="H107:K107"/>
-    <mergeCell ref="L107:M107"/>
-    <mergeCell ref="N107:O107"/>
-    <mergeCell ref="P108:Q108"/>
-    <mergeCell ref="A109:F109"/>
-    <mergeCell ref="G109:I109"/>
-    <mergeCell ref="K109:Q109"/>
+    <mergeCell ref="P107:Q107"/>
+    <mergeCell ref="A108:F108"/>
+    <mergeCell ref="G108:I108"/>
+    <mergeCell ref="K108:Q108"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-28_00-00.xlsx
+++ b/DaySale_2025-08-28_00-00.xlsx
@@ -551,6 +551,15 @@
     <t>72.0000</t>
   </si>
   <si>
+    <t>LIMITLESS OMEGA-3 2000 MG (PER SERV.) 30 CAPS</t>
+  </si>
+  <si>
+    <t>198.00</t>
+  </si>
+  <si>
+    <t>198.0000</t>
+  </si>
+  <si>
     <t>MILGA 40 TABLETS</t>
   </si>
   <si>
@@ -735,6 +744,12 @@
   </si>
   <si>
     <t>28.8000</t>
+  </si>
+  <si>
+    <t>VITASTRESS 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>64.00</t>
   </si>
   <si>
     <t>VOLTAREN 1% EMULGEL 25 GM</t>
@@ -3289,7 +3304,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3299,14 +3314,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>114</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3315,7 +3330,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3332,7 +3347,7 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>114</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
@@ -3355,7 +3370,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3365,11 +3380,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>127</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>24</v>
@@ -3381,31 +3396,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>127</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
         <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3421,24 +3436,24 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>191</v>
+        <v>17</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3447,14 +3462,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>52</v>
+        <v>194</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3471,7 +3486,7 @@
         <v>196</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>24</v>
+        <v>39</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3487,7 +3502,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3520,7 +3535,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>201</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3530,14 +3545,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3546,31 +3561,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>21</v>
+        <v>204</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>114</v>
+        <v>205</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3579,31 +3594,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>206</v>
+        <v>114</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>207</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3619,7 +3634,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3633,7 +3648,7 @@
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>96</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3645,14 +3660,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>211</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3666,10 +3681,10 @@
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>213</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>50</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3678,14 +3693,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>214</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3702,7 +3717,7 @@
         <v>216</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>50</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3718,7 +3733,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3751,7 +3766,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>191</v>
+        <v>17</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3768,7 +3783,7 @@
         <v>222</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3784,7 +3799,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>17</v>
+        <v>194</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3798,10 +3813,10 @@
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>181</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3810,14 +3825,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>109</v>
+        <v>17</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3827,14 +3842,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>114</v>
+        <v>227</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>115</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3843,14 +3858,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>178</v>
+        <v>109</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3860,14 +3875,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>209</v>
+        <v>114</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3876,14 +3891,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>178</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3893,11 +3908,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>229</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -3926,14 +3941,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>175</v>
+        <v>231</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>232</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3949,7 +3964,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>178</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3959,14 +3974,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>234</v>
+        <v>175</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
+        <v>234</v>
+      </c>
+      <c t="s" r="Q80" s="12">
         <v>235</v>
-      </c>
-      <c t="s" r="Q80" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3982,7 +3997,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>24</v>
+        <v>178</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3992,14 +4007,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>95</v>
+        <v>237</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>96</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4008,14 +4023,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>149</v>
+        <v>24</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4025,14 +4040,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4041,14 +4056,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>178</v>
+        <v>149</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4058,14 +4073,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>239</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4074,14 +4089,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>56</v>
+        <v>178</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4091,14 +4106,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>119</v>
+        <v>22</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4107,14 +4122,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4124,14 +4139,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>243</v>
+        <v>119</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
         <v>244</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4147,7 +4162,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>246</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4157,14 +4172,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>111</v>
+        <v>246</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>112</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4180,7 +4195,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>248</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4190,11 +4205,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>228</v>
+        <v>248</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>229</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>12</v>
@@ -4206,14 +4221,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>178</v>
+        <v>251</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4223,14 +4238,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>228</v>
+        <v>111</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>250</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>178</v>
+        <v>24</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4239,28 +4254,28 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>253</v>
+        <v>231</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>184</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>12</v>
@@ -4279,24 +4294,24 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>255</v>
+        <v>178</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>256</v>
+        <v>231</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>12</v>
+        <v>178</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4305,14 +4320,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4322,11 +4337,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>202</v>
+        <v>258</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>12</v>
@@ -4338,14 +4353,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4355,14 +4370,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>70</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>68</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4378,7 +4393,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>74</v>
+        <v>264</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4388,11 +4403,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>262</v>
+        <v>205</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>264</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>12</v>
@@ -4411,7 +4426,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>149</v>
+        <v>266</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4421,11 +4436,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>175</v>
+        <v>267</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>266</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>68</v>
@@ -4437,14 +4452,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>268</v>
+        <v>74</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4454,11 +4469,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>12</v>
@@ -4470,14 +4485,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>17</v>
+        <v>149</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4487,14 +4502,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>272</v>
+        <v>175</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>274</v>
+        <v>68</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4503,14 +4518,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>17</v>
+        <v>273</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4520,14 +4535,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>74</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4536,7 +4551,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4553,14 +4568,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
+        <v>278</v>
+      </c>
+      <c t="s" r="Q98" s="12">
         <v>279</v>
-      </c>
-      <c t="s" r="Q98" s="12">
-        <v>87</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4576,7 +4591,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>268</v>
+        <v>17</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4590,10 +4605,10 @@
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>12</v>
+        <v>74</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4602,14 +4617,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4619,14 +4634,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>256</v>
+        <v>283</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>12</v>
+        <v>87</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4635,14 +4650,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>17</v>
+        <v>273</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4652,11 +4667,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>12</v>
@@ -4668,14 +4683,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4685,14 +4700,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>202</v>
+        <v>261</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>68</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4701,14 +4716,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>178</v>
+        <v>17</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4718,11 +4733,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>256</v>
+        <v>290</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>257</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>12</v>
@@ -4734,7 +4749,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4751,14 +4766,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>290</v>
+        <v>205</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>291</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>12</v>
+        <v>68</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4767,14 +4782,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>232</v>
+        <v>178</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4784,14 +4799,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>134</v>
+        <v>261</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>293</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>201</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4807,7 +4822,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>149</v>
+        <v>17</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4817,49 +4832,115 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>61</v>
+        <v>295</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
-      <c r="P107" s="13">
-        <v>4815.9099999999999</v>
-      </c>
-      <c r="Q107" s="13"/>
-    </row>
-    <row r="108" ht="16.5" customHeight="1">
-      <c t="s" r="A108" s="14">
-        <v>296</v>
-      </c>
-      <c r="B108" s="14"/>
-      <c r="C108" s="14"/>
-      <c r="D108" s="14"/>
-      <c r="E108" s="14"/>
-      <c r="F108" s="14"/>
-      <c t="s" r="G108" s="15">
+      <c r="A107" s="7">
+        <v>101</v>
+      </c>
+      <c r="B107" s="7"/>
+      <c t="s" r="C107" s="8">
         <v>297</v>
       </c>
-      <c r="H108" s="15"/>
-      <c r="I108" s="15"/>
-      <c r="J108" s="16"/>
-      <c t="s" r="K108" s="17">
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c t="s" r="H107" s="9">
+        <v>235</v>
+      </c>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c t="s" r="L107" s="10">
+        <v>44</v>
+      </c>
+      <c r="M107" s="10"/>
+      <c t="s" r="N107" s="8">
+        <v>134</v>
+      </c>
+      <c r="O107" s="8"/>
+      <c t="s" r="P107" s="11">
         <v>298</v>
       </c>
-      <c r="L108" s="17"/>
-      <c r="M108" s="17"/>
-      <c r="N108" s="17"/>
-      <c r="O108" s="17"/>
-      <c r="P108" s="17"/>
-      <c r="Q108" s="17"/>
+      <c t="s" r="Q107" s="12">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="108" ht="24.75" customHeight="1">
+      <c r="A108" s="7">
+        <v>102</v>
+      </c>
+      <c r="B108" s="7"/>
+      <c t="s" r="C108" s="8">
+        <v>299</v>
+      </c>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c t="s" r="H108" s="9">
+        <v>149</v>
+      </c>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c t="s" r="L108" s="10">
+        <v>44</v>
+      </c>
+      <c r="M108" s="10"/>
+      <c t="s" r="N108" s="8">
+        <v>61</v>
+      </c>
+      <c r="O108" s="8"/>
+      <c t="s" r="P108" s="11">
+        <v>300</v>
+      </c>
+      <c t="s" r="Q108" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="P109" s="13">
+        <v>5077.9099999999999</v>
+      </c>
+      <c r="Q109" s="13"/>
+    </row>
+    <row r="110" ht="16.5" customHeight="1">
+      <c t="s" r="A110" s="14">
+        <v>301</v>
+      </c>
+      <c r="B110" s="14"/>
+      <c r="C110" s="14"/>
+      <c r="D110" s="14"/>
+      <c r="E110" s="14"/>
+      <c r="F110" s="14"/>
+      <c t="s" r="G110" s="15">
+        <v>302</v>
+      </c>
+      <c r="H110" s="15"/>
+      <c r="I110" s="15"/>
+      <c r="J110" s="16"/>
+      <c t="s" r="K110" s="17">
+        <v>303</v>
+      </c>
+      <c r="L110" s="17"/>
+      <c r="M110" s="17"/>
+      <c r="N110" s="17"/>
+      <c r="O110" s="17"/>
+      <c r="P110" s="17"/>
+      <c r="Q110" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="512">
+  <mergeCells count="522">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5368,10 +5449,20 @@
     <mergeCell ref="H106:K106"/>
     <mergeCell ref="L106:M106"/>
     <mergeCell ref="N106:O106"/>
-    <mergeCell ref="P107:Q107"/>
-    <mergeCell ref="A108:F108"/>
-    <mergeCell ref="G108:I108"/>
-    <mergeCell ref="K108:Q108"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="L107:M107"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="L108:M108"/>
+    <mergeCell ref="N108:O108"/>
+    <mergeCell ref="P109:Q109"/>
+    <mergeCell ref="A110:F110"/>
+    <mergeCell ref="G110:I110"/>
+    <mergeCell ref="K110:Q110"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-28_00-00.xlsx
+++ b/DaySale_2025-08-28_00-00.xlsx
@@ -779,6 +779,12 @@
     <t>168.0000</t>
   </si>
   <si>
+    <t>XORAXON 1GM I.V. VIAL</t>
+  </si>
+  <si>
+    <t>112.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">اختبار حمل بيبي تشك </t>
   </si>
   <si>
@@ -914,7 +920,7 @@
     <t>120.0000</t>
   </si>
   <si>
-    <t>Thursday, 28 August, 2025 9:37 PM</t>
+    <t>Thursday, 28 August, 2025 9:38 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4327,24 +4333,24 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>257</v>
+        <v>17</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>258</v>
+        <v>231</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>187</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>12</v>
+        <v>68</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4353,14 +4359,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4370,11 +4376,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>262</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>12</v>
@@ -4386,14 +4392,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4403,11 +4409,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>205</v>
+        <v>263</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>206</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>12</v>
@@ -4436,14 +4442,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>267</v>
+        <v>205</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>70</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>68</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4452,14 +4458,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>74</v>
+        <v>268</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4469,14 +4475,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>269</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>12</v>
+        <v>68</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4492,7 +4498,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>149</v>
+        <v>74</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4502,14 +4508,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>175</v>
+        <v>269</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
         <v>271</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>68</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4525,7 +4531,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>273</v>
+        <v>149</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4535,14 +4541,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>274</v>
+        <v>175</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>12</v>
+        <v>68</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4551,14 +4557,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>17</v>
+        <v>275</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4568,14 +4574,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>279</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4584,7 +4590,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4601,14 +4607,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>74</v>
+        <v>281</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4638,10 +4644,10 @@
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4650,14 +4656,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>273</v>
+        <v>17</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4667,14 +4673,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>12</v>
+        <v>87</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4683,14 +4689,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>74</v>
+        <v>275</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4700,11 +4706,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>261</v>
+        <v>288</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>262</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>12</v>
@@ -4716,14 +4722,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4733,11 +4739,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>290</v>
+        <v>263</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>291</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>12</v>
@@ -4749,7 +4755,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4766,14 +4772,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>205</v>
+        <v>292</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>262</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>68</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4782,14 +4788,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>178</v>
+        <v>17</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4799,14 +4805,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>261</v>
+        <v>205</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>12</v>
+        <v>68</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4815,14 +4821,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>17</v>
+        <v>178</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4832,11 +4838,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>295</v>
+        <v>263</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>296</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>12</v>
@@ -4848,14 +4854,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>235</v>
+        <v>17</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4865,14 +4871,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>134</v>
+        <v>297</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
         <v>298</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>204</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4888,7 +4894,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>149</v>
+        <v>235</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4898,49 +4904,82 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>61</v>
+        <v>134</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
         <v>300</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>12</v>
+        <v>204</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
-      <c r="P109" s="13">
-        <v>5077.9099999999999</v>
-      </c>
-      <c r="Q109" s="13"/>
-    </row>
-    <row r="110" ht="16.5" customHeight="1">
-      <c t="s" r="A110" s="14">
+      <c r="A109" s="7">
+        <v>103</v>
+      </c>
+      <c r="B109" s="7"/>
+      <c t="s" r="C109" s="8">
         <v>301</v>
       </c>
-      <c r="B110" s="14"/>
-      <c r="C110" s="14"/>
-      <c r="D110" s="14"/>
-      <c r="E110" s="14"/>
-      <c r="F110" s="14"/>
-      <c t="s" r="G110" s="15">
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c t="s" r="H109" s="9">
+        <v>149</v>
+      </c>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c t="s" r="L109" s="10">
+        <v>44</v>
+      </c>
+      <c r="M109" s="10"/>
+      <c t="s" r="N109" s="8">
+        <v>61</v>
+      </c>
+      <c r="O109" s="8"/>
+      <c t="s" r="P109" s="11">
         <v>302</v>
       </c>
-      <c r="H110" s="15"/>
-      <c r="I110" s="15"/>
-      <c r="J110" s="16"/>
-      <c t="s" r="K110" s="17">
+      <c t="s" r="Q109" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="110" ht="24.75" customHeight="1">
+      <c r="P110" s="13">
+        <v>5189.9099999999999</v>
+      </c>
+      <c r="Q110" s="13"/>
+    </row>
+    <row r="111" ht="16.5" customHeight="1">
+      <c t="s" r="A111" s="14">
         <v>303</v>
       </c>
-      <c r="L110" s="17"/>
-      <c r="M110" s="17"/>
-      <c r="N110" s="17"/>
-      <c r="O110" s="17"/>
-      <c r="P110" s="17"/>
-      <c r="Q110" s="17"/>
+      <c r="B111" s="14"/>
+      <c r="C111" s="14"/>
+      <c r="D111" s="14"/>
+      <c r="E111" s="14"/>
+      <c r="F111" s="14"/>
+      <c t="s" r="G111" s="15">
+        <v>304</v>
+      </c>
+      <c r="H111" s="15"/>
+      <c r="I111" s="15"/>
+      <c r="J111" s="16"/>
+      <c t="s" r="K111" s="17">
+        <v>305</v>
+      </c>
+      <c r="L111" s="17"/>
+      <c r="M111" s="17"/>
+      <c r="N111" s="17"/>
+      <c r="O111" s="17"/>
+      <c r="P111" s="17"/>
+      <c r="Q111" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="522">
+  <mergeCells count="527">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5459,10 +5498,15 @@
     <mergeCell ref="H108:K108"/>
     <mergeCell ref="L108:M108"/>
     <mergeCell ref="N108:O108"/>
-    <mergeCell ref="P109:Q109"/>
-    <mergeCell ref="A110:F110"/>
-    <mergeCell ref="G110:I110"/>
-    <mergeCell ref="K110:Q110"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="H109:K109"/>
+    <mergeCell ref="L109:M109"/>
+    <mergeCell ref="N109:O109"/>
+    <mergeCell ref="P110:Q110"/>
+    <mergeCell ref="A111:F111"/>
+    <mergeCell ref="G111:I111"/>
+    <mergeCell ref="K111:Q111"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-28_00-00.xlsx
+++ b/DaySale_2025-08-28_00-00.xlsx
@@ -236,6 +236,15 @@
     <t>10:0</t>
   </si>
   <si>
+    <t>CETAFEN 30 TABS</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>22.7700</t>
+  </si>
+  <si>
     <t>CETAL 250MG/5ML 60ML SUSP</t>
   </si>
   <si>
@@ -575,6 +584,12 @@
     <t>25.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">MOVXIR 50/500  TAB </t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
     <t>NAUSILEX 50MG/2ML I.V/I.M 3 AMPOULES</t>
   </si>
   <si>
@@ -638,9 +653,6 @@
     <t>PAROFEN 30 OBLONG TAB.</t>
   </si>
   <si>
-    <t>69.00</t>
-  </si>
-  <si>
     <t>69.0000</t>
   </si>
   <si>
@@ -758,9 +770,6 @@
     <t>39.00</t>
   </si>
   <si>
-    <t>39.0000</t>
-  </si>
-  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -776,7 +785,7 @@
     <t>XORAXON 1GM I.M. VIAL</t>
   </si>
   <si>
-    <t>168.0000</t>
+    <t>336.0000</t>
   </si>
   <si>
     <t>XORAXON 1GM I.V. VIAL</t>
@@ -851,10 +860,7 @@
     <t>4.00</t>
   </si>
   <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>13:0</t>
+    <t>16:0</t>
   </si>
   <si>
     <t>سرنجات 3 سم</t>
@@ -863,13 +869,19 @@
     <t>2.00</t>
   </si>
   <si>
+    <t>22.0000</t>
+  </si>
+  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
     <t>3.00</t>
   </si>
   <si>
-    <t>36.0000</t>
+    <t>42.0000</t>
+  </si>
+  <si>
+    <t>14:0</t>
   </si>
   <si>
     <t xml:space="preserve">شاش 7 سم </t>
@@ -920,7 +932,7 @@
     <t>120.0000</t>
   </si>
   <si>
-    <t>Thursday, 28 August, 2025 9:38 PM</t>
+    <t>Thursday, 28 August, 2025 9:40 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2122,7 +2134,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2132,14 +2144,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2148,14 +2160,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2172,7 +2184,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2188,7 +2200,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2221,7 +2233,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2231,11 +2243,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>24</v>
@@ -2247,14 +2259,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2264,14 +2276,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2280,14 +2292,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2304,7 +2316,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2320,7 +2332,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2330,14 +2342,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>24</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2346,14 +2358,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2370,7 +2382,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2386,7 +2398,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>101</v>
+        <v>17</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2396,14 +2408,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2412,14 +2424,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2429,14 +2441,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>19</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2452,7 +2464,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>50</v>
+        <v>108</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2462,14 +2474,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>22</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>109</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2485,7 +2497,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2495,14 +2507,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>22</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
+        <v>111</v>
+      </c>
+      <c t="s" r="Q35" s="12">
         <v>112</v>
-      </c>
-      <c t="s" r="Q35" s="12">
-        <v>24</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2518,7 +2530,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2551,7 +2563,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2561,11 +2573,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>24</v>
@@ -2577,14 +2589,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2594,14 +2606,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2610,14 +2622,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2627,11 +2639,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>69</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
@@ -2683,7 +2695,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2693,11 +2705,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2709,31 +2721,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>109</v>
+        <v>52</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
         <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>63</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2749,24 +2761,24 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>39</v>
+        <v>63</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2792,14 +2804,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>60</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2808,14 +2820,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>39</v>
+        <v>136</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2832,7 +2844,7 @@
         <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>24</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2848,7 +2860,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2881,13 +2893,13 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -2914,13 +2926,13 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
@@ -2931,7 +2943,7 @@
         <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2947,7 +2959,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>149</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2957,11 +2969,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2973,14 +2985,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>52</v>
+        <v>152</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2997,7 +3009,7 @@
         <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3013,7 +3025,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3030,7 +3042,7 @@
         <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>50</v>
+        <v>24</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3046,7 +3058,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>159</v>
+        <v>17</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3056,14 +3068,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>63</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3072,14 +3084,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>162</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3096,7 +3108,7 @@
         <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>63</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3112,13 +3124,13 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
@@ -3129,7 +3141,7 @@
         <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3145,7 +3157,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3162,7 +3174,7 @@
         <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3178,13 +3190,13 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
@@ -3211,13 +3223,13 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
@@ -3225,7 +3237,7 @@
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>58</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -3237,14 +3249,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3254,14 +3266,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>61</v>
+        <v>178</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3270,31 +3282,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>178</v>
+        <v>24</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>68</v>
+        <v>24</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3310,7 +3322,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>17</v>
+        <v>181</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3320,14 +3332,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>22</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
         <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>68</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3343,7 +3355,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3353,14 +3365,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>114</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3369,7 +3381,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3386,7 +3398,7 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>117</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
@@ -3409,7 +3421,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3419,11 +3431,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>127</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>24</v>
@@ -3435,14 +3447,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3452,14 +3464,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>191</v>
+        <v>36</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
         <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3475,7 +3487,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>194</v>
+        <v>26</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3485,14 +3497,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>195</v>
+        <v>130</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3501,31 +3513,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3534,14 +3546,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>199</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3551,14 +3563,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>24</v>
+        <v>39</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3567,14 +3579,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>204</v>
+        <v>52</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3584,14 +3596,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3600,28 +3612,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>114</v>
+        <v>206</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>24</v>
@@ -3640,7 +3652,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>24</v>
+        <v>209</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3650,11 +3662,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3666,31 +3678,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>212</v>
+        <v>117</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>96</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3706,7 +3718,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>214</v>
+        <v>24</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3716,14 +3728,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>215</v>
+        <v>76</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>50</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3732,7 +3744,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3749,11 +3761,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>219</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3765,14 +3777,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>17</v>
+        <v>218</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3782,14 +3794,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>50</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3798,14 +3810,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>194</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3815,14 +3827,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3831,7 +3843,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3848,11 +3860,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>184</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
@@ -3864,14 +3876,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>109</v>
+        <v>199</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3881,14 +3893,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>114</v>
+        <v>228</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>115</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>24</v>
+        <v>39</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3897,14 +3909,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>178</v>
+        <v>17</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3914,11 +3926,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>96</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -3930,14 +3942,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3947,14 +3959,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>231</v>
+        <v>117</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>232</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3970,7 +3982,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>181</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3980,14 +3992,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>175</v>
+        <v>216</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>234</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>235</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3996,14 +4008,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>178</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4013,11 +4025,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -4029,14 +4041,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4046,14 +4058,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>95</v>
+        <v>178</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>96</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>24</v>
+        <v>239</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4069,7 +4081,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4079,11 +4091,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>77</v>
+        <v>241</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>78</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>12</v>
@@ -4095,14 +4107,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>178</v>
+        <v>24</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4112,11 +4124,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>242</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>24</v>
@@ -4128,14 +4140,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>56</v>
+        <v>152</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4145,14 +4157,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>244</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4168,7 +4180,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>181</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4178,14 +4190,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>246</v>
+        <v>22</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>196</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4201,7 +4213,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4211,14 +4223,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>248</v>
+        <v>122</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4227,14 +4239,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>251</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4244,14 +4256,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>111</v>
+        <v>250</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>112</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4260,14 +4272,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>253</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4277,11 +4289,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>231</v>
+        <v>252</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>232</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>12</v>
@@ -4293,14 +4305,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>178</v>
+        <v>254</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4310,14 +4322,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>231</v>
+        <v>114</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>255</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>178</v>
+        <v>24</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4326,14 +4338,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>17</v>
+        <v>256</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4343,14 +4355,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>257</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>68</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4359,31 +4371,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>259</v>
+        <v>17</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>260</v>
+        <v>235</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>187</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>12</v>
+        <v>209</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4392,31 +4404,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>262</v>
+        <v>17</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>263</v>
+        <v>235</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>12</v>
+        <v>68</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4425,14 +4437,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4442,11 +4454,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>205</v>
+        <v>263</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>12</v>
@@ -4458,14 +4470,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4475,14 +4487,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>70</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>68</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4491,14 +4503,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>74</v>
+        <v>269</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4508,11 +4520,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>269</v>
+        <v>210</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>271</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>12</v>
@@ -4524,14 +4536,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>149</v>
+        <v>271</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4541,11 +4553,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>175</v>
+        <v>272</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>273</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>68</v>
@@ -4557,14 +4569,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>275</v>
+        <v>74</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4574,11 +4586,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>12</v>
@@ -4590,14 +4602,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>17</v>
+        <v>152</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4607,14 +4619,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>279</v>
+        <v>178</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>281</v>
+        <v>68</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4623,14 +4635,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>17</v>
+        <v>278</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4640,14 +4652,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>74</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4656,7 +4668,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4673,14 +4685,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>286</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>87</v>
+        <v>283</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4689,14 +4701,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>275</v>
+        <v>17</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4706,14 +4718,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>12</v>
+        <v>278</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4722,14 +4734,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4739,14 +4751,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>263</v>
+        <v>288</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>264</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>12</v>
+        <v>290</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4762,7 +4774,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>17</v>
+        <v>278</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4795,7 +4807,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4805,14 +4817,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>205</v>
+        <v>266</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>68</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4828,7 +4840,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>178</v>
+        <v>17</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4838,11 +4850,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>263</v>
+        <v>296</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>12</v>
@@ -4854,7 +4866,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -4871,14 +4883,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>297</v>
+        <v>210</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>12</v>
+        <v>181</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4894,7 +4906,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>235</v>
+        <v>181</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4904,14 +4916,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>134</v>
+        <v>266</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>300</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>204</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4920,14 +4932,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>149</v>
+        <v>17</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4937,7 +4949,7 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>61</v>
+        <v>301</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
@@ -4948,38 +4960,104 @@
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
-      <c r="P110" s="13">
-        <v>5189.9099999999999</v>
-      </c>
-      <c r="Q110" s="13"/>
-    </row>
-    <row r="111" ht="16.5" customHeight="1">
-      <c t="s" r="A111" s="14">
+      <c r="A110" s="7">
+        <v>104</v>
+      </c>
+      <c r="B110" s="7"/>
+      <c t="s" r="C110" s="8">
         <v>303</v>
       </c>
-      <c r="B111" s="14"/>
-      <c r="C111" s="14"/>
-      <c r="D111" s="14"/>
-      <c r="E111" s="14"/>
-      <c r="F111" s="14"/>
-      <c t="s" r="G111" s="15">
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c t="s" r="H110" s="9">
+        <v>239</v>
+      </c>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c t="s" r="L110" s="10">
+        <v>44</v>
+      </c>
+      <c r="M110" s="10"/>
+      <c t="s" r="N110" s="8">
+        <v>137</v>
+      </c>
+      <c r="O110" s="8"/>
+      <c t="s" r="P110" s="11">
         <v>304</v>
       </c>
-      <c r="H111" s="15"/>
-      <c r="I111" s="15"/>
-      <c r="J111" s="16"/>
-      <c t="s" r="K111" s="17">
+      <c t="s" r="Q110" s="12">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="111" ht="25.5" customHeight="1">
+      <c r="A111" s="7">
+        <v>105</v>
+      </c>
+      <c r="B111" s="7"/>
+      <c t="s" r="C111" s="8">
         <v>305</v>
       </c>
-      <c r="L111" s="17"/>
-      <c r="M111" s="17"/>
-      <c r="N111" s="17"/>
-      <c r="O111" s="17"/>
-      <c r="P111" s="17"/>
-      <c r="Q111" s="17"/>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c t="s" r="H111" s="9">
+        <v>152</v>
+      </c>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c t="s" r="L111" s="10">
+        <v>44</v>
+      </c>
+      <c r="M111" s="10"/>
+      <c t="s" r="N111" s="8">
+        <v>61</v>
+      </c>
+      <c r="O111" s="8"/>
+      <c t="s" r="P111" s="11">
+        <v>306</v>
+      </c>
+      <c t="s" r="Q111" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="P112" s="13">
+        <v>5454.6800000000003</v>
+      </c>
+      <c r="Q112" s="13"/>
+    </row>
+    <row r="113" ht="16.5" customHeight="1">
+      <c t="s" r="A113" s="14">
+        <v>307</v>
+      </c>
+      <c r="B113" s="14"/>
+      <c r="C113" s="14"/>
+      <c r="D113" s="14"/>
+      <c r="E113" s="14"/>
+      <c r="F113" s="14"/>
+      <c t="s" r="G113" s="15">
+        <v>308</v>
+      </c>
+      <c r="H113" s="15"/>
+      <c r="I113" s="15"/>
+      <c r="J113" s="16"/>
+      <c t="s" r="K113" s="17">
+        <v>309</v>
+      </c>
+      <c r="L113" s="17"/>
+      <c r="M113" s="17"/>
+      <c r="N113" s="17"/>
+      <c r="O113" s="17"/>
+      <c r="P113" s="17"/>
+      <c r="Q113" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="527">
+  <mergeCells count="537">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5503,10 +5581,20 @@
     <mergeCell ref="H109:K109"/>
     <mergeCell ref="L109:M109"/>
     <mergeCell ref="N109:O109"/>
-    <mergeCell ref="P110:Q110"/>
-    <mergeCell ref="A111:F111"/>
-    <mergeCell ref="G111:I111"/>
-    <mergeCell ref="K111:Q111"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="H110:K110"/>
+    <mergeCell ref="L110:M110"/>
+    <mergeCell ref="N110:O110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="H111:K111"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="P112:Q112"/>
+    <mergeCell ref="A113:F113"/>
+    <mergeCell ref="G113:I113"/>
+    <mergeCell ref="K113:Q113"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-28_00-00.xlsx
+++ b/DaySale_2025-08-28_00-00.xlsx
@@ -932,7 +932,7 @@
     <t>120.0000</t>
   </si>
   <si>
-    <t>Thursday, 28 August, 2025 9:40 PM</t>
+    <t>Thursday, 28 August, 2025 9:51 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-28_00-00.xlsx
+++ b/DaySale_2025-08-28_00-00.xlsx
@@ -392,6 +392,15 @@
     <t>44.0000</t>
   </si>
   <si>
+    <t>EPICOPRED 20 MG 20 ORODISPERSIBLE TABS.</t>
+  </si>
+  <si>
+    <t>104.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
     <t>ERASTAPEX TRIO 5/20/12.5MG 30 F.C. TAB</t>
   </si>
   <si>
@@ -932,7 +941,7 @@
     <t>120.0000</t>
   </si>
   <si>
-    <t>Thursday, 28 August, 2025 9:51 PM</t>
+    <t>Thursday, 28 August, 2025 9:55 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2728,7 +2737,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2738,14 +2747,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2754,31 +2763,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>63</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2794,24 +2803,24 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>39</v>
+        <v>63</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2837,14 +2846,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>60</v>
+        <v>39</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2853,14 +2862,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>39</v>
+        <v>139</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2877,7 +2886,7 @@
         <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>24</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2893,7 +2902,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2926,13 +2935,13 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
@@ -2959,13 +2968,13 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
@@ -2976,7 +2985,7 @@
         <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2992,7 +3001,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>152</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3002,11 +3011,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -3018,14 +3027,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>52</v>
+        <v>155</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3042,7 +3051,7 @@
         <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3058,7 +3067,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3075,7 +3084,7 @@
         <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>50</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3091,7 +3100,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>162</v>
+        <v>17</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3101,14 +3110,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>63</v>
+        <v>50</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3117,14 +3126,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>165</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3141,7 +3150,7 @@
         <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>63</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3157,13 +3166,13 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
@@ -3174,7 +3183,7 @@
         <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3190,7 +3199,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3207,7 +3216,7 @@
         <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3223,13 +3232,13 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
@@ -3256,13 +3265,13 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
@@ -3270,7 +3279,7 @@
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>58</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -3282,14 +3291,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3299,14 +3308,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>61</v>
+        <v>181</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3315,31 +3324,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>181</v>
+        <v>24</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>68</v>
+        <v>24</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3355,7 +3364,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>17</v>
+        <v>184</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3365,14 +3374,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>184</v>
+        <v>22</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
         <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>68</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3388,7 +3397,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3398,14 +3407,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>117</v>
+        <v>187</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3414,7 +3423,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3431,7 +3440,7 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>117</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
@@ -3454,21 +3463,21 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>36</v>
+        <v>192</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>24</v>
@@ -3480,28 +3489,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>130</v>
+        <v>36</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>24</v>
@@ -3513,31 +3522,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>196</v>
+        <v>133</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
         <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3553,24 +3562,24 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>199</v>
+        <v>17</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3579,14 +3588,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>52</v>
+        <v>202</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3603,7 +3612,7 @@
         <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>24</v>
+        <v>39</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3619,7 +3628,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3652,7 +3661,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>209</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3662,14 +3671,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3678,31 +3687,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>21</v>
+        <v>212</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>117</v>
+        <v>213</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>187</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3711,31 +3720,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3744,14 +3753,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3761,11 +3770,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>216</v>
+        <v>76</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>99</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3777,14 +3786,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>218</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3798,10 +3807,10 @@
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>220</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>50</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3810,14 +3819,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>221</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3834,7 +3843,7 @@
         <v>223</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>50</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3850,7 +3859,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3883,7 +3892,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>199</v>
+        <v>17</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3900,7 +3909,7 @@
         <v>229</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3916,7 +3925,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>17</v>
+        <v>202</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3930,10 +3939,10 @@
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>187</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3942,14 +3951,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>112</v>
+        <v>17</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3959,14 +3968,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>117</v>
+        <v>234</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>118</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3975,14 +3984,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>181</v>
+        <v>112</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3992,14 +4001,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>216</v>
+        <v>117</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4008,14 +4017,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>184</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4025,11 +4034,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>236</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -4058,14 +4067,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>178</v>
+        <v>238</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>239</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4081,7 +4090,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>181</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4091,14 +4100,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>241</v>
+        <v>181</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
+        <v>241</v>
+      </c>
+      <c t="s" r="Q83" s="12">
         <v>242</v>
-      </c>
-      <c t="s" r="Q83" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4114,7 +4123,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>24</v>
+        <v>184</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4124,14 +4133,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>98</v>
+        <v>244</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>99</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4140,14 +4149,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>152</v>
+        <v>24</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4157,14 +4166,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4173,14 +4182,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>181</v>
+        <v>155</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4190,14 +4199,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>246</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4206,14 +4215,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>56</v>
+        <v>184</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4223,14 +4232,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>122</v>
+        <v>22</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4239,14 +4248,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4256,14 +4265,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>250</v>
+        <v>122</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4272,7 +4281,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4289,11 +4298,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>12</v>
@@ -4305,14 +4314,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>254</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4322,14 +4331,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>114</v>
+        <v>255</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>115</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4338,14 +4347,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4355,14 +4364,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>235</v>
+        <v>114</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>236</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4371,14 +4380,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>17</v>
+        <v>259</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4388,14 +4397,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>258</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>209</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4404,7 +4413,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4421,14 +4430,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>68</v>
+        <v>212</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4437,31 +4446,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>262</v>
+        <v>17</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>263</v>
+        <v>238</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>190</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>12</v>
+        <v>68</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4491,7 +4500,7 @@
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>267</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>12</v>
@@ -4503,14 +4512,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4520,11 +4529,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>210</v>
+        <v>269</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>211</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>12</v>
@@ -4536,14 +4545,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4553,14 +4562,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>272</v>
+        <v>213</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>70</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>68</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4576,7 +4585,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>74</v>
+        <v>274</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4586,14 +4595,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>274</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>12</v>
+        <v>68</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4602,14 +4611,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>152</v>
+        <v>74</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4619,14 +4628,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>178</v>
+        <v>275</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>68</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4635,14 +4644,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>278</v>
+        <v>155</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4652,14 +4661,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>279</v>
+        <v>181</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>12</v>
+        <v>68</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4668,14 +4677,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>17</v>
+        <v>281</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4689,10 +4698,10 @@
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>201</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>283</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4722,10 +4731,10 @@
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
+        <v>204</v>
+      </c>
+      <c t="s" r="Q102" s="12">
         <v>286</v>
-      </c>
-      <c t="s" r="Q102" s="12">
-        <v>278</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4758,7 +4767,7 @@
         <v>289</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>290</v>
+        <v>281</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4767,14 +4776,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>278</v>
+        <v>17</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4784,14 +4793,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
+        <v>292</v>
+      </c>
+      <c t="s" r="Q104" s="12">
         <v>293</v>
-      </c>
-      <c t="s" r="Q104" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4807,7 +4816,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>74</v>
+        <v>281</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4817,11 +4826,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>266</v>
+        <v>295</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>267</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>12</v>
@@ -4833,14 +4842,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4850,11 +4859,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>296</v>
+        <v>269</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>297</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>12</v>
@@ -4883,14 +4892,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>210</v>
+        <v>299</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>181</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4899,14 +4908,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>181</v>
+        <v>17</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4916,14 +4925,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>266</v>
+        <v>213</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>267</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>12</v>
+        <v>184</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4932,14 +4941,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>17</v>
+        <v>184</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4949,11 +4958,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>301</v>
+        <v>269</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>302</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>12</v>
@@ -4972,7 +4981,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>239</v>
+        <v>17</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4982,14 +4991,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>137</v>
+        <v>304</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>209</v>
+        <v>12</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -4998,14 +5007,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>152</v>
+        <v>242</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5015,49 +5024,82 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>61</v>
+        <v>140</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>12</v>
+        <v>212</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
-      <c r="P112" s="13">
-        <v>5454.6800000000003</v>
-      </c>
-      <c r="Q112" s="13"/>
-    </row>
-    <row r="113" ht="16.5" customHeight="1">
-      <c t="s" r="A113" s="14">
-        <v>307</v>
-      </c>
-      <c r="B113" s="14"/>
-      <c r="C113" s="14"/>
-      <c r="D113" s="14"/>
-      <c r="E113" s="14"/>
-      <c r="F113" s="14"/>
-      <c t="s" r="G113" s="15">
+      <c r="A112" s="7">
+        <v>106</v>
+      </c>
+      <c r="B112" s="7"/>
+      <c t="s" r="C112" s="8">
         <v>308</v>
       </c>
-      <c r="H113" s="15"/>
-      <c r="I113" s="15"/>
-      <c r="J113" s="16"/>
-      <c t="s" r="K113" s="17">
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c t="s" r="H112" s="9">
+        <v>155</v>
+      </c>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c t="s" r="L112" s="10">
+        <v>44</v>
+      </c>
+      <c r="M112" s="10"/>
+      <c t="s" r="N112" s="8">
+        <v>61</v>
+      </c>
+      <c r="O112" s="8"/>
+      <c t="s" r="P112" s="11">
         <v>309</v>
       </c>
-      <c r="L113" s="17"/>
-      <c r="M113" s="17"/>
-      <c r="N113" s="17"/>
-      <c r="O113" s="17"/>
-      <c r="P113" s="17"/>
-      <c r="Q113" s="17"/>
+      <c t="s" r="Q112" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="113" ht="24.75" customHeight="1">
+      <c r="P113" s="13">
+        <v>5506.6800000000003</v>
+      </c>
+      <c r="Q113" s="13"/>
+    </row>
+    <row r="114" ht="16.5" customHeight="1">
+      <c t="s" r="A114" s="14">
+        <v>310</v>
+      </c>
+      <c r="B114" s="14"/>
+      <c r="C114" s="14"/>
+      <c r="D114" s="14"/>
+      <c r="E114" s="14"/>
+      <c r="F114" s="14"/>
+      <c t="s" r="G114" s="15">
+        <v>311</v>
+      </c>
+      <c r="H114" s="15"/>
+      <c r="I114" s="15"/>
+      <c r="J114" s="16"/>
+      <c t="s" r="K114" s="17">
+        <v>312</v>
+      </c>
+      <c r="L114" s="17"/>
+      <c r="M114" s="17"/>
+      <c r="N114" s="17"/>
+      <c r="O114" s="17"/>
+      <c r="P114" s="17"/>
+      <c r="Q114" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="537">
+  <mergeCells count="542">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5591,10 +5633,15 @@
     <mergeCell ref="H111:K111"/>
     <mergeCell ref="L111:M111"/>
     <mergeCell ref="N111:O111"/>
-    <mergeCell ref="P112:Q112"/>
-    <mergeCell ref="A113:F113"/>
-    <mergeCell ref="G113:I113"/>
-    <mergeCell ref="K113:Q113"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="N112:O112"/>
+    <mergeCell ref="P113:Q113"/>
+    <mergeCell ref="A114:F114"/>
+    <mergeCell ref="G114:I114"/>
+    <mergeCell ref="K114:Q114"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-28_00-00.xlsx
+++ b/DaySale_2025-08-28_00-00.xlsx
@@ -941,7 +941,7 @@
     <t>120.0000</t>
   </si>
   <si>
-    <t>Thursday, 28 August, 2025 9:55 PM</t>
+    <t>Thursday, 28 August, 2025 9:58 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-28_00-00.xlsx
+++ b/DaySale_2025-08-28_00-00.xlsx
@@ -203,6 +203,18 @@
     <t>0:-1</t>
   </si>
   <si>
+    <t>BINO BABY CREAM</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">CALDIN CK  TAB</t>
   </si>
   <si>
@@ -215,9 +227,6 @@
     <t>CARBAMIDE 10% CREAM 30 GM</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>40.00</t>
   </si>
   <si>
@@ -743,12 +752,6 @@
     <t>TELFAST 30MG/5ML SUSP. 100 ML</t>
   </si>
   <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
     <t>URINEX 24 CAPS</t>
   </si>
   <si>
@@ -761,6 +764,18 @@
     <t>18.0000</t>
   </si>
   <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
     <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
   </si>
   <si>
@@ -815,9 +830,6 @@
     <t xml:space="preserve">برفان القصاص </t>
   </si>
   <si>
-    <t>8:0</t>
-  </si>
-  <si>
     <t>30.00</t>
   </si>
   <si>
@@ -941,7 +953,7 @@
     <t>120.0000</t>
   </si>
   <si>
-    <t>Thursday, 28 August, 2025 9:58 PM</t>
+    <t>Thursday, 28 August, 2025 9:59 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2011,7 +2023,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2021,14 +2033,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2037,20 +2049,20 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -2061,7 +2073,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2077,7 +2089,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2087,14 +2099,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>50</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2103,14 +2115,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2120,14 +2132,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2136,14 +2148,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2153,14 +2165,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2176,7 +2188,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2186,14 +2198,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2202,14 +2214,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2226,7 +2238,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2242,7 +2254,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2275,7 +2287,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2285,11 +2297,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>24</v>
@@ -2301,14 +2313,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2318,14 +2330,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2334,14 +2346,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2358,7 +2370,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2374,7 +2386,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2384,14 +2396,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>24</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2400,14 +2412,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2424,7 +2436,7 @@
         <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2440,7 +2452,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>104</v>
+        <v>17</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2450,14 +2462,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2466,14 +2478,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2483,14 +2495,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>19</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2506,7 +2518,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>50</v>
+        <v>111</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2516,14 +2528,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>22</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>112</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2539,7 +2551,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2549,14 +2561,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>22</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
+        <v>114</v>
+      </c>
+      <c t="s" r="Q36" s="12">
         <v>115</v>
-      </c>
-      <c t="s" r="Q36" s="12">
-        <v>24</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2572,7 +2584,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2605,7 +2617,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2615,11 +2627,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>24</v>
@@ -2631,14 +2643,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2648,14 +2660,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2664,14 +2676,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2681,11 +2693,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2737,7 +2749,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2754,7 +2766,7 @@
         <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2770,7 +2782,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2780,14 +2792,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2796,31 +2808,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>63</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2836,24 +2848,24 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>39</v>
+        <v>63</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2879,14 +2891,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>60</v>
+        <v>39</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2895,14 +2907,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>39</v>
+        <v>142</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2919,7 +2931,7 @@
         <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>24</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2935,7 +2947,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2968,13 +2980,13 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
@@ -3001,13 +3013,13 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -3018,7 +3030,7 @@
         <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3034,7 +3046,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>155</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3044,11 +3056,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -3060,14 +3072,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>52</v>
+        <v>158</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3084,7 +3096,7 @@
         <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3100,7 +3112,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3117,7 +3129,7 @@
         <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>50</v>
+        <v>24</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3133,7 +3145,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>165</v>
+        <v>17</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3143,14 +3155,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>63</v>
+        <v>50</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3159,14 +3171,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>168</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3183,7 +3195,7 @@
         <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>63</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3199,13 +3211,13 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
@@ -3216,7 +3228,7 @@
         <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3232,7 +3244,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3249,7 +3261,7 @@
         <v>176</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3265,13 +3277,13 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
@@ -3298,13 +3310,13 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
@@ -3312,7 +3324,7 @@
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>58</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -3324,14 +3336,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3341,14 +3353,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>61</v>
+        <v>184</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3357,31 +3369,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>184</v>
+        <v>24</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>68</v>
+        <v>24</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3397,7 +3409,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>17</v>
+        <v>187</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3407,14 +3419,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>187</v>
+        <v>22</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
         <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>65</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3430,7 +3442,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3440,14 +3452,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>117</v>
+        <v>190</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3456,7 +3468,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3473,7 +3485,7 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>192</v>
+        <v>120</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
@@ -3496,21 +3508,21 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>36</v>
+        <v>195</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>24</v>
@@ -3522,28 +3534,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>133</v>
+        <v>36</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>24</v>
@@ -3555,31 +3567,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>199</v>
+        <v>136</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
         <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3595,24 +3607,24 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>202</v>
+        <v>17</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3621,14 +3633,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>52</v>
+        <v>205</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3645,7 +3657,7 @@
         <v>207</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>24</v>
+        <v>39</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3661,7 +3673,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3694,7 +3706,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>212</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3704,14 +3716,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3720,31 +3732,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>21</v>
+        <v>215</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>117</v>
+        <v>216</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3753,31 +3765,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>76</v>
+        <v>120</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3786,14 +3798,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3803,11 +3815,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>219</v>
+        <v>79</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>99</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3819,14 +3831,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>221</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3840,10 +3852,10 @@
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>223</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>50</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3852,14 +3864,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>224</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3876,7 +3888,7 @@
         <v>226</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>50</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3892,7 +3904,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3925,7 +3937,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>202</v>
+        <v>17</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3942,7 +3954,7 @@
         <v>232</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3958,7 +3970,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>17</v>
+        <v>205</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3972,10 +3984,10 @@
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>190</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3984,14 +3996,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>112</v>
+        <v>17</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4001,14 +4013,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>117</v>
+        <v>237</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>118</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4017,14 +4029,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>184</v>
+        <v>115</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4034,14 +4046,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>219</v>
+        <v>120</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4050,14 +4062,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>187</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4067,11 +4079,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>239</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>12</v>
@@ -4100,14 +4112,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>181</v>
+        <v>241</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>242</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4123,7 +4135,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>184</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4133,14 +4145,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>244</v>
+        <v>184</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
+        <v>244</v>
+      </c>
+      <c t="s" r="Q84" s="12">
         <v>245</v>
-      </c>
-      <c t="s" r="Q84" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4156,7 +4168,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>24</v>
+        <v>187</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4166,14 +4178,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4189,7 +4201,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>155</v>
+        <v>24</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4199,14 +4211,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4222,7 +4234,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>184</v>
+        <v>158</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4232,14 +4244,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>249</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4248,14 +4260,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>56</v>
+        <v>187</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4265,14 +4277,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>122</v>
+        <v>22</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4281,14 +4293,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>12</v>
+        <v>252</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4302,7 +4314,7 @@
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>204</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>12</v>
@@ -4314,14 +4326,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4331,14 +4343,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>255</v>
+        <v>125</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>195</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4347,14 +4359,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>257</v>
+        <v>12</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4364,14 +4376,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>114</v>
+        <v>258</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>115</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4380,14 +4392,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>259</v>
+        <v>12</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4397,11 +4409,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>238</v>
+        <v>260</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>239</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>12</v>
@@ -4413,14 +4425,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>17</v>
+        <v>262</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4430,14 +4442,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>238</v>
+        <v>117</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>261</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>212</v>
+        <v>24</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4446,14 +4458,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>17</v>
+        <v>264</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4463,14 +4475,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>263</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>68</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4479,31 +4491,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>265</v>
+        <v>17</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>266</v>
+        <v>241</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>193</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>12</v>
+        <v>215</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4519,24 +4531,24 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>268</v>
+        <v>17</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>269</v>
+        <v>241</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>12</v>
+        <v>65</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4545,14 +4557,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4562,11 +4574,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>213</v>
+        <v>271</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>12</v>
@@ -4578,14 +4590,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>274</v>
+        <v>252</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4595,14 +4607,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>70</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>68</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4611,14 +4623,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>74</v>
+        <v>276</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4628,11 +4640,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>275</v>
+        <v>216</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>277</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>12</v>
@@ -4644,14 +4656,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>155</v>
+        <v>278</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4661,14 +4673,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>181</v>
+        <v>279</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>279</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4684,7 +4696,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>281</v>
+        <v>77</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4694,11 +4706,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>12</v>
@@ -4710,14 +4722,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>17</v>
+        <v>158</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4727,14 +4739,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>285</v>
+        <v>184</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>204</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>286</v>
+        <v>65</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4743,14 +4755,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>17</v>
+        <v>285</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4760,14 +4772,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>281</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4776,7 +4788,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4793,14 +4805,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>292</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4809,14 +4821,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>281</v>
+        <v>17</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4826,14 +4838,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>12</v>
+        <v>285</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4842,14 +4854,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4859,14 +4871,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>269</v>
+        <v>295</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>270</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>12</v>
+        <v>297</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4882,7 +4894,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>17</v>
+        <v>285</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4915,7 +4927,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4925,14 +4937,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>213</v>
+        <v>273</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>184</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4948,7 +4960,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>184</v>
+        <v>17</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4958,11 +4970,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>269</v>
+        <v>303</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>270</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>12</v>
@@ -4974,7 +4986,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -4991,14 +5003,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>304</v>
+        <v>216</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>305</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>12</v>
+        <v>187</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5014,7 +5026,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>242</v>
+        <v>187</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5024,14 +5036,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>140</v>
+        <v>273</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>307</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>212</v>
+        <v>12</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5040,14 +5052,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>155</v>
+        <v>17</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5057,7 +5069,7 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>61</v>
+        <v>308</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
@@ -5068,38 +5080,104 @@
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
-      <c r="P113" s="13">
-        <v>5506.6800000000003</v>
-      </c>
-      <c r="Q113" s="13"/>
-    </row>
-    <row r="114" ht="16.5" customHeight="1">
-      <c t="s" r="A114" s="14">
+      <c r="A113" s="7">
+        <v>107</v>
+      </c>
+      <c r="B113" s="7"/>
+      <c t="s" r="C113" s="8">
         <v>310</v>
       </c>
-      <c r="B114" s="14"/>
-      <c r="C114" s="14"/>
-      <c r="D114" s="14"/>
-      <c r="E114" s="14"/>
-      <c r="F114" s="14"/>
-      <c t="s" r="G114" s="15">
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c t="s" r="H113" s="9">
+        <v>245</v>
+      </c>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c t="s" r="L113" s="10">
+        <v>44</v>
+      </c>
+      <c r="M113" s="10"/>
+      <c t="s" r="N113" s="8">
+        <v>143</v>
+      </c>
+      <c r="O113" s="8"/>
+      <c t="s" r="P113" s="11">
         <v>311</v>
       </c>
-      <c r="H114" s="15"/>
-      <c r="I114" s="15"/>
-      <c r="J114" s="16"/>
-      <c t="s" r="K114" s="17">
+      <c t="s" r="Q113" s="12">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="114" ht="25.5" customHeight="1">
+      <c r="A114" s="7">
+        <v>108</v>
+      </c>
+      <c r="B114" s="7"/>
+      <c t="s" r="C114" s="8">
         <v>312</v>
       </c>
-      <c r="L114" s="17"/>
-      <c r="M114" s="17"/>
-      <c r="N114" s="17"/>
-      <c r="O114" s="17"/>
-      <c r="P114" s="17"/>
-      <c r="Q114" s="17"/>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c t="s" r="H114" s="9">
+        <v>158</v>
+      </c>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c t="s" r="L114" s="10">
+        <v>44</v>
+      </c>
+      <c r="M114" s="10"/>
+      <c t="s" r="N114" s="8">
+        <v>61</v>
+      </c>
+      <c r="O114" s="8"/>
+      <c t="s" r="P114" s="11">
+        <v>313</v>
+      </c>
+      <c t="s" r="Q114" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="115" ht="24.75" customHeight="1">
+      <c r="P115" s="13">
+        <v>5582.6800000000003</v>
+      </c>
+      <c r="Q115" s="13"/>
+    </row>
+    <row r="116" ht="16.5" customHeight="1">
+      <c t="s" r="A116" s="14">
+        <v>314</v>
+      </c>
+      <c r="B116" s="14"/>
+      <c r="C116" s="14"/>
+      <c r="D116" s="14"/>
+      <c r="E116" s="14"/>
+      <c r="F116" s="14"/>
+      <c t="s" r="G116" s="15">
+        <v>315</v>
+      </c>
+      <c r="H116" s="15"/>
+      <c r="I116" s="15"/>
+      <c r="J116" s="16"/>
+      <c t="s" r="K116" s="17">
+        <v>316</v>
+      </c>
+      <c r="L116" s="17"/>
+      <c r="M116" s="17"/>
+      <c r="N116" s="17"/>
+      <c r="O116" s="17"/>
+      <c r="P116" s="17"/>
+      <c r="Q116" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="542">
+  <mergeCells count="552">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5638,10 +5716,20 @@
     <mergeCell ref="H112:K112"/>
     <mergeCell ref="L112:M112"/>
     <mergeCell ref="N112:O112"/>
-    <mergeCell ref="P113:Q113"/>
-    <mergeCell ref="A114:F114"/>
-    <mergeCell ref="G114:I114"/>
-    <mergeCell ref="K114:Q114"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="H114:K114"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="N114:O114"/>
+    <mergeCell ref="P115:Q115"/>
+    <mergeCell ref="A116:F116"/>
+    <mergeCell ref="G116:I116"/>
+    <mergeCell ref="K116:Q116"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-28_00-00.xlsx
+++ b/DaySale_2025-08-28_00-00.xlsx
@@ -203,12 +203,21 @@
     <t>0:-1</t>
   </si>
   <si>
+    <t>BETOLVEX 1MG/ML 2 AMP</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>64.00</t>
+  </si>
+  <si>
+    <t>32.0000</t>
+  </si>
+  <si>
     <t>BINO BABY CREAM</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>50.00</t>
   </si>
   <si>
@@ -548,7 +557,13 @@
     <t>32.00</t>
   </si>
   <si>
-    <t>32.0000</t>
+    <t>HYDROCORTISONE SODIUM SUCCINATE 100MG I.V./I.M.VIAL</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
   </si>
   <si>
     <t>INSULINAGYPT 70/30 100 I.U./ML (4ML) VIAL</t>
@@ -770,12 +785,6 @@
     <t>8:0</t>
   </si>
   <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
     <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
   </si>
   <si>
@@ -785,9 +794,6 @@
     <t>VITASTRESS 20 F.C. TABS.</t>
   </si>
   <si>
-    <t>64.00</t>
-  </si>
-  <si>
     <t>VOLTAREN 1% EMULGEL 25 GM</t>
   </si>
   <si>
@@ -797,7 +803,7 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
-    <t>2:2</t>
+    <t>33.6600</t>
   </si>
   <si>
     <t>VOTRIAXONE 1 GM I.M VIAL</t>
@@ -881,7 +887,10 @@
     <t>4.00</t>
   </si>
   <si>
-    <t>16:0</t>
+    <t>68.0000</t>
+  </si>
+  <si>
+    <t>17:0</t>
   </si>
   <si>
     <t>سرنجات 3 سم</t>
@@ -953,7 +962,7 @@
     <t>120.0000</t>
   </si>
   <si>
-    <t>Thursday, 28 August, 2025 9:59 PM</t>
+    <t>Thursday, 28 August, 2025 10:03 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2029,7 +2038,7 @@
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
@@ -2040,7 +2049,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2056,7 +2065,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2073,7 +2082,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2089,13 +2098,13 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -2106,7 +2115,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2122,7 +2131,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2132,14 +2141,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>50</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2148,14 +2157,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2165,14 +2174,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2181,14 +2190,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2198,14 +2207,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2221,7 +2230,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2231,14 +2240,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2247,14 +2256,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2271,7 +2280,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2287,7 +2296,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2320,7 +2329,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2330,11 +2339,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>24</v>
@@ -2346,14 +2355,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>93</v>
+        <v>52</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2363,14 +2372,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2379,14 +2388,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2403,7 +2412,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2419,7 +2428,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2429,14 +2438,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>24</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2445,14 +2454,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>17</v>
+        <v>103</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2469,7 +2478,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2485,7 +2494,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>107</v>
+        <v>17</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2495,14 +2504,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2511,14 +2520,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2528,14 +2537,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>19</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2551,7 +2560,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>50</v>
+        <v>114</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2561,14 +2570,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>22</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>115</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2584,7 +2593,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2594,14 +2603,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>22</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
+        <v>117</v>
+      </c>
+      <c t="s" r="Q37" s="12">
         <v>118</v>
-      </c>
-      <c t="s" r="Q37" s="12">
-        <v>24</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2617,7 +2626,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2650,7 +2659,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2660,11 +2669,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>89</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>90</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>24</v>
@@ -2676,14 +2685,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2693,14 +2702,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2709,14 +2718,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2726,11 +2735,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2782,7 +2791,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2799,7 +2808,7 @@
         <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2815,7 +2824,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2825,14 +2834,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2841,31 +2850,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>115</v>
+        <v>52</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>63</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2881,24 +2890,24 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>39</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2924,14 +2933,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>60</v>
+        <v>39</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2940,14 +2949,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>39</v>
+        <v>145</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2964,7 +2973,7 @@
         <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>24</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2980,7 +2989,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3013,13 +3022,13 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -3046,13 +3055,13 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -3063,7 +3072,7 @@
         <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3079,7 +3088,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>158</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3089,11 +3098,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -3105,14 +3114,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>52</v>
+        <v>161</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3129,7 +3138,7 @@
         <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3145,7 +3154,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3162,7 +3171,7 @@
         <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>50</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3178,7 +3187,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>168</v>
+        <v>17</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3188,14 +3197,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>63</v>
+        <v>50</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3204,14 +3213,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>171</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3228,7 +3237,7 @@
         <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>63</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3244,13 +3253,13 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
@@ -3261,7 +3270,7 @@
         <v>176</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3277,7 +3286,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3294,7 +3303,7 @@
         <v>179</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3310,13 +3319,13 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
@@ -3324,7 +3333,7 @@
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>182</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -3336,28 +3345,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>58</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3376,24 +3385,24 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>61</v>
+        <v>186</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>75</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3402,31 +3411,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>187</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>22</v>
+        <v>189</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>65</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3435,31 +3444,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>190</v>
+        <v>61</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>191</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3468,14 +3477,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>50</v>
+        <v>192</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3485,14 +3494,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>120</v>
+        <v>22</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
         <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>24</v>
+        <v>65</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3508,7 +3517,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3525,7 +3534,7 @@
         <v>196</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3541,17 +3550,17 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>36</v>
+        <v>123</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
@@ -3574,7 +3583,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3584,11 +3593,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>136</v>
+        <v>200</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>24</v>
@@ -3600,14 +3609,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3617,14 +3626,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>202</v>
+        <v>36</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
         <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3640,7 +3649,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>205</v>
+        <v>26</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3650,14 +3659,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>206</v>
+        <v>139</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3666,31 +3675,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3699,14 +3708,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>210</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3716,14 +3725,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>24</v>
+        <v>39</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3732,14 +3741,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>215</v>
+        <v>52</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3749,14 +3758,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3765,28 +3774,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>120</v>
+        <v>217</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>193</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>24</v>
@@ -3805,7 +3814,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>24</v>
+        <v>220</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3815,11 +3824,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>79</v>
+        <v>221</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3831,31 +3840,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>222</v>
+        <v>123</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>102</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3864,14 +3873,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>224</v>
+        <v>24</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3881,14 +3890,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>225</v>
+        <v>82</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>50</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3897,7 +3906,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3914,11 +3923,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>229</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>12</v>
@@ -3930,14 +3939,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>17</v>
+        <v>229</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3947,14 +3956,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>50</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3963,14 +3972,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3980,14 +3989,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3996,7 +4005,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -4013,11 +4022,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>193</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>12</v>
@@ -4036,7 +4045,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>115</v>
+        <v>210</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4046,14 +4055,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>120</v>
+        <v>239</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>121</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>24</v>
+        <v>39</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4062,14 +4071,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>187</v>
+        <v>17</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4079,11 +4088,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>102</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>12</v>
@@ -4095,14 +4104,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>118</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4112,14 +4121,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>241</v>
+        <v>123</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>242</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4128,14 +4137,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>12</v>
+        <v>192</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4145,14 +4154,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>184</v>
+        <v>227</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>244</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>245</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4161,14 +4170,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>187</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4178,11 +4187,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>66</v>
+        <v>246</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>67</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>12</v>
@@ -4194,14 +4203,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4211,14 +4220,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>101</v>
+        <v>189</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>102</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>24</v>
+        <v>250</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4227,14 +4236,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>158</v>
+        <v>192</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4244,11 +4253,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>12</v>
@@ -4260,14 +4269,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>187</v>
+        <v>24</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4277,11 +4286,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>250</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>24</v>
@@ -4293,14 +4302,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>252</v>
+        <v>161</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4310,11 +4319,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>253</v>
+        <v>86</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>254</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>12</v>
@@ -4326,14 +4335,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>56</v>
+        <v>192</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4343,14 +4352,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>125</v>
+        <v>22</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4359,14 +4368,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>12</v>
+        <v>257</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4376,11 +4385,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>258</v>
+        <v>183</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>207</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>12</v>
@@ -4392,14 +4401,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4409,14 +4418,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>260</v>
+        <v>128</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>198</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4425,14 +4434,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>262</v>
+        <v>12</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4442,14 +4451,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>117</v>
+        <v>66</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>118</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4458,14 +4467,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>264</v>
+        <v>12</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4475,11 +4484,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>241</v>
+        <v>262</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>242</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>12</v>
@@ -4491,14 +4500,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4508,14 +4517,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>241</v>
+        <v>120</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>215</v>
+        <v>39</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4524,14 +4533,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>17</v>
+        <v>266</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4541,14 +4550,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>268</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>65</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4557,31 +4566,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>270</v>
+        <v>17</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>271</v>
+        <v>246</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>196</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>12</v>
+        <v>220</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4590,31 +4599,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>252</v>
+        <v>17</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>273</v>
+        <v>246</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>12</v>
+        <v>65</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4623,14 +4632,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4640,11 +4649,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>216</v>
+        <v>273</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>12</v>
@@ -4656,14 +4665,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>278</v>
+        <v>257</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4673,14 +4682,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>73</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>65</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4689,14 +4698,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>77</v>
+        <v>278</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4706,11 +4715,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>279</v>
+        <v>221</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>281</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>12</v>
@@ -4722,14 +4731,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>158</v>
+        <v>280</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4739,11 +4748,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>184</v>
+        <v>281</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>283</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>65</v>
@@ -4755,14 +4764,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>285</v>
+        <v>80</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4772,11 +4781,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>12</v>
@@ -4788,14 +4797,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>17</v>
+        <v>161</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4805,14 +4814,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>289</v>
+        <v>189</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>207</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>290</v>
+        <v>65</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4821,14 +4830,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>17</v>
+        <v>287</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4838,14 +4847,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>285</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4854,7 +4863,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -4871,14 +4880,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4887,14 +4896,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>285</v>
+        <v>17</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4904,14 +4913,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>12</v>
+        <v>287</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4920,14 +4929,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4937,14 +4946,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>273</v>
+        <v>298</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>274</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>12</v>
+        <v>300</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4953,14 +4962,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>17</v>
+        <v>287</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4970,11 +4979,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>12</v>
@@ -4986,14 +4995,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5003,14 +5012,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>216</v>
+        <v>275</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>187</v>
+        <v>12</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5019,14 +5028,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>187</v>
+        <v>17</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5036,11 +5045,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>273</v>
+        <v>306</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>274</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>12</v>
@@ -5052,7 +5061,7 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
@@ -5069,14 +5078,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>308</v>
+        <v>221</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>309</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>12</v>
+        <v>192</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5085,14 +5094,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>245</v>
+        <v>192</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5102,14 +5111,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>143</v>
+        <v>275</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>311</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>215</v>
+        <v>12</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5118,14 +5127,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>158</v>
+        <v>17</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5135,49 +5144,115 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>61</v>
+        <v>311</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
+        <v>312</v>
+      </c>
+      <c t="s" r="Q114" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="115" ht="24.75" customHeight="1">
+      <c r="A115" s="7">
+        <v>109</v>
+      </c>
+      <c r="B115" s="7"/>
+      <c t="s" r="C115" s="8">
         <v>313</v>
       </c>
-      <c t="s" r="Q114" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="115" ht="24.75" customHeight="1">
-      <c r="P115" s="13">
-        <v>5582.6800000000003</v>
-      </c>
-      <c r="Q115" s="13"/>
-    </row>
-    <row r="116" ht="16.5" customHeight="1">
-      <c t="s" r="A116" s="14">
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c t="s" r="H115" s="9">
+        <v>250</v>
+      </c>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c t="s" r="L115" s="10">
+        <v>44</v>
+      </c>
+      <c r="M115" s="10"/>
+      <c t="s" r="N115" s="8">
+        <v>146</v>
+      </c>
+      <c r="O115" s="8"/>
+      <c t="s" r="P115" s="11">
         <v>314</v>
       </c>
-      <c r="B116" s="14"/>
-      <c r="C116" s="14"/>
-      <c r="D116" s="14"/>
-      <c r="E116" s="14"/>
-      <c r="F116" s="14"/>
-      <c t="s" r="G116" s="15">
+      <c t="s" r="Q115" s="12">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="A116" s="7">
+        <v>110</v>
+      </c>
+      <c r="B116" s="7"/>
+      <c t="s" r="C116" s="8">
         <v>315</v>
       </c>
-      <c r="H116" s="15"/>
-      <c r="I116" s="15"/>
-      <c r="J116" s="16"/>
-      <c t="s" r="K116" s="17">
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c t="s" r="H116" s="9">
+        <v>161</v>
+      </c>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c t="s" r="L116" s="10">
+        <v>44</v>
+      </c>
+      <c r="M116" s="10"/>
+      <c t="s" r="N116" s="8">
+        <v>61</v>
+      </c>
+      <c r="O116" s="8"/>
+      <c t="s" r="P116" s="11">
         <v>316</v>
       </c>
-      <c r="L116" s="17"/>
-      <c r="M116" s="17"/>
-      <c r="N116" s="17"/>
-      <c r="O116" s="17"/>
-      <c r="P116" s="17"/>
-      <c r="Q116" s="17"/>
+      <c t="s" r="Q116" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="P117" s="13">
+        <v>5661.5100000000002</v>
+      </c>
+      <c r="Q117" s="13"/>
+    </row>
+    <row r="118" ht="16.5" customHeight="1">
+      <c t="s" r="A118" s="14">
+        <v>317</v>
+      </c>
+      <c r="B118" s="14"/>
+      <c r="C118" s="14"/>
+      <c r="D118" s="14"/>
+      <c r="E118" s="14"/>
+      <c r="F118" s="14"/>
+      <c t="s" r="G118" s="15">
+        <v>318</v>
+      </c>
+      <c r="H118" s="15"/>
+      <c r="I118" s="15"/>
+      <c r="J118" s="16"/>
+      <c t="s" r="K118" s="17">
+        <v>319</v>
+      </c>
+      <c r="L118" s="17"/>
+      <c r="M118" s="17"/>
+      <c r="N118" s="17"/>
+      <c r="O118" s="17"/>
+      <c r="P118" s="17"/>
+      <c r="Q118" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="552">
+  <mergeCells count="562">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5726,10 +5801,20 @@
     <mergeCell ref="H114:K114"/>
     <mergeCell ref="L114:M114"/>
     <mergeCell ref="N114:O114"/>
-    <mergeCell ref="P115:Q115"/>
-    <mergeCell ref="A116:F116"/>
-    <mergeCell ref="G116:I116"/>
-    <mergeCell ref="K116:Q116"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="H115:K115"/>
+    <mergeCell ref="L115:M115"/>
+    <mergeCell ref="N115:O115"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="H116:K116"/>
+    <mergeCell ref="L116:M116"/>
+    <mergeCell ref="N116:O116"/>
+    <mergeCell ref="P117:Q117"/>
+    <mergeCell ref="A118:F118"/>
+    <mergeCell ref="G118:I118"/>
+    <mergeCell ref="K118:Q118"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-28_00-00.xlsx
+++ b/DaySale_2025-08-28_00-00.xlsx
@@ -962,7 +962,7 @@
     <t>120.0000</t>
   </si>
   <si>
-    <t>Thursday, 28 August, 2025 10:03 PM</t>
+    <t>Thursday, 28 August, 2025 10:43 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-28_00-00.xlsx
+++ b/DaySale_2025-08-28_00-00.xlsx
@@ -689,6 +689,12 @@
     <t>69.0000</t>
   </si>
   <si>
+    <t>PENCILONG VIAL</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
     <t>POLYDERM TOP. CREAM 20 GM</t>
   </si>
   <si>
@@ -830,9 +836,6 @@
     <t>15:0</t>
   </si>
   <si>
-    <t>25.00</t>
-  </si>
-  <si>
     <t xml:space="preserve">برفان القصاص </t>
   </si>
   <si>
@@ -908,10 +911,10 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>42.0000</t>
-  </si>
-  <si>
-    <t>14:0</t>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>16:0</t>
   </si>
   <si>
     <t xml:space="preserve">شاش 7 سم </t>
@@ -962,7 +965,7 @@
     <t>120.0000</t>
   </si>
   <si>
-    <t>Thursday, 28 August, 2025 10:43 PM</t>
+    <t>Thursday, 28 August, 2025 10:55 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3913,13 +3916,13 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>192</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
@@ -3927,7 +3930,7 @@
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>105</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>12</v>
@@ -3946,7 +3949,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>229</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3956,14 +3959,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>231</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>50</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3972,14 +3975,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>231</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3989,14 +3992,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>50</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4005,14 +4008,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4022,11 +4025,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>12</v>
@@ -4038,14 +4041,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>210</v>
+        <v>17</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4055,14 +4058,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4071,14 +4074,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>17</v>
+        <v>210</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4088,14 +4091,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>198</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4111,7 +4114,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>118</v>
+        <v>17</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4121,14 +4124,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>123</v>
+        <v>244</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>124</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4137,14 +4140,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>192</v>
+        <v>118</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4154,14 +4157,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>227</v>
+        <v>123</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4170,14 +4173,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>192</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4187,11 +4190,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>247</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>12</v>
@@ -4203,7 +4206,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4220,14 +4223,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>189</v>
+        <v>248</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
         <v>249</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>250</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4236,14 +4239,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>192</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4253,14 +4256,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>69</v>
+        <v>189</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>70</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>12</v>
+        <v>252</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4269,14 +4272,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4286,14 +4289,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4302,14 +4305,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>161</v>
+        <v>24</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4319,14 +4322,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4335,14 +4338,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>192</v>
+        <v>161</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4352,14 +4355,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>255</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4375,7 +4378,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>257</v>
+        <v>192</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4385,14 +4388,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>183</v>
+        <v>22</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>184</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4408,7 +4411,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>56</v>
+        <v>259</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4418,14 +4421,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>128</v>
+        <v>183</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>259</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4441,7 +4444,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4451,14 +4454,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>66</v>
+        <v>128</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>212</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4467,7 +4470,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4484,11 +4487,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>262</v>
+        <v>66</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>12</v>
@@ -4507,7 +4510,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4517,14 +4520,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>120</v>
+        <v>264</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>264</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4540,7 +4543,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>266</v>
+        <v>26</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4550,14 +4553,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>246</v>
+        <v>120</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4573,7 +4576,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>17</v>
+        <v>268</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4583,14 +4586,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>220</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4616,14 +4619,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
         <v>270</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>65</v>
+        <v>220</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4639,24 +4642,24 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>272</v>
+        <v>17</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>273</v>
+        <v>248</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>201</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>12</v>
+        <v>65</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4665,14 +4668,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4682,11 +4685,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>275</v>
+        <v>227</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>276</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>12</v>
@@ -4698,14 +4701,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4715,11 +4718,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>221</v>
+        <v>276</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>222</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>12</v>
@@ -4731,14 +4734,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4748,14 +4751,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>281</v>
+        <v>221</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>76</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>65</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4764,14 +4767,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>80</v>
+        <v>281</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4781,14 +4784,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>283</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>12</v>
+        <v>65</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4797,14 +4800,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>161</v>
+        <v>80</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4814,14 +4817,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>189</v>
+        <v>282</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>65</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4830,14 +4833,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>287</v>
+        <v>161</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4847,14 +4850,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>288</v>
+        <v>189</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>12</v>
+        <v>65</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4863,14 +4866,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>17</v>
+        <v>288</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4880,14 +4883,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>293</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4896,7 +4899,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -4913,14 +4916,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>287</v>
+        <v>294</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4929,7 +4932,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -4946,14 +4949,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>300</v>
+        <v>288</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4962,14 +4965,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>287</v>
+        <v>17</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4979,14 +4982,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>12</v>
+        <v>301</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4995,14 +4998,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>80</v>
+        <v>288</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5012,11 +5015,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>12</v>
@@ -5035,7 +5038,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5045,11 +5048,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>306</v>
+        <v>276</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>307</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>12</v>
@@ -5061,7 +5064,7 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
@@ -5078,14 +5081,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>221</v>
+        <v>307</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>289</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>192</v>
+        <v>12</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5101,7 +5104,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>192</v>
+        <v>17</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5111,14 +5114,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>275</v>
+        <v>221</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>12</v>
+        <v>192</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5134,7 +5137,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>17</v>
+        <v>192</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5144,11 +5147,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>311</v>
+        <v>276</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>312</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>12</v>
@@ -5160,14 +5163,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>250</v>
+        <v>17</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5177,14 +5180,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>146</v>
+        <v>312</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>220</v>
+        <v>12</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5193,14 +5196,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>161</v>
+        <v>252</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5210,49 +5213,82 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>61</v>
+        <v>146</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
+        <v>315</v>
+      </c>
+      <c t="s" r="Q116" s="12">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="A117" s="7">
+        <v>111</v>
+      </c>
+      <c r="B117" s="7"/>
+      <c t="s" r="C117" s="8">
         <v>316</v>
       </c>
-      <c t="s" r="Q116" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="117" ht="25.5" customHeight="1">
-      <c r="P117" s="13">
-        <v>5661.5100000000002</v>
-      </c>
-      <c r="Q117" s="13"/>
-    </row>
-    <row r="118" ht="16.5" customHeight="1">
-      <c t="s" r="A118" s="14">
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c t="s" r="H117" s="9">
+        <v>161</v>
+      </c>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c t="s" r="L117" s="10">
+        <v>44</v>
+      </c>
+      <c r="M117" s="10"/>
+      <c t="s" r="N117" s="8">
+        <v>61</v>
+      </c>
+      <c r="O117" s="8"/>
+      <c t="s" r="P117" s="11">
         <v>317</v>
       </c>
-      <c r="B118" s="14"/>
-      <c r="C118" s="14"/>
-      <c r="D118" s="14"/>
-      <c r="E118" s="14"/>
-      <c r="F118" s="14"/>
-      <c t="s" r="G118" s="15">
+      <c t="s" r="Q117" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="118" ht="24.75" customHeight="1">
+      <c r="P118" s="13">
+        <v>5692.5100000000002</v>
+      </c>
+      <c r="Q118" s="13"/>
+    </row>
+    <row r="119" ht="16.5" customHeight="1">
+      <c t="s" r="A119" s="14">
         <v>318</v>
       </c>
-      <c r="H118" s="15"/>
-      <c r="I118" s="15"/>
-      <c r="J118" s="16"/>
-      <c t="s" r="K118" s="17">
+      <c r="B119" s="14"/>
+      <c r="C119" s="14"/>
+      <c r="D119" s="14"/>
+      <c r="E119" s="14"/>
+      <c r="F119" s="14"/>
+      <c t="s" r="G119" s="15">
         <v>319</v>
       </c>
-      <c r="L118" s="17"/>
-      <c r="M118" s="17"/>
-      <c r="N118" s="17"/>
-      <c r="O118" s="17"/>
-      <c r="P118" s="17"/>
-      <c r="Q118" s="17"/>
+      <c r="H119" s="15"/>
+      <c r="I119" s="15"/>
+      <c r="J119" s="16"/>
+      <c t="s" r="K119" s="17">
+        <v>320</v>
+      </c>
+      <c r="L119" s="17"/>
+      <c r="M119" s="17"/>
+      <c r="N119" s="17"/>
+      <c r="O119" s="17"/>
+      <c r="P119" s="17"/>
+      <c r="Q119" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="562">
+  <mergeCells count="567">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5811,10 +5847,15 @@
     <mergeCell ref="H116:K116"/>
     <mergeCell ref="L116:M116"/>
     <mergeCell ref="N116:O116"/>
-    <mergeCell ref="P117:Q117"/>
-    <mergeCell ref="A118:F118"/>
-    <mergeCell ref="G118:I118"/>
-    <mergeCell ref="K118:Q118"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="H117:K117"/>
+    <mergeCell ref="L117:M117"/>
+    <mergeCell ref="N117:O117"/>
+    <mergeCell ref="P118:Q118"/>
+    <mergeCell ref="A119:F119"/>
+    <mergeCell ref="G119:I119"/>
+    <mergeCell ref="K119:Q119"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-28_00-00.xlsx
+++ b/DaySale_2025-08-28_00-00.xlsx
@@ -551,6 +551,15 @@
     <t>59.4000</t>
   </si>
   <si>
+    <t>HEPAMARIN 140MG 30 CAPSULE</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>24.7500</t>
+  </si>
+  <si>
     <t>HERO VITAMIN DROPS</t>
   </si>
   <si>
@@ -600,6 +609,15 @@
   </si>
   <si>
     <t>198.0000</t>
+  </si>
+  <si>
+    <t>LOLAWEST 3GM 6 SACHETS</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>96.0000</t>
   </si>
   <si>
     <t>MILGA 40 TABLETS</t>
@@ -3322,13 +3340,13 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
@@ -3336,10 +3354,10 @@
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>67</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3348,28 +3366,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>184</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3421,13 +3439,13 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
@@ -3435,7 +3453,7 @@
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>58</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3447,14 +3465,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3464,14 +3482,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>61</v>
+        <v>192</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3480,31 +3498,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>192</v>
+        <v>24</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>193</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>65</v>
+        <v>24</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3520,7 +3538,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>17</v>
+        <v>195</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3530,14 +3548,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>195</v>
+        <v>22</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
         <v>196</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>65</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3553,7 +3571,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3563,14 +3581,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>123</v>
+        <v>198</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3579,14 +3597,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3596,14 +3614,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3612,28 +3630,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>36</v>
+        <v>123</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>24</v>
@@ -3645,14 +3663,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3662,11 +3680,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>139</v>
+        <v>206</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>24</v>
@@ -3678,14 +3696,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3695,14 +3713,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>207</v>
+        <v>36</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3711,14 +3729,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>210</v>
+        <v>26</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3728,14 +3746,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>211</v>
+        <v>139</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3744,31 +3762,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3777,14 +3795,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>216</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3801,7 +3819,7 @@
         <v>218</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>24</v>
+        <v>39</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3817,7 +3835,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>220</v>
+        <v>52</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3827,14 +3845,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3843,28 +3861,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>123</v>
+        <v>223</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>24</v>
@@ -3876,14 +3894,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>24</v>
+        <v>226</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3893,11 +3911,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>82</v>
+        <v>227</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
@@ -3909,14 +3927,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>192</v>
+        <v>21</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3926,14 +3944,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>227</v>
+        <v>123</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3942,14 +3960,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3959,11 +3977,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>229</v>
+        <v>82</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>105</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -3975,31 +3993,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>231</v>
+        <v>195</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>233</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>50</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4029,7 +4047,7 @@
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>236</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>12</v>
@@ -4041,14 +4059,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>17</v>
+        <v>237</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4065,7 +4083,7 @@
         <v>239</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>12</v>
+        <v>50</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4081,7 +4099,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>210</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4098,7 +4116,7 @@
         <v>242</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4128,7 +4146,7 @@
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>198</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>12</v>
@@ -4140,14 +4158,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>118</v>
+        <v>216</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4157,14 +4175,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>123</v>
+        <v>247</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>124</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>24</v>
+        <v>39</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4173,14 +4191,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>192</v>
+        <v>17</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4190,11 +4208,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>105</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>12</v>
@@ -4206,14 +4224,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>118</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4223,14 +4241,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>248</v>
+        <v>123</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>249</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4239,14 +4257,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>195</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4256,14 +4274,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>189</v>
+        <v>235</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>251</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>252</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4279,7 +4297,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>192</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4289,11 +4307,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>69</v>
+        <v>254</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>70</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>12</v>
@@ -4305,14 +4323,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4322,14 +4340,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>104</v>
+        <v>192</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>105</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>24</v>
+        <v>258</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4338,14 +4356,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>161</v>
+        <v>195</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4355,11 +4373,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
@@ -4371,14 +4389,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>192</v>
+        <v>24</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4388,11 +4406,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>257</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>24</v>
@@ -4404,14 +4422,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>259</v>
+        <v>161</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4421,11 +4439,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>183</v>
+        <v>86</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>184</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>12</v>
@@ -4437,14 +4455,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>56</v>
+        <v>195</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4454,14 +4472,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>128</v>
+        <v>22</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4470,14 +4488,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>12</v>
+        <v>265</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4487,11 +4505,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>66</v>
+        <v>186</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>12</v>
@@ -4503,14 +4521,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4520,14 +4538,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>264</v>
+        <v>128</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>203</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4536,14 +4554,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4553,14 +4571,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>266</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4569,14 +4587,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>268</v>
+        <v>12</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4586,11 +4604,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>248</v>
+        <v>270</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>249</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>12</v>
@@ -4602,14 +4620,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4619,14 +4637,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>248</v>
+        <v>120</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>220</v>
+        <v>39</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4635,14 +4653,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>17</v>
+        <v>274</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4652,14 +4670,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>65</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4668,31 +4686,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>274</v>
+        <v>17</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>201</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>12</v>
+        <v>226</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4701,31 +4719,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>259</v>
+        <v>17</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>276</v>
+        <v>254</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>12</v>
+        <v>65</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4734,14 +4752,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4751,11 +4769,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>12</v>
@@ -4767,14 +4785,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4788,10 +4806,10 @@
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>76</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>65</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4800,14 +4818,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>80</v>
+        <v>285</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4817,11 +4835,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>282</v>
+        <v>227</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>284</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>12</v>
@@ -4833,14 +4851,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>161</v>
+        <v>287</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4850,11 +4868,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>189</v>
+        <v>288</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>286</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>65</v>
@@ -4866,14 +4884,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>288</v>
+        <v>80</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4883,7 +4901,7 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
@@ -4906,7 +4924,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>17</v>
+        <v>161</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4916,14 +4934,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>292</v>
+        <v>192</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>294</v>
+        <v>65</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4932,14 +4950,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>17</v>
+        <v>294</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4949,14 +4967,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>288</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4965,7 +4983,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -4982,14 +5000,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
+        <v>299</v>
+      </c>
+      <c t="s" r="Q109" s="12">
         <v>300</v>
-      </c>
-      <c t="s" r="Q109" s="12">
-        <v>301</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4998,14 +5016,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>288</v>
+        <v>17</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5015,14 +5033,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>12</v>
+        <v>294</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5031,14 +5049,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5048,14 +5066,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>276</v>
+        <v>305</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>277</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>12</v>
+        <v>307</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5064,14 +5082,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>17</v>
+        <v>294</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5081,11 +5099,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>12</v>
@@ -5097,14 +5115,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5114,14 +5132,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>221</v>
+        <v>282</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>192</v>
+        <v>12</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5130,14 +5148,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>192</v>
+        <v>17</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5147,11 +5165,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>276</v>
+        <v>313</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>277</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>12</v>
@@ -5163,7 +5181,7 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
@@ -5180,14 +5198,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>312</v>
+        <v>227</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>313</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>12</v>
+        <v>195</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5196,14 +5214,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>252</v>
+        <v>195</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5213,14 +5231,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>146</v>
+        <v>282</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>315</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>220</v>
+        <v>12</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5229,14 +5247,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>161</v>
+        <v>17</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5246,49 +5264,115 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>61</v>
+        <v>318</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
-      <c r="P118" s="13">
-        <v>5692.5100000000002</v>
-      </c>
-      <c r="Q118" s="13"/>
-    </row>
-    <row r="119" ht="16.5" customHeight="1">
-      <c t="s" r="A119" s="14">
-        <v>318</v>
-      </c>
-      <c r="B119" s="14"/>
-      <c r="C119" s="14"/>
-      <c r="D119" s="14"/>
-      <c r="E119" s="14"/>
-      <c r="F119" s="14"/>
-      <c t="s" r="G119" s="15">
-        <v>319</v>
-      </c>
-      <c r="H119" s="15"/>
-      <c r="I119" s="15"/>
-      <c r="J119" s="16"/>
-      <c t="s" r="K119" s="17">
+      <c r="A118" s="7">
+        <v>112</v>
+      </c>
+      <c r="B118" s="7"/>
+      <c t="s" r="C118" s="8">
         <v>320</v>
       </c>
-      <c r="L119" s="17"/>
-      <c r="M119" s="17"/>
-      <c r="N119" s="17"/>
-      <c r="O119" s="17"/>
-      <c r="P119" s="17"/>
-      <c r="Q119" s="17"/>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c t="s" r="H118" s="9">
+        <v>258</v>
+      </c>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c t="s" r="L118" s="10">
+        <v>44</v>
+      </c>
+      <c r="M118" s="10"/>
+      <c t="s" r="N118" s="8">
+        <v>146</v>
+      </c>
+      <c r="O118" s="8"/>
+      <c t="s" r="P118" s="11">
+        <v>321</v>
+      </c>
+      <c t="s" r="Q118" s="12">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="119" ht="25.5" customHeight="1">
+      <c r="A119" s="7">
+        <v>113</v>
+      </c>
+      <c r="B119" s="7"/>
+      <c t="s" r="C119" s="8">
+        <v>322</v>
+      </c>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c t="s" r="H119" s="9">
+        <v>161</v>
+      </c>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c t="s" r="L119" s="10">
+        <v>44</v>
+      </c>
+      <c r="M119" s="10"/>
+      <c t="s" r="N119" s="8">
+        <v>61</v>
+      </c>
+      <c r="O119" s="8"/>
+      <c t="s" r="P119" s="11">
+        <v>323</v>
+      </c>
+      <c t="s" r="Q119" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="120" ht="24.75" customHeight="1">
+      <c r="P120" s="13">
+        <v>5813.2600000000002</v>
+      </c>
+      <c r="Q120" s="13"/>
+    </row>
+    <row r="121" ht="16.5" customHeight="1">
+      <c t="s" r="A121" s="14">
+        <v>324</v>
+      </c>
+      <c r="B121" s="14"/>
+      <c r="C121" s="14"/>
+      <c r="D121" s="14"/>
+      <c r="E121" s="14"/>
+      <c r="F121" s="14"/>
+      <c t="s" r="G121" s="15">
+        <v>325</v>
+      </c>
+      <c r="H121" s="15"/>
+      <c r="I121" s="15"/>
+      <c r="J121" s="16"/>
+      <c t="s" r="K121" s="17">
+        <v>326</v>
+      </c>
+      <c r="L121" s="17"/>
+      <c r="M121" s="17"/>
+      <c r="N121" s="17"/>
+      <c r="O121" s="17"/>
+      <c r="P121" s="17"/>
+      <c r="Q121" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="567">
+  <mergeCells count="577">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5852,10 +5936,20 @@
     <mergeCell ref="H117:K117"/>
     <mergeCell ref="L117:M117"/>
     <mergeCell ref="N117:O117"/>
-    <mergeCell ref="P118:Q118"/>
-    <mergeCell ref="A119:F119"/>
-    <mergeCell ref="G119:I119"/>
-    <mergeCell ref="K119:Q119"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="H118:K118"/>
+    <mergeCell ref="L118:M118"/>
+    <mergeCell ref="N118:O118"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="H119:K119"/>
+    <mergeCell ref="L119:M119"/>
+    <mergeCell ref="N119:O119"/>
+    <mergeCell ref="P120:Q120"/>
+    <mergeCell ref="A121:F121"/>
+    <mergeCell ref="G121:I121"/>
+    <mergeCell ref="K121:Q121"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-28_00-00.xlsx
+++ b/DaySale_2025-08-28_00-00.xlsx
@@ -983,7 +983,7 @@
     <t>120.0000</t>
   </si>
   <si>
-    <t>Thursday, 28 August, 2025 10:55 PM</t>
+    <t>Thursday, 28 August, 2025 11:01 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-28_00-00.xlsx
+++ b/DaySale_2025-08-28_00-00.xlsx
@@ -224,6 +224,15 @@
     <t>50.0000</t>
   </si>
   <si>
+    <t>BRUFEN 600MG 30 TAB</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>32.6700</t>
+  </si>
+  <si>
     <t xml:space="preserve">CALDIN CK  TAB</t>
   </si>
   <si>
@@ -983,7 +992,7 @@
     <t>120.0000</t>
   </si>
   <si>
-    <t>Thursday, 28 August, 2025 11:01 PM</t>
+    <t>Thursday, 28 August, 2025 11:05 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2119,13 +2128,13 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -2152,13 +2161,13 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -2169,7 +2178,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2185,7 +2194,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2195,14 +2204,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>50</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2211,14 +2220,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2228,14 +2237,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2244,14 +2253,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2261,14 +2270,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2284,7 +2293,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2294,14 +2303,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2310,14 +2319,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>24</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2334,7 +2343,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2350,7 +2359,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2383,7 +2392,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2393,11 +2402,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>24</v>
@@ -2409,14 +2418,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2426,14 +2435,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2442,14 +2451,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2466,7 +2475,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2482,7 +2491,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2492,14 +2501,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>24</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2508,14 +2517,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>17</v>
+        <v>106</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2532,7 +2541,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2548,7 +2557,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>110</v>
+        <v>17</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2558,14 +2567,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2574,14 +2583,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2591,14 +2600,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>19</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2614,7 +2623,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>50</v>
+        <v>117</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2624,14 +2633,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>22</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>118</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2647,7 +2656,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2657,14 +2666,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>22</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
+        <v>120</v>
+      </c>
+      <c t="s" r="Q38" s="12">
         <v>121</v>
-      </c>
-      <c t="s" r="Q38" s="12">
-        <v>24</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2680,7 +2689,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2713,7 +2722,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2723,11 +2732,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>92</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>93</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>24</v>
@@ -2739,14 +2748,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2756,14 +2765,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2772,14 +2781,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2789,11 +2798,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>78</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2845,7 +2854,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2862,7 +2871,7 @@
         <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2878,7 +2887,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2888,14 +2897,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2904,31 +2913,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>118</v>
+        <v>52</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>63</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2944,24 +2953,24 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>39</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2987,14 +2996,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>60</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3003,14 +3012,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>39</v>
+        <v>148</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3027,7 +3036,7 @@
         <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>24</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3043,7 +3052,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3076,13 +3085,13 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -3109,13 +3118,13 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
@@ -3126,7 +3135,7 @@
         <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3142,7 +3151,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>161</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3152,11 +3161,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -3168,14 +3177,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>52</v>
+        <v>164</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3192,7 +3201,7 @@
         <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3208,7 +3217,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3225,7 +3234,7 @@
         <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>50</v>
+        <v>24</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3241,7 +3250,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>171</v>
+        <v>17</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3251,14 +3260,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>63</v>
+        <v>50</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3267,14 +3276,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>174</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3291,7 +3300,7 @@
         <v>176</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>63</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3307,13 +3316,13 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
@@ -3324,7 +3333,7 @@
         <v>179</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3340,13 +3349,13 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
@@ -3373,13 +3382,13 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
@@ -3387,10 +3396,10 @@
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>67</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3399,28 +3408,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>187</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3472,13 +3481,13 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
@@ -3486,7 +3495,7 @@
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>58</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3498,14 +3507,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3515,14 +3524,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>61</v>
+        <v>195</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3531,31 +3540,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>195</v>
+        <v>24</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>196</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>65</v>
+        <v>24</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3571,7 +3580,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>17</v>
+        <v>198</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3581,14 +3590,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>198</v>
+        <v>22</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
         <v>199</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>65</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3604,7 +3613,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3637,7 +3646,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3647,14 +3656,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>123</v>
+        <v>204</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3663,7 +3672,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3680,7 +3689,7 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
@@ -3703,21 +3712,21 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>36</v>
+        <v>209</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>24</v>
@@ -3729,28 +3738,28 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>139</v>
+        <v>36</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>24</v>
@@ -3762,31 +3771,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>213</v>
+        <v>142</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
         <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3802,24 +3811,24 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>216</v>
+        <v>17</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3828,14 +3837,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>52</v>
+        <v>219</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3852,7 +3861,7 @@
         <v>221</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>24</v>
+        <v>39</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3868,7 +3877,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3901,7 +3910,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>226</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3911,14 +3920,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3927,31 +3936,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>21</v>
+        <v>229</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>123</v>
+        <v>230</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3960,31 +3969,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>82</v>
+        <v>126</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3993,28 +4002,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>195</v>
+        <v>24</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>233</v>
+        <v>85</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
@@ -4026,28 +4035,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>198</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>105</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>12</v>
@@ -4059,14 +4068,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>237</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4080,10 +4089,10 @@
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>239</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>50</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4092,14 +4101,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>240</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4116,7 +4125,7 @@
         <v>242</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>50</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4132,7 +4141,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4165,7 +4174,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>216</v>
+        <v>17</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4182,7 +4191,7 @@
         <v>248</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4198,7 +4207,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>17</v>
+        <v>219</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4212,10 +4221,10 @@
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>204</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4224,14 +4233,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>118</v>
+        <v>17</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4241,14 +4250,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>123</v>
+        <v>253</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>124</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4257,14 +4266,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>195</v>
+        <v>121</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4274,14 +4283,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>235</v>
+        <v>126</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4290,14 +4299,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>198</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4307,11 +4316,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>255</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>12</v>
@@ -4340,14 +4349,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>192</v>
+        <v>257</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>258</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4363,7 +4372,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>195</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4373,14 +4382,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>69</v>
+        <v>195</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>70</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>12</v>
+        <v>261</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4389,14 +4398,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>24</v>
+        <v>198</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4406,14 +4415,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4422,14 +4431,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>161</v>
+        <v>24</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4439,14 +4448,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4455,14 +4464,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>195</v>
+        <v>164</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4472,14 +4481,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>263</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4488,14 +4497,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>265</v>
+        <v>198</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4505,14 +4514,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>186</v>
+        <v>22</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4521,14 +4530,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>56</v>
+        <v>268</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4538,14 +4547,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>128</v>
+        <v>189</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>267</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4554,14 +4563,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4571,14 +4580,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>66</v>
+        <v>131</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>218</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4587,7 +4596,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4604,11 +4613,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>270</v>
+        <v>66</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>12</v>
@@ -4620,14 +4629,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4637,14 +4646,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>120</v>
+        <v>273</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>272</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4653,14 +4662,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>274</v>
+        <v>26</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4670,14 +4679,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>254</v>
+        <v>123</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4686,14 +4695,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>17</v>
+        <v>277</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4703,14 +4712,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>226</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4719,7 +4728,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4736,14 +4745,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>65</v>
+        <v>229</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4752,31 +4761,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>280</v>
+        <v>17</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>233</v>
+        <v>257</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>207</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>12</v>
+        <v>65</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4785,14 +4794,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>265</v>
+        <v>283</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4802,11 +4811,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>282</v>
+        <v>236</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>283</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>12</v>
@@ -4825,7 +4834,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4835,11 +4844,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>227</v>
+        <v>285</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>228</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>12</v>
@@ -4851,14 +4860,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4868,14 +4877,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>288</v>
+        <v>230</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>76</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>65</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4891,7 +4900,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>80</v>
+        <v>290</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4901,14 +4910,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>290</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>12</v>
+        <v>65</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4917,14 +4926,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>161</v>
+        <v>83</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4934,14 +4943,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>192</v>
+        <v>291</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>65</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4950,14 +4959,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>294</v>
+        <v>164</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4967,14 +4976,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>295</v>
+        <v>195</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>12</v>
+        <v>65</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4983,14 +4992,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>17</v>
+        <v>297</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5007,7 +5016,7 @@
         <v>299</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>300</v>
+        <v>12</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5016,7 +5025,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5033,14 +5042,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
+        <v>302</v>
+      </c>
+      <c t="s" r="Q110" s="12">
         <v>303</v>
-      </c>
-      <c t="s" r="Q110" s="12">
-        <v>294</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5073,7 +5082,7 @@
         <v>306</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>307</v>
+        <v>297</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5082,14 +5091,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>294</v>
+        <v>17</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5099,14 +5108,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
+        <v>309</v>
+      </c>
+      <c t="s" r="Q112" s="12">
         <v>310</v>
-      </c>
-      <c t="s" r="Q112" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5122,7 +5131,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>80</v>
+        <v>297</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5132,11 +5141,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>282</v>
+        <v>312</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>283</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>12</v>
@@ -5148,14 +5157,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5165,11 +5174,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>313</v>
+        <v>285</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>314</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>12</v>
@@ -5198,14 +5207,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>227</v>
+        <v>316</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>296</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>195</v>
+        <v>12</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5214,14 +5223,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>195</v>
+        <v>17</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5231,14 +5240,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>282</v>
+        <v>230</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>12</v>
+        <v>198</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5247,14 +5256,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>17</v>
+        <v>198</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5264,11 +5273,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>318</v>
+        <v>285</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>319</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>12</v>
@@ -5287,7 +5296,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>258</v>
+        <v>17</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5297,14 +5306,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>146</v>
+        <v>321</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>226</v>
+        <v>12</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5313,14 +5322,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>161</v>
+        <v>261</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5330,49 +5339,82 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>61</v>
+        <v>149</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>12</v>
+        <v>229</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
-      <c r="P120" s="13">
-        <v>5813.2600000000002</v>
-      </c>
-      <c r="Q120" s="13"/>
-    </row>
-    <row r="121" ht="16.5" customHeight="1">
-      <c t="s" r="A121" s="14">
-        <v>324</v>
-      </c>
-      <c r="B121" s="14"/>
-      <c r="C121" s="14"/>
-      <c r="D121" s="14"/>
-      <c r="E121" s="14"/>
-      <c r="F121" s="14"/>
-      <c t="s" r="G121" s="15">
+      <c r="A120" s="7">
+        <v>114</v>
+      </c>
+      <c r="B120" s="7"/>
+      <c t="s" r="C120" s="8">
         <v>325</v>
       </c>
-      <c r="H121" s="15"/>
-      <c r="I121" s="15"/>
-      <c r="J121" s="16"/>
-      <c t="s" r="K121" s="17">
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c t="s" r="H120" s="9">
+        <v>164</v>
+      </c>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c t="s" r="L120" s="10">
+        <v>44</v>
+      </c>
+      <c r="M120" s="10"/>
+      <c t="s" r="N120" s="8">
+        <v>61</v>
+      </c>
+      <c r="O120" s="8"/>
+      <c t="s" r="P120" s="11">
         <v>326</v>
       </c>
-      <c r="L121" s="17"/>
-      <c r="M121" s="17"/>
-      <c r="N121" s="17"/>
-      <c r="O121" s="17"/>
-      <c r="P121" s="17"/>
-      <c r="Q121" s="17"/>
+      <c t="s" r="Q120" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="121" ht="25.5" customHeight="1">
+      <c r="P121" s="13">
+        <v>5845.9300000000003</v>
+      </c>
+      <c r="Q121" s="13"/>
+    </row>
+    <row r="122" ht="16.5" customHeight="1">
+      <c t="s" r="A122" s="14">
+        <v>327</v>
+      </c>
+      <c r="B122" s="14"/>
+      <c r="C122" s="14"/>
+      <c r="D122" s="14"/>
+      <c r="E122" s="14"/>
+      <c r="F122" s="14"/>
+      <c t="s" r="G122" s="15">
+        <v>328</v>
+      </c>
+      <c r="H122" s="15"/>
+      <c r="I122" s="15"/>
+      <c r="J122" s="16"/>
+      <c t="s" r="K122" s="17">
+        <v>329</v>
+      </c>
+      <c r="L122" s="17"/>
+      <c r="M122" s="17"/>
+      <c r="N122" s="17"/>
+      <c r="O122" s="17"/>
+      <c r="P122" s="17"/>
+      <c r="Q122" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="577">
+  <mergeCells count="582">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5946,10 +5988,15 @@
     <mergeCell ref="H119:K119"/>
     <mergeCell ref="L119:M119"/>
     <mergeCell ref="N119:O119"/>
-    <mergeCell ref="P120:Q120"/>
-    <mergeCell ref="A121:F121"/>
-    <mergeCell ref="G121:I121"/>
-    <mergeCell ref="K121:Q121"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="H120:K120"/>
+    <mergeCell ref="L120:M120"/>
+    <mergeCell ref="N120:O120"/>
+    <mergeCell ref="P121:Q121"/>
+    <mergeCell ref="A122:F122"/>
+    <mergeCell ref="G122:I122"/>
+    <mergeCell ref="K122:Q122"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-28_00-00.xlsx
+++ b/DaySale_2025-08-28_00-00.xlsx
@@ -119,18 +119,21 @@
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
+    <t>0:5</t>
+  </si>
+  <si>
     <t>78.00</t>
   </si>
   <si>
-    <t>12.4800</t>
+    <t>24.9600</t>
+  </si>
+  <si>
+    <t>0:2</t>
   </si>
   <si>
     <t>ANTODINE 20MG 30 F.C.TAB</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>60.00</t>
   </si>
   <si>
@@ -350,9 +353,6 @@
     <t>CYANOHEPTAN 6 I.M. AMP. 2 ML</t>
   </si>
   <si>
-    <t>0:5</t>
-  </si>
-  <si>
     <t>114.00</t>
   </si>
   <si>
@@ -929,7 +929,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>22.0000</t>
+    <t>24.0000</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -956,6 +956,9 @@
     <t>صابون ديتول اوريجنيال 115 جم</t>
   </si>
   <si>
+    <t>فازلين بيور وسط</t>
+  </si>
+  <si>
     <t>قياس سكر</t>
   </si>
   <si>
@@ -971,6 +974,9 @@
     <t>كريم بانسيه</t>
   </si>
   <si>
+    <t xml:space="preserve">كريم شعر ايفا 85مل </t>
+  </si>
+  <si>
     <t>مجموعه برد</t>
   </si>
   <si>
@@ -992,7 +998,7 @@
     <t>120.0000</t>
   </si>
   <si>
-    <t>Thursday, 28 August, 2025 11:05 PM</t>
+    <t>Thursday, 28 August, 2025 11:24 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1831,7 +1837,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1841,14 +1847,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>24</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1857,7 +1863,7 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -1874,11 +1880,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>24</v>
@@ -1890,28 +1896,28 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>17</v>
@@ -1923,14 +1929,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1940,14 +1946,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1956,14 +1962,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1973,11 +1979,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>24</v>
@@ -1989,14 +1995,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -2006,11 +2012,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>24</v>
@@ -2022,14 +2028,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2039,14 +2045,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2055,14 +2061,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2072,11 +2078,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>24</v>
@@ -2088,28 +2094,28 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>12</v>
@@ -2121,7 +2127,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -2138,11 +2144,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>24</v>
@@ -2154,7 +2160,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -2167,15 +2173,15 @@
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>24</v>
@@ -2187,14 +2193,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2204,11 +2210,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>12</v>
@@ -2220,14 +2226,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2237,14 +2243,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2253,14 +2259,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2286,7 +2292,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -2303,11 +2309,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>24</v>
@@ -2319,14 +2325,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2336,11 +2342,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
@@ -2352,7 +2358,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -2369,11 +2375,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>24</v>
@@ -2385,7 +2391,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2402,11 +2408,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>24</v>
@@ -2418,14 +2424,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2435,11 +2441,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>24</v>
@@ -2451,14 +2457,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2468,11 +2474,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -2484,7 +2490,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2501,11 +2507,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>39</v>
@@ -2517,14 +2523,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2534,11 +2540,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>24</v>
@@ -2550,7 +2556,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2567,11 +2573,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -2583,14 +2589,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>113</v>
+        <v>36</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2656,7 +2662,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2765,11 +2771,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>24</v>
@@ -2798,11 +2804,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2920,7 +2926,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2959,7 +2965,7 @@
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -2970,7 +2976,7 @@
         <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3036,7 +3042,7 @@
         <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3118,13 +3124,13 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
@@ -3217,7 +3223,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3267,7 +3273,7 @@
         <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3300,7 +3306,7 @@
         <v>176</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3355,7 +3361,7 @@
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
@@ -3382,7 +3388,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3421,7 +3427,7 @@
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
@@ -3429,7 +3435,7 @@
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3520,7 +3526,7 @@
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
@@ -3528,7 +3534,7 @@
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3553,15 +3559,15 @@
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>24</v>
@@ -3597,7 +3603,7 @@
         <v>199</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3679,7 +3685,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3712,7 +3718,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3745,17 +3751,17 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
@@ -3817,7 +3823,7 @@
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
@@ -3877,7 +3883,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3982,7 +3988,7 @@
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
@@ -4019,7 +4025,7 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
@@ -4048,7 +4054,7 @@
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
@@ -4089,7 +4095,7 @@
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -4125,7 +4131,7 @@
         <v>242</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4320,7 +4326,7 @@
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>12</v>
@@ -4415,11 +4421,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>12</v>
@@ -4448,11 +4454,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>24</v>
@@ -4481,11 +4487,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>12</v>
@@ -4570,7 +4576,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4613,7 +4619,7 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
@@ -4785,7 +4791,7 @@
         <v>281</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4807,7 +4813,7 @@
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
@@ -4840,7 +4846,7 @@
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
@@ -4873,7 +4879,7 @@
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
@@ -4906,7 +4912,7 @@
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
@@ -4914,10 +4920,10 @@
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4933,13 +4939,13 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
@@ -4972,7 +4978,7 @@
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
@@ -4983,7 +4989,7 @@
         <v>295</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5005,7 +5011,7 @@
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
@@ -5038,7 +5044,7 @@
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
@@ -5071,7 +5077,7 @@
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
@@ -5082,7 +5088,7 @@
         <v>306</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>297</v>
+        <v>100</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5104,7 +5110,7 @@
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
@@ -5137,7 +5143,7 @@
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
@@ -5164,13 +5170,13 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
@@ -5197,21 +5203,21 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>17</v>
+        <v>261</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>316</v>
+        <v>285</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>317</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>12</v>
@@ -5223,7 +5229,7 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
@@ -5236,18 +5242,18 @@
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>230</v>
+        <v>317</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>299</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>198</v>
+        <v>12</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5263,24 +5269,24 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>198</v>
+        <v>17</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>285</v>
+        <v>230</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>12</v>
+        <v>198</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5296,21 +5302,21 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>17</v>
+        <v>198</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>321</v>
+        <v>285</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>322</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>12</v>
@@ -5322,7 +5328,7 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
@@ -5335,18 +5341,18 @@
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>149</v>
+        <v>298</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>324</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>229</v>
+        <v>12</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5355,66 +5361,132 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>164</v>
+        <v>17</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>61</v>
+        <v>323</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
+        <v>324</v>
+      </c>
+      <c t="s" r="Q120" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="121" ht="25.5" customHeight="1">
+      <c r="A121" s="7">
+        <v>115</v>
+      </c>
+      <c r="B121" s="7"/>
+      <c t="s" r="C121" s="8">
+        <v>325</v>
+      </c>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c t="s" r="H121" s="9">
+        <v>261</v>
+      </c>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
+      <c t="s" r="L121" s="10">
+        <v>45</v>
+      </c>
+      <c r="M121" s="10"/>
+      <c t="s" r="N121" s="8">
+        <v>149</v>
+      </c>
+      <c r="O121" s="8"/>
+      <c t="s" r="P121" s="11">
         <v>326</v>
       </c>
-      <c t="s" r="Q120" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="121" ht="25.5" customHeight="1">
-      <c r="P121" s="13">
-        <v>5845.9300000000003</v>
-      </c>
-      <c r="Q121" s="13"/>
-    </row>
-    <row r="122" ht="16.5" customHeight="1">
-      <c t="s" r="A122" s="14">
+      <c t="s" r="Q121" s="12">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="122" ht="25.5" customHeight="1">
+      <c r="A122" s="7">
+        <v>116</v>
+      </c>
+      <c r="B122" s="7"/>
+      <c t="s" r="C122" s="8">
         <v>327</v>
       </c>
-      <c r="B122" s="14"/>
-      <c r="C122" s="14"/>
-      <c r="D122" s="14"/>
-      <c r="E122" s="14"/>
-      <c r="F122" s="14"/>
-      <c t="s" r="G122" s="15">
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c t="s" r="H122" s="9">
+        <v>164</v>
+      </c>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+      <c t="s" r="L122" s="10">
+        <v>45</v>
+      </c>
+      <c r="M122" s="10"/>
+      <c t="s" r="N122" s="8">
+        <v>62</v>
+      </c>
+      <c r="O122" s="8"/>
+      <c t="s" r="P122" s="11">
         <v>328</v>
       </c>
-      <c r="H122" s="15"/>
-      <c r="I122" s="15"/>
-      <c r="J122" s="16"/>
-      <c t="s" r="K122" s="17">
+      <c t="s" r="Q122" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="123" ht="24.75" customHeight="1">
+      <c r="P123" s="13">
+        <v>5935.4099999999999</v>
+      </c>
+      <c r="Q123" s="13"/>
+    </row>
+    <row r="124" ht="16.5" customHeight="1">
+      <c t="s" r="A124" s="14">
         <v>329</v>
       </c>
-      <c r="L122" s="17"/>
-      <c r="M122" s="17"/>
-      <c r="N122" s="17"/>
-      <c r="O122" s="17"/>
-      <c r="P122" s="17"/>
-      <c r="Q122" s="17"/>
+      <c r="B124" s="14"/>
+      <c r="C124" s="14"/>
+      <c r="D124" s="14"/>
+      <c r="E124" s="14"/>
+      <c r="F124" s="14"/>
+      <c t="s" r="G124" s="15">
+        <v>330</v>
+      </c>
+      <c r="H124" s="15"/>
+      <c r="I124" s="15"/>
+      <c r="J124" s="16"/>
+      <c t="s" r="K124" s="17">
+        <v>331</v>
+      </c>
+      <c r="L124" s="17"/>
+      <c r="M124" s="17"/>
+      <c r="N124" s="17"/>
+      <c r="O124" s="17"/>
+      <c r="P124" s="17"/>
+      <c r="Q124" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="582">
+  <mergeCells count="592">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5993,10 +6065,20 @@
     <mergeCell ref="H120:K120"/>
     <mergeCell ref="L120:M120"/>
     <mergeCell ref="N120:O120"/>
-    <mergeCell ref="P121:Q121"/>
-    <mergeCell ref="A122:F122"/>
-    <mergeCell ref="G122:I122"/>
-    <mergeCell ref="K122:Q122"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="C121:G121"/>
+    <mergeCell ref="H121:K121"/>
+    <mergeCell ref="L121:M121"/>
+    <mergeCell ref="N121:O121"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="C122:G122"/>
+    <mergeCell ref="H122:K122"/>
+    <mergeCell ref="L122:M122"/>
+    <mergeCell ref="N122:O122"/>
+    <mergeCell ref="P123:Q123"/>
+    <mergeCell ref="A124:F124"/>
+    <mergeCell ref="G124:I124"/>
+    <mergeCell ref="K124:Q124"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-28_00-00.xlsx
+++ b/DaySale_2025-08-28_00-00.xlsx
@@ -998,7 +998,7 @@
     <t>120.0000</t>
   </si>
   <si>
-    <t>Thursday, 28 August, 2025 11:24 PM</t>
+    <t>Thursday, 28 August, 2025 11:25 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-28_00-00.xlsx
+++ b/DaySale_2025-08-28_00-00.xlsx
@@ -434,6 +434,21 @@
     <t>114.0000</t>
   </si>
   <si>
+    <t>EREC 100MG 12 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>2:8</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>47.5200</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
     <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
   </si>
   <si>
@@ -461,9 +476,6 @@
     <t>24.00</t>
   </si>
   <si>
-    <t>47.5200</t>
-  </si>
-  <si>
     <t>FLOPADEX 8 MG 30 CAPSULES</t>
   </si>
   <si>
@@ -666,9 +678,6 @@
   </si>
   <si>
     <t>ONDALENZ 4 MG 5 ORODISPERSIBLE FILMS</t>
-  </si>
-  <si>
-    <t>0:4</t>
   </si>
   <si>
     <t>160.00</t>
@@ -2959,24 +2968,24 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>64</v>
+        <v>145</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2985,31 +2994,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>39</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3018,14 +3027,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3035,14 +3044,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>61</v>
+        <v>39</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3051,14 +3060,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>39</v>
+        <v>153</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3068,14 +3077,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>24</v>
+        <v>61</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3084,14 +3093,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3101,11 +3110,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>24</v>
@@ -3117,28 +3126,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>24</v>
@@ -3150,31 +3159,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3183,14 +3192,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>164</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3223,7 +3232,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>53</v>
+        <v>168</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3233,14 +3242,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3249,14 +3258,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3266,14 +3275,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>51</v>
+        <v>24</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3282,14 +3291,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>174</v>
+        <v>17</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3306,7 +3315,7 @@
         <v>176</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3322,7 +3331,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>178</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3332,14 +3341,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>64</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3348,31 +3357,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3381,28 +3390,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>24</v>
@@ -3414,31 +3423,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>68</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3447,28 +3456,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>190</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3480,7 +3489,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3497,11 +3506,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3513,28 +3522,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>59</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3546,14 +3555,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3563,14 +3572,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>62</v>
+        <v>199</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3579,31 +3588,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>198</v>
+        <v>24</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>199</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>66</v>
+        <v>24</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3612,14 +3621,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>17</v>
+        <v>202</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3629,14 +3638,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>201</v>
+        <v>22</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>66</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3645,14 +3654,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3662,11 +3671,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3678,14 +3687,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3695,14 +3704,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>126</v>
+        <v>208</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3711,7 +3720,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3728,11 +3737,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>209</v>
+        <v>126</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>24</v>
@@ -3744,28 +3753,28 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>37</v>
+        <v>213</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>24</v>
@@ -3777,28 +3786,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>142</v>
+        <v>37</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>24</v>
@@ -3810,31 +3819,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>216</v>
+        <v>147</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3843,20 +3852,20 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>219</v>
+        <v>17</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
@@ -3867,7 +3876,7 @@
         <v>221</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3883,7 +3892,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>53</v>
+        <v>145</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3900,7 +3909,7 @@
         <v>224</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>24</v>
+        <v>39</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3916,7 +3925,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3949,7 +3958,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>229</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3959,14 +3968,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3975,31 +3984,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>21</v>
+        <v>232</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>126</v>
+        <v>233</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4008,31 +4017,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>234</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4041,28 +4050,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>198</v>
+        <v>24</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>236</v>
+        <v>86</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>210</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>12</v>
@@ -4074,28 +4083,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>202</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>109</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -4107,14 +4116,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>240</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4128,10 +4137,10 @@
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>242</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>51</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4140,14 +4149,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>243</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4164,7 +4173,7 @@
         <v>245</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>51</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4180,7 +4189,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4213,7 +4222,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>219</v>
+        <v>17</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4230,7 +4239,7 @@
         <v>251</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4246,7 +4255,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>17</v>
+        <v>145</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4260,10 +4269,10 @@
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>207</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4272,14 +4281,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>121</v>
+        <v>17</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4289,14 +4298,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>126</v>
+        <v>256</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>127</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4305,14 +4314,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>198</v>
+        <v>121</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4322,14 +4331,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>238</v>
+        <v>126</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4338,14 +4347,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>12</v>
+        <v>202</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4355,11 +4364,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>258</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>12</v>
@@ -4388,14 +4397,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>195</v>
+        <v>260</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>261</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4411,7 +4420,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>198</v>
+        <v>12</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4421,14 +4430,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>70</v>
+        <v>199</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>71</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>12</v>
+        <v>264</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4437,14 +4446,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>24</v>
+        <v>202</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4454,14 +4463,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>108</v>
+        <v>70</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>109</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4470,14 +4479,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>164</v>
+        <v>24</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4487,14 +4496,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4503,14 +4512,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>198</v>
+        <v>168</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4520,14 +4529,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>266</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4536,14 +4545,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>268</v>
+        <v>202</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4553,14 +4562,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>189</v>
+        <v>22</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>190</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4569,14 +4578,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>57</v>
+        <v>271</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4586,14 +4595,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>131</v>
+        <v>193</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>270</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4602,14 +4611,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4619,14 +4628,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>67</v>
+        <v>131</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>221</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4635,7 +4644,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4652,11 +4661,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>273</v>
+        <v>67</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>12</v>
@@ -4668,14 +4677,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4685,14 +4694,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>123</v>
+        <v>276</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>275</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4701,14 +4710,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>277</v>
+        <v>26</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4718,14 +4727,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>257</v>
+        <v>123</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>258</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4734,14 +4743,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>17</v>
+        <v>280</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4751,14 +4760,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>229</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4767,7 +4776,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4784,14 +4793,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>66</v>
+        <v>232</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4800,31 +4809,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>283</v>
+        <v>17</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>210</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>12</v>
+        <v>66</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4833,14 +4842,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4850,11 +4859,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>285</v>
+        <v>239</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>286</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>12</v>
@@ -4873,7 +4882,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4883,11 +4892,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>230</v>
+        <v>288</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>231</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>12</v>
@@ -4899,14 +4908,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4916,14 +4925,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>291</v>
+        <v>233</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>80</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>66</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4939,7 +4948,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>84</v>
+        <v>293</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4949,14 +4958,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>293</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>12</v>
+        <v>66</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4965,14 +4974,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>164</v>
+        <v>84</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4982,14 +4991,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>195</v>
+        <v>294</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>66</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4998,14 +5007,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>297</v>
+        <v>168</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5015,14 +5024,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>298</v>
+        <v>199</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>12</v>
+        <v>66</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5031,14 +5040,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>17</v>
+        <v>300</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5055,7 +5064,7 @@
         <v>302</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>303</v>
+        <v>12</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5064,7 +5073,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -5081,14 +5090,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
+        <v>305</v>
+      </c>
+      <c t="s" r="Q111" s="12">
         <v>306</v>
-      </c>
-      <c t="s" r="Q111" s="12">
-        <v>100</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5121,7 +5130,7 @@
         <v>309</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>310</v>
+        <v>100</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5130,14 +5139,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>297</v>
+        <v>17</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5147,14 +5156,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
+        <v>312</v>
+      </c>
+      <c t="s" r="Q113" s="12">
         <v>313</v>
-      </c>
-      <c t="s" r="Q113" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5170,7 +5179,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>84</v>
+        <v>300</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5180,11 +5189,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>285</v>
+        <v>315</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>286</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>12</v>
@@ -5196,14 +5205,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>261</v>
+        <v>84</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5213,11 +5222,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>12</v>
@@ -5229,14 +5238,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>17</v>
+        <v>264</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5246,11 +5255,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>317</v>
+        <v>288</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>318</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>12</v>
@@ -5279,14 +5288,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>230</v>
+        <v>320</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>299</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>198</v>
+        <v>12</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5295,14 +5304,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>198</v>
+        <v>17</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5312,14 +5321,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>285</v>
+        <v>233</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>286</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>12</v>
+        <v>202</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5328,14 +5337,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>261</v>
+        <v>202</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5345,11 +5354,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>12</v>
@@ -5361,14 +5370,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>17</v>
+        <v>264</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5378,11 +5387,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>323</v>
+        <v>301</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>324</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>12</v>
@@ -5401,7 +5410,7 @@
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>261</v>
+        <v>17</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5411,14 +5420,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>149</v>
+        <v>326</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>229</v>
+        <v>12</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5427,14 +5436,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>164</v>
+        <v>264</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5444,49 +5453,82 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>62</v>
+        <v>154</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>12</v>
+        <v>232</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
-      <c r="P123" s="13">
-        <v>5935.4099999999999</v>
-      </c>
-      <c r="Q123" s="13"/>
-    </row>
-    <row r="124" ht="16.5" customHeight="1">
-      <c t="s" r="A124" s="14">
-        <v>329</v>
-      </c>
-      <c r="B124" s="14"/>
-      <c r="C124" s="14"/>
-      <c r="D124" s="14"/>
-      <c r="E124" s="14"/>
-      <c r="F124" s="14"/>
-      <c t="s" r="G124" s="15">
+      <c r="A123" s="7">
+        <v>117</v>
+      </c>
+      <c r="B123" s="7"/>
+      <c t="s" r="C123" s="8">
         <v>330</v>
       </c>
-      <c r="H124" s="15"/>
-      <c r="I124" s="15"/>
-      <c r="J124" s="16"/>
-      <c t="s" r="K124" s="17">
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c t="s" r="H123" s="9">
+        <v>168</v>
+      </c>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+      <c r="K123" s="9"/>
+      <c t="s" r="L123" s="10">
+        <v>45</v>
+      </c>
+      <c r="M123" s="10"/>
+      <c t="s" r="N123" s="8">
+        <v>62</v>
+      </c>
+      <c r="O123" s="8"/>
+      <c t="s" r="P123" s="11">
         <v>331</v>
       </c>
-      <c r="L124" s="17"/>
-      <c r="M124" s="17"/>
-      <c r="N124" s="17"/>
-      <c r="O124" s="17"/>
-      <c r="P124" s="17"/>
-      <c r="Q124" s="17"/>
+      <c t="s" r="Q123" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="124" ht="25.5" customHeight="1">
+      <c r="P124" s="13">
+        <v>5982.9300000000003</v>
+      </c>
+      <c r="Q124" s="13"/>
+    </row>
+    <row r="125" ht="16.5" customHeight="1">
+      <c t="s" r="A125" s="14">
+        <v>332</v>
+      </c>
+      <c r="B125" s="14"/>
+      <c r="C125" s="14"/>
+      <c r="D125" s="14"/>
+      <c r="E125" s="14"/>
+      <c r="F125" s="14"/>
+      <c t="s" r="G125" s="15">
+        <v>333</v>
+      </c>
+      <c r="H125" s="15"/>
+      <c r="I125" s="15"/>
+      <c r="J125" s="16"/>
+      <c t="s" r="K125" s="17">
+        <v>334</v>
+      </c>
+      <c r="L125" s="17"/>
+      <c r="M125" s="17"/>
+      <c r="N125" s="17"/>
+      <c r="O125" s="17"/>
+      <c r="P125" s="17"/>
+      <c r="Q125" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="592">
+  <mergeCells count="597">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6075,10 +6117,15 @@
     <mergeCell ref="H122:K122"/>
     <mergeCell ref="L122:M122"/>
     <mergeCell ref="N122:O122"/>
-    <mergeCell ref="P123:Q123"/>
-    <mergeCell ref="A124:F124"/>
-    <mergeCell ref="G124:I124"/>
-    <mergeCell ref="K124:Q124"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="H123:K123"/>
+    <mergeCell ref="L123:M123"/>
+    <mergeCell ref="N123:O123"/>
+    <mergeCell ref="P124:Q124"/>
+    <mergeCell ref="A125:F125"/>
+    <mergeCell ref="G125:I125"/>
+    <mergeCell ref="K125:Q125"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-28_00-00.xlsx
+++ b/DaySale_2025-08-28_00-00.xlsx
@@ -1007,7 +1007,7 @@
     <t>120.0000</t>
   </si>
   <si>
-    <t>Thursday, 28 August, 2025 11:25 PM</t>
+    <t>Thursday, 28 August, 2025 11:26 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-28_00-00.xlsx
+++ b/DaySale_2025-08-28_00-00.xlsx
@@ -1007,7 +1007,7 @@
     <t>120.0000</t>
   </si>
   <si>
-    <t>Thursday, 28 August, 2025 11:26 PM</t>
+    <t>Thursday, 28 August, 2025 11:39 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-28_00-00.xlsx
+++ b/DaySale_2025-08-28_00-00.xlsx
@@ -119,240 +119,243 @@
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>37.4400</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>ANTODINE 20MG 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>19.8000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANTODINE20    6 AMP</t>
+  </si>
+  <si>
+    <t>3:5</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>0.0000</t>
+  </si>
+  <si>
+    <t>ATROVENT 500MCG/2ML 20 UNIT DOSE VIALS</t>
+  </si>
+  <si>
+    <t>1:8</t>
+  </si>
+  <si>
+    <t>286.00</t>
+  </si>
+  <si>
+    <t>42.9000</t>
+  </si>
+  <si>
+    <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>9.1200</t>
+  </si>
+  <si>
+    <t>AVIVAVASC 10/160MG 28 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>BECOZYME I.M./I.V. 12 AMP</t>
+  </si>
+  <si>
+    <t>1:6</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>-9.6000</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t>BETOLVEX 1MG/ML 2 AMP</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>64.00</t>
+  </si>
+  <si>
+    <t>32.0000</t>
+  </si>
+  <si>
+    <t>BINO BABY CREAM</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>BRUFEN 600MG 30 TAB</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>32.6700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CALDIN CK  TAB</t>
+  </si>
+  <si>
+    <t>158.00</t>
+  </si>
+  <si>
+    <t>79.0000</t>
+  </si>
+  <si>
+    <t>CARBAMIDE 10% CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>CATAFLAM 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>CETAFEN 30 TABS</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>22.7700</t>
+  </si>
+  <si>
+    <t>CETAL 250MG/5ML 60ML SUSP</t>
+  </si>
+  <si>
+    <t>26:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>CIPRODIAZOLE 500/500MG 20 F.C. TABS</t>
+  </si>
+  <si>
+    <t>148.00</t>
+  </si>
+  <si>
+    <t>74.0000</t>
+  </si>
+  <si>
+    <t>COLOVATIL 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>20.7900</t>
+  </si>
+  <si>
+    <t>CONCOR COR 2.5MG 30 TABLETS</t>
+  </si>
+  <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>12:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
+    <t>COSMOFER 50MG/ML FOR INF. 5 AMPS.</t>
+  </si>
+  <si>
+    <t>470.00</t>
+  </si>
+  <si>
+    <t>188.0000</t>
+  </si>
+  <si>
+    <t>COUGHSED PARACETAMOL INFANTS 12 SUPP.</t>
+  </si>
+  <si>
+    <t>9:1</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
+    <t>COVERAM 5/5MG 15 TABS.</t>
+  </si>
+  <si>
+    <t>125.00</t>
+  </si>
+  <si>
+    <t>125.0000</t>
+  </si>
+  <si>
+    <t>CYANOHEPTAN 6 I.M. AMP. 2 ML</t>
+  </si>
+  <si>
     <t>0:5</t>
   </si>
   <si>
-    <t>78.00</t>
-  </si>
-  <si>
-    <t>24.9600</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>ANTODINE 20MG 30 F.C.TAB</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>19.8000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANTODINE20    6 AMP</t>
-  </si>
-  <si>
-    <t>3:5</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>0.0000</t>
-  </si>
-  <si>
-    <t>ATROVENT 500MCG/2ML 20 UNIT DOSE VIALS</t>
-  </si>
-  <si>
-    <t>1:8</t>
-  </si>
-  <si>
-    <t>286.00</t>
-  </si>
-  <si>
-    <t>42.9000</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>57.00</t>
-  </si>
-  <si>
-    <t>9.1200</t>
-  </si>
-  <si>
-    <t>AVIVAVASC 10/160MG 28 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>1:3</t>
-  </si>
-  <si>
-    <t>140.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>BECOZYME I.M./I.V. 12 AMP</t>
-  </si>
-  <si>
-    <t>1:6</t>
-  </si>
-  <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>-9.6000</t>
-  </si>
-  <si>
-    <t>0:-1</t>
-  </si>
-  <si>
-    <t>BETOLVEX 1MG/ML 2 AMP</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>64.00</t>
-  </si>
-  <si>
-    <t>32.0000</t>
-  </si>
-  <si>
-    <t>BINO BABY CREAM</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
-    <t>BRUFEN 600MG 30 TAB</t>
-  </si>
-  <si>
-    <t>99.00</t>
-  </si>
-  <si>
-    <t>32.6700</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CALDIN CK  TAB</t>
-  </si>
-  <si>
-    <t>158.00</t>
-  </si>
-  <si>
-    <t>79.0000</t>
-  </si>
-  <si>
-    <t>CARBAMIDE 10% CREAM 30 GM</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>CATAFLAM 75MG/3ML 6 AMP.</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
-    <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
-  </si>
-  <si>
-    <t>10:0</t>
-  </si>
-  <si>
-    <t>CETAFEN 30 TABS</t>
-  </si>
-  <si>
-    <t>69.00</t>
-  </si>
-  <si>
-    <t>22.7700</t>
-  </si>
-  <si>
-    <t>CETAL 250MG/5ML 60ML SUSP</t>
-  </si>
-  <si>
-    <t>26:0</t>
-  </si>
-  <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>CIPRODIAZOLE 500/500MG 20 F.C. TABS</t>
-  </si>
-  <si>
-    <t>148.00</t>
-  </si>
-  <si>
-    <t>74.0000</t>
-  </si>
-  <si>
-    <t>COLOVATIL 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>63.00</t>
-  </si>
-  <si>
-    <t>20.7900</t>
-  </si>
-  <si>
-    <t>CONCOR COR 2.5MG 30 TABLETS</t>
-  </si>
-  <si>
-    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>12:0</t>
-  </si>
-  <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>33.0000</t>
-  </si>
-  <si>
-    <t>COSMOFER 50MG/ML FOR INF. 5 AMPS.</t>
-  </si>
-  <si>
-    <t>470.00</t>
-  </si>
-  <si>
-    <t>188.0000</t>
-  </si>
-  <si>
-    <t>COUGHSED PARACETAMOL INFANTS 12 SUPP.</t>
-  </si>
-  <si>
-    <t>9:1</t>
-  </si>
-  <si>
-    <t>42.00</t>
-  </si>
-  <si>
-    <t>21.0000</t>
-  </si>
-  <si>
-    <t>COVERAM 5/5MG 15 TABS.</t>
-  </si>
-  <si>
-    <t>125.00</t>
-  </si>
-  <si>
-    <t>125.0000</t>
-  </si>
-  <si>
-    <t>CYANOHEPTAN 6 I.M. AMP. 2 ML</t>
-  </si>
-  <si>
     <t>114.00</t>
   </si>
   <si>
@@ -446,9 +449,6 @@
     <t>47.5200</t>
   </si>
   <si>
-    <t>0:4</t>
-  </si>
-  <si>
     <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
   </si>
   <si>
@@ -938,7 +938,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>24.0000</t>
+    <t>13:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -1007,7 +1007,7 @@
     <t>120.0000</t>
   </si>
   <si>
-    <t>Thursday, 28 August, 2025 11:39 PM</t>
+    <t>Thursday, 28 August, 2025 11:40 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1879,7 +1879,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1889,11 +1889,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>24</v>
@@ -1905,20 +1905,20 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
@@ -1926,7 +1926,7 @@
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>17</v>
@@ -1938,14 +1938,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1955,14 +1955,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>51</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -2116,7 +2116,7 @@
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -2182,7 +2182,7 @@
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -2259,7 +2259,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>51</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2308,7 +2308,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2450,11 +2450,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>24</v>
@@ -2523,7 +2523,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2605,7 +2605,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>36</v>
+        <v>114</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2615,11 +2615,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>24</v>
@@ -2631,14 +2631,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2648,14 +2648,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>19</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2664,14 +2664,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2685,10 +2685,10 @@
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2697,7 +2697,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2714,11 +2714,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>24</v>
@@ -2730,7 +2730,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2747,11 +2747,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>24</v>
@@ -2763,7 +2763,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2796,7 +2796,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2829,7 +2829,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2846,11 +2846,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2862,7 +2862,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2879,11 +2879,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2895,7 +2895,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2912,11 +2912,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>24</v>
@@ -2928,7 +2928,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2945,11 +2945,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2961,14 +2961,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2978,14 +2978,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>145</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3001,13 +3001,13 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
@@ -3044,14 +3044,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
         <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3081,7 +3081,7 @@
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>61</v>
@@ -3100,7 +3100,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3172,7 +3172,7 @@
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
@@ -3315,7 +3315,7 @@
         <v>176</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>51</v>
+        <v>39</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3397,13 +3397,13 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
@@ -3469,7 +3469,7 @@
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
@@ -3568,7 +3568,7 @@
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
@@ -3601,7 +3601,7 @@
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
@@ -3727,7 +3727,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3737,7 +3737,7 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
@@ -3760,7 +3760,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3799,7 +3799,7 @@
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
@@ -3865,7 +3865,7 @@
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
@@ -3892,7 +3892,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>145</v>
+        <v>36</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3909,7 +3909,7 @@
         <v>224</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -4030,11 +4030,11 @@
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
@@ -4096,7 +4096,7 @@
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
@@ -4173,7 +4173,7 @@
         <v>245</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>51</v>
+        <v>39</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4255,7 +4255,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>145</v>
+        <v>36</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4272,7 +4272,7 @@
         <v>254</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4321,7 +4321,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4331,11 +4331,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>24</v>
@@ -4628,14 +4628,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
         <v>273</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4727,14 +4727,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
         <v>278</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4855,7 +4855,7 @@
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
@@ -4888,7 +4888,7 @@
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
@@ -4921,7 +4921,7 @@
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
@@ -4954,7 +4954,7 @@
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
@@ -4987,7 +4987,7 @@
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
@@ -5020,7 +5020,7 @@
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
@@ -5053,7 +5053,7 @@
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
@@ -5086,7 +5086,7 @@
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
@@ -5119,7 +5119,7 @@
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
@@ -5127,10 +5127,10 @@
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
+        <v>194</v>
+      </c>
+      <c t="s" r="Q112" s="12">
         <v>309</v>
-      </c>
-      <c t="s" r="Q112" s="12">
-        <v>100</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5152,7 +5152,7 @@
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
@@ -5185,7 +5185,7 @@
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
@@ -5218,7 +5218,7 @@
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
@@ -5251,7 +5251,7 @@
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
@@ -5284,7 +5284,7 @@
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
@@ -5317,7 +5317,7 @@
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
@@ -5350,7 +5350,7 @@
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
@@ -5383,7 +5383,7 @@
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
@@ -5416,7 +5416,7 @@
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
@@ -5449,7 +5449,7 @@
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
@@ -5482,7 +5482,7 @@
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
@@ -5498,7 +5498,7 @@
     </row>
     <row r="124" ht="25.5" customHeight="1">
       <c r="P124" s="13">
-        <v>5982.9300000000003</v>
+        <v>5997.4099999999999</v>
       </c>
       <c r="Q124" s="13"/>
     </row>
